--- a/data/web-repositorio.xlsx
+++ b/data/web-repositorio.xlsx
@@ -1,16 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Win 10\Downloads\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7635" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja1" sheetId="1" state="visible" r:id="rId3"/>
+    <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="0" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -22,448 +26,431 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="137">
   <si>
-    <t xml:space="preserve">CARMELITAS BARILOCHE WEB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PRODUCTOS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DISPONIBILIDAD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PRECIO UNITARIO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CATEGORÍA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FOTOS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DESCRIPCIÓN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ubicación Archivo (vínculo)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">title</t>
-  </si>
-  <si>
-    <t xml:space="preserve">stock</t>
-  </si>
-  <si>
-    <t xml:space="preserve">precio</t>
-  </si>
-  <si>
-    <t xml:space="preserve">peso</t>
-  </si>
-  <si>
-    <t xml:space="preserve">categorias</t>
-  </si>
-  <si>
-    <t xml:space="preserve">imagen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">descripcion</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ubicacion-fotos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cuero señalador</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CUERO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cuero señalador</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Realizados en cuero vacuno. Pirograbados. 15,5x7 cm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">..\..\Pictures\A TRABAJOS WEB\CUERO\SEÑALADORES\Señaladores 1\Señaladores de Cuero -1.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cuero Evangelio con estuche pirograbado</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cuero evangelio con estuche pirograbado</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Los cuatro Evangelios en formato bolsillo en su estuche de cuero vacuno pirograbado. 9x13,5 cm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">..\..\Pictures\A TRABAJOS WEB\CUERO\ESTUCHES\Cuero Evangelio con estuche pirograbado A.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Detentes - Protección del Sagrado Corazón de Jesús</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VARIOS&gt;ESCAPULARIOS Y DETENTES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Detentes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pequeña imagen del Sagrado Corazón de Jesús sobre paño rojo, con la inscripción "¡Detente! El Sagrado Corazón de Jesús está conmigo" -    5x4 cm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">..\..\Pictures\A TRABAJOS WEB\VARIOS\ESCAPULARIOS Y DETENTES\Detentes.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Escapulario chico</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Confeccionados con tela e hilo macramé . Con la imagen de la Virgen del Carmen- 3,5x2,5 cm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">..\..\Pictures\A TRABAJOS WEB\VARIOS\ESCAPULARIOS Y DETENTES\Escapulario chico.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Escapulario Grande</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Escapulario grande</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Confeccionados con tela y cola de rata- Imagen de la Virgen del Carmen y Sagrado Corazón  5,5x4 cm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">..\..\Pictures\A TRABAJOS WEB\VARIOS\ESCAPULARIOS Y DETENTES\Escapulario grande.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Estampas de Flores Nada te turbe -1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VARIOS&gt;ESTAMPAS DE FLORES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Estampas Flores Nada te turbe-1-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Señaladores en papel reciclado. Diseño artísitico con flores de Bariloche. 15x7,5 cm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">..\..\Pictures\A TRABAJOS WEB\VARIOS\ESTAMPAS FLORES\Estampas Flores Nada te turbe -1.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Estampas de Flores Nada te turbe -2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Estampas Flores Nada te turbe-2-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">..\..\Pictures\A TRABAJOS WEB\VARIOS\ESTAMPAS FLORES\Estampas Flores Nada te turbe -2.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Estampas de Flores Nada te turbe -3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Estampas Flores Nada te turbe-3-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">..\..\Pictures\A TRABAJOS WEB\VARIOS\ESTAMPAS FLORES\Estampas Flores Nada te turbe -3.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Estampas de Flores Nada te turbe -4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Estampas Flores Nada te turbe-4-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">..\..\Pictures\A TRABAJOS WEB\VARIOS\ESTAMPAS FLORES\Estampas Flores Nada te turbe -4.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Estampas de Flores Nada te turbe -5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Estampas Flores Nada te turbe-5-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">..\..\Pictures\A TRABAJOS WEB\VARIOS\ESTAMPAS FLORES\Estampas Flores Nada te turbe -5.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Madera Cuadros puntillismo Sagrada Familia -1-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MADERA&gt;CUADROS PUNTILLISMO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">madera cuadro puntillismo sgda-familia-1-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pintado a mano con técnica puntillismo. 22,5 x 19,5 cm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">..\..\Pictures\A TRABAJOS WEB\Madera\CUADROS PUNTILLISMO\Madera Cuadro Puntillismo Sgda. Familia -1.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Madera Cuadros puntillismo Sagrada Familia -2-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">madera cuadro puntillismo sgda-familia-2-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">..\..\Pictures\A TRABAJOS WEB\Madera\CUADROS PUNTILLISMO\Madera Cuadro Puntillismo Sgda. Familia -2.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Madera Cuadros puntillismo Virgencita de Luján -1-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">madera cuadro puntillismo virgencita de luján-1-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pintado a mano con técnica puntillismo, 25 x 18 cm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">..\..\Pictures\A TRABAJOS WEB\Madera\CUADROS PUNTILLISMO\Madera Cuadro Puntillismo Virgencita de Luján -1.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Madera Cuadros puntillismo Virgencita de Luján -2-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">madera cuadro puntillismo virgencita de luján-2-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">..\..\Pictures\A TRABAJOS WEB\Madera\CUADROS PUNTILLISMO\Madera Cuadro Puntillismo Virgencita de Luján -2.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Madera Corazones pintados-1-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MADERA&gt;CUNEROS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cunero colgante: Corazón pintado a mano,  con motivo infantil. 11,5 x 10,5 cm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">..\..\Pictures\A TRABAJOS WEB\Madera\CUNEROS\CORAZONES Y CRUCES\Madera Corazones pintados -1.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Madera Corazones pintados-2-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">..\..\Pictures\A TRABAJOS WEB\Madera\CUNEROS\CORAZONES Y CRUCES\Madera Corazones pintados -2.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Madera Corazones pintados-3-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">..\..\Pictures\A TRABAJOS WEB\Madera\CUNEROS\CORAZONES Y CRUCES\Madera Corazones pintados -3.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Madera Redondeles cuneritos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cunero colgante redondo.  8 cm de diámetro.  Pintado a mano - Motivo infantil -</t>
-  </si>
-  <si>
-    <t xml:space="preserve">..\..\Pictures\A TRABAJOS WEB\Madera\CUNEROS\REDONDELES\Madera Redondeles cuneritos.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Madera Cuadros Pasta piedra Virgen María -GRANDE-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MADERA&gt;CUADROS PASTA PIEDRA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Madera Cuadro Virgen María Pasta Piedra-1-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Virgen María en un diseño infantil. Pintada y modelada a mano en Pasta Piedra. 40x30 cm - 1 cm grosor de la madera</t>
-  </si>
-  <si>
-    <t xml:space="preserve">..\..\Pictures\A TRABAJOS WEB\Madera\CUADROS PASTA PIEDRA\Madera Cuadro Virgen María Pasta Piedra -1.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Madera Cuadros Pasta piedra Virgen María -MEDIO-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Madera Cuadro Virgen María Pasta Piedra-2-</t>
+    <t>CARMELITAS BARILOCHE WEB</t>
+  </si>
+  <si>
+    <t>PRODUCTOS</t>
+  </si>
+  <si>
+    <t>DISPONIBILIDAD</t>
+  </si>
+  <si>
+    <t>PRECIO UNITARIO</t>
+  </si>
+  <si>
+    <t>CATEGORÍA</t>
+  </si>
+  <si>
+    <t>FOTOS</t>
+  </si>
+  <si>
+    <t>DESCRIPCIÓN</t>
+  </si>
+  <si>
+    <t>Ubicación Archivo (vínculo)</t>
+  </si>
+  <si>
+    <t>title</t>
+  </si>
+  <si>
+    <t>stock</t>
+  </si>
+  <si>
+    <t>precio</t>
+  </si>
+  <si>
+    <t>peso</t>
+  </si>
+  <si>
+    <t>categorias</t>
+  </si>
+  <si>
+    <t>imagen</t>
+  </si>
+  <si>
+    <t>descripcion</t>
+  </si>
+  <si>
+    <t>ubicacion-fotos</t>
+  </si>
+  <si>
+    <t>Cuero señalador</t>
+  </si>
+  <si>
+    <t>CUERO</t>
+  </si>
+  <si>
+    <t>cuero señalador</t>
+  </si>
+  <si>
+    <t>Realizados en cuero vacuno. Pirograbados. 15,5x7 cm</t>
+  </si>
+  <si>
+    <t>..\..\Pictures\A TRABAJOS WEB\CUERO\SEÑALADORES\Señaladores 1\Señaladores de Cuero -1.jpg</t>
+  </si>
+  <si>
+    <t>Cuero Evangelio con estuche pirograbado</t>
+  </si>
+  <si>
+    <t>cuero evangelio con estuche pirograbado</t>
+  </si>
+  <si>
+    <t>Los cuatro Evangelios en formato bolsillo en su estuche de cuero vacuno pirograbado. 9x13,5 cm</t>
+  </si>
+  <si>
+    <t>..\..\Pictures\A TRABAJOS WEB\CUERO\ESTUCHES\Cuero Evangelio con estuche pirograbado A.jpg</t>
+  </si>
+  <si>
+    <t>Detentes - Protección del Sagrado Corazón de Jesús</t>
+  </si>
+  <si>
+    <t>VARIOS&gt;ESCAPULARIOS Y DETENTES</t>
+  </si>
+  <si>
+    <t>Detentes</t>
+  </si>
+  <si>
+    <t>Pequeña imagen del Sagrado Corazón de Jesús sobre paño rojo, con la inscripción "¡Detente! El Sagrado Corazón de Jesús está conmigo" -    5x4 cm</t>
+  </si>
+  <si>
+    <t>..\..\Pictures\A TRABAJOS WEB\VARIOS\ESCAPULARIOS Y DETENTES\Detentes.jpg</t>
+  </si>
+  <si>
+    <t>Escapulario chico</t>
+  </si>
+  <si>
+    <t>Confeccionados con tela e hilo macramé . Con la imagen de la Virgen del Carmen- 3,5x2,5 cm</t>
+  </si>
+  <si>
+    <t>..\..\Pictures\A TRABAJOS WEB\VARIOS\ESCAPULARIOS Y DETENTES\Escapulario chico.jpg</t>
+  </si>
+  <si>
+    <t>Escapulario Grande</t>
+  </si>
+  <si>
+    <t>Escapulario grande</t>
+  </si>
+  <si>
+    <t>Confeccionados con tela y cola de rata- Imagen de la Virgen del Carmen y Sagrado Corazón  5,5x4 cm</t>
+  </si>
+  <si>
+    <t>..\..\Pictures\A TRABAJOS WEB\VARIOS\ESCAPULARIOS Y DETENTES\Escapulario grande.jpg</t>
+  </si>
+  <si>
+    <t>Estampas de Flores Nada te turbe -1</t>
+  </si>
+  <si>
+    <t>VARIOS&gt;ESTAMPAS DE FLORES</t>
+  </si>
+  <si>
+    <t>Estampas Flores Nada te turbe-1-</t>
+  </si>
+  <si>
+    <t>Señaladores en papel reciclado. Diseño artísitico con flores de Bariloche. 15x7,5 cm</t>
+  </si>
+  <si>
+    <t>..\..\Pictures\A TRABAJOS WEB\VARIOS\ESTAMPAS FLORES\Estampas Flores Nada te turbe -1.jpg</t>
+  </si>
+  <si>
+    <t>Estampas de Flores Nada te turbe -2</t>
+  </si>
+  <si>
+    <t>Estampas Flores Nada te turbe-2-</t>
+  </si>
+  <si>
+    <t>..\..\Pictures\A TRABAJOS WEB\VARIOS\ESTAMPAS FLORES\Estampas Flores Nada te turbe -2.jpg</t>
+  </si>
+  <si>
+    <t>Estampas de Flores Nada te turbe -3</t>
+  </si>
+  <si>
+    <t>Estampas Flores Nada te turbe-3-</t>
+  </si>
+  <si>
+    <t>..\..\Pictures\A TRABAJOS WEB\VARIOS\ESTAMPAS FLORES\Estampas Flores Nada te turbe -3.jpg</t>
+  </si>
+  <si>
+    <t>Estampas de Flores Nada te turbe -4</t>
+  </si>
+  <si>
+    <t>Estampas Flores Nada te turbe-4-</t>
+  </si>
+  <si>
+    <t>..\..\Pictures\A TRABAJOS WEB\VARIOS\ESTAMPAS FLORES\Estampas Flores Nada te turbe -4.jpg</t>
+  </si>
+  <si>
+    <t>Estampas de Flores Nada te turbe -5</t>
+  </si>
+  <si>
+    <t>Estampas Flores Nada te turbe-5-</t>
+  </si>
+  <si>
+    <t>..\..\Pictures\A TRABAJOS WEB\VARIOS\ESTAMPAS FLORES\Estampas Flores Nada te turbe -5.jpg</t>
+  </si>
+  <si>
+    <t>Madera Cuadros puntillismo Sagrada Familia -1-</t>
+  </si>
+  <si>
+    <t>MADERA&gt;CUADROS PUNTILLISMO</t>
+  </si>
+  <si>
+    <t>madera cuadro puntillismo sgda-familia-1-</t>
+  </si>
+  <si>
+    <t>Pintado a mano con técnica puntillismo. 22,5 x 19,5 cm</t>
+  </si>
+  <si>
+    <t>..\..\Pictures\A TRABAJOS WEB\Madera\CUADROS PUNTILLISMO\Madera Cuadro Puntillismo Sgda. Familia -1.jpg</t>
+  </si>
+  <si>
+    <t>Madera Cuadros puntillismo Sagrada Familia -2-</t>
+  </si>
+  <si>
+    <t>madera cuadro puntillismo sgda-familia-2-</t>
+  </si>
+  <si>
+    <t>..\..\Pictures\A TRABAJOS WEB\Madera\CUADROS PUNTILLISMO\Madera Cuadro Puntillismo Sgda. Familia -2.jpg</t>
+  </si>
+  <si>
+    <t>Madera Cuadros puntillismo Virgencita de Luján -1-</t>
+  </si>
+  <si>
+    <t>madera cuadro puntillismo virgencita de luján-1-</t>
+  </si>
+  <si>
+    <t>Pintado a mano con técnica puntillismo, 25 x 18 cm</t>
+  </si>
+  <si>
+    <t>..\..\Pictures\A TRABAJOS WEB\Madera\CUADROS PUNTILLISMO\Madera Cuadro Puntillismo Virgencita de Luján -1.jpg</t>
+  </si>
+  <si>
+    <t>Madera Cuadros puntillismo Virgencita de Luján -2-</t>
+  </si>
+  <si>
+    <t>madera cuadro puntillismo virgencita de luján-2-</t>
+  </si>
+  <si>
+    <t>..\..\Pictures\A TRABAJOS WEB\Madera\CUADROS PUNTILLISMO\Madera Cuadro Puntillismo Virgencita de Luján -2.jpg</t>
+  </si>
+  <si>
+    <t>Madera Corazones pintados-1-</t>
+  </si>
+  <si>
+    <t>MADERA&gt;CUNEROS</t>
+  </si>
+  <si>
+    <t>Cunero colgante: Corazón pintado a mano,  con motivo infantil. 11,5 x 10,5 cm</t>
+  </si>
+  <si>
+    <t>..\..\Pictures\A TRABAJOS WEB\Madera\CUNEROS\CORAZONES Y CRUCES\Madera Corazones pintados -1.jpg</t>
+  </si>
+  <si>
+    <t>Madera Corazones pintados-2-</t>
+  </si>
+  <si>
+    <t>..\..\Pictures\A TRABAJOS WEB\Madera\CUNEROS\CORAZONES Y CRUCES\Madera Corazones pintados -2.jpg</t>
+  </si>
+  <si>
+    <t>Madera Corazones pintados-3-</t>
+  </si>
+  <si>
+    <t>..\..\Pictures\A TRABAJOS WEB\Madera\CUNEROS\CORAZONES Y CRUCES\Madera Corazones pintados -3.jpg</t>
+  </si>
+  <si>
+    <t>Madera Redondeles cuneritos</t>
+  </si>
+  <si>
+    <t>Cunero colgante redondo.  8 cm de diámetro.  Pintado a mano - Motivo infantil -</t>
+  </si>
+  <si>
+    <t>..\..\Pictures\A TRABAJOS WEB\Madera\CUNEROS\REDONDELES\Madera Redondeles cuneritos.jpg</t>
+  </si>
+  <si>
+    <t>Madera Cuadros Pasta piedra Virgen María -GRANDE-</t>
+  </si>
+  <si>
+    <t>MADERA&gt;CUADROS PASTA PIEDRA</t>
+  </si>
+  <si>
+    <t>Madera Cuadro Virgen María Pasta Piedra-1-</t>
+  </si>
+  <si>
+    <t>Virgen María en un diseño infantil. Pintada y modelada a mano en Pasta Piedra. 40x30 cm - 1 cm grosor de la madera</t>
+  </si>
+  <si>
+    <t>..\..\Pictures\A TRABAJOS WEB\Madera\CUADROS PASTA PIEDRA\Madera Cuadro Virgen María Pasta Piedra -1.jpg</t>
+  </si>
+  <si>
+    <t>Madera Cuadros Pasta piedra Virgen María -MEDIO-</t>
+  </si>
+  <si>
+    <t>Madera Cuadro Virgen María Pasta Piedra-2-</t>
   </si>
   <si>
     <t xml:space="preserve">Virgen María en un diseño infantil. Pintada y modelada a mano en Pasta Piedra. 32x26 cm 1 cm grosor de la madera - </t>
   </si>
   <si>
-    <t xml:space="preserve">..\..\Pictures\A TRABAJOS WEB\Madera\CUADROS PASTA PIEDRA\Madera Cuadro Virgen María Pasta Piedra -2.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rosarios 24 glorias Sta. Teresita</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VARIOS&gt;ROSARIOS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rosarios-24-glorias-sta-teresita</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rosario  de 24 cuentas, en honor de los 24 años de vida de Sta. Teresita del Niño Jesús.  Con estampa explicativa (14,5x10 cm)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">..\..\Pictures\A TRABAJOS WEB\VARIOS\ROSARIOS\24 Glorias\Rosarios 24 glorias Sta. Teresita.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rosarios Cola de rata</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rosario cola de rata</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rosario de bolsillo, con cuentas de madera pequeñas y cruz acorde.  Sencillo y práctico para nuestra oración cotidiana a la Virgen María.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">..\..\Pictures\A TRABAJOS WEB\VARIOS\ROSARIOS\Rosarios Cola de rata\Rosario cola de rata.jpg</t>
+    <t>..\..\Pictures\A TRABAJOS WEB\Madera\CUADROS PASTA PIEDRA\Madera Cuadro Virgen María Pasta Piedra -2.jpg</t>
+  </si>
+  <si>
+    <t>Rosarios 24 glorias Sta. Teresita</t>
+  </si>
+  <si>
+    <t>VARIOS&gt;ROSARIOS</t>
+  </si>
+  <si>
+    <t>rosarios-24-glorias-sta-teresita</t>
+  </si>
+  <si>
+    <t>Rosario  de 24 cuentas, en honor de los 24 años de vida de Sta. Teresita del Niño Jesús.  Con estampa explicativa (14,5x10 cm)</t>
+  </si>
+  <si>
+    <t>..\..\Pictures\A TRABAJOS WEB\VARIOS\ROSARIOS\24 Glorias\Rosarios 24 glorias Sta. Teresita.jpg</t>
+  </si>
+  <si>
+    <t>Rosarios Cola de rata</t>
+  </si>
+  <si>
+    <t>Rosario cola de rata</t>
+  </si>
+  <si>
+    <t>Rosario de bolsillo, con cuentas de madera pequeñas y cruz acorde.  Sencillo y práctico para nuestra oración cotidiana a la Virgen María.</t>
+  </si>
+  <si>
+    <t>..\..\Pictures\A TRABAJOS WEB\VARIOS\ROSARIOS\Rosarios Cola de rata\Rosario cola de rata.jpg</t>
   </si>
   <si>
     <t xml:space="preserve">Velas Litúrgicas de Cera de abeja  (CHICAS) </t>
   </si>
   <si>
-    <t xml:space="preserve">VELAS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vela cera de abeja chica</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Elaboradas con CERA DE ABEJAS. Aptas para uso en la Santa Misa u otros actos litúrgicos y devocionales. 5,5X 10,5 cm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">..\..\Pictures\A TRABAJOS WEB\VELAS\CERA DE ABEJAS\Vela Cera de abeja chica.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Velas Colores y Aromas -ROSAS-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">vela colores y aromas rosas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Elaboradas con parafina, colores y esencias perfumadas. 4,2x12 cm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">..\..\Pictures\A TRABAJOS WEB\VELAS\COLORES Y AROMAS\Colores y aromas Rosas.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cerámica Rosario engarzados (perfume de Rosas con cajita)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CERÁMICA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cerámica Rosario</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rosario engarzado con cuentas de cerámica realizadas de manera artesanal.  Perfume de rosas. Incluye cajita portarosario.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">..\..\Pictures\A TRABAJOS WEB\Cerámica\Rosario Cerámica.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cerámica cruces souvenir</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cruz Souvenir</t>
+    <t>VELAS</t>
+  </si>
+  <si>
+    <t>Vela cera de abeja chica</t>
+  </si>
+  <si>
+    <t>Elaboradas con CERA DE ABEJAS. Aptas para uso en la Santa Misa u otros actos litúrgicos y devocionales. 5,5X 10,5 cm</t>
+  </si>
+  <si>
+    <t>..\..\Pictures\A TRABAJOS WEB\VELAS\CERA DE ABEJAS\Vela Cera de abeja chica.jpg</t>
+  </si>
+  <si>
+    <t>Velas Colores y Aromas -ROSAS-</t>
+  </si>
+  <si>
+    <t>vela colores y aromas rosas</t>
+  </si>
+  <si>
+    <t>Elaboradas con parafina, colores y esencias perfumadas. 4,2x12 cm</t>
+  </si>
+  <si>
+    <t>..\..\Pictures\A TRABAJOS WEB\VELAS\COLORES Y AROMAS\Colores y aromas Rosas.jpg</t>
+  </si>
+  <si>
+    <t>Cerámica Rosario engarzados (perfume de Rosas con cajita)</t>
+  </si>
+  <si>
+    <t>CERÁMICA</t>
+  </si>
+  <si>
+    <t>Cerámica Rosario</t>
+  </si>
+  <si>
+    <t>Rosario engarzado con cuentas de cerámica realizadas de manera artesanal.  Perfume de rosas. Incluye cajita portarosario.</t>
+  </si>
+  <si>
+    <t>..\..\Pictures\A TRABAJOS WEB\Cerámica\Rosario Cerámica.jpg</t>
+  </si>
+  <si>
+    <t>Cerámica cruces souvenir</t>
+  </si>
+  <si>
+    <t>Cruz Souvenir</t>
   </si>
   <si>
     <t xml:space="preserve">Cruz colgante de cerámica con el Niño Jesús - Diseños exclusivos - Ideal para cuneros o la habitación de los niños. 6,5x5,5 cm </t>
   </si>
   <si>
-    <t xml:space="preserve">..\..\Pictures\A TRABAJOS WEB\Cerámica\CRUCES\Cruz souvenir.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cerámica Pesebre</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cerámica pesebre</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pesebre artesanal - Diseños exclusivos. 14x9,5 cm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">..\..\Pictures\A TRABAJOS WEB\Cerámica\PESEBRES\Pesebre cerámica.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cerámica Virgen embarazada</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Virgen Embarazada</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Imagen de la Virgen María, advocación "Nuestra Señora de la Dulce Espera!"- Diseños exclusivos -19,5 x 6,5 cm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">..\..\Pictures\A TRABAJOS WEB\Cerámica\Virgen Embarazada.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cerámica Niños Jesús-1-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CERÁMICA&gt;NIÑOS JESÚS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cerámica Niño Jesús-1-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Imagen artesanal del Niño Jesús con aureola y cunita - 5x4 cm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">..\..\Pictures\A TRABAJOS WEB\Cerámica\Niños Jesús\Cerámica Niño Jesús -1.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cerámica Niños Jesús-2-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cerámica Niño Jesús-2-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">..\..\Pictures\A TRABAJOS WEB\Cerámica\Niños Jesús\Cerámica Niño Jesús 3.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cerámica Niños Jesús-3-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cerámica Niño Jesús-3-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">..\..\Pictures\A TRABAJOS WEB\Cerámica\Niños Jesús\Cerámica Niño Jesús 4.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cerámica Niños Jesús-4-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cerámica Niño Jesús-4-</t>
+    <t>..\..\Pictures\A TRABAJOS WEB\Cerámica\CRUCES\Cruz souvenir.jpg</t>
+  </si>
+  <si>
+    <t>Cerámica Pesebre</t>
+  </si>
+  <si>
+    <t>cerámica pesebre</t>
+  </si>
+  <si>
+    <t>Pesebre artesanal - Diseños exclusivos. 14x9,5 cm</t>
+  </si>
+  <si>
+    <t>..\..\Pictures\A TRABAJOS WEB\Cerámica\PESEBRES\Pesebre cerámica.jpg</t>
+  </si>
+  <si>
+    <t>Cerámica Virgen embarazada</t>
+  </si>
+  <si>
+    <t>Virgen Embarazada</t>
+  </si>
+  <si>
+    <t>Imagen de la Virgen María, advocación "Nuestra Señora de la Dulce Espera!"- Diseños exclusivos -19,5 x 6,5 cm</t>
+  </si>
+  <si>
+    <t>..\..\Pictures\A TRABAJOS WEB\Cerámica\Virgen Embarazada.jpg</t>
+  </si>
+  <si>
+    <t>Cerámica Niños Jesús-1-</t>
+  </si>
+  <si>
+    <t>CERÁMICA&gt;NIÑOS JESÚS</t>
+  </si>
+  <si>
+    <t>Cerámica Niño Jesús-1-</t>
+  </si>
+  <si>
+    <t>Imagen artesanal del Niño Jesús con aureola y cunita - 5x4 cm</t>
+  </si>
+  <si>
+    <t>..\..\Pictures\A TRABAJOS WEB\Cerámica\Niños Jesús\Cerámica Niño Jesús -1.jpg</t>
+  </si>
+  <si>
+    <t>Cerámica Niños Jesús-2-</t>
+  </si>
+  <si>
+    <t>Cerámica Niño Jesús-2-</t>
+  </si>
+  <si>
+    <t>..\..\Pictures\A TRABAJOS WEB\Cerámica\Niños Jesús\Cerámica Niño Jesús 3.jpg</t>
+  </si>
+  <si>
+    <t>Cerámica Niños Jesús-3-</t>
+  </si>
+  <si>
+    <t>Cerámica Niño Jesús-3-</t>
+  </si>
+  <si>
+    <t>..\..\Pictures\A TRABAJOS WEB\Cerámica\Niños Jesús\Cerámica Niño Jesús 4.jpg</t>
+  </si>
+  <si>
+    <t>Cerámica Niños Jesús-4-</t>
+  </si>
+  <si>
+    <t>Cerámica Niño Jesús-4-</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="3">
-    <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="0"/>
-    <numFmt numFmtId="166" formatCode="_-&quot;$ &quot;* #,##0.00_-;&quot;-$ &quot;* #,##0.00_-;_-&quot;$ &quot;* \-??_-;_-@_-"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="_-&quot;$ &quot;* #,##0.00_-;&quot;-$ &quot;* #,##0.00_-;_-&quot;$ &quot;* \-??_-;_-@_-"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
     </font>
     <font>
       <sz val="12"/>
@@ -473,7 +460,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <u val="single"/>
+      <u/>
       <sz val="11"/>
       <color theme="10"/>
       <name val="Calibri"/>
@@ -481,7 +468,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <i val="true"/>
+      <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
@@ -489,8 +476,15 @@
       <charset val="1"/>
     </font>
     <font>
-      <i val="true"/>
+      <i/>
       <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
@@ -505,429 +499,331 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.5999"/>
+        <fgColor theme="4" tint="0.59987182226020086"/>
         <bgColor rgb="FFDBDBDB"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.3999"/>
+        <fgColor theme="4" tint="0.39988402966399123"/>
         <bgColor rgb="FFBDD7EE"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.5999"/>
+        <fgColor theme="6" tint="0.59987182226020086"/>
         <bgColor rgb="FFE2F0D9"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.7999"/>
+        <fgColor theme="9" tint="0.79989013336588644"/>
         <bgColor rgb="FFFBE5D6"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.5999"/>
+        <fgColor theme="7" tint="0.59987182226020086"/>
         <bgColor rgb="FFFFD966"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.3999"/>
+        <fgColor theme="9" tint="0.39988402966399123"/>
         <bgColor rgb="FF9DC3E6"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.3999"/>
+        <fgColor theme="7" tint="0.39988402966399123"/>
         <bgColor rgb="FFFFE699"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.7999"/>
+        <fgColor theme="5" tint="0.79989013336588644"/>
         <bgColor rgb="FFE2F0D9"/>
       </patternFill>
     </fill>
   </fills>
   <borders count="11">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="thin"/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
-      <top style="thin"/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
       <right/>
-      <top style="thin"/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
       <right/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
       <top/>
-      <bottom style="thin"/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
       <right/>
       <top/>
-      <bottom style="thin"/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="22">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
+  <cellStyleXfs count="4">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="63">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="6" borderId="2" xfId="17" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="6" borderId="2" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="7" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="7" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="7" borderId="2" xfId="17" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="7" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="7" borderId="2" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="7" borderId="2" xfId="17" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="8" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="8" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="8" borderId="2" xfId="17" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="8" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="8" borderId="2" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="8" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="8" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="8" borderId="2" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="3" borderId="2" xfId="17" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="2" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="9" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="9" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="9" borderId="2" xfId="17" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="9" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="9" borderId="2" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="9" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="4" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="9" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="6" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="7" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="7" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="8" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="9" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="8">
+  <cellStyles count="4">
+    <cellStyle name="Excel Built-in Explanatory Text" xfId="3"/>
+    <cellStyle name="Hipervínculo" xfId="2" builtinId="8"/>
+    <cellStyle name="Moneda" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
-    <cellStyle name="*unknown*" xfId="20" builtinId="8"/>
-    <cellStyle name="Excel Built-in Explanatory Text" xfId="21"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -986,60 +882,76 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
         <a:srgbClr val="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:srgbClr val="ffffff"/>
+        <a:srgbClr val="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546a"/>
+        <a:srgbClr val="44546A"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="e7e6e6"/>
+        <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5b9bd5"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ed7d31"/>
+        <a:srgbClr val="ED7D31"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="a5a5a5"/>
+        <a:srgbClr val="A5A5A5"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="ffc000"/>
+        <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472c4"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70ad47"/>
+        <a:srgbClr val="70AD47"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563c1"/>
+        <a:srgbClr val="0563C1"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954f72"/>
+        <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204" pitchFamily="0" charset="1"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="0" charset="1"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
       </a:minorFont>
@@ -1071,7 +983,7 @@
             </a:gs>
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
-          <a:tileRect l="0" t="0" r="0" b="0"/>
+          <a:tileRect/>
         </a:gradFill>
         <a:gradFill>
           <a:gsLst>
@@ -1095,7 +1007,7 @@
             </a:gs>
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
-          <a:tileRect l="0" t="0" r="0" b="0"/>
+          <a:tileRect/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
@@ -1155,51 +1067,50 @@
             </a:gs>
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
-          <a:tileRect l="0" t="0" r="0" b="0"/>
+          <a:tileRect/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N35"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F6" activeCellId="0" sqref="F6"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.59765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="43.81"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="12.55"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="3" width="17.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="3" width="11.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="34.62"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="39.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="33.09"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="78.59"/>
+    <col min="1" max="1" width="43.85546875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="12.5703125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="17.42578125" style="4" customWidth="1"/>
+    <col min="4" max="4" width="11.28515625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="34.5703125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="39.42578125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="33.140625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="78.5703125" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
       <c r="G1" s="5"/>
       <c r="H1" s="6"/>
       <c r="L1" s="5"/>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>1</v>
       </c>
@@ -1227,7 +1138,7 @@
       <c r="K2" s="12"/>
       <c r="L2" s="5"/>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>8</v>
       </c>
@@ -1257,17 +1168,17 @@
       <c r="K3" s="12"/>
       <c r="L3" s="5"/>
     </row>
-    <row r="4" customFormat="false" ht="34.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:13" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="15" t="n">
-        <v>1</v>
-      </c>
-      <c r="C4" s="16" t="n">
+      <c r="B4" s="15">
+        <v>1</v>
+      </c>
+      <c r="C4" s="16">
         <v>2500</v>
       </c>
-      <c r="D4" s="16" t="n">
+      <c r="D4" s="16">
         <v>20</v>
       </c>
       <c r="E4" s="17" t="s">
@@ -1287,17 +1198,17 @@
       <c r="K4" s="12"/>
       <c r="L4" s="20"/>
     </row>
-    <row r="5" customFormat="false" ht="39.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="15" t="n">
-        <v>1</v>
-      </c>
-      <c r="C5" s="16" t="n">
+      <c r="B5" s="15">
+        <v>1</v>
+      </c>
+      <c r="C5" s="16">
         <v>16000</v>
       </c>
-      <c r="D5" s="16" t="n">
+      <c r="D5" s="16">
         <v>90</v>
       </c>
       <c r="E5" s="17" t="s">
@@ -1317,17 +1228,17 @@
       <c r="K5" s="12"/>
       <c r="L5" s="24"/>
     </row>
-    <row r="6" customFormat="false" ht="34.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:13" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="B6" s="26" t="n">
+      <c r="B6" s="26">
         <v>100</v>
       </c>
-      <c r="C6" s="27" t="n">
+      <c r="C6" s="27">
         <v>1200</v>
       </c>
-      <c r="D6" s="27" t="n">
+      <c r="D6" s="27">
         <v>1</v>
       </c>
       <c r="E6" s="28" t="s">
@@ -1347,17 +1258,17 @@
       <c r="K6" s="12"/>
       <c r="L6" s="12"/>
     </row>
-    <row r="7" customFormat="false" ht="34.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:13" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="B7" s="26" t="n">
+      <c r="B7" s="26">
         <v>100</v>
       </c>
-      <c r="C7" s="30" t="n">
+      <c r="C7" s="30">
         <v>1200</v>
       </c>
-      <c r="D7" s="30" t="n">
+      <c r="D7" s="30">
         <v>1</v>
       </c>
       <c r="E7" s="28" t="s">
@@ -1377,17 +1288,17 @@
       <c r="K7" s="12"/>
       <c r="L7" s="12"/>
     </row>
-    <row r="8" customFormat="false" ht="34.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:13" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="B8" s="26" t="n">
+      <c r="B8" s="26">
         <v>100</v>
       </c>
-      <c r="C8" s="27" t="n">
+      <c r="C8" s="27">
         <v>2000</v>
       </c>
-      <c r="D8" s="27" t="n">
+      <c r="D8" s="27">
         <v>2</v>
       </c>
       <c r="E8" s="28" t="s">
@@ -1407,17 +1318,17 @@
       <c r="K8" s="12"/>
       <c r="L8" s="5"/>
     </row>
-    <row r="9" customFormat="false" ht="34.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:13" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="B9" s="26" t="n">
-        <v>1</v>
-      </c>
-      <c r="C9" s="27" t="n">
+      <c r="B9" s="26">
+        <v>1</v>
+      </c>
+      <c r="C9" s="27">
         <v>1200</v>
       </c>
-      <c r="D9" s="27" t="n">
+      <c r="D9" s="27">
         <v>1</v>
       </c>
       <c r="E9" s="28" t="s">
@@ -1438,17 +1349,17 @@
       <c r="L9" s="20"/>
       <c r="M9" s="13"/>
     </row>
-    <row r="10" customFormat="false" ht="34.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="10" spans="1:13" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="B10" s="26" t="n">
-        <v>1</v>
-      </c>
-      <c r="C10" s="27" t="n">
+      <c r="B10" s="26">
+        <v>1</v>
+      </c>
+      <c r="C10" s="27">
         <v>1200</v>
       </c>
-      <c r="D10" s="27" t="n">
+      <c r="D10" s="27">
         <v>1</v>
       </c>
       <c r="E10" s="28" t="s">
@@ -1469,17 +1380,17 @@
       <c r="L10" s="20"/>
       <c r="M10" s="13"/>
     </row>
-    <row r="11" customFormat="false" ht="34.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="11" spans="1:13" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="B11" s="26" t="n">
-        <v>1</v>
-      </c>
-      <c r="C11" s="27" t="n">
+      <c r="B11" s="26">
+        <v>1</v>
+      </c>
+      <c r="C11" s="27">
         <v>1200</v>
       </c>
-      <c r="D11" s="27" t="n">
+      <c r="D11" s="27">
         <v>1</v>
       </c>
       <c r="E11" s="28" t="s">
@@ -1500,17 +1411,17 @@
       <c r="L11" s="20"/>
       <c r="M11" s="13"/>
     </row>
-    <row r="12" customFormat="false" ht="34.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="12" spans="1:13" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="25" t="s">
         <v>48</v>
       </c>
-      <c r="B12" s="26" t="n">
-        <v>1</v>
-      </c>
-      <c r="C12" s="27" t="n">
+      <c r="B12" s="26">
+        <v>1</v>
+      </c>
+      <c r="C12" s="27">
         <v>1200</v>
       </c>
-      <c r="D12" s="27" t="n">
+      <c r="D12" s="27">
         <v>1</v>
       </c>
       <c r="E12" s="28" t="s">
@@ -1531,17 +1442,17 @@
       <c r="L12" s="20"/>
       <c r="M12" s="13"/>
     </row>
-    <row r="13" customFormat="false" ht="34.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="13" spans="1:13" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="25" t="s">
         <v>51</v>
       </c>
-      <c r="B13" s="26" t="n">
-        <v>1</v>
-      </c>
-      <c r="C13" s="27" t="n">
+      <c r="B13" s="26">
+        <v>1</v>
+      </c>
+      <c r="C13" s="27">
         <v>1200</v>
       </c>
-      <c r="D13" s="27" t="n">
+      <c r="D13" s="27">
         <v>1</v>
       </c>
       <c r="E13" s="28" t="s">
@@ -1561,17 +1472,17 @@
       <c r="K13" s="32"/>
       <c r="M13" s="13"/>
     </row>
-    <row r="14" customFormat="false" ht="34.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="14" spans="1:13" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="33" t="s">
         <v>54</v>
       </c>
-      <c r="B14" s="34" t="n">
-        <v>1</v>
-      </c>
-      <c r="C14" s="35" t="n">
+      <c r="B14" s="34">
+        <v>1</v>
+      </c>
+      <c r="C14" s="35">
         <v>18000</v>
       </c>
-      <c r="D14" s="35" t="n">
+      <c r="D14" s="35">
         <v>325</v>
       </c>
       <c r="E14" s="36" t="s">
@@ -1591,17 +1502,17 @@
       <c r="K14" s="12"/>
       <c r="L14" s="12"/>
     </row>
-    <row r="15" customFormat="false" ht="34.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="15" spans="1:13" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="33" t="s">
         <v>59</v>
       </c>
-      <c r="B15" s="34" t="n">
-        <v>1</v>
-      </c>
-      <c r="C15" s="35" t="n">
+      <c r="B15" s="34">
+        <v>1</v>
+      </c>
+      <c r="C15" s="35">
         <v>18000</v>
       </c>
-      <c r="D15" s="35" t="n">
+      <c r="D15" s="35">
         <v>325</v>
       </c>
       <c r="E15" s="36" t="s">
@@ -1619,17 +1530,17 @@
       <c r="K15" s="12"/>
       <c r="L15" s="20"/>
     </row>
-    <row r="16" customFormat="false" ht="34.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="16" spans="1:13" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="33" t="s">
         <v>62</v>
       </c>
-      <c r="B16" s="34" t="n">
-        <v>1</v>
-      </c>
-      <c r="C16" s="35" t="n">
+      <c r="B16" s="34">
+        <v>1</v>
+      </c>
+      <c r="C16" s="35">
         <v>15000</v>
       </c>
-      <c r="D16" s="35" t="n">
+      <c r="D16" s="35">
         <v>280</v>
       </c>
       <c r="E16" s="36" t="s">
@@ -1649,17 +1560,17 @@
       <c r="K16" s="12"/>
       <c r="L16" s="11"/>
     </row>
-    <row r="17" customFormat="false" ht="34.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="17" spans="1:14" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="33" t="s">
         <v>66</v>
       </c>
-      <c r="B17" s="34" t="n">
-        <v>1</v>
-      </c>
-      <c r="C17" s="35" t="n">
+      <c r="B17" s="34">
+        <v>1</v>
+      </c>
+      <c r="C17" s="35">
         <v>15000</v>
       </c>
-      <c r="D17" s="35" t="n">
+      <c r="D17" s="35">
         <v>280</v>
       </c>
       <c r="E17" s="36" t="s">
@@ -1679,17 +1590,17 @@
       <c r="K17" s="12"/>
       <c r="L17" s="11"/>
     </row>
-    <row r="18" customFormat="false" ht="34.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="18" spans="1:14" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="40" t="s">
         <v>69</v>
       </c>
-      <c r="B18" s="41" t="n">
+      <c r="B18" s="41">
         <v>100</v>
       </c>
-      <c r="C18" s="35" t="n">
+      <c r="C18" s="35">
         <v>7000</v>
       </c>
-      <c r="D18" s="35" t="n">
+      <c r="D18" s="35">
         <v>90</v>
       </c>
       <c r="E18" s="40" t="s">
@@ -1708,17 +1619,17 @@
       <c r="K18" s="12"/>
       <c r="L18" s="12"/>
     </row>
-    <row r="19" customFormat="false" ht="34.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="19" spans="1:14" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="40" t="s">
         <v>73</v>
       </c>
-      <c r="B19" s="41" t="n">
+      <c r="B19" s="41">
         <v>100</v>
       </c>
-      <c r="C19" s="35" t="n">
+      <c r="C19" s="35">
         <v>7000</v>
       </c>
-      <c r="D19" s="35" t="n">
+      <c r="D19" s="35">
         <v>90</v>
       </c>
       <c r="E19" s="40" t="s">
@@ -1737,17 +1648,17 @@
       <c r="K19" s="12"/>
       <c r="L19" s="5"/>
     </row>
-    <row r="20" customFormat="false" ht="34.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="20" spans="1:14" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="40" t="s">
         <v>75</v>
       </c>
-      <c r="B20" s="41" t="n">
+      <c r="B20" s="41">
         <v>100</v>
       </c>
-      <c r="C20" s="35" t="n">
+      <c r="C20" s="35">
         <v>7000</v>
       </c>
-      <c r="D20" s="35" t="n">
+      <c r="D20" s="35">
         <v>90</v>
       </c>
       <c r="E20" s="40" t="s">
@@ -1767,17 +1678,17 @@
       <c r="K20" s="12"/>
       <c r="L20" s="5"/>
     </row>
-    <row r="21" customFormat="false" ht="34.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="21" spans="1:14" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="33" t="s">
         <v>77</v>
       </c>
-      <c r="B21" s="34" t="n">
+      <c r="B21" s="34">
         <v>100</v>
       </c>
-      <c r="C21" s="35" t="n">
+      <c r="C21" s="35">
         <v>5000</v>
       </c>
-      <c r="D21" s="35" t="n">
+      <c r="D21" s="35">
         <v>50</v>
       </c>
       <c r="E21" s="40" t="s">
@@ -1796,17 +1707,17 @@
       <c r="J21" s="12"/>
       <c r="K21" s="12"/>
     </row>
-    <row r="22" customFormat="false" ht="34.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="22" spans="1:14" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="33" t="s">
         <v>80</v>
       </c>
-      <c r="B22" s="34" t="n">
-        <v>1</v>
-      </c>
-      <c r="C22" s="35" t="n">
+      <c r="B22" s="34">
+        <v>1</v>
+      </c>
+      <c r="C22" s="35">
         <v>50000</v>
       </c>
-      <c r="D22" s="35" t="n">
+      <c r="D22" s="35">
         <v>1300</v>
       </c>
       <c r="E22" s="40" t="s">
@@ -1825,17 +1736,17 @@
       <c r="K22" s="12"/>
       <c r="L22" s="5"/>
     </row>
-    <row r="23" customFormat="false" ht="34.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="23" spans="1:14" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="33" t="s">
         <v>85</v>
       </c>
-      <c r="B23" s="34" t="n">
-        <v>1</v>
-      </c>
-      <c r="C23" s="35" t="n">
+      <c r="B23" s="34">
+        <v>1</v>
+      </c>
+      <c r="C23" s="35">
         <v>40000</v>
       </c>
-      <c r="D23" s="35" t="n">
+      <c r="D23" s="35">
         <v>900</v>
       </c>
       <c r="E23" s="40" t="s">
@@ -1855,17 +1766,17 @@
       <c r="K23" s="12"/>
       <c r="L23" s="20"/>
     </row>
-    <row r="24" customFormat="false" ht="34.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="24" spans="1:14" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="25" t="s">
         <v>89</v>
       </c>
-      <c r="B24" s="26" t="n">
+      <c r="B24" s="26">
         <v>100</v>
       </c>
-      <c r="C24" s="27" t="n">
-        <v>1600</v>
-      </c>
-      <c r="D24" s="27" t="n">
+      <c r="C24" s="27">
+        <v>1800</v>
+      </c>
+      <c r="D24" s="27">
         <v>8</v>
       </c>
       <c r="E24" s="28" t="s">
@@ -1885,17 +1796,17 @@
       <c r="K24" s="12"/>
       <c r="L24" s="12"/>
     </row>
-    <row r="25" customFormat="false" ht="34.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="25" spans="1:14" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="25" t="s">
         <v>94</v>
       </c>
-      <c r="B25" s="26" t="n">
+      <c r="B25" s="26">
         <v>100</v>
       </c>
-      <c r="C25" s="27" t="n">
+      <c r="C25" s="27">
         <v>3000</v>
       </c>
-      <c r="D25" s="27" t="n">
+      <c r="D25" s="27">
         <v>8</v>
       </c>
       <c r="E25" s="28" t="s">
@@ -1915,17 +1826,17 @@
       <c r="K25" s="20"/>
       <c r="L25" s="11"/>
     </row>
-    <row r="26" customFormat="false" ht="34.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="26" spans="1:14" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="44" t="s">
         <v>98</v>
       </c>
-      <c r="B26" s="45" t="n">
+      <c r="B26" s="45">
         <v>100</v>
       </c>
-      <c r="C26" s="46" t="n">
+      <c r="C26" s="46">
         <v>6500</v>
       </c>
-      <c r="D26" s="46" t="n">
+      <c r="D26" s="46">
         <v>235</v>
       </c>
       <c r="E26" s="47" t="s">
@@ -1944,17 +1855,17 @@
       <c r="J26" s="12"/>
       <c r="K26" s="12"/>
     </row>
-    <row r="27" customFormat="false" ht="34.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="27" spans="1:14" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="44" t="s">
         <v>103</v>
       </c>
-      <c r="B27" s="45" t="n">
+      <c r="B27" s="45">
         <v>0</v>
       </c>
-      <c r="C27" s="46" t="n">
+      <c r="C27" s="46">
         <v>4500</v>
       </c>
-      <c r="D27" s="46" t="n">
+      <c r="D27" s="46">
         <v>170</v>
       </c>
       <c r="E27" s="49" t="s">
@@ -1973,17 +1884,17 @@
       <c r="J27" s="12"/>
       <c r="K27" s="12"/>
     </row>
-    <row r="28" customFormat="false" ht="39.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="28" spans="1:14" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="51" t="s">
         <v>107</v>
       </c>
-      <c r="B28" s="52" t="n">
-        <v>1</v>
-      </c>
-      <c r="C28" s="53" t="n">
+      <c r="B28" s="52">
+        <v>1</v>
+      </c>
+      <c r="C28" s="53">
         <v>15000</v>
       </c>
-      <c r="D28" s="53" t="n">
+      <c r="D28" s="53">
         <v>40</v>
       </c>
       <c r="E28" s="54" t="s">
@@ -2002,17 +1913,17 @@
       <c r="J28" s="5"/>
       <c r="K28" s="32"/>
     </row>
-    <row r="29" customFormat="false" ht="34.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="29" spans="1:14" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="51" t="s">
         <v>112</v>
       </c>
-      <c r="B29" s="52" t="n">
-        <v>1</v>
-      </c>
-      <c r="C29" s="53" t="n">
+      <c r="B29" s="52">
+        <v>1</v>
+      </c>
+      <c r="C29" s="53">
         <v>4600</v>
       </c>
-      <c r="D29" s="53" t="n">
+      <c r="D29" s="53">
         <v>35</v>
       </c>
       <c r="E29" s="57" t="s">
@@ -2031,17 +1942,17 @@
       <c r="J29" s="5"/>
       <c r="K29" s="12"/>
     </row>
-    <row r="30" customFormat="false" ht="34.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="30" spans="1:14" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="51" t="s">
         <v>116</v>
       </c>
-      <c r="B30" s="52" t="n">
-        <v>1</v>
-      </c>
-      <c r="C30" s="53" t="n">
+      <c r="B30" s="52">
+        <v>1</v>
+      </c>
+      <c r="C30" s="53">
         <v>16000</v>
       </c>
-      <c r="D30" s="53" t="n">
+      <c r="D30" s="53">
         <v>210</v>
       </c>
       <c r="E30" s="57" t="s">
@@ -2061,17 +1972,17 @@
       <c r="K30" s="58"/>
       <c r="N30" s="60"/>
     </row>
-    <row r="31" customFormat="false" ht="34.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="31" spans="1:14" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="51" t="s">
         <v>120</v>
       </c>
-      <c r="B31" s="52" t="n">
-        <v>1</v>
-      </c>
-      <c r="C31" s="53" t="n">
+      <c r="B31" s="52">
+        <v>1</v>
+      </c>
+      <c r="C31" s="53">
         <v>25000</v>
       </c>
-      <c r="D31" s="53" t="n">
+      <c r="D31" s="53">
         <v>265</v>
       </c>
       <c r="E31" s="57" t="s">
@@ -2090,17 +2001,17 @@
       <c r="J31" s="12"/>
       <c r="K31" s="12"/>
     </row>
-    <row r="32" customFormat="false" ht="34.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="32" spans="1:14" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="51" t="s">
         <v>124</v>
       </c>
-      <c r="B32" s="52" t="n">
-        <v>1</v>
-      </c>
-      <c r="C32" s="53" t="n">
+      <c r="B32" s="52">
+        <v>1</v>
+      </c>
+      <c r="C32" s="53">
         <v>4000</v>
       </c>
-      <c r="D32" s="53" t="n">
+      <c r="D32" s="53">
         <v>18</v>
       </c>
       <c r="E32" s="57" t="s">
@@ -2119,17 +2030,17 @@
       <c r="J32" s="12"/>
       <c r="K32" s="12"/>
     </row>
-    <row r="33" customFormat="false" ht="34.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="33" spans="1:12" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="51" t="s">
         <v>129</v>
       </c>
-      <c r="B33" s="52" t="n">
-        <v>1</v>
-      </c>
-      <c r="C33" s="53" t="n">
+      <c r="B33" s="52">
+        <v>1</v>
+      </c>
+      <c r="C33" s="53">
         <v>4000</v>
       </c>
-      <c r="D33" s="53" t="n">
+      <c r="D33" s="53">
         <v>18</v>
       </c>
       <c r="E33" s="57" t="s">
@@ -2148,17 +2059,17 @@
       <c r="J33" s="20"/>
       <c r="K33" s="12"/>
     </row>
-    <row r="34" customFormat="false" ht="34.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="34" spans="1:12" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="51" t="s">
         <v>132</v>
       </c>
-      <c r="B34" s="52" t="n">
-        <v>1</v>
-      </c>
-      <c r="C34" s="53" t="n">
+      <c r="B34" s="52">
+        <v>1</v>
+      </c>
+      <c r="C34" s="53">
         <v>4000</v>
       </c>
-      <c r="D34" s="53" t="n">
+      <c r="D34" s="53">
         <v>18</v>
       </c>
       <c r="E34" s="57" t="s">
@@ -2177,17 +2088,17 @@
       <c r="J34" s="11"/>
       <c r="K34" s="12"/>
     </row>
-    <row r="35" customFormat="false" ht="34.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="35" spans="1:12" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="51" t="s">
         <v>135</v>
       </c>
-      <c r="B35" s="52" t="n">
-        <v>1</v>
-      </c>
-      <c r="C35" s="53" t="n">
+      <c r="B35" s="52">
+        <v>1</v>
+      </c>
+      <c r="C35" s="53">
         <v>4000</v>
       </c>
-      <c r="D35" s="53" t="n">
+      <c r="D35" s="53">
         <v>18</v>
       </c>
       <c r="E35" s="57" t="s">
@@ -2212,45 +2123,40 @@
     <mergeCell ref="A1:F1"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="H4" r:id="rId1" display="..\..\Pictures\A TRABAJOS WEB\CUERO\SEÑALADORES\Señaladores 1\Señaladores de Cuero -1.jpg"/>
-    <hyperlink ref="H5" r:id="rId2" display="..\..\Pictures\A TRABAJOS WEB\CUERO\ESTUCHES\Cuero Evangelio con estuche pirograbado A.jpg"/>
-    <hyperlink ref="H6" r:id="rId3" display="..\..\Pictures\A TRABAJOS WEB\VARIOS\ESCAPULARIOS Y DETENTES\Detentes.jpg"/>
-    <hyperlink ref="H7" r:id="rId4" display="..\..\Pictures\A TRABAJOS WEB\VARIOS\ESCAPULARIOS Y DETENTES\Escapulario chico.jpg"/>
-    <hyperlink ref="H8" r:id="rId5" display="..\..\Pictures\A TRABAJOS WEB\VARIOS\ESCAPULARIOS Y DETENTES\Escapulario grande.jpg"/>
-    <hyperlink ref="H9" r:id="rId6" display="..\..\Pictures\A TRABAJOS WEB\VARIOS\ESTAMPAS FLORES\Estampas Flores Nada te turbe -1.jpg"/>
-    <hyperlink ref="H10" r:id="rId7" display="..\..\Pictures\A TRABAJOS WEB\VARIOS\ESTAMPAS FLORES\Estampas Flores Nada te turbe -2.jpg"/>
-    <hyperlink ref="H11" r:id="rId8" display="..\..\Pictures\A TRABAJOS WEB\VARIOS\ESTAMPAS FLORES\Estampas Flores Nada te turbe -3.jpg"/>
-    <hyperlink ref="H12" r:id="rId9" display="..\..\Pictures\A TRABAJOS WEB\VARIOS\ESTAMPAS FLORES\Estampas Flores Nada te turbe -4.jpg"/>
-    <hyperlink ref="H13" r:id="rId10" display="..\..\Pictures\A TRABAJOS WEB\VARIOS\ESTAMPAS FLORES\Estampas Flores Nada te turbe -5.jpg"/>
-    <hyperlink ref="H14" r:id="rId11" display="..\..\Pictures\A TRABAJOS WEB\Madera\CUADROS PUNTILLISMO\Madera Cuadro Puntillismo Sgda. Familia -1.jpg"/>
-    <hyperlink ref="H15" r:id="rId12" display="..\..\Pictures\A TRABAJOS WEB\Madera\CUADROS PUNTILLISMO\Madera Cuadro Puntillismo Sgda. Familia -2.jpg"/>
-    <hyperlink ref="H16" r:id="rId13" display="..\..\Pictures\A TRABAJOS WEB\Madera\CUADROS PUNTILLISMO\Madera Cuadro Puntillismo Virgencita de Luján -1.jpg"/>
-    <hyperlink ref="H17" r:id="rId14" display="..\..\Pictures\A TRABAJOS WEB\Madera\CUADROS PUNTILLISMO\Madera Cuadro Puntillismo Virgencita de Luján -2.jpg"/>
-    <hyperlink ref="H18" r:id="rId15" display="..\..\Pictures\A TRABAJOS WEB\Madera\CUNEROS\CORAZONES Y CRUCES\Madera Corazones pintados -1.jpg"/>
-    <hyperlink ref="H19" r:id="rId16" display="..\..\Pictures\A TRABAJOS WEB\Madera\CUNEROS\CORAZONES Y CRUCES\Madera Corazones pintados -2.jpg"/>
-    <hyperlink ref="H20" r:id="rId17" display="..\..\Pictures\A TRABAJOS WEB\Madera\CUNEROS\CORAZONES Y CRUCES\Madera Corazones pintados -3.jpg"/>
-    <hyperlink ref="H21" r:id="rId18" display="..\..\Pictures\A TRABAJOS WEB\Madera\CUNEROS\REDONDELES\Madera Redondeles cuneritos.jpg"/>
-    <hyperlink ref="H22" r:id="rId19" display="..\..\Pictures\A TRABAJOS WEB\Madera\CUADROS PASTA PIEDRA\Madera Cuadro Virgen María Pasta Piedra -1.jpg"/>
-    <hyperlink ref="H23" r:id="rId20" display="..\..\Pictures\A TRABAJOS WEB\Madera\CUADROS PASTA PIEDRA\Madera Cuadro Virgen María Pasta Piedra -2.jpg"/>
-    <hyperlink ref="H24" r:id="rId21" display="..\..\Pictures\A TRABAJOS WEB\VARIOS\ROSARIOS\24 Glorias\Rosarios 24 glorias Sta. Teresita.jpg"/>
-    <hyperlink ref="H25" r:id="rId22" display="..\..\Pictures\A TRABAJOS WEB\VARIOS\ROSARIOS\Rosarios Cola de rata\Rosario cola de rata.jpg"/>
-    <hyperlink ref="H26" r:id="rId23" display="..\..\Pictures\A TRABAJOS WEB\VELAS\CERA DE ABEJAS\Vela Cera de abeja chica.jpg"/>
-    <hyperlink ref="H27" r:id="rId24" display="..\..\Pictures\A TRABAJOS WEB\VELAS\COLORES Y AROMAS\Colores y aromas Rosas.jpg"/>
-    <hyperlink ref="H28" r:id="rId25" display="..\..\Pictures\A TRABAJOS WEB\Cerámica\Rosario Cerámica.jpg"/>
-    <hyperlink ref="H29" r:id="rId26" display="..\..\Pictures\A TRABAJOS WEB\Cerámica\CRUCES\Cruz souvenir.jpg"/>
-    <hyperlink ref="H30" r:id="rId27" display="..\..\Pictures\A TRABAJOS WEB\Cerámica\PESEBRES\Pesebre cerámica.jpg"/>
-    <hyperlink ref="H31" r:id="rId28" display="..\..\Pictures\A TRABAJOS WEB\Cerámica\Virgen Embarazada.jpg"/>
-    <hyperlink ref="H32" r:id="rId29" display="..\..\Pictures\A TRABAJOS WEB\Cerámica\Niños Jesús\Cerámica Niño Jesús -1.jpg"/>
-    <hyperlink ref="H33" r:id="rId30" display="..\..\Pictures\A TRABAJOS WEB\Cerámica\Niños Jesús\Cerámica Niño Jesús 3.jpg"/>
-    <hyperlink ref="H34" r:id="rId31" display="..\..\Pictures\A TRABAJOS WEB\Cerámica\Niños Jesús\Cerámica Niño Jesús 4.jpg"/>
-    <hyperlink ref="H35" r:id="rId32" display="..\..\Pictures\A TRABAJOS WEB\Cerámica\Niños Jesús\Cerámica Niño Jesús 4.jpg"/>
+    <hyperlink ref="H4" r:id="rId1"/>
+    <hyperlink ref="H5" r:id="rId2"/>
+    <hyperlink ref="H6" r:id="rId3"/>
+    <hyperlink ref="H7" r:id="rId4"/>
+    <hyperlink ref="H8" r:id="rId5"/>
+    <hyperlink ref="H9" r:id="rId6"/>
+    <hyperlink ref="H10" r:id="rId7"/>
+    <hyperlink ref="H11" r:id="rId8"/>
+    <hyperlink ref="H12" r:id="rId9"/>
+    <hyperlink ref="H13" r:id="rId10"/>
+    <hyperlink ref="H14" r:id="rId11"/>
+    <hyperlink ref="H15" r:id="rId12"/>
+    <hyperlink ref="H16" r:id="rId13"/>
+    <hyperlink ref="H17" r:id="rId14"/>
+    <hyperlink ref="H18" r:id="rId15"/>
+    <hyperlink ref="H19" r:id="rId16"/>
+    <hyperlink ref="H20" r:id="rId17"/>
+    <hyperlink ref="H21" r:id="rId18"/>
+    <hyperlink ref="H22" r:id="rId19"/>
+    <hyperlink ref="H23" r:id="rId20"/>
+    <hyperlink ref="H24" r:id="rId21"/>
+    <hyperlink ref="H25" r:id="rId22"/>
+    <hyperlink ref="H26" r:id="rId23"/>
+    <hyperlink ref="H27" r:id="rId24"/>
+    <hyperlink ref="H28" r:id="rId25"/>
+    <hyperlink ref="H29" r:id="rId26"/>
+    <hyperlink ref="H30" r:id="rId27"/>
+    <hyperlink ref="H31" r:id="rId28"/>
+    <hyperlink ref="H32" r:id="rId29"/>
+    <hyperlink ref="H33" r:id="rId30"/>
+    <hyperlink ref="H34" r:id="rId31"/>
+    <hyperlink ref="H35" r:id="rId32"/>
   </hyperlinks>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.196527777777778" right="0.196527777777778" top="0.39375" bottom="0.196527777777778" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="landscape" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.196527777777778" right="0.196527777777778" top="0.39374999999999999" bottom="0.196527777777778" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
--- a/data/web-repositorio.xlsx
+++ b/data/web-repositorio.xlsx
@@ -1,20 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Win 10\Downloads\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="Calc"/>
+  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7635" tabRatio="500"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="Hoja1" sheetId="1" state="visible" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="0" iterateDelta="1E-4"/>
+  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -26,431 +22,448 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="137">
   <si>
-    <t>CARMELITAS BARILOCHE WEB</t>
-  </si>
-  <si>
-    <t>PRODUCTOS</t>
-  </si>
-  <si>
-    <t>DISPONIBILIDAD</t>
-  </si>
-  <si>
-    <t>PRECIO UNITARIO</t>
-  </si>
-  <si>
-    <t>CATEGORÍA</t>
-  </si>
-  <si>
-    <t>FOTOS</t>
-  </si>
-  <si>
-    <t>DESCRIPCIÓN</t>
-  </si>
-  <si>
-    <t>Ubicación Archivo (vínculo)</t>
-  </si>
-  <si>
-    <t>title</t>
-  </si>
-  <si>
-    <t>stock</t>
-  </si>
-  <si>
-    <t>precio</t>
-  </si>
-  <si>
-    <t>peso</t>
-  </si>
-  <si>
-    <t>categorias</t>
-  </si>
-  <si>
-    <t>imagen</t>
-  </si>
-  <si>
-    <t>descripcion</t>
-  </si>
-  <si>
-    <t>ubicacion-fotos</t>
-  </si>
-  <si>
-    <t>Cuero señalador</t>
-  </si>
-  <si>
-    <t>CUERO</t>
-  </si>
-  <si>
-    <t>cuero señalador</t>
-  </si>
-  <si>
-    <t>Realizados en cuero vacuno. Pirograbados. 15,5x7 cm</t>
-  </si>
-  <si>
-    <t>..\..\Pictures\A TRABAJOS WEB\CUERO\SEÑALADORES\Señaladores 1\Señaladores de Cuero -1.jpg</t>
-  </si>
-  <si>
-    <t>Cuero Evangelio con estuche pirograbado</t>
-  </si>
-  <si>
-    <t>cuero evangelio con estuche pirograbado</t>
-  </si>
-  <si>
-    <t>Los cuatro Evangelios en formato bolsillo en su estuche de cuero vacuno pirograbado. 9x13,5 cm</t>
-  </si>
-  <si>
-    <t>..\..\Pictures\A TRABAJOS WEB\CUERO\ESTUCHES\Cuero Evangelio con estuche pirograbado A.jpg</t>
-  </si>
-  <si>
-    <t>Detentes - Protección del Sagrado Corazón de Jesús</t>
-  </si>
-  <si>
-    <t>VARIOS&gt;ESCAPULARIOS Y DETENTES</t>
-  </si>
-  <si>
-    <t>Detentes</t>
-  </si>
-  <si>
-    <t>Pequeña imagen del Sagrado Corazón de Jesús sobre paño rojo, con la inscripción "¡Detente! El Sagrado Corazón de Jesús está conmigo" -    5x4 cm</t>
-  </si>
-  <si>
-    <t>..\..\Pictures\A TRABAJOS WEB\VARIOS\ESCAPULARIOS Y DETENTES\Detentes.jpg</t>
-  </si>
-  <si>
-    <t>Escapulario chico</t>
-  </si>
-  <si>
-    <t>Confeccionados con tela e hilo macramé . Con la imagen de la Virgen del Carmen- 3,5x2,5 cm</t>
-  </si>
-  <si>
-    <t>..\..\Pictures\A TRABAJOS WEB\VARIOS\ESCAPULARIOS Y DETENTES\Escapulario chico.jpg</t>
-  </si>
-  <si>
-    <t>Escapulario Grande</t>
-  </si>
-  <si>
-    <t>Escapulario grande</t>
-  </si>
-  <si>
-    <t>Confeccionados con tela y cola de rata- Imagen de la Virgen del Carmen y Sagrado Corazón  5,5x4 cm</t>
-  </si>
-  <si>
-    <t>..\..\Pictures\A TRABAJOS WEB\VARIOS\ESCAPULARIOS Y DETENTES\Escapulario grande.jpg</t>
-  </si>
-  <si>
-    <t>Estampas de Flores Nada te turbe -1</t>
-  </si>
-  <si>
-    <t>VARIOS&gt;ESTAMPAS DE FLORES</t>
-  </si>
-  <si>
-    <t>Estampas Flores Nada te turbe-1-</t>
-  </si>
-  <si>
-    <t>Señaladores en papel reciclado. Diseño artísitico con flores de Bariloche. 15x7,5 cm</t>
-  </si>
-  <si>
-    <t>..\..\Pictures\A TRABAJOS WEB\VARIOS\ESTAMPAS FLORES\Estampas Flores Nada te turbe -1.jpg</t>
-  </si>
-  <si>
-    <t>Estampas de Flores Nada te turbe -2</t>
-  </si>
-  <si>
-    <t>Estampas Flores Nada te turbe-2-</t>
-  </si>
-  <si>
-    <t>..\..\Pictures\A TRABAJOS WEB\VARIOS\ESTAMPAS FLORES\Estampas Flores Nada te turbe -2.jpg</t>
-  </si>
-  <si>
-    <t>Estampas de Flores Nada te turbe -3</t>
-  </si>
-  <si>
-    <t>Estampas Flores Nada te turbe-3-</t>
-  </si>
-  <si>
-    <t>..\..\Pictures\A TRABAJOS WEB\VARIOS\ESTAMPAS FLORES\Estampas Flores Nada te turbe -3.jpg</t>
-  </si>
-  <si>
-    <t>Estampas de Flores Nada te turbe -4</t>
-  </si>
-  <si>
-    <t>Estampas Flores Nada te turbe-4-</t>
-  </si>
-  <si>
-    <t>..\..\Pictures\A TRABAJOS WEB\VARIOS\ESTAMPAS FLORES\Estampas Flores Nada te turbe -4.jpg</t>
-  </si>
-  <si>
-    <t>Estampas de Flores Nada te turbe -5</t>
-  </si>
-  <si>
-    <t>Estampas Flores Nada te turbe-5-</t>
-  </si>
-  <si>
-    <t>..\..\Pictures\A TRABAJOS WEB\VARIOS\ESTAMPAS FLORES\Estampas Flores Nada te turbe -5.jpg</t>
-  </si>
-  <si>
-    <t>Madera Cuadros puntillismo Sagrada Familia -1-</t>
-  </si>
-  <si>
-    <t>MADERA&gt;CUADROS PUNTILLISMO</t>
-  </si>
-  <si>
-    <t>madera cuadro puntillismo sgda-familia-1-</t>
-  </si>
-  <si>
-    <t>Pintado a mano con técnica puntillismo. 22,5 x 19,5 cm</t>
-  </si>
-  <si>
-    <t>..\..\Pictures\A TRABAJOS WEB\Madera\CUADROS PUNTILLISMO\Madera Cuadro Puntillismo Sgda. Familia -1.jpg</t>
-  </si>
-  <si>
-    <t>Madera Cuadros puntillismo Sagrada Familia -2-</t>
-  </si>
-  <si>
-    <t>madera cuadro puntillismo sgda-familia-2-</t>
-  </si>
-  <si>
-    <t>..\..\Pictures\A TRABAJOS WEB\Madera\CUADROS PUNTILLISMO\Madera Cuadro Puntillismo Sgda. Familia -2.jpg</t>
-  </si>
-  <si>
-    <t>Madera Cuadros puntillismo Virgencita de Luján -1-</t>
-  </si>
-  <si>
-    <t>madera cuadro puntillismo virgencita de luján-1-</t>
-  </si>
-  <si>
-    <t>Pintado a mano con técnica puntillismo, 25 x 18 cm</t>
-  </si>
-  <si>
-    <t>..\..\Pictures\A TRABAJOS WEB\Madera\CUADROS PUNTILLISMO\Madera Cuadro Puntillismo Virgencita de Luján -1.jpg</t>
-  </si>
-  <si>
-    <t>Madera Cuadros puntillismo Virgencita de Luján -2-</t>
-  </si>
-  <si>
-    <t>madera cuadro puntillismo virgencita de luján-2-</t>
-  </si>
-  <si>
-    <t>..\..\Pictures\A TRABAJOS WEB\Madera\CUADROS PUNTILLISMO\Madera Cuadro Puntillismo Virgencita de Luján -2.jpg</t>
-  </si>
-  <si>
-    <t>Madera Corazones pintados-1-</t>
-  </si>
-  <si>
-    <t>MADERA&gt;CUNEROS</t>
-  </si>
-  <si>
-    <t>Cunero colgante: Corazón pintado a mano,  con motivo infantil. 11,5 x 10,5 cm</t>
-  </si>
-  <si>
-    <t>..\..\Pictures\A TRABAJOS WEB\Madera\CUNEROS\CORAZONES Y CRUCES\Madera Corazones pintados -1.jpg</t>
-  </si>
-  <si>
-    <t>Madera Corazones pintados-2-</t>
-  </si>
-  <si>
-    <t>..\..\Pictures\A TRABAJOS WEB\Madera\CUNEROS\CORAZONES Y CRUCES\Madera Corazones pintados -2.jpg</t>
-  </si>
-  <si>
-    <t>Madera Corazones pintados-3-</t>
-  </si>
-  <si>
-    <t>..\..\Pictures\A TRABAJOS WEB\Madera\CUNEROS\CORAZONES Y CRUCES\Madera Corazones pintados -3.jpg</t>
-  </si>
-  <si>
-    <t>Madera Redondeles cuneritos</t>
-  </si>
-  <si>
-    <t>Cunero colgante redondo.  8 cm de diámetro.  Pintado a mano - Motivo infantil -</t>
-  </si>
-  <si>
-    <t>..\..\Pictures\A TRABAJOS WEB\Madera\CUNEROS\REDONDELES\Madera Redondeles cuneritos.jpg</t>
-  </si>
-  <si>
-    <t>Madera Cuadros Pasta piedra Virgen María -GRANDE-</t>
-  </si>
-  <si>
-    <t>MADERA&gt;CUADROS PASTA PIEDRA</t>
-  </si>
-  <si>
-    <t>Madera Cuadro Virgen María Pasta Piedra-1-</t>
-  </si>
-  <si>
-    <t>Virgen María en un diseño infantil. Pintada y modelada a mano en Pasta Piedra. 40x30 cm - 1 cm grosor de la madera</t>
-  </si>
-  <si>
-    <t>..\..\Pictures\A TRABAJOS WEB\Madera\CUADROS PASTA PIEDRA\Madera Cuadro Virgen María Pasta Piedra -1.jpg</t>
-  </si>
-  <si>
-    <t>Madera Cuadros Pasta piedra Virgen María -MEDIO-</t>
-  </si>
-  <si>
-    <t>Madera Cuadro Virgen María Pasta Piedra-2-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Virgen María en un diseño infantil. Pintada y modelada a mano en Pasta Piedra. 32x26 cm 1 cm grosor de la madera - </t>
-  </si>
-  <si>
-    <t>..\..\Pictures\A TRABAJOS WEB\Madera\CUADROS PASTA PIEDRA\Madera Cuadro Virgen María Pasta Piedra -2.jpg</t>
-  </si>
-  <si>
-    <t>Rosarios 24 glorias Sta. Teresita</t>
-  </si>
-  <si>
-    <t>VARIOS&gt;ROSARIOS</t>
-  </si>
-  <si>
-    <t>rosarios-24-glorias-sta-teresita</t>
-  </si>
-  <si>
-    <t>Rosario  de 24 cuentas, en honor de los 24 años de vida de Sta. Teresita del Niño Jesús.  Con estampa explicativa (14,5x10 cm)</t>
-  </si>
-  <si>
-    <t>..\..\Pictures\A TRABAJOS WEB\VARIOS\ROSARIOS\24 Glorias\Rosarios 24 glorias Sta. Teresita.jpg</t>
-  </si>
-  <si>
-    <t>Rosarios Cola de rata</t>
-  </si>
-  <si>
-    <t>Rosario cola de rata</t>
-  </si>
-  <si>
-    <t>Rosario de bolsillo, con cuentas de madera pequeñas y cruz acorde.  Sencillo y práctico para nuestra oración cotidiana a la Virgen María.</t>
-  </si>
-  <si>
-    <t>..\..\Pictures\A TRABAJOS WEB\VARIOS\ROSARIOS\Rosarios Cola de rata\Rosario cola de rata.jpg</t>
+    <t xml:space="preserve">CARMELITAS BARILOCHE WEB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PRODUCTOS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DISPONIBILIDAD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PRECIO UNITARIO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CATEGORÍA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FOTOS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DESCRIPCIÓN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ubicación Archivo (vínculo)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">title</t>
+  </si>
+  <si>
+    <t xml:space="preserve">stock</t>
+  </si>
+  <si>
+    <t xml:space="preserve">precio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">peso</t>
+  </si>
+  <si>
+    <t xml:space="preserve">categorias</t>
+  </si>
+  <si>
+    <t xml:space="preserve">imagen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">descripcion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ubicacion-fotos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cuero señalador</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CUERO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cuero señalador</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Realizados en cuero vacuno. Pirograbados. 15,5x7 cm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">..\..\Pictures\A TRABAJOS WEB\CUERO\SEÑALADORES\Señaladores 1\Señaladores de Cuero -1.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cuero Evangelio con estuche pirograbado</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cuero evangelio con estuche pirograbado</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Los cuatro Evangelios en formato bolsillo en su estuche de cuero vacuno pirograbado. 9x13,5 cm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">..\..\Pictures\A TRABAJOS WEB\CUERO\ESTUCHES\Cuero Evangelio con estuche pirograbado A.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Detentes - Protección del Sagrado Corazón de Jesús</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VARIOS&gt;ESCAPULARIOS Y DETENTES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Detentes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pequeña imagen del Sagrado Corazón de Jesús sobre paño rojo, con la inscripción "¡Detente! El Sagrado Corazón de Jesús está conmigo" -    5x4 cm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">..\..\Pictures\A TRABAJOS WEB\VARIOS\ESCAPULARIOS Y DETENTES\Detentes.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Escapulario chico</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Confeccionados con tela e hilo macramé . Con la imagen de la Virgen del Carmen- 3,5x2,5 cm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">..\..\Pictures\A TRABAJOS WEB\VARIOS\ESCAPULARIOS Y DETENTES\Escapulario chico.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Escapulario Grande</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Escapulario grande</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Confeccionados con tela y cola de rata- Imagen de la Virgen del Carmen y Sagrado Corazón  5,5x4 cm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">..\..\Pictures\A TRABAJOS WEB\VARIOS\ESCAPULARIOS Y DETENTES\Escapulario grande.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Estampas de Flores Nada te turbe -1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VARIOS&gt;ESTAMPAS DE FLORES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Estampas Flores Nada te turbe-1-</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Señaladores en papel reciclado. Diseño artísitico con flores de Bariloche. 15x7,5 cm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">..\..\Pictures\A TRABAJOS WEB\VARIOS\ESTAMPAS FLORES\Estampas Flores Nada te turbe -1.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Estampas de Flores Nada te turbe -2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Estampas Flores Nada te turbe-2-</t>
+  </si>
+  <si>
+    <t xml:space="preserve">..\..\Pictures\A TRABAJOS WEB\VARIOS\ESTAMPAS FLORES\Estampas Flores Nada te turbe -2.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Estampas de Flores Nada te turbe -3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Estampas Flores Nada te turbe-3-</t>
+  </si>
+  <si>
+    <t xml:space="preserve">..\..\Pictures\A TRABAJOS WEB\VARIOS\ESTAMPAS FLORES\Estampas Flores Nada te turbe -3.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Estampas de Flores Nada te turbe -4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Estampas Flores Nada te turbe-4-</t>
+  </si>
+  <si>
+    <t xml:space="preserve">..\..\Pictures\A TRABAJOS WEB\VARIOS\ESTAMPAS FLORES\Estampas Flores Nada te turbe -4.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Estampas de Flores Nada te turbe -5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Estampas Flores Nada te turbe-5-</t>
+  </si>
+  <si>
+    <t xml:space="preserve">..\..\Pictures\A TRABAJOS WEB\VARIOS\ESTAMPAS FLORES\Estampas Flores Nada te turbe -5.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Madera Cuadros puntillismo Sagrada Familia -1-</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MADERA&gt;CUADROS PUNTILLISMO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">madera cuadro puntillismo sgda-familia-1-</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pintado a mano con técnica puntillismo. 22,5 x 19,5 cm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">..\..\Pictures\A TRABAJOS WEB\Madera\CUADROS PUNTILLISMO\Madera Cuadro Puntillismo Sgda. Familia -1.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Madera Cuadros puntillismo Sagrada Familia -2-</t>
+  </si>
+  <si>
+    <t xml:space="preserve">madera cuadro puntillismo sgda-familia-2-</t>
+  </si>
+  <si>
+    <t xml:space="preserve">..\..\Pictures\A TRABAJOS WEB\Madera\CUADROS PUNTILLISMO\Madera Cuadro Puntillismo Sgda. Familia -2.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Madera Cuadros puntillismo Virgencita de Luján -1-</t>
+  </si>
+  <si>
+    <t xml:space="preserve">madera cuadro puntillismo virgencita de luján-1-</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pintado a mano con técnica puntillismo, 25 x 18 cm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">..\..\Pictures\A TRABAJOS WEB\Madera\CUADROS PUNTILLISMO\Madera Cuadro Puntillismo Virgencita de Luján -1.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Madera Cuadros puntillismo Virgencita de Luján -2-</t>
+  </si>
+  <si>
+    <t xml:space="preserve">madera cuadro puntillismo virgencita de luján-2-</t>
+  </si>
+  <si>
+    <t xml:space="preserve">..\..\Pictures\A TRABAJOS WEB\Madera\CUADROS PUNTILLISMO\Madera Cuadro Puntillismo Virgencita de Luján -2.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Madera Corazones pintados-1-</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MADERA&gt;CUNEROS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cunero colgante: Corazón pintado a mano,  con motivo infantil. 11,5 x 10,5 cm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">..\..\Pictures\A TRABAJOS WEB\Madera\CUNEROS\CORAZONES Y CRUCES\Madera Corazones pintados -1.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Madera Corazones pintados-2-</t>
+  </si>
+  <si>
+    <t xml:space="preserve">..\..\Pictures\A TRABAJOS WEB\Madera\CUNEROS\CORAZONES Y CRUCES\Madera Corazones pintados -2.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Madera Corazones pintados-3-</t>
+  </si>
+  <si>
+    <t xml:space="preserve">..\..\Pictures\A TRABAJOS WEB\Madera\CUNEROS\CORAZONES Y CRUCES\Madera Corazones pintados -3.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Madera Redondeles cuneritos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cunero colgante redondo.  8 cm de diámetro.  Pintado a mano - Motivo infantil -</t>
+  </si>
+  <si>
+    <t xml:space="preserve">..\..\Pictures\A TRABAJOS WEB\Madera\CUNEROS\REDONDELES\Madera Redondeles cuneritos.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Madera Cuadros Pasta piedra Virgen María -GRANDE-</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MADERA&gt;CUADROS PASTA PIEDRA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Madera Cuadro Virgen María Pasta Piedra-1-</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Virgen María en un diseño infantil. Pintada y modelada a mano en Pasta Piedra. 40x30 cm - 1 cm grosor de la madera</t>
+  </si>
+  <si>
+    <t xml:space="preserve">..\..\Pictures\A TRABAJOS WEB\Madera\CUADROS PASTA PIEDRA\Madera Cuadro Virgen María Pasta Piedra -1.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Madera Cuadros Pasta piedra Virgen María -MEDIO-</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Madera Cuadro Virgen María Pasta Piedra-2-</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Virgen María en un diseño infantil. Pintada y modelada a mano en Pasta Piedra. 32x26 cm 1 cm grosor de la madera</t>
+  </si>
+  <si>
+    <t xml:space="preserve">..\..\Pictures\A TRABAJOS WEB\Madera\CUADROS PASTA PIEDRA\Madera Cuadro Virgen María Pasta Piedra -2.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rosarios 24 glorias Sta. Teresita</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VARIOS&gt;ROSARIOS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rosarios-24-glorias-sta-teresita</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rosario  de 24 cuentas, en honor de los 24 años de vida de Sta. Teresita del Niño Jesús.  Con estampa explicativa (14,5x10 cm)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">..\..\Pictures\A TRABAJOS WEB\VARIOS\ROSARIOS\24 Glorias\Rosarios 24 glorias Sta. Teresita.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rosarios Cola de rata</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rosario cola de rata</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rosario de bolsillo, con cuentas de madera pequeñas y cruz acorde.  Sencillo y práctico para nuestra oración cotidiana a la Virgen María.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">..\..\Pictures\A TRABAJOS WEB\VARIOS\ROSARIOS\Rosarios Cola de rata\Rosario cola de rata.jpg</t>
   </si>
   <si>
     <t xml:space="preserve">Velas Litúrgicas de Cera de abeja  (CHICAS) </t>
   </si>
   <si>
-    <t>VELAS</t>
-  </si>
-  <si>
-    <t>Vela cera de abeja chica</t>
-  </si>
-  <si>
-    <t>Elaboradas con CERA DE ABEJAS. Aptas para uso en la Santa Misa u otros actos litúrgicos y devocionales. 5,5X 10,5 cm</t>
-  </si>
-  <si>
-    <t>..\..\Pictures\A TRABAJOS WEB\VELAS\CERA DE ABEJAS\Vela Cera de abeja chica.jpg</t>
-  </si>
-  <si>
-    <t>Velas Colores y Aromas -ROSAS-</t>
-  </si>
-  <si>
-    <t>vela colores y aromas rosas</t>
-  </si>
-  <si>
-    <t>Elaboradas con parafina, colores y esencias perfumadas. 4,2x12 cm</t>
-  </si>
-  <si>
-    <t>..\..\Pictures\A TRABAJOS WEB\VELAS\COLORES Y AROMAS\Colores y aromas Rosas.jpg</t>
-  </si>
-  <si>
-    <t>Cerámica Rosario engarzados (perfume de Rosas con cajita)</t>
-  </si>
-  <si>
-    <t>CERÁMICA</t>
-  </si>
-  <si>
-    <t>Cerámica Rosario</t>
-  </si>
-  <si>
-    <t>Rosario engarzado con cuentas de cerámica realizadas de manera artesanal.  Perfume de rosas. Incluye cajita portarosario.</t>
-  </si>
-  <si>
-    <t>..\..\Pictures\A TRABAJOS WEB\Cerámica\Rosario Cerámica.jpg</t>
-  </si>
-  <si>
-    <t>Cerámica cruces souvenir</t>
-  </si>
-  <si>
-    <t>Cruz Souvenir</t>
+    <t xml:space="preserve">VELAS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vela cera de abeja chica</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Elaboradas con CERA DE ABEJAS. Aptas para uso en la Santa Misa u otros actos litúrgicos y devocionales. 5,5X 10,5 cm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">..\..\Pictures\A TRABAJOS WEB\VELAS\CERA DE ABEJAS\Vela Cera de abeja chica.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Velas Colores y Aromas -ROSAS-</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vela colores y aromas rosas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Elaboradas con parafina, colores y esencias perfumadas. 4,2x12 cm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">..\..\Pictures\A TRABAJOS WEB\VELAS\COLORES Y AROMAS\Colores y aromas Rosas.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cerámica Rosario engarzados (perfume de Rosas con cajita)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CERÁMICA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cerámica Rosario</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rosario engarzado con cuentas de cerámica realizadas de manera artesanal.  Perfume de rosas. Incluye cajita portarosario.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">..\..\Pictures\A TRABAJOS WEB\Cerámica\Rosario Cerámica.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cerámica cruces souvenir</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cruz Souvenir</t>
   </si>
   <si>
     <t xml:space="preserve">Cruz colgante de cerámica con el Niño Jesús - Diseños exclusivos - Ideal para cuneros o la habitación de los niños. 6,5x5,5 cm </t>
   </si>
   <si>
-    <t>..\..\Pictures\A TRABAJOS WEB\Cerámica\CRUCES\Cruz souvenir.jpg</t>
-  </si>
-  <si>
-    <t>Cerámica Pesebre</t>
-  </si>
-  <si>
-    <t>cerámica pesebre</t>
-  </si>
-  <si>
-    <t>Pesebre artesanal - Diseños exclusivos. 14x9,5 cm</t>
-  </si>
-  <si>
-    <t>..\..\Pictures\A TRABAJOS WEB\Cerámica\PESEBRES\Pesebre cerámica.jpg</t>
-  </si>
-  <si>
-    <t>Cerámica Virgen embarazada</t>
-  </si>
-  <si>
-    <t>Virgen Embarazada</t>
-  </si>
-  <si>
-    <t>Imagen de la Virgen María, advocación "Nuestra Señora de la Dulce Espera!"- Diseños exclusivos -19,5 x 6,5 cm</t>
-  </si>
-  <si>
-    <t>..\..\Pictures\A TRABAJOS WEB\Cerámica\Virgen Embarazada.jpg</t>
-  </si>
-  <si>
-    <t>Cerámica Niños Jesús-1-</t>
-  </si>
-  <si>
-    <t>CERÁMICA&gt;NIÑOS JESÚS</t>
-  </si>
-  <si>
-    <t>Cerámica Niño Jesús-1-</t>
-  </si>
-  <si>
-    <t>Imagen artesanal del Niño Jesús con aureola y cunita - 5x4 cm</t>
-  </si>
-  <si>
-    <t>..\..\Pictures\A TRABAJOS WEB\Cerámica\Niños Jesús\Cerámica Niño Jesús -1.jpg</t>
-  </si>
-  <si>
-    <t>Cerámica Niños Jesús-2-</t>
-  </si>
-  <si>
-    <t>Cerámica Niño Jesús-2-</t>
-  </si>
-  <si>
-    <t>..\..\Pictures\A TRABAJOS WEB\Cerámica\Niños Jesús\Cerámica Niño Jesús 3.jpg</t>
-  </si>
-  <si>
-    <t>Cerámica Niños Jesús-3-</t>
-  </si>
-  <si>
-    <t>Cerámica Niño Jesús-3-</t>
-  </si>
-  <si>
-    <t>..\..\Pictures\A TRABAJOS WEB\Cerámica\Niños Jesús\Cerámica Niño Jesús 4.jpg</t>
-  </si>
-  <si>
-    <t>Cerámica Niños Jesús-4-</t>
-  </si>
-  <si>
-    <t>Cerámica Niño Jesús-4-</t>
+    <t xml:space="preserve">..\..\Pictures\A TRABAJOS WEB\Cerámica\CRUCES\Cruz souvenir.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cerámica Pesebre</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cerámica pesebre</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pesebre artesanal - Diseños exclusivos. 14x9,5 cm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">..\..\Pictures\A TRABAJOS WEB\Cerámica\PESEBRES\Pesebre cerámica.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cerámica Virgen embarazada</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Virgen Embarazada</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Imagen de la Virgen María, advocación "Nuestra Señora de la Dulce Espera!"- Diseños exclusivos -19,5 x 6,5 cm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">..\..\Pictures\A TRABAJOS WEB\Cerámica\Virgen Embarazada.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cerámica Niños Jesús-1-</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CERÁMICA&gt;NIÑOS JESÚS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cerámica Niño Jesús-1-</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Imagen artesanal del Niño Jesús con aureola y cunita - 5x4 cm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">..\..\Pictures\A TRABAJOS WEB\Cerámica\Niños Jesús\Cerámica Niño Jesús -1.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cerámica Niños Jesús-2-</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cerámica Niño Jesús-2-</t>
+  </si>
+  <si>
+    <t xml:space="preserve">..\..\Pictures\A TRABAJOS WEB\Cerámica\Niños Jesús\Cerámica Niño Jesús 3.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cerámica Niños Jesús-3-</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cerámica Niño Jesús-3-</t>
+  </si>
+  <si>
+    <t xml:space="preserve">..\..\Pictures\A TRABAJOS WEB\Cerámica\Niños Jesús\Cerámica Niño Jesús 4.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cerámica Niños Jesús-4-</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cerámica Niño Jesús-4-</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="_-&quot;$ &quot;* #,##0.00_-;&quot;-$ &quot;* #,##0.00_-;_-&quot;$ &quot;* \-??_-;_-@_-"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="3">
+    <numFmt numFmtId="164" formatCode="General"/>
+    <numFmt numFmtId="165" formatCode="0"/>
+    <numFmt numFmtId="166" formatCode="_-&quot;$ &quot;* #,##0.00_-;&quot;-$ &quot;* #,##0.00_-;_-&quot;$ &quot;* \-??_-;_-@_-"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
     </font>
     <font>
       <sz val="12"/>
@@ -460,7 +473,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <u/>
+      <u val="single"/>
       <sz val="11"/>
       <color theme="10"/>
       <name val="Calibri"/>
@@ -468,7 +481,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <i/>
+      <i val="true"/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
@@ -476,15 +489,8 @@
       <charset val="1"/>
     </font>
     <font>
-      <i/>
+      <i val="true"/>
       <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
@@ -499,331 +505,429 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.59987182226020086"/>
+        <fgColor theme="4" tint="0.5998"/>
         <bgColor rgb="FFDBDBDB"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.39988402966399123"/>
+        <fgColor theme="4" tint="0.3998"/>
         <bgColor rgb="FFBDD7EE"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.59987182226020086"/>
+        <fgColor theme="6" tint="0.5998"/>
         <bgColor rgb="FFE2F0D9"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79989013336588644"/>
+        <fgColor theme="9" tint="0.7998"/>
         <bgColor rgb="FFFBE5D6"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.59987182226020086"/>
+        <fgColor theme="7" tint="0.5998"/>
         <bgColor rgb="FFFFD966"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.39988402966399123"/>
+        <fgColor theme="9" tint="0.3998"/>
         <bgColor rgb="FF9DC3E6"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.39988402966399123"/>
+        <fgColor theme="7" tint="0.3998"/>
         <bgColor rgb="FFFFE699"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.79989013336588644"/>
+        <fgColor theme="5" tint="0.7998"/>
         <bgColor rgb="FFE2F0D9"/>
       </patternFill>
     </fill>
   </fills>
   <borders count="11">
-    <border>
+    <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border>
+    <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
-    <border>
+    <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
+      <top style="thin"/>
       <bottom/>
       <diagonal/>
     </border>
-    <border>
+    <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
       <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
+      <top style="thin"/>
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
       <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
-    <border>
+    <border diagonalUp="false" diagonalDown="false">
       <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
+      <right style="thin"/>
       <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
       <right/>
       <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="4">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+  <cellStyleXfs count="22">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="63">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="6" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="7" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="7" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="8" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="9" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="6" borderId="2" xfId="17" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="6" borderId="2" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="7" borderId="2" xfId="17" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="7" borderId="2" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="7" borderId="2" xfId="17" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="8" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="8" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="8" borderId="2" xfId="17" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="8" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="8" borderId="2" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="8" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="8" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="8" borderId="2" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="2" xfId="17" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="2" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="9" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="9" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="9" borderId="2" xfId="17" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="9" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="9" borderId="2" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="9" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="4" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="9" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
-  <cellStyles count="4">
-    <cellStyle name="Excel Built-in Explanatory Text" xfId="3"/>
-    <cellStyle name="Hipervínculo" xfId="2" builtinId="8"/>
-    <cellStyle name="Moneda" xfId="1" builtinId="4"/>
+  <cellStyles count="8">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5"/>
+    <cellStyle name="*unknown*" xfId="20" builtinId="8"/>
+    <cellStyle name="Excel Built-in Explanatory Text" xfId="21"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -882,76 +986,60 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
         <a:srgbClr val="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:srgbClr val="FFFFFF"/>
+        <a:srgbClr val="ffffff"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="44546a"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="e7e6e6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="5b9bd5"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="ed7d31"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="a5a5a5"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="ffc000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="4472c4"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="70ad47"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="0563c1"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="954f72"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204" pitchFamily="0" charset="1"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="0" charset="1"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
       </a:minorFont>
@@ -983,7 +1071,7 @@
             </a:gs>
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
-          <a:tileRect/>
+          <a:tileRect l="0" t="0" r="0" b="0"/>
         </a:gradFill>
         <a:gradFill>
           <a:gsLst>
@@ -1007,7 +1095,7 @@
             </a:gs>
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
-          <a:tileRect/>
+          <a:tileRect l="0" t="0" r="0" b="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
@@ -1067,50 +1155,51 @@
             </a:gs>
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
-          <a:tileRect/>
+          <a:tileRect l="0" t="0" r="0" b="0"/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="A1:N35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A19" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G23" activeCellId="0" sqref="G23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.57421875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="43.85546875" style="2" customWidth="1"/>
-    <col min="2" max="2" width="12.5703125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="17.42578125" style="4" customWidth="1"/>
-    <col min="4" max="4" width="11.28515625" style="4" customWidth="1"/>
-    <col min="5" max="5" width="34.5703125" style="2" customWidth="1"/>
-    <col min="6" max="6" width="39.42578125" style="2" customWidth="1"/>
-    <col min="7" max="7" width="33.140625" style="2" customWidth="1"/>
-    <col min="8" max="8" width="78.5703125" style="2" customWidth="1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="43.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="12.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="3" width="17.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="3" width="11.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="34.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="39.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="33.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="78.57"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
       <c r="G1" s="5"/>
       <c r="H1" s="6"/>
       <c r="L1" s="5"/>
     </row>
-    <row r="2" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="7" t="s">
         <v>1</v>
       </c>
@@ -1138,7 +1227,7 @@
       <c r="K2" s="12"/>
       <c r="L2" s="5"/>
     </row>
-    <row r="3" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="7" t="s">
         <v>8</v>
       </c>
@@ -1168,17 +1257,17 @@
       <c r="K3" s="12"/>
       <c r="L3" s="5"/>
     </row>
-    <row r="4" spans="1:13" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" customFormat="false" ht="34.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="15">
-        <v>1</v>
-      </c>
-      <c r="C4" s="16">
+      <c r="B4" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="C4" s="16" t="n">
         <v>2500</v>
       </c>
-      <c r="D4" s="16">
+      <c r="D4" s="16" t="n">
         <v>20</v>
       </c>
       <c r="E4" s="17" t="s">
@@ -1198,17 +1287,17 @@
       <c r="K4" s="12"/>
       <c r="L4" s="20"/>
     </row>
-    <row r="5" spans="1:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" customFormat="false" ht="39.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="15">
-        <v>1</v>
-      </c>
-      <c r="C5" s="16">
+      <c r="B5" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="C5" s="16" t="n">
         <v>16000</v>
       </c>
-      <c r="D5" s="16">
+      <c r="D5" s="16" t="n">
         <v>90</v>
       </c>
       <c r="E5" s="17" t="s">
@@ -1228,17 +1317,17 @@
       <c r="K5" s="12"/>
       <c r="L5" s="24"/>
     </row>
-    <row r="6" spans="1:13" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" customFormat="false" ht="34.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="B6" s="26">
+      <c r="B6" s="26" t="n">
         <v>100</v>
       </c>
-      <c r="C6" s="27">
+      <c r="C6" s="27" t="n">
         <v>1200</v>
       </c>
-      <c r="D6" s="27">
+      <c r="D6" s="27" t="n">
         <v>1</v>
       </c>
       <c r="E6" s="28" t="s">
@@ -1258,17 +1347,17 @@
       <c r="K6" s="12"/>
       <c r="L6" s="12"/>
     </row>
-    <row r="7" spans="1:13" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" customFormat="false" ht="34.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="B7" s="26">
+      <c r="B7" s="26" t="n">
         <v>100</v>
       </c>
-      <c r="C7" s="30">
+      <c r="C7" s="30" t="n">
         <v>1200</v>
       </c>
-      <c r="D7" s="30">
+      <c r="D7" s="30" t="n">
         <v>1</v>
       </c>
       <c r="E7" s="28" t="s">
@@ -1288,17 +1377,17 @@
       <c r="K7" s="12"/>
       <c r="L7" s="12"/>
     </row>
-    <row r="8" spans="1:13" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" customFormat="false" ht="34.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="B8" s="26">
+      <c r="B8" s="26" t="n">
         <v>100</v>
       </c>
-      <c r="C8" s="27">
+      <c r="C8" s="27" t="n">
         <v>2000</v>
       </c>
-      <c r="D8" s="27">
+      <c r="D8" s="27" t="n">
         <v>2</v>
       </c>
       <c r="E8" s="28" t="s">
@@ -1318,17 +1407,17 @@
       <c r="K8" s="12"/>
       <c r="L8" s="5"/>
     </row>
-    <row r="9" spans="1:13" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" customFormat="false" ht="34.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="B9" s="26">
-        <v>1</v>
-      </c>
-      <c r="C9" s="27">
+      <c r="B9" s="26" t="n">
+        <v>1</v>
+      </c>
+      <c r="C9" s="27" t="n">
         <v>1200</v>
       </c>
-      <c r="D9" s="27">
+      <c r="D9" s="27" t="n">
         <v>1</v>
       </c>
       <c r="E9" s="28" t="s">
@@ -1349,17 +1438,17 @@
       <c r="L9" s="20"/>
       <c r="M9" s="13"/>
     </row>
-    <row r="10" spans="1:13" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" customFormat="false" ht="34.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="B10" s="26">
-        <v>1</v>
-      </c>
-      <c r="C10" s="27">
+      <c r="B10" s="26" t="n">
+        <v>1</v>
+      </c>
+      <c r="C10" s="27" t="n">
         <v>1200</v>
       </c>
-      <c r="D10" s="27">
+      <c r="D10" s="27" t="n">
         <v>1</v>
       </c>
       <c r="E10" s="28" t="s">
@@ -1380,17 +1469,17 @@
       <c r="L10" s="20"/>
       <c r="M10" s="13"/>
     </row>
-    <row r="11" spans="1:13" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" customFormat="false" ht="34.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="B11" s="26">
-        <v>1</v>
-      </c>
-      <c r="C11" s="27">
+      <c r="B11" s="26" t="n">
+        <v>1</v>
+      </c>
+      <c r="C11" s="27" t="n">
         <v>1200</v>
       </c>
-      <c r="D11" s="27">
+      <c r="D11" s="27" t="n">
         <v>1</v>
       </c>
       <c r="E11" s="28" t="s">
@@ -1411,17 +1500,17 @@
       <c r="L11" s="20"/>
       <c r="M11" s="13"/>
     </row>
-    <row r="12" spans="1:13" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" customFormat="false" ht="34.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="25" t="s">
         <v>48</v>
       </c>
-      <c r="B12" s="26">
-        <v>1</v>
-      </c>
-      <c r="C12" s="27">
+      <c r="B12" s="26" t="n">
+        <v>1</v>
+      </c>
+      <c r="C12" s="27" t="n">
         <v>1200</v>
       </c>
-      <c r="D12" s="27">
+      <c r="D12" s="27" t="n">
         <v>1</v>
       </c>
       <c r="E12" s="28" t="s">
@@ -1442,17 +1531,17 @@
       <c r="L12" s="20"/>
       <c r="M12" s="13"/>
     </row>
-    <row r="13" spans="1:13" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" customFormat="false" ht="34.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="25" t="s">
         <v>51</v>
       </c>
-      <c r="B13" s="26">
-        <v>1</v>
-      </c>
-      <c r="C13" s="27">
+      <c r="B13" s="26" t="n">
+        <v>1</v>
+      </c>
+      <c r="C13" s="27" t="n">
         <v>1200</v>
       </c>
-      <c r="D13" s="27">
+      <c r="D13" s="27" t="n">
         <v>1</v>
       </c>
       <c r="E13" s="28" t="s">
@@ -1472,17 +1561,17 @@
       <c r="K13" s="32"/>
       <c r="M13" s="13"/>
     </row>
-    <row r="14" spans="1:13" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" customFormat="false" ht="34.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="33" t="s">
         <v>54</v>
       </c>
-      <c r="B14" s="34">
-        <v>1</v>
-      </c>
-      <c r="C14" s="35">
+      <c r="B14" s="34" t="n">
+        <v>1</v>
+      </c>
+      <c r="C14" s="35" t="n">
         <v>18000</v>
       </c>
-      <c r="D14" s="35">
+      <c r="D14" s="35" t="n">
         <v>325</v>
       </c>
       <c r="E14" s="36" t="s">
@@ -1502,17 +1591,17 @@
       <c r="K14" s="12"/>
       <c r="L14" s="12"/>
     </row>
-    <row r="15" spans="1:13" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" customFormat="false" ht="34.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="33" t="s">
         <v>59</v>
       </c>
-      <c r="B15" s="34">
-        <v>1</v>
-      </c>
-      <c r="C15" s="35">
+      <c r="B15" s="34" t="n">
+        <v>1</v>
+      </c>
+      <c r="C15" s="35" t="n">
         <v>18000</v>
       </c>
-      <c r="D15" s="35">
+      <c r="D15" s="35" t="n">
         <v>325</v>
       </c>
       <c r="E15" s="36" t="s">
@@ -1530,17 +1619,17 @@
       <c r="K15" s="12"/>
       <c r="L15" s="20"/>
     </row>
-    <row r="16" spans="1:13" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" customFormat="false" ht="34.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="33" t="s">
         <v>62</v>
       </c>
-      <c r="B16" s="34">
-        <v>1</v>
-      </c>
-      <c r="C16" s="35">
+      <c r="B16" s="34" t="n">
+        <v>1</v>
+      </c>
+      <c r="C16" s="35" t="n">
         <v>15000</v>
       </c>
-      <c r="D16" s="35">
+      <c r="D16" s="35" t="n">
         <v>280</v>
       </c>
       <c r="E16" s="36" t="s">
@@ -1560,17 +1649,17 @@
       <c r="K16" s="12"/>
       <c r="L16" s="11"/>
     </row>
-    <row r="17" spans="1:14" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" customFormat="false" ht="34.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="33" t="s">
         <v>66</v>
       </c>
-      <c r="B17" s="34">
-        <v>1</v>
-      </c>
-      <c r="C17" s="35">
+      <c r="B17" s="34" t="n">
+        <v>1</v>
+      </c>
+      <c r="C17" s="35" t="n">
         <v>15000</v>
       </c>
-      <c r="D17" s="35">
+      <c r="D17" s="35" t="n">
         <v>280</v>
       </c>
       <c r="E17" s="36" t="s">
@@ -1590,17 +1679,17 @@
       <c r="K17" s="12"/>
       <c r="L17" s="11"/>
     </row>
-    <row r="18" spans="1:14" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" customFormat="false" ht="34.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="40" t="s">
         <v>69</v>
       </c>
-      <c r="B18" s="41">
+      <c r="B18" s="41" t="n">
         <v>100</v>
       </c>
-      <c r="C18" s="35">
+      <c r="C18" s="35" t="n">
         <v>7000</v>
       </c>
-      <c r="D18" s="35">
+      <c r="D18" s="35" t="n">
         <v>90</v>
       </c>
       <c r="E18" s="40" t="s">
@@ -1619,17 +1708,17 @@
       <c r="K18" s="12"/>
       <c r="L18" s="12"/>
     </row>
-    <row r="19" spans="1:14" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" customFormat="false" ht="34.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="40" t="s">
         <v>73</v>
       </c>
-      <c r="B19" s="41">
+      <c r="B19" s="41" t="n">
         <v>100</v>
       </c>
-      <c r="C19" s="35">
+      <c r="C19" s="35" t="n">
         <v>7000</v>
       </c>
-      <c r="D19" s="35">
+      <c r="D19" s="35" t="n">
         <v>90</v>
       </c>
       <c r="E19" s="40" t="s">
@@ -1648,17 +1737,17 @@
       <c r="K19" s="12"/>
       <c r="L19" s="5"/>
     </row>
-    <row r="20" spans="1:14" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" customFormat="false" ht="34.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="40" t="s">
         <v>75</v>
       </c>
-      <c r="B20" s="41">
+      <c r="B20" s="41" t="n">
         <v>100</v>
       </c>
-      <c r="C20" s="35">
+      <c r="C20" s="35" t="n">
         <v>7000</v>
       </c>
-      <c r="D20" s="35">
+      <c r="D20" s="35" t="n">
         <v>90</v>
       </c>
       <c r="E20" s="40" t="s">
@@ -1678,17 +1767,17 @@
       <c r="K20" s="12"/>
       <c r="L20" s="5"/>
     </row>
-    <row r="21" spans="1:14" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" customFormat="false" ht="34.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="33" t="s">
         <v>77</v>
       </c>
-      <c r="B21" s="34">
+      <c r="B21" s="34" t="n">
         <v>100</v>
       </c>
-      <c r="C21" s="35">
+      <c r="C21" s="35" t="n">
         <v>5000</v>
       </c>
-      <c r="D21" s="35">
+      <c r="D21" s="35" t="n">
         <v>50</v>
       </c>
       <c r="E21" s="40" t="s">
@@ -1707,17 +1796,17 @@
       <c r="J21" s="12"/>
       <c r="K21" s="12"/>
     </row>
-    <row r="22" spans="1:14" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" customFormat="false" ht="34.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="33" t="s">
         <v>80</v>
       </c>
-      <c r="B22" s="34">
-        <v>1</v>
-      </c>
-      <c r="C22" s="35">
+      <c r="B22" s="34" t="n">
+        <v>1</v>
+      </c>
+      <c r="C22" s="35" t="n">
         <v>50000</v>
       </c>
-      <c r="D22" s="35">
+      <c r="D22" s="35" t="n">
         <v>1300</v>
       </c>
       <c r="E22" s="40" t="s">
@@ -1736,17 +1825,17 @@
       <c r="K22" s="12"/>
       <c r="L22" s="5"/>
     </row>
-    <row r="23" spans="1:14" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" customFormat="false" ht="34.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="33" t="s">
         <v>85</v>
       </c>
-      <c r="B23" s="34">
-        <v>1</v>
-      </c>
-      <c r="C23" s="35">
+      <c r="B23" s="34" t="n">
+        <v>1</v>
+      </c>
+      <c r="C23" s="35" t="n">
         <v>40000</v>
       </c>
-      <c r="D23" s="35">
+      <c r="D23" s="35" t="n">
         <v>900</v>
       </c>
       <c r="E23" s="40" t="s">
@@ -1766,17 +1855,17 @@
       <c r="K23" s="12"/>
       <c r="L23" s="20"/>
     </row>
-    <row r="24" spans="1:14" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" customFormat="false" ht="34.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="25" t="s">
         <v>89</v>
       </c>
-      <c r="B24" s="26">
+      <c r="B24" s="26" t="n">
         <v>100</v>
       </c>
-      <c r="C24" s="27">
+      <c r="C24" s="27" t="n">
         <v>1800</v>
       </c>
-      <c r="D24" s="27">
+      <c r="D24" s="27" t="n">
         <v>8</v>
       </c>
       <c r="E24" s="28" t="s">
@@ -1796,17 +1885,17 @@
       <c r="K24" s="12"/>
       <c r="L24" s="12"/>
     </row>
-    <row r="25" spans="1:14" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" customFormat="false" ht="34.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="25" t="s">
         <v>94</v>
       </c>
-      <c r="B25" s="26">
+      <c r="B25" s="26" t="n">
         <v>100</v>
       </c>
-      <c r="C25" s="27">
+      <c r="C25" s="27" t="n">
         <v>3000</v>
       </c>
-      <c r="D25" s="27">
+      <c r="D25" s="27" t="n">
         <v>8</v>
       </c>
       <c r="E25" s="28" t="s">
@@ -1826,17 +1915,17 @@
       <c r="K25" s="20"/>
       <c r="L25" s="11"/>
     </row>
-    <row r="26" spans="1:14" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" customFormat="false" ht="34.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="44" t="s">
         <v>98</v>
       </c>
-      <c r="B26" s="45">
+      <c r="B26" s="45" t="n">
         <v>100</v>
       </c>
-      <c r="C26" s="46">
+      <c r="C26" s="46" t="n">
         <v>6500</v>
       </c>
-      <c r="D26" s="46">
+      <c r="D26" s="46" t="n">
         <v>235</v>
       </c>
       <c r="E26" s="47" t="s">
@@ -1855,17 +1944,17 @@
       <c r="J26" s="12"/>
       <c r="K26" s="12"/>
     </row>
-    <row r="27" spans="1:14" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" customFormat="false" ht="34.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="44" t="s">
         <v>103</v>
       </c>
-      <c r="B27" s="45">
+      <c r="B27" s="45" t="n">
         <v>0</v>
       </c>
-      <c r="C27" s="46">
+      <c r="C27" s="46" t="n">
         <v>4500</v>
       </c>
-      <c r="D27" s="46">
+      <c r="D27" s="46" t="n">
         <v>170</v>
       </c>
       <c r="E27" s="49" t="s">
@@ -1884,17 +1973,17 @@
       <c r="J27" s="12"/>
       <c r="K27" s="12"/>
     </row>
-    <row r="28" spans="1:14" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" customFormat="false" ht="39.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="51" t="s">
         <v>107</v>
       </c>
-      <c r="B28" s="52">
-        <v>1</v>
-      </c>
-      <c r="C28" s="53">
+      <c r="B28" s="52" t="n">
+        <v>1</v>
+      </c>
+      <c r="C28" s="53" t="n">
         <v>15000</v>
       </c>
-      <c r="D28" s="53">
+      <c r="D28" s="53" t="n">
         <v>40</v>
       </c>
       <c r="E28" s="54" t="s">
@@ -1913,17 +2002,17 @@
       <c r="J28" s="5"/>
       <c r="K28" s="32"/>
     </row>
-    <row r="29" spans="1:14" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" customFormat="false" ht="34.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="51" t="s">
         <v>112</v>
       </c>
-      <c r="B29" s="52">
-        <v>1</v>
-      </c>
-      <c r="C29" s="53">
+      <c r="B29" s="52" t="n">
+        <v>1</v>
+      </c>
+      <c r="C29" s="53" t="n">
         <v>4600</v>
       </c>
-      <c r="D29" s="53">
+      <c r="D29" s="53" t="n">
         <v>35</v>
       </c>
       <c r="E29" s="57" t="s">
@@ -1942,17 +2031,17 @@
       <c r="J29" s="5"/>
       <c r="K29" s="12"/>
     </row>
-    <row r="30" spans="1:14" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" customFormat="false" ht="34.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="51" t="s">
         <v>116</v>
       </c>
-      <c r="B30" s="52">
-        <v>1</v>
-      </c>
-      <c r="C30" s="53">
+      <c r="B30" s="52" t="n">
+        <v>1</v>
+      </c>
+      <c r="C30" s="53" t="n">
         <v>16000</v>
       </c>
-      <c r="D30" s="53">
+      <c r="D30" s="53" t="n">
         <v>210</v>
       </c>
       <c r="E30" s="57" t="s">
@@ -1972,17 +2061,17 @@
       <c r="K30" s="58"/>
       <c r="N30" s="60"/>
     </row>
-    <row r="31" spans="1:14" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" customFormat="false" ht="34.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="51" t="s">
         <v>120</v>
       </c>
-      <c r="B31" s="52">
-        <v>1</v>
-      </c>
-      <c r="C31" s="53">
+      <c r="B31" s="52" t="n">
+        <v>1</v>
+      </c>
+      <c r="C31" s="53" t="n">
         <v>25000</v>
       </c>
-      <c r="D31" s="53">
+      <c r="D31" s="53" t="n">
         <v>265</v>
       </c>
       <c r="E31" s="57" t="s">
@@ -2001,17 +2090,17 @@
       <c r="J31" s="12"/>
       <c r="K31" s="12"/>
     </row>
-    <row r="32" spans="1:14" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" customFormat="false" ht="34.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="51" t="s">
         <v>124</v>
       </c>
-      <c r="B32" s="52">
-        <v>1</v>
-      </c>
-      <c r="C32" s="53">
+      <c r="B32" s="52" t="n">
+        <v>1</v>
+      </c>
+      <c r="C32" s="53" t="n">
         <v>4000</v>
       </c>
-      <c r="D32" s="53">
+      <c r="D32" s="53" t="n">
         <v>18</v>
       </c>
       <c r="E32" s="57" t="s">
@@ -2030,17 +2119,17 @@
       <c r="J32" s="12"/>
       <c r="K32" s="12"/>
     </row>
-    <row r="33" spans="1:12" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" customFormat="false" ht="34.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="51" t="s">
         <v>129</v>
       </c>
-      <c r="B33" s="52">
-        <v>1</v>
-      </c>
-      <c r="C33" s="53">
+      <c r="B33" s="52" t="n">
+        <v>1</v>
+      </c>
+      <c r="C33" s="53" t="n">
         <v>4000</v>
       </c>
-      <c r="D33" s="53">
+      <c r="D33" s="53" t="n">
         <v>18</v>
       </c>
       <c r="E33" s="57" t="s">
@@ -2059,17 +2148,17 @@
       <c r="J33" s="20"/>
       <c r="K33" s="12"/>
     </row>
-    <row r="34" spans="1:12" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" customFormat="false" ht="34.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="51" t="s">
         <v>132</v>
       </c>
-      <c r="B34" s="52">
-        <v>1</v>
-      </c>
-      <c r="C34" s="53">
+      <c r="B34" s="52" t="n">
+        <v>1</v>
+      </c>
+      <c r="C34" s="53" t="n">
         <v>4000</v>
       </c>
-      <c r="D34" s="53">
+      <c r="D34" s="53" t="n">
         <v>18</v>
       </c>
       <c r="E34" s="57" t="s">
@@ -2088,17 +2177,17 @@
       <c r="J34" s="11"/>
       <c r="K34" s="12"/>
     </row>
-    <row r="35" spans="1:12" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" customFormat="false" ht="34.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="51" t="s">
         <v>135</v>
       </c>
-      <c r="B35" s="52">
-        <v>1</v>
-      </c>
-      <c r="C35" s="53">
+      <c r="B35" s="52" t="n">
+        <v>1</v>
+      </c>
+      <c r="C35" s="53" t="n">
         <v>4000</v>
       </c>
-      <c r="D35" s="53">
+      <c r="D35" s="53" t="n">
         <v>18</v>
       </c>
       <c r="E35" s="57" t="s">
@@ -2123,40 +2212,45 @@
     <mergeCell ref="A1:F1"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="H4" r:id="rId1"/>
-    <hyperlink ref="H5" r:id="rId2"/>
-    <hyperlink ref="H6" r:id="rId3"/>
-    <hyperlink ref="H7" r:id="rId4"/>
-    <hyperlink ref="H8" r:id="rId5"/>
-    <hyperlink ref="H9" r:id="rId6"/>
-    <hyperlink ref="H10" r:id="rId7"/>
-    <hyperlink ref="H11" r:id="rId8"/>
-    <hyperlink ref="H12" r:id="rId9"/>
-    <hyperlink ref="H13" r:id="rId10"/>
-    <hyperlink ref="H14" r:id="rId11"/>
-    <hyperlink ref="H15" r:id="rId12"/>
-    <hyperlink ref="H16" r:id="rId13"/>
-    <hyperlink ref="H17" r:id="rId14"/>
-    <hyperlink ref="H18" r:id="rId15"/>
-    <hyperlink ref="H19" r:id="rId16"/>
-    <hyperlink ref="H20" r:id="rId17"/>
-    <hyperlink ref="H21" r:id="rId18"/>
-    <hyperlink ref="H22" r:id="rId19"/>
-    <hyperlink ref="H23" r:id="rId20"/>
-    <hyperlink ref="H24" r:id="rId21"/>
-    <hyperlink ref="H25" r:id="rId22"/>
-    <hyperlink ref="H26" r:id="rId23"/>
-    <hyperlink ref="H27" r:id="rId24"/>
-    <hyperlink ref="H28" r:id="rId25"/>
-    <hyperlink ref="H29" r:id="rId26"/>
-    <hyperlink ref="H30" r:id="rId27"/>
-    <hyperlink ref="H31" r:id="rId28"/>
-    <hyperlink ref="H32" r:id="rId29"/>
-    <hyperlink ref="H33" r:id="rId30"/>
-    <hyperlink ref="H34" r:id="rId31"/>
-    <hyperlink ref="H35" r:id="rId32"/>
+    <hyperlink ref="H4" r:id="rId1" display="..\..\Pictures\A TRABAJOS WEB\CUERO\SEÑALADORES\Señaladores 1\Señaladores de Cuero -1.jpg"/>
+    <hyperlink ref="H5" r:id="rId2" display="..\..\Pictures\A TRABAJOS WEB\CUERO\ESTUCHES\Cuero Evangelio con estuche pirograbado A.jpg"/>
+    <hyperlink ref="H6" r:id="rId3" display="..\..\Pictures\A TRABAJOS WEB\VARIOS\ESCAPULARIOS Y DETENTES\Detentes.jpg"/>
+    <hyperlink ref="H7" r:id="rId4" display="..\..\Pictures\A TRABAJOS WEB\VARIOS\ESCAPULARIOS Y DETENTES\Escapulario chico.jpg"/>
+    <hyperlink ref="H8" r:id="rId5" display="..\..\Pictures\A TRABAJOS WEB\VARIOS\ESCAPULARIOS Y DETENTES\Escapulario grande.jpg"/>
+    <hyperlink ref="H9" r:id="rId6" display="..\..\Pictures\A TRABAJOS WEB\VARIOS\ESTAMPAS FLORES\Estampas Flores Nada te turbe -1.jpg"/>
+    <hyperlink ref="H10" r:id="rId7" display="..\..\Pictures\A TRABAJOS WEB\VARIOS\ESTAMPAS FLORES\Estampas Flores Nada te turbe -2.jpg"/>
+    <hyperlink ref="H11" r:id="rId8" display="..\..\Pictures\A TRABAJOS WEB\VARIOS\ESTAMPAS FLORES\Estampas Flores Nada te turbe -3.jpg"/>
+    <hyperlink ref="H12" r:id="rId9" display="..\..\Pictures\A TRABAJOS WEB\VARIOS\ESTAMPAS FLORES\Estampas Flores Nada te turbe -4.jpg"/>
+    <hyperlink ref="H13" r:id="rId10" display="..\..\Pictures\A TRABAJOS WEB\VARIOS\ESTAMPAS FLORES\Estampas Flores Nada te turbe -5.jpg"/>
+    <hyperlink ref="H14" r:id="rId11" display="..\..\Pictures\A TRABAJOS WEB\Madera\CUADROS PUNTILLISMO\Madera Cuadro Puntillismo Sgda. Familia -1.jpg"/>
+    <hyperlink ref="H15" r:id="rId12" display="..\..\Pictures\A TRABAJOS WEB\Madera\CUADROS PUNTILLISMO\Madera Cuadro Puntillismo Sgda. Familia -2.jpg"/>
+    <hyperlink ref="H16" r:id="rId13" display="..\..\Pictures\A TRABAJOS WEB\Madera\CUADROS PUNTILLISMO\Madera Cuadro Puntillismo Virgencita de Luján -1.jpg"/>
+    <hyperlink ref="H17" r:id="rId14" display="..\..\Pictures\A TRABAJOS WEB\Madera\CUADROS PUNTILLISMO\Madera Cuadro Puntillismo Virgencita de Luján -2.jpg"/>
+    <hyperlink ref="H18" r:id="rId15" display="..\..\Pictures\A TRABAJOS WEB\Madera\CUNEROS\CORAZONES Y CRUCES\Madera Corazones pintados -1.jpg"/>
+    <hyperlink ref="H19" r:id="rId16" display="..\..\Pictures\A TRABAJOS WEB\Madera\CUNEROS\CORAZONES Y CRUCES\Madera Corazones pintados -2.jpg"/>
+    <hyperlink ref="H20" r:id="rId17" display="..\..\Pictures\A TRABAJOS WEB\Madera\CUNEROS\CORAZONES Y CRUCES\Madera Corazones pintados -3.jpg"/>
+    <hyperlink ref="H21" r:id="rId18" display="..\..\Pictures\A TRABAJOS WEB\Madera\CUNEROS\REDONDELES\Madera Redondeles cuneritos.jpg"/>
+    <hyperlink ref="H22" r:id="rId19" display="..\..\Pictures\A TRABAJOS WEB\Madera\CUADROS PASTA PIEDRA\Madera Cuadro Virgen María Pasta Piedra -1.jpg"/>
+    <hyperlink ref="H23" r:id="rId20" display="..\..\Pictures\A TRABAJOS WEB\Madera\CUADROS PASTA PIEDRA\Madera Cuadro Virgen María Pasta Piedra -2.jpg"/>
+    <hyperlink ref="H24" r:id="rId21" display="..\..\Pictures\A TRABAJOS WEB\VARIOS\ROSARIOS\24 Glorias\Rosarios 24 glorias Sta. Teresita.jpg"/>
+    <hyperlink ref="H25" r:id="rId22" display="..\..\Pictures\A TRABAJOS WEB\VARIOS\ROSARIOS\Rosarios Cola de rata\Rosario cola de rata.jpg"/>
+    <hyperlink ref="H26" r:id="rId23" display="..\..\Pictures\A TRABAJOS WEB\VELAS\CERA DE ABEJAS\Vela Cera de abeja chica.jpg"/>
+    <hyperlink ref="H27" r:id="rId24" display="..\..\Pictures\A TRABAJOS WEB\VELAS\COLORES Y AROMAS\Colores y aromas Rosas.jpg"/>
+    <hyperlink ref="H28" r:id="rId25" display="..\..\Pictures\A TRABAJOS WEB\Cerámica\Rosario Cerámica.jpg"/>
+    <hyperlink ref="H29" r:id="rId26" display="..\..\Pictures\A TRABAJOS WEB\Cerámica\CRUCES\Cruz souvenir.jpg"/>
+    <hyperlink ref="H30" r:id="rId27" display="..\..\Pictures\A TRABAJOS WEB\Cerámica\PESEBRES\Pesebre cerámica.jpg"/>
+    <hyperlink ref="H31" r:id="rId28" display="..\..\Pictures\A TRABAJOS WEB\Cerámica\Virgen Embarazada.jpg"/>
+    <hyperlink ref="H32" r:id="rId29" display="..\..\Pictures\A TRABAJOS WEB\Cerámica\Niños Jesús\Cerámica Niño Jesús -1.jpg"/>
+    <hyperlink ref="H33" r:id="rId30" display="..\..\Pictures\A TRABAJOS WEB\Cerámica\Niños Jesús\Cerámica Niño Jesús 3.jpg"/>
+    <hyperlink ref="H34" r:id="rId31" display="..\..\Pictures\A TRABAJOS WEB\Cerámica\Niños Jesús\Cerámica Niño Jesús 4.jpg"/>
+    <hyperlink ref="H35" r:id="rId32" display="..\..\Pictures\A TRABAJOS WEB\Cerámica\Niños Jesús\Cerámica Niño Jesús 4.jpg"/>
   </hyperlinks>
-  <pageMargins left="0.196527777777778" right="0.196527777777778" top="0.39374999999999999" bottom="0.196527777777778" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="300" verticalDpi="300"/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.196527777777778" right="0.196527777777778" top="0.39375" bottom="0.196527777777778" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="landscape" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
 </worksheet>
 </file>
--- a/data/web-repositorio.xlsx
+++ b/data/web-repositorio.xlsx
@@ -283,7 +283,7 @@
     <t xml:space="preserve">Madera Cuadro Virgen María Pasta Piedra-2-</t>
   </si>
   <si>
-    <t xml:space="preserve">Virgen María en un diseño infantil. Pintada y modelada a mano en Pasta Piedra. 32x26 cm 1 cm grosor de la madera</t>
+    <t xml:space="preserve">Virgen María en un diseño infantil. Pintada y modelada a mano en Pasta Piedra. &lt;p&gt;32x26 cm 1 cm grosor de la madera&lt;/p&gt;</t>
   </si>
   <si>
     <t xml:space="preserve">..\..\Pictures\A TRABAJOS WEB\Madera\CUADROS PASTA PIEDRA\Madera Cuadro Virgen María Pasta Piedra -2.jpg</t>
@@ -1171,7 +1171,7 @@
   <dimension ref="A1:N35"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A19" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G23" activeCellId="0" sqref="G23"/>
+      <selection pane="topLeft" activeCell="G24" activeCellId="0" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.57421875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/data/web-repositorio.xlsx
+++ b/data/web-repositorio.xlsx
@@ -1,16 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Win 10\Downloads\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja1" sheetId="1" state="visible" r:id="rId3"/>
+    <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="0" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -20,450 +24,445 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="137">
-  <si>
-    <t xml:space="preserve">CARMELITAS BARILOCHE WEB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PRODUCTOS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DISPONIBILIDAD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PRECIO UNITARIO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CATEGORÍA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FOTOS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DESCRIPCIÓN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ubicación Archivo (vínculo)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">title</t>
-  </si>
-  <si>
-    <t xml:space="preserve">stock</t>
-  </si>
-  <si>
-    <t xml:space="preserve">precio</t>
-  </si>
-  <si>
-    <t xml:space="preserve">peso</t>
-  </si>
-  <si>
-    <t xml:space="preserve">categorias</t>
-  </si>
-  <si>
-    <t xml:space="preserve">imagen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">descripcion</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ubicacion-fotos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cuero señalador</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CUERO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cuero señalador</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Realizados en cuero vacuno. Pirograbados. 15,5x7 cm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">..\..\Pictures\A TRABAJOS WEB\CUERO\SEÑALADORES\Señaladores 1\Señaladores de Cuero -1.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cuero Evangelio con estuche pirograbado</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cuero evangelio con estuche pirograbado</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Los cuatro Evangelios en formato bolsillo en su estuche de cuero vacuno pirograbado. 9x13,5 cm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">..\..\Pictures\A TRABAJOS WEB\CUERO\ESTUCHES\Cuero Evangelio con estuche pirograbado A.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Detentes - Protección del Sagrado Corazón de Jesús</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VARIOS&gt;ESCAPULARIOS Y DETENTES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Detentes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pequeña imagen del Sagrado Corazón de Jesús sobre paño rojo, con la inscripción "¡Detente! El Sagrado Corazón de Jesús está conmigo" -    5x4 cm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">..\..\Pictures\A TRABAJOS WEB\VARIOS\ESCAPULARIOS Y DETENTES\Detentes.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Escapulario chico</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Confeccionados con tela e hilo macramé . Con la imagen de la Virgen del Carmen- 3,5x2,5 cm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">..\..\Pictures\A TRABAJOS WEB\VARIOS\ESCAPULARIOS Y DETENTES\Escapulario chico.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Escapulario Grande</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Escapulario grande</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Confeccionados con tela y cola de rata- Imagen de la Virgen del Carmen y Sagrado Corazón  5,5x4 cm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">..\..\Pictures\A TRABAJOS WEB\VARIOS\ESCAPULARIOS Y DETENTES\Escapulario grande.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Estampas de Flores Nada te turbe -1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VARIOS&gt;ESTAMPAS DE FLORES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Estampas Flores Nada te turbe-1-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Señaladores en papel reciclado. Diseño artísitico con flores de Bariloche. 15x7,5 cm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">..\..\Pictures\A TRABAJOS WEB\VARIOS\ESTAMPAS FLORES\Estampas Flores Nada te turbe -1.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Estampas de Flores Nada te turbe -2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Estampas Flores Nada te turbe-2-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">..\..\Pictures\A TRABAJOS WEB\VARIOS\ESTAMPAS FLORES\Estampas Flores Nada te turbe -2.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Estampas de Flores Nada te turbe -3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Estampas Flores Nada te turbe-3-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">..\..\Pictures\A TRABAJOS WEB\VARIOS\ESTAMPAS FLORES\Estampas Flores Nada te turbe -3.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Estampas de Flores Nada te turbe -4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Estampas Flores Nada te turbe-4-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">..\..\Pictures\A TRABAJOS WEB\VARIOS\ESTAMPAS FLORES\Estampas Flores Nada te turbe -4.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Estampas de Flores Nada te turbe -5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Estampas Flores Nada te turbe-5-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">..\..\Pictures\A TRABAJOS WEB\VARIOS\ESTAMPAS FLORES\Estampas Flores Nada te turbe -5.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Madera Cuadros puntillismo Sagrada Familia -1-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MADERA&gt;CUADROS PUNTILLISMO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">madera cuadro puntillismo sgda-familia-1-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pintado a mano con técnica puntillismo. 22,5 x 19,5 cm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">..\..\Pictures\A TRABAJOS WEB\Madera\CUADROS PUNTILLISMO\Madera Cuadro Puntillismo Sgda. Familia -1.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Madera Cuadros puntillismo Sagrada Familia -2-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">madera cuadro puntillismo sgda-familia-2-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">..\..\Pictures\A TRABAJOS WEB\Madera\CUADROS PUNTILLISMO\Madera Cuadro Puntillismo Sgda. Familia -2.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Madera Cuadros puntillismo Virgencita de Luján -1-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">madera cuadro puntillismo virgencita de luján-1-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pintado a mano con técnica puntillismo, 25 x 18 cm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">..\..\Pictures\A TRABAJOS WEB\Madera\CUADROS PUNTILLISMO\Madera Cuadro Puntillismo Virgencita de Luján -1.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Madera Cuadros puntillismo Virgencita de Luján -2-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">madera cuadro puntillismo virgencita de luján-2-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">..\..\Pictures\A TRABAJOS WEB\Madera\CUADROS PUNTILLISMO\Madera Cuadro Puntillismo Virgencita de Luján -2.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Madera Corazones pintados-1-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MADERA&gt;CUNEROS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cunero colgante: Corazón pintado a mano,  con motivo infantil. 11,5 x 10,5 cm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">..\..\Pictures\A TRABAJOS WEB\Madera\CUNEROS\CORAZONES Y CRUCES\Madera Corazones pintados -1.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Madera Corazones pintados-2-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">..\..\Pictures\A TRABAJOS WEB\Madera\CUNEROS\CORAZONES Y CRUCES\Madera Corazones pintados -2.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Madera Corazones pintados-3-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">..\..\Pictures\A TRABAJOS WEB\Madera\CUNEROS\CORAZONES Y CRUCES\Madera Corazones pintados -3.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Madera Redondeles cuneritos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cunero colgante redondo.  8 cm de diámetro.  Pintado a mano - Motivo infantil -</t>
-  </si>
-  <si>
-    <t xml:space="preserve">..\..\Pictures\A TRABAJOS WEB\Madera\CUNEROS\REDONDELES\Madera Redondeles cuneritos.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Madera Cuadros Pasta piedra Virgen María -GRANDE-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MADERA&gt;CUADROS PASTA PIEDRA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Madera Cuadro Virgen María Pasta Piedra-1-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Virgen María en un diseño infantil. Pintada y modelada a mano en Pasta Piedra. 40x30 cm - 1 cm grosor de la madera</t>
-  </si>
-  <si>
-    <t xml:space="preserve">..\..\Pictures\A TRABAJOS WEB\Madera\CUADROS PASTA PIEDRA\Madera Cuadro Virgen María Pasta Piedra -1.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Madera Cuadros Pasta piedra Virgen María -MEDIO-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Madera Cuadro Virgen María Pasta Piedra-2-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Virgen María en un diseño infantil. Pintada y modelada a mano en Pasta Piedra. &lt;p&gt;32x26 cm 1 cm grosor de la madera&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">..\..\Pictures\A TRABAJOS WEB\Madera\CUADROS PASTA PIEDRA\Madera Cuadro Virgen María Pasta Piedra -2.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rosarios 24 glorias Sta. Teresita</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VARIOS&gt;ROSARIOS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rosarios-24-glorias-sta-teresita</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rosario  de 24 cuentas, en honor de los 24 años de vida de Sta. Teresita del Niño Jesús.  Con estampa explicativa (14,5x10 cm)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">..\..\Pictures\A TRABAJOS WEB\VARIOS\ROSARIOS\24 Glorias\Rosarios 24 glorias Sta. Teresita.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rosarios Cola de rata</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rosario cola de rata</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rosario de bolsillo, con cuentas de madera pequeñas y cruz acorde.  Sencillo y práctico para nuestra oración cotidiana a la Virgen María.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">..\..\Pictures\A TRABAJOS WEB\VARIOS\ROSARIOS\Rosarios Cola de rata\Rosario cola de rata.jpg</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="141">
+  <si>
+    <t>CARMELITAS BARILOCHE WEB</t>
+  </si>
+  <si>
+    <t>PRODUCTOS</t>
+  </si>
+  <si>
+    <t>DISPONIBILIDAD</t>
+  </si>
+  <si>
+    <t>PRECIO UNITARIO</t>
+  </si>
+  <si>
+    <t>CATEGORÍA</t>
+  </si>
+  <si>
+    <t>FOTOS</t>
+  </si>
+  <si>
+    <t>DESCRIPCIÓN</t>
+  </si>
+  <si>
+    <t>Ubicación Archivo (vínculo)</t>
+  </si>
+  <si>
+    <t>title</t>
+  </si>
+  <si>
+    <t>stock</t>
+  </si>
+  <si>
+    <t>precio</t>
+  </si>
+  <si>
+    <t>peso</t>
+  </si>
+  <si>
+    <t>categorias</t>
+  </si>
+  <si>
+    <t>imagen</t>
+  </si>
+  <si>
+    <t>descripcion</t>
+  </si>
+  <si>
+    <t>ubicacion-fotos</t>
+  </si>
+  <si>
+    <t>Cuero señalador</t>
+  </si>
+  <si>
+    <t>CUERO</t>
+  </si>
+  <si>
+    <t>cuero señalador</t>
+  </si>
+  <si>
+    <t>Realizados en cuero vacuno. Pirograbados. 15,5x7 cm</t>
+  </si>
+  <si>
+    <t>..\..\Pictures\A TRABAJOS WEB\CUERO\SEÑALADORES\Señaladores 1\Señaladores de Cuero -1.jpg</t>
+  </si>
+  <si>
+    <t>Cuero Evangelio con estuche pirograbado</t>
+  </si>
+  <si>
+    <t>cuero evangelio con estuche pirograbado</t>
+  </si>
+  <si>
+    <t>Los cuatro Evangelios en formato bolsillo en su estuche de cuero vacuno pirograbado. 9x13,5 cm</t>
+  </si>
+  <si>
+    <t>..\..\Pictures\A TRABAJOS WEB\CUERO\ESTUCHES\Cuero Evangelio con estuche pirograbado A.jpg</t>
+  </si>
+  <si>
+    <t>Detentes - Protección del Sagrado Corazón de Jesús</t>
+  </si>
+  <si>
+    <t>VARIOS&gt;ESCAPULARIOS Y DETENTES</t>
+  </si>
+  <si>
+    <t>Detentes</t>
+  </si>
+  <si>
+    <t>Pequeña imagen del Sagrado Corazón de Jesús sobre paño rojo, con la inscripción "¡Detente! El Sagrado Corazón de Jesús está conmigo" -    5x4 cm</t>
+  </si>
+  <si>
+    <t>..\..\Pictures\A TRABAJOS WEB\VARIOS\ESCAPULARIOS Y DETENTES\Detentes.jpg</t>
+  </si>
+  <si>
+    <t>Escapulario chico</t>
+  </si>
+  <si>
+    <t>Confeccionados con tela e hilo macramé . Con la imagen de la Virgen del Carmen- 3,5x2,5 cm</t>
+  </si>
+  <si>
+    <t>..\..\Pictures\A TRABAJOS WEB\VARIOS\ESCAPULARIOS Y DETENTES\Escapulario chico.jpg</t>
+  </si>
+  <si>
+    <t>Escapulario Grande</t>
+  </si>
+  <si>
+    <t>Escapulario grande</t>
+  </si>
+  <si>
+    <t>Confeccionados con tela y cola de rata- Imagen de la Virgen del Carmen y Sagrado Corazón  5,5x4 cm</t>
+  </si>
+  <si>
+    <t>..\..\Pictures\A TRABAJOS WEB\VARIOS\ESCAPULARIOS Y DETENTES\Escapulario grande.jpg</t>
+  </si>
+  <si>
+    <t>Estampas de Flores Nada te turbe -1</t>
+  </si>
+  <si>
+    <t>VARIOS&gt;ESTAMPAS DE FLORES</t>
+  </si>
+  <si>
+    <t>Estampas Flores Nada te turbe-1-</t>
+  </si>
+  <si>
+    <t>Señaladores en papel reciclado. Diseño artísitico con flores de Bariloche. 15x7,5 cm</t>
+  </si>
+  <si>
+    <t>..\..\Pictures\A TRABAJOS WEB\VARIOS\ESTAMPAS FLORES\Estampas Flores Nada te turbe -1.jpg</t>
+  </si>
+  <si>
+    <t>Estampas de Flores Nada te turbe -2</t>
+  </si>
+  <si>
+    <t>Estampas Flores Nada te turbe-2-</t>
+  </si>
+  <si>
+    <t>..\..\Pictures\A TRABAJOS WEB\VARIOS\ESTAMPAS FLORES\Estampas Flores Nada te turbe -2.jpg</t>
+  </si>
+  <si>
+    <t>Estampas de Flores Nada te turbe -3</t>
+  </si>
+  <si>
+    <t>Estampas Flores Nada te turbe-3-</t>
+  </si>
+  <si>
+    <t>..\..\Pictures\A TRABAJOS WEB\VARIOS\ESTAMPAS FLORES\Estampas Flores Nada te turbe -3.jpg</t>
+  </si>
+  <si>
+    <t>Estampas de Flores Nada te turbe -4</t>
+  </si>
+  <si>
+    <t>Estampas Flores Nada te turbe-4-</t>
+  </si>
+  <si>
+    <t>..\..\Pictures\A TRABAJOS WEB\VARIOS\ESTAMPAS FLORES\Estampas Flores Nada te turbe -4.jpg</t>
+  </si>
+  <si>
+    <t>Estampas de Flores Nada te turbe -5</t>
+  </si>
+  <si>
+    <t>Estampas Flores Nada te turbe-5-</t>
+  </si>
+  <si>
+    <t>..\..\Pictures\A TRABAJOS WEB\VARIOS\ESTAMPAS FLORES\Estampas Flores Nada te turbe -5.jpg</t>
+  </si>
+  <si>
+    <t>Madera Cuadros puntillismo Sagrada Familia -1-</t>
+  </si>
+  <si>
+    <t>MADERA&gt;CUADROS PUNTILLISMO</t>
+  </si>
+  <si>
+    <t>madera cuadro puntillismo sgda-familia-1-</t>
+  </si>
+  <si>
+    <t>Pintado a mano con técnica puntillismo. 22,5 x 19,5 cm</t>
+  </si>
+  <si>
+    <t>..\..\Pictures\A TRABAJOS WEB\Madera\CUADROS PUNTILLISMO\Madera Cuadro Puntillismo Sgda. Familia -1.jpg</t>
+  </si>
+  <si>
+    <t>Madera Cuadros puntillismo Sagrada Familia -2-</t>
+  </si>
+  <si>
+    <t>madera cuadro puntillismo sgda-familia-2-</t>
+  </si>
+  <si>
+    <t>..\..\Pictures\A TRABAJOS WEB\Madera\CUADROS PUNTILLISMO\Madera Cuadro Puntillismo Sgda. Familia -2.jpg</t>
+  </si>
+  <si>
+    <t>Madera Cuadros puntillismo Virgencita de Luján -1-</t>
+  </si>
+  <si>
+    <t>madera cuadro puntillismo virgencita de luján-1-</t>
+  </si>
+  <si>
+    <t>Pintado a mano con técnica puntillismo, 25 x 18 cm</t>
+  </si>
+  <si>
+    <t>..\..\Pictures\A TRABAJOS WEB\Madera\CUADROS PUNTILLISMO\Madera Cuadro Puntillismo Virgencita de Luján -1.jpg</t>
+  </si>
+  <si>
+    <t>Madera Cuadros puntillismo Virgencita de Luján -2-</t>
+  </si>
+  <si>
+    <t>madera cuadro puntillismo virgencita de luján-2-</t>
+  </si>
+  <si>
+    <t>..\..\Pictures\A TRABAJOS WEB\Madera\CUADROS PUNTILLISMO\Madera Cuadro Puntillismo Virgencita de Luján -2.jpg</t>
+  </si>
+  <si>
+    <t>Madera Corazones pintados-1-</t>
+  </si>
+  <si>
+    <t>MADERA&gt;CUNEROS</t>
+  </si>
+  <si>
+    <t>Cunero colgante: Corazón pintado a mano,  con motivo infantil. 11,5 x 10,5 cm</t>
+  </si>
+  <si>
+    <t>..\..\Pictures\A TRABAJOS WEB\Madera\CUNEROS\CORAZONES Y CRUCES\Madera Corazones pintados -1.jpg</t>
+  </si>
+  <si>
+    <t>Madera Corazones pintados-2-</t>
+  </si>
+  <si>
+    <t>..\..\Pictures\A TRABAJOS WEB\Madera\CUNEROS\CORAZONES Y CRUCES\Madera Corazones pintados -2.jpg</t>
+  </si>
+  <si>
+    <t>Madera Corazones pintados-3-</t>
+  </si>
+  <si>
+    <t>..\..\Pictures\A TRABAJOS WEB\Madera\CUNEROS\CORAZONES Y CRUCES\Madera Corazones pintados -3.jpg</t>
+  </si>
+  <si>
+    <t>Madera Redondeles cuneritos</t>
+  </si>
+  <si>
+    <t>Cunero colgante redondo.  8 cm de diámetro.  Pintado a mano - Motivo infantil -</t>
+  </si>
+  <si>
+    <t>..\..\Pictures\A TRABAJOS WEB\Madera\CUNEROS\REDONDELES\Madera Redondeles cuneritos.jpg</t>
+  </si>
+  <si>
+    <t>Madera Cuadros Pasta piedra Virgen María -GRANDE-</t>
+  </si>
+  <si>
+    <t>MADERA&gt;CUADROS PASTA PIEDRA</t>
+  </si>
+  <si>
+    <t>Madera Cuadro Virgen María Pasta Piedra-1-</t>
+  </si>
+  <si>
+    <t>Virgen María en un diseño infantil. Pintada y modelada a mano en Pasta Piedra. 40x30 cm - 1 cm grosor de la madera</t>
+  </si>
+  <si>
+    <t>..\..\Pictures\A TRABAJOS WEB\Madera\CUADROS PASTA PIEDRA\Madera Cuadro Virgen María Pasta Piedra -1.jpg</t>
+  </si>
+  <si>
+    <t>Madera Cuadros Pasta piedra Virgen María -MEDIO-</t>
+  </si>
+  <si>
+    <t>Madera Cuadro Virgen María Pasta Piedra-2-</t>
+  </si>
+  <si>
+    <t>Virgen María en un diseño infantil. Pintada y modelada a mano en Pasta Piedra. &lt;p&gt;32x26 cm 1 cm grosor de la madera&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>..\..\Pictures\A TRABAJOS WEB\Madera\CUADROS PASTA PIEDRA\Madera Cuadro Virgen María Pasta Piedra -2.jpg</t>
+  </si>
+  <si>
+    <t>Rosarios 24 glorias Sta. Teresita</t>
+  </si>
+  <si>
+    <t>VARIOS&gt;ROSARIOS</t>
+  </si>
+  <si>
+    <t>rosarios-24-glorias-sta-teresita</t>
+  </si>
+  <si>
+    <t>Rosario  de 24 cuentas, en honor de los 24 años de vida de Sta. Teresita del Niño Jesús.  Con estampa explicativa (14,5x10 cm)</t>
+  </si>
+  <si>
+    <t>..\..\Pictures\A TRABAJOS WEB\VARIOS\ROSARIOS\24 Glorias\Rosarios 24 glorias Sta. Teresita.jpg</t>
+  </si>
+  <si>
+    <t>Rosarios Cola de rata</t>
+  </si>
+  <si>
+    <t>Rosario cola de rata</t>
+  </si>
+  <si>
+    <t>Rosario de bolsillo, con cuentas de madera pequeñas y cruz acorde.  Sencillo y práctico para nuestra oración cotidiana a la Virgen María.</t>
+  </si>
+  <si>
+    <t>..\..\Pictures\A TRABAJOS WEB\VARIOS\ROSARIOS\Rosarios Cola de rata\Rosario cola de rata.jpg</t>
   </si>
   <si>
     <t xml:space="preserve">Velas Litúrgicas de Cera de abeja  (CHICAS) </t>
   </si>
   <si>
-    <t xml:space="preserve">VELAS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vela cera de abeja chica</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Elaboradas con CERA DE ABEJAS. Aptas para uso en la Santa Misa u otros actos litúrgicos y devocionales. 5,5X 10,5 cm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">..\..\Pictures\A TRABAJOS WEB\VELAS\CERA DE ABEJAS\Vela Cera de abeja chica.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Velas Colores y Aromas -ROSAS-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">vela colores y aromas rosas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Elaboradas con parafina, colores y esencias perfumadas. 4,2x12 cm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">..\..\Pictures\A TRABAJOS WEB\VELAS\COLORES Y AROMAS\Colores y aromas Rosas.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cerámica Rosario engarzados (perfume de Rosas con cajita)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CERÁMICA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cerámica Rosario</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rosario engarzado con cuentas de cerámica realizadas de manera artesanal.  Perfume de rosas. Incluye cajita portarosario.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">..\..\Pictures\A TRABAJOS WEB\Cerámica\Rosario Cerámica.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cerámica cruces souvenir</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cruz Souvenir</t>
+    <t>VELAS</t>
+  </si>
+  <si>
+    <t>Vela cera de abeja chica</t>
+  </si>
+  <si>
+    <t>Elaboradas con CERA DE ABEJAS. Aptas para uso en la Santa Misa u otros actos litúrgicos y devocionales. 5,5X 10,5 cm</t>
+  </si>
+  <si>
+    <t>..\..\Pictures\A TRABAJOS WEB\VELAS\CERA DE ABEJAS\Vela Cera de abeja chica.jpg</t>
+  </si>
+  <si>
+    <t>Velas Colores y Aromas -ROSAS-</t>
+  </si>
+  <si>
+    <t>vela colores y aromas rosas</t>
+  </si>
+  <si>
+    <t>Elaboradas con parafina, colores y esencias perfumadas. 4,2x12 cm</t>
+  </si>
+  <si>
+    <t>..\..\Pictures\A TRABAJOS WEB\VELAS\COLORES Y AROMAS\Colores y aromas Rosas.jpg</t>
+  </si>
+  <si>
+    <t>Cerámica Rosario engarzados (perfume de Rosas con cajita)</t>
+  </si>
+  <si>
+    <t>CERÁMICA</t>
+  </si>
+  <si>
+    <t>Cerámica Rosario</t>
+  </si>
+  <si>
+    <t>Rosario engarzado con cuentas de cerámica realizadas de manera artesanal.  Perfume de rosas. Incluye cajita portarosario.</t>
+  </si>
+  <si>
+    <t>..\..\Pictures\A TRABAJOS WEB\Cerámica\Rosario Cerámica.jpg</t>
+  </si>
+  <si>
+    <t>Cerámica cruces souvenir</t>
+  </si>
+  <si>
+    <t>Cruz Souvenir</t>
   </si>
   <si>
     <t xml:space="preserve">Cruz colgante de cerámica con el Niño Jesús - Diseños exclusivos - Ideal para cuneros o la habitación de los niños. 6,5x5,5 cm </t>
   </si>
   <si>
-    <t xml:space="preserve">..\..\Pictures\A TRABAJOS WEB\Cerámica\CRUCES\Cruz souvenir.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cerámica Pesebre</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cerámica pesebre</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pesebre artesanal - Diseños exclusivos. 14x9,5 cm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">..\..\Pictures\A TRABAJOS WEB\Cerámica\PESEBRES\Pesebre cerámica.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cerámica Virgen embarazada</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Virgen Embarazada</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Imagen de la Virgen María, advocación "Nuestra Señora de la Dulce Espera!"- Diseños exclusivos -19,5 x 6,5 cm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">..\..\Pictures\A TRABAJOS WEB\Cerámica\Virgen Embarazada.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cerámica Niños Jesús-1-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CERÁMICA&gt;NIÑOS JESÚS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cerámica Niño Jesús-1-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Imagen artesanal del Niño Jesús con aureola y cunita - 5x4 cm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">..\..\Pictures\A TRABAJOS WEB\Cerámica\Niños Jesús\Cerámica Niño Jesús -1.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cerámica Niños Jesús-2-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cerámica Niño Jesús-2-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">..\..\Pictures\A TRABAJOS WEB\Cerámica\Niños Jesús\Cerámica Niño Jesús 3.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cerámica Niños Jesús-3-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cerámica Niño Jesús-3-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">..\..\Pictures\A TRABAJOS WEB\Cerámica\Niños Jesús\Cerámica Niño Jesús 4.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cerámica Niños Jesús-4-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cerámica Niño Jesús-4-</t>
+    <t>..\..\Pictures\A TRABAJOS WEB\Cerámica\CRUCES\Cruz souvenir.jpg</t>
+  </si>
+  <si>
+    <t>Cerámica Pesebre</t>
+  </si>
+  <si>
+    <t>cerámica pesebre</t>
+  </si>
+  <si>
+    <t>Pesebre artesanal - Diseños exclusivos. 14x9,5 cm</t>
+  </si>
+  <si>
+    <t>..\..\Pictures\A TRABAJOS WEB\Cerámica\PESEBRES\Pesebre cerámica.jpg</t>
+  </si>
+  <si>
+    <t>Cerámica Virgen embarazada</t>
+  </si>
+  <si>
+    <t>Virgen Embarazada</t>
+  </si>
+  <si>
+    <t>Imagen de la Virgen María, advocación "Nuestra Señora de la Dulce Espera!"- Diseños exclusivos -19,5 x 6,5 cm</t>
+  </si>
+  <si>
+    <t>..\..\Pictures\A TRABAJOS WEB\Cerámica\Virgen Embarazada.jpg</t>
+  </si>
+  <si>
+    <t>Cerámica Niños Jesús-1-</t>
+  </si>
+  <si>
+    <t>CERÁMICA&gt;NIÑOS JESÚS</t>
+  </si>
+  <si>
+    <t>Cerámica Niño Jesús-1-</t>
+  </si>
+  <si>
+    <t>Imagen artesanal del Niño Jesús con aureola y cunita - 5x4 cm</t>
+  </si>
+  <si>
+    <t>..\..\Pictures\A TRABAJOS WEB\Cerámica\Niños Jesús\Cerámica Niño Jesús -1.jpg</t>
+  </si>
+  <si>
+    <t>Cerámica Niños Jesús-2-</t>
+  </si>
+  <si>
+    <t>Cerámica Niño Jesús-2-</t>
+  </si>
+  <si>
+    <t>..\..\Pictures\A TRABAJOS WEB\Cerámica\Niños Jesús\Cerámica Niño Jesús 3.jpg</t>
+  </si>
+  <si>
+    <t>Cerámica Niños Jesús-3-</t>
+  </si>
+  <si>
+    <t>Cerámica Niño Jesús-3-</t>
+  </si>
+  <si>
+    <t>..\..\Pictures\A TRABAJOS WEB\Cerámica\Niños Jesús\Cerámica Niño Jesús 4.jpg</t>
+  </si>
+  <si>
+    <t>Cerámica Niños Jesús-4-</t>
+  </si>
+  <si>
+    <t>Cerámica Niño Jesús-4-</t>
+  </si>
+  <si>
+    <t>Alfajores del Carmelo</t>
+  </si>
+  <si>
+    <t>VARIOS</t>
+  </si>
+  <si>
+    <t>alfajores</t>
+  </si>
+  <si>
+    <t>Alfajores caseros de dulce de leche bañados en chocolate (4 de chocolate negro y 2 de chocolate blanco)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="3">
-    <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="0"/>
-    <numFmt numFmtId="166" formatCode="_-&quot;$ &quot;* #,##0.00_-;&quot;-$ &quot;* #,##0.00_-;_-&quot;$ &quot;* \-??_-;_-@_-"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="_-&quot;$ &quot;* #,##0.00_-;&quot;-$ &quot;* #,##0.00_-;_-&quot;$ &quot;* \-??_-;_-@_-"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
     </font>
     <font>
       <sz val="12"/>
@@ -473,7 +472,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <u val="single"/>
+      <u/>
       <sz val="11"/>
       <color theme="10"/>
       <name val="Calibri"/>
@@ -481,7 +480,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <i val="true"/>
+      <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
@@ -489,8 +488,15 @@
       <charset val="1"/>
     </font>
     <font>
-      <i val="true"/>
+      <i/>
       <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
@@ -505,429 +511,347 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.5998"/>
+        <fgColor theme="4" tint="0.59978026673177287"/>
         <bgColor rgb="FFDBDBDB"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.3998"/>
+        <fgColor theme="4" tint="0.39979247413556324"/>
         <bgColor rgb="FFBDD7EE"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.5998"/>
+        <fgColor theme="6" tint="0.59978026673177287"/>
         <bgColor rgb="FFE2F0D9"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.7998"/>
+        <fgColor theme="9" tint="0.79979857783745845"/>
         <bgColor rgb="FFFBE5D6"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.5998"/>
+        <fgColor theme="7" tint="0.59978026673177287"/>
         <bgColor rgb="FFFFD966"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.3998"/>
+        <fgColor theme="9" tint="0.39979247413556324"/>
         <bgColor rgb="FF9DC3E6"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.3998"/>
+        <fgColor theme="7" tint="0.39979247413556324"/>
         <bgColor rgb="FFFFE699"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.7998"/>
+        <fgColor theme="5" tint="0.79979857783745845"/>
         <bgColor rgb="FFE2F0D9"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
-    <border diagonalUp="false" diagonalDown="false">
+  <borders count="12">
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="thin"/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
-      <top style="thin"/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
       <right/>
-      <top style="thin"/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
       <right/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
       <top/>
-      <bottom style="thin"/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
       <right/>
       <top/>
-      <bottom style="thin"/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="22">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
+  <cellStyleXfs count="4">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="6" borderId="2" xfId="17" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="6" borderId="2" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="7" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="7" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="7" borderId="2" xfId="17" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="7" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="7" borderId="2" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="7" borderId="2" xfId="17" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="8" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="8" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="8" borderId="2" xfId="17" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="8" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="8" borderId="2" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="8" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="8" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="8" borderId="2" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="3" borderId="2" xfId="17" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="2" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="9" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="9" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="9" borderId="2" xfId="17" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="9" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="9" borderId="2" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="9" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="4" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="9" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
+  <cellXfs count="66">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="6" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="7" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="7" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="8" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="9" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
-  <cellStyles count="8">
+  <cellStyles count="4">
+    <cellStyle name="Excel Built-in Explanatory Text" xfId="3"/>
+    <cellStyle name="Hipervínculo" xfId="2" builtinId="8"/>
+    <cellStyle name="Moneda" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
-    <cellStyle name="*unknown*" xfId="20" builtinId="8"/>
-    <cellStyle name="Excel Built-in Explanatory Text" xfId="21"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -986,60 +910,76 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
         <a:srgbClr val="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:srgbClr val="ffffff"/>
+        <a:srgbClr val="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546a"/>
+        <a:srgbClr val="44546A"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="e7e6e6"/>
+        <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5b9bd5"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ed7d31"/>
+        <a:srgbClr val="ED7D31"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="a5a5a5"/>
+        <a:srgbClr val="A5A5A5"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="ffc000"/>
+        <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472c4"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70ad47"/>
+        <a:srgbClr val="70AD47"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563c1"/>
+        <a:srgbClr val="0563C1"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954f72"/>
+        <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204" pitchFamily="0" charset="1"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="0" charset="1"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
       </a:minorFont>
@@ -1071,7 +1011,7 @@
             </a:gs>
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
-          <a:tileRect l="0" t="0" r="0" b="0"/>
+          <a:tileRect/>
         </a:gradFill>
         <a:gradFill>
           <a:gsLst>
@@ -1095,7 +1035,7 @@
             </a:gs>
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
-          <a:tileRect l="0" t="0" r="0" b="0"/>
+          <a:tileRect/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
@@ -1155,51 +1095,50 @@
             </a:gs>
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
-          <a:tileRect l="0" t="0" r="0" b="0"/>
+          <a:tileRect/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:N35"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N36"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A19" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G24" activeCellId="0" sqref="G24"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="A36" sqref="A36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.57421875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="43.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="12.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="3" width="17.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="3" width="11.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="34.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="39.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="33.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="78.57"/>
+    <col min="1" max="1" width="43.85546875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="12.5703125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="17.42578125" style="4" customWidth="1"/>
+    <col min="4" max="4" width="11.28515625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="34.5703125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="39.42578125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="33.140625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="78.5703125" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
       <c r="G1" s="5"/>
       <c r="H1" s="6"/>
       <c r="L1" s="5"/>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>1</v>
       </c>
@@ -1227,7 +1166,7 @@
       <c r="K2" s="12"/>
       <c r="L2" s="5"/>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>8</v>
       </c>
@@ -1257,17 +1196,17 @@
       <c r="K3" s="12"/>
       <c r="L3" s="5"/>
     </row>
-    <row r="4" customFormat="false" ht="34.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:13" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="15" t="n">
-        <v>1</v>
-      </c>
-      <c r="C4" s="16" t="n">
+      <c r="B4" s="15">
+        <v>1</v>
+      </c>
+      <c r="C4" s="16">
         <v>2500</v>
       </c>
-      <c r="D4" s="16" t="n">
+      <c r="D4" s="16">
         <v>20</v>
       </c>
       <c r="E4" s="17" t="s">
@@ -1287,17 +1226,17 @@
       <c r="K4" s="12"/>
       <c r="L4" s="20"/>
     </row>
-    <row r="5" customFormat="false" ht="39.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="15" t="n">
-        <v>1</v>
-      </c>
-      <c r="C5" s="16" t="n">
+      <c r="B5" s="15">
+        <v>1</v>
+      </c>
+      <c r="C5" s="16">
         <v>16000</v>
       </c>
-      <c r="D5" s="16" t="n">
+      <c r="D5" s="16">
         <v>90</v>
       </c>
       <c r="E5" s="17" t="s">
@@ -1317,17 +1256,17 @@
       <c r="K5" s="12"/>
       <c r="L5" s="24"/>
     </row>
-    <row r="6" customFormat="false" ht="34.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:13" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="B6" s="26" t="n">
+      <c r="B6" s="26">
         <v>100</v>
       </c>
-      <c r="C6" s="27" t="n">
+      <c r="C6" s="27">
         <v>1200</v>
       </c>
-      <c r="D6" s="27" t="n">
+      <c r="D6" s="27">
         <v>1</v>
       </c>
       <c r="E6" s="28" t="s">
@@ -1347,17 +1286,17 @@
       <c r="K6" s="12"/>
       <c r="L6" s="12"/>
     </row>
-    <row r="7" customFormat="false" ht="34.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:13" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="B7" s="26" t="n">
+      <c r="B7" s="26">
         <v>100</v>
       </c>
-      <c r="C7" s="30" t="n">
+      <c r="C7" s="30">
         <v>1200</v>
       </c>
-      <c r="D7" s="30" t="n">
+      <c r="D7" s="30">
         <v>1</v>
       </c>
       <c r="E7" s="28" t="s">
@@ -1377,17 +1316,17 @@
       <c r="K7" s="12"/>
       <c r="L7" s="12"/>
     </row>
-    <row r="8" customFormat="false" ht="34.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:13" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="B8" s="26" t="n">
+      <c r="B8" s="26">
         <v>100</v>
       </c>
-      <c r="C8" s="27" t="n">
+      <c r="C8" s="27">
         <v>2000</v>
       </c>
-      <c r="D8" s="27" t="n">
+      <c r="D8" s="27">
         <v>2</v>
       </c>
       <c r="E8" s="28" t="s">
@@ -1407,17 +1346,17 @@
       <c r="K8" s="12"/>
       <c r="L8" s="5"/>
     </row>
-    <row r="9" customFormat="false" ht="34.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:13" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="B9" s="26" t="n">
-        <v>1</v>
-      </c>
-      <c r="C9" s="27" t="n">
+      <c r="B9" s="26">
+        <v>1</v>
+      </c>
+      <c r="C9" s="27">
         <v>1200</v>
       </c>
-      <c r="D9" s="27" t="n">
+      <c r="D9" s="27">
         <v>1</v>
       </c>
       <c r="E9" s="28" t="s">
@@ -1438,17 +1377,17 @@
       <c r="L9" s="20"/>
       <c r="M9" s="13"/>
     </row>
-    <row r="10" customFormat="false" ht="34.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="10" spans="1:13" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="B10" s="26" t="n">
-        <v>1</v>
-      </c>
-      <c r="C10" s="27" t="n">
+      <c r="B10" s="26">
+        <v>1</v>
+      </c>
+      <c r="C10" s="27">
         <v>1200</v>
       </c>
-      <c r="D10" s="27" t="n">
+      <c r="D10" s="27">
         <v>1</v>
       </c>
       <c r="E10" s="28" t="s">
@@ -1469,17 +1408,17 @@
       <c r="L10" s="20"/>
       <c r="M10" s="13"/>
     </row>
-    <row r="11" customFormat="false" ht="34.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="11" spans="1:13" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="B11" s="26" t="n">
-        <v>1</v>
-      </c>
-      <c r="C11" s="27" t="n">
+      <c r="B11" s="26">
+        <v>1</v>
+      </c>
+      <c r="C11" s="27">
         <v>1200</v>
       </c>
-      <c r="D11" s="27" t="n">
+      <c r="D11" s="27">
         <v>1</v>
       </c>
       <c r="E11" s="28" t="s">
@@ -1500,17 +1439,17 @@
       <c r="L11" s="20"/>
       <c r="M11" s="13"/>
     </row>
-    <row r="12" customFormat="false" ht="34.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="12" spans="1:13" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="25" t="s">
         <v>48</v>
       </c>
-      <c r="B12" s="26" t="n">
-        <v>1</v>
-      </c>
-      <c r="C12" s="27" t="n">
+      <c r="B12" s="26">
+        <v>1</v>
+      </c>
+      <c r="C12" s="27">
         <v>1200</v>
       </c>
-      <c r="D12" s="27" t="n">
+      <c r="D12" s="27">
         <v>1</v>
       </c>
       <c r="E12" s="28" t="s">
@@ -1531,17 +1470,17 @@
       <c r="L12" s="20"/>
       <c r="M12" s="13"/>
     </row>
-    <row r="13" customFormat="false" ht="34.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="13" spans="1:13" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="25" t="s">
         <v>51</v>
       </c>
-      <c r="B13" s="26" t="n">
-        <v>1</v>
-      </c>
-      <c r="C13" s="27" t="n">
+      <c r="B13" s="26">
+        <v>1</v>
+      </c>
+      <c r="C13" s="27">
         <v>1200</v>
       </c>
-      <c r="D13" s="27" t="n">
+      <c r="D13" s="27">
         <v>1</v>
       </c>
       <c r="E13" s="28" t="s">
@@ -1561,17 +1500,17 @@
       <c r="K13" s="32"/>
       <c r="M13" s="13"/>
     </row>
-    <row r="14" customFormat="false" ht="34.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="14" spans="1:13" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="33" t="s">
         <v>54</v>
       </c>
-      <c r="B14" s="34" t="n">
-        <v>1</v>
-      </c>
-      <c r="C14" s="35" t="n">
+      <c r="B14" s="34">
+        <v>1</v>
+      </c>
+      <c r="C14" s="35">
         <v>18000</v>
       </c>
-      <c r="D14" s="35" t="n">
+      <c r="D14" s="35">
         <v>325</v>
       </c>
       <c r="E14" s="36" t="s">
@@ -1591,17 +1530,17 @@
       <c r="K14" s="12"/>
       <c r="L14" s="12"/>
     </row>
-    <row r="15" customFormat="false" ht="34.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="15" spans="1:13" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="33" t="s">
         <v>59</v>
       </c>
-      <c r="B15" s="34" t="n">
-        <v>1</v>
-      </c>
-      <c r="C15" s="35" t="n">
+      <c r="B15" s="34">
+        <v>1</v>
+      </c>
+      <c r="C15" s="35">
         <v>18000</v>
       </c>
-      <c r="D15" s="35" t="n">
+      <c r="D15" s="35">
         <v>325</v>
       </c>
       <c r="E15" s="36" t="s">
@@ -1619,17 +1558,17 @@
       <c r="K15" s="12"/>
       <c r="L15" s="20"/>
     </row>
-    <row r="16" customFormat="false" ht="34.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="16" spans="1:13" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="33" t="s">
         <v>62</v>
       </c>
-      <c r="B16" s="34" t="n">
-        <v>1</v>
-      </c>
-      <c r="C16" s="35" t="n">
+      <c r="B16" s="34">
+        <v>1</v>
+      </c>
+      <c r="C16" s="35">
         <v>15000</v>
       </c>
-      <c r="D16" s="35" t="n">
+      <c r="D16" s="35">
         <v>280</v>
       </c>
       <c r="E16" s="36" t="s">
@@ -1649,17 +1588,17 @@
       <c r="K16" s="12"/>
       <c r="L16" s="11"/>
     </row>
-    <row r="17" customFormat="false" ht="34.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="17" spans="1:14" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="33" t="s">
         <v>66</v>
       </c>
-      <c r="B17" s="34" t="n">
-        <v>1</v>
-      </c>
-      <c r="C17" s="35" t="n">
+      <c r="B17" s="34">
+        <v>1</v>
+      </c>
+      <c r="C17" s="35">
         <v>15000</v>
       </c>
-      <c r="D17" s="35" t="n">
+      <c r="D17" s="35">
         <v>280</v>
       </c>
       <c r="E17" s="36" t="s">
@@ -1679,17 +1618,17 @@
       <c r="K17" s="12"/>
       <c r="L17" s="11"/>
     </row>
-    <row r="18" customFormat="false" ht="34.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="18" spans="1:14" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="40" t="s">
         <v>69</v>
       </c>
-      <c r="B18" s="41" t="n">
+      <c r="B18" s="41">
         <v>100</v>
       </c>
-      <c r="C18" s="35" t="n">
+      <c r="C18" s="35">
         <v>7000</v>
       </c>
-      <c r="D18" s="35" t="n">
+      <c r="D18" s="35">
         <v>90</v>
       </c>
       <c r="E18" s="40" t="s">
@@ -1708,17 +1647,17 @@
       <c r="K18" s="12"/>
       <c r="L18" s="12"/>
     </row>
-    <row r="19" customFormat="false" ht="34.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="19" spans="1:14" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="40" t="s">
         <v>73</v>
       </c>
-      <c r="B19" s="41" t="n">
+      <c r="B19" s="41">
         <v>100</v>
       </c>
-      <c r="C19" s="35" t="n">
+      <c r="C19" s="35">
         <v>7000</v>
       </c>
-      <c r="D19" s="35" t="n">
+      <c r="D19" s="35">
         <v>90</v>
       </c>
       <c r="E19" s="40" t="s">
@@ -1737,17 +1676,17 @@
       <c r="K19" s="12"/>
       <c r="L19" s="5"/>
     </row>
-    <row r="20" customFormat="false" ht="34.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="20" spans="1:14" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="40" t="s">
         <v>75</v>
       </c>
-      <c r="B20" s="41" t="n">
+      <c r="B20" s="41">
         <v>100</v>
       </c>
-      <c r="C20" s="35" t="n">
+      <c r="C20" s="35">
         <v>7000</v>
       </c>
-      <c r="D20" s="35" t="n">
+      <c r="D20" s="35">
         <v>90</v>
       </c>
       <c r="E20" s="40" t="s">
@@ -1767,17 +1706,17 @@
       <c r="K20" s="12"/>
       <c r="L20" s="5"/>
     </row>
-    <row r="21" customFormat="false" ht="34.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="21" spans="1:14" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="33" t="s">
         <v>77</v>
       </c>
-      <c r="B21" s="34" t="n">
+      <c r="B21" s="34">
         <v>100</v>
       </c>
-      <c r="C21" s="35" t="n">
+      <c r="C21" s="35">
         <v>5000</v>
       </c>
-      <c r="D21" s="35" t="n">
+      <c r="D21" s="35">
         <v>50</v>
       </c>
       <c r="E21" s="40" t="s">
@@ -1796,17 +1735,17 @@
       <c r="J21" s="12"/>
       <c r="K21" s="12"/>
     </row>
-    <row r="22" customFormat="false" ht="34.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="22" spans="1:14" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="33" t="s">
         <v>80</v>
       </c>
-      <c r="B22" s="34" t="n">
-        <v>1</v>
-      </c>
-      <c r="C22" s="35" t="n">
+      <c r="B22" s="34">
+        <v>1</v>
+      </c>
+      <c r="C22" s="35">
         <v>50000</v>
       </c>
-      <c r="D22" s="35" t="n">
+      <c r="D22" s="35">
         <v>1300</v>
       </c>
       <c r="E22" s="40" t="s">
@@ -1825,17 +1764,17 @@
       <c r="K22" s="12"/>
       <c r="L22" s="5"/>
     </row>
-    <row r="23" customFormat="false" ht="34.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="23" spans="1:14" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="33" t="s">
         <v>85</v>
       </c>
-      <c r="B23" s="34" t="n">
-        <v>1</v>
-      </c>
-      <c r="C23" s="35" t="n">
+      <c r="B23" s="34">
+        <v>1</v>
+      </c>
+      <c r="C23" s="35">
         <v>40000</v>
       </c>
-      <c r="D23" s="35" t="n">
+      <c r="D23" s="35">
         <v>900</v>
       </c>
       <c r="E23" s="40" t="s">
@@ -1855,17 +1794,17 @@
       <c r="K23" s="12"/>
       <c r="L23" s="20"/>
     </row>
-    <row r="24" customFormat="false" ht="34.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="24" spans="1:14" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="25" t="s">
         <v>89</v>
       </c>
-      <c r="B24" s="26" t="n">
+      <c r="B24" s="26">
         <v>100</v>
       </c>
-      <c r="C24" s="27" t="n">
+      <c r="C24" s="27">
         <v>1800</v>
       </c>
-      <c r="D24" s="27" t="n">
+      <c r="D24" s="27">
         <v>8</v>
       </c>
       <c r="E24" s="28" t="s">
@@ -1885,17 +1824,17 @@
       <c r="K24" s="12"/>
       <c r="L24" s="12"/>
     </row>
-    <row r="25" customFormat="false" ht="34.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="25" spans="1:14" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="25" t="s">
         <v>94</v>
       </c>
-      <c r="B25" s="26" t="n">
+      <c r="B25" s="26">
         <v>100</v>
       </c>
-      <c r="C25" s="27" t="n">
+      <c r="C25" s="27">
         <v>3000</v>
       </c>
-      <c r="D25" s="27" t="n">
+      <c r="D25" s="27">
         <v>8</v>
       </c>
       <c r="E25" s="28" t="s">
@@ -1915,17 +1854,17 @@
       <c r="K25" s="20"/>
       <c r="L25" s="11"/>
     </row>
-    <row r="26" customFormat="false" ht="34.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="26" spans="1:14" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="44" t="s">
         <v>98</v>
       </c>
-      <c r="B26" s="45" t="n">
+      <c r="B26" s="45">
         <v>100</v>
       </c>
-      <c r="C26" s="46" t="n">
+      <c r="C26" s="46">
         <v>6500</v>
       </c>
-      <c r="D26" s="46" t="n">
+      <c r="D26" s="46">
         <v>235</v>
       </c>
       <c r="E26" s="47" t="s">
@@ -1944,17 +1883,17 @@
       <c r="J26" s="12"/>
       <c r="K26" s="12"/>
     </row>
-    <row r="27" customFormat="false" ht="34.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="27" spans="1:14" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="44" t="s">
         <v>103</v>
       </c>
-      <c r="B27" s="45" t="n">
+      <c r="B27" s="45">
         <v>0</v>
       </c>
-      <c r="C27" s="46" t="n">
+      <c r="C27" s="46">
         <v>4500</v>
       </c>
-      <c r="D27" s="46" t="n">
+      <c r="D27" s="46">
         <v>170</v>
       </c>
       <c r="E27" s="49" t="s">
@@ -1973,17 +1912,17 @@
       <c r="J27" s="12"/>
       <c r="K27" s="12"/>
     </row>
-    <row r="28" customFormat="false" ht="39.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="28" spans="1:14" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="51" t="s">
         <v>107</v>
       </c>
-      <c r="B28" s="52" t="n">
-        <v>1</v>
-      </c>
-      <c r="C28" s="53" t="n">
+      <c r="B28" s="52">
+        <v>1</v>
+      </c>
+      <c r="C28" s="53">
         <v>15000</v>
       </c>
-      <c r="D28" s="53" t="n">
+      <c r="D28" s="53">
         <v>40</v>
       </c>
       <c r="E28" s="54" t="s">
@@ -2002,17 +1941,17 @@
       <c r="J28" s="5"/>
       <c r="K28" s="32"/>
     </row>
-    <row r="29" customFormat="false" ht="34.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="29" spans="1:14" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="51" t="s">
         <v>112</v>
       </c>
-      <c r="B29" s="52" t="n">
-        <v>1</v>
-      </c>
-      <c r="C29" s="53" t="n">
+      <c r="B29" s="52">
+        <v>1</v>
+      </c>
+      <c r="C29" s="53">
         <v>4600</v>
       </c>
-      <c r="D29" s="53" t="n">
+      <c r="D29" s="53">
         <v>35</v>
       </c>
       <c r="E29" s="57" t="s">
@@ -2031,17 +1970,17 @@
       <c r="J29" s="5"/>
       <c r="K29" s="12"/>
     </row>
-    <row r="30" customFormat="false" ht="34.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="30" spans="1:14" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="51" t="s">
         <v>116</v>
       </c>
-      <c r="B30" s="52" t="n">
-        <v>1</v>
-      </c>
-      <c r="C30" s="53" t="n">
+      <c r="B30" s="52">
+        <v>1</v>
+      </c>
+      <c r="C30" s="53">
         <v>16000</v>
       </c>
-      <c r="D30" s="53" t="n">
+      <c r="D30" s="53">
         <v>210</v>
       </c>
       <c r="E30" s="57" t="s">
@@ -2061,17 +2000,17 @@
       <c r="K30" s="58"/>
       <c r="N30" s="60"/>
     </row>
-    <row r="31" customFormat="false" ht="34.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="31" spans="1:14" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="51" t="s">
         <v>120</v>
       </c>
-      <c r="B31" s="52" t="n">
-        <v>1</v>
-      </c>
-      <c r="C31" s="53" t="n">
+      <c r="B31" s="52">
+        <v>1</v>
+      </c>
+      <c r="C31" s="53">
         <v>25000</v>
       </c>
-      <c r="D31" s="53" t="n">
+      <c r="D31" s="53">
         <v>265</v>
       </c>
       <c r="E31" s="57" t="s">
@@ -2090,17 +2029,17 @@
       <c r="J31" s="12"/>
       <c r="K31" s="12"/>
     </row>
-    <row r="32" customFormat="false" ht="34.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="32" spans="1:14" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="51" t="s">
         <v>124</v>
       </c>
-      <c r="B32" s="52" t="n">
-        <v>1</v>
-      </c>
-      <c r="C32" s="53" t="n">
+      <c r="B32" s="52">
+        <v>1</v>
+      </c>
+      <c r="C32" s="53">
         <v>4000</v>
       </c>
-      <c r="D32" s="53" t="n">
+      <c r="D32" s="53">
         <v>18</v>
       </c>
       <c r="E32" s="57" t="s">
@@ -2119,17 +2058,17 @@
       <c r="J32" s="12"/>
       <c r="K32" s="12"/>
     </row>
-    <row r="33" customFormat="false" ht="34.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="33" spans="1:12" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="51" t="s">
         <v>129</v>
       </c>
-      <c r="B33" s="52" t="n">
-        <v>1</v>
-      </c>
-      <c r="C33" s="53" t="n">
+      <c r="B33" s="52">
+        <v>1</v>
+      </c>
+      <c r="C33" s="53">
         <v>4000</v>
       </c>
-      <c r="D33" s="53" t="n">
+      <c r="D33" s="53">
         <v>18</v>
       </c>
       <c r="E33" s="57" t="s">
@@ -2148,17 +2087,17 @@
       <c r="J33" s="20"/>
       <c r="K33" s="12"/>
     </row>
-    <row r="34" customFormat="false" ht="34.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="34" spans="1:12" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="51" t="s">
         <v>132</v>
       </c>
-      <c r="B34" s="52" t="n">
-        <v>1</v>
-      </c>
-      <c r="C34" s="53" t="n">
+      <c r="B34" s="52">
+        <v>1</v>
+      </c>
+      <c r="C34" s="53">
         <v>4000</v>
       </c>
-      <c r="D34" s="53" t="n">
+      <c r="D34" s="53">
         <v>18</v>
       </c>
       <c r="E34" s="57" t="s">
@@ -2177,17 +2116,17 @@
       <c r="J34" s="11"/>
       <c r="K34" s="12"/>
     </row>
-    <row r="35" customFormat="false" ht="34.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="35" spans="1:12" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="51" t="s">
         <v>135</v>
       </c>
-      <c r="B35" s="52" t="n">
-        <v>1</v>
-      </c>
-      <c r="C35" s="53" t="n">
+      <c r="B35" s="52">
+        <v>1</v>
+      </c>
+      <c r="C35" s="53">
         <v>4000</v>
       </c>
-      <c r="D35" s="53" t="n">
+      <c r="D35" s="53">
         <v>18</v>
       </c>
       <c r="E35" s="57" t="s">
@@ -2206,51 +2145,69 @@
       <c r="J35" s="12"/>
       <c r="K35" s="12"/>
       <c r="L35" s="20"/>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A36" s="63" t="s">
+        <v>137</v>
+      </c>
+      <c r="B36" s="3">
+        <v>100</v>
+      </c>
+      <c r="C36" s="4">
+        <v>9000</v>
+      </c>
+      <c r="D36" s="4">
+        <v>350</v>
+      </c>
+      <c r="E36" s="64" t="s">
+        <v>138</v>
+      </c>
+      <c r="F36" s="63" t="s">
+        <v>139</v>
+      </c>
+      <c r="G36" s="65" t="s">
+        <v>140</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:F1"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="H4" r:id="rId1" display="..\..\Pictures\A TRABAJOS WEB\CUERO\SEÑALADORES\Señaladores 1\Señaladores de Cuero -1.jpg"/>
-    <hyperlink ref="H5" r:id="rId2" display="..\..\Pictures\A TRABAJOS WEB\CUERO\ESTUCHES\Cuero Evangelio con estuche pirograbado A.jpg"/>
-    <hyperlink ref="H6" r:id="rId3" display="..\..\Pictures\A TRABAJOS WEB\VARIOS\ESCAPULARIOS Y DETENTES\Detentes.jpg"/>
-    <hyperlink ref="H7" r:id="rId4" display="..\..\Pictures\A TRABAJOS WEB\VARIOS\ESCAPULARIOS Y DETENTES\Escapulario chico.jpg"/>
-    <hyperlink ref="H8" r:id="rId5" display="..\..\Pictures\A TRABAJOS WEB\VARIOS\ESCAPULARIOS Y DETENTES\Escapulario grande.jpg"/>
-    <hyperlink ref="H9" r:id="rId6" display="..\..\Pictures\A TRABAJOS WEB\VARIOS\ESTAMPAS FLORES\Estampas Flores Nada te turbe -1.jpg"/>
-    <hyperlink ref="H10" r:id="rId7" display="..\..\Pictures\A TRABAJOS WEB\VARIOS\ESTAMPAS FLORES\Estampas Flores Nada te turbe -2.jpg"/>
-    <hyperlink ref="H11" r:id="rId8" display="..\..\Pictures\A TRABAJOS WEB\VARIOS\ESTAMPAS FLORES\Estampas Flores Nada te turbe -3.jpg"/>
-    <hyperlink ref="H12" r:id="rId9" display="..\..\Pictures\A TRABAJOS WEB\VARIOS\ESTAMPAS FLORES\Estampas Flores Nada te turbe -4.jpg"/>
-    <hyperlink ref="H13" r:id="rId10" display="..\..\Pictures\A TRABAJOS WEB\VARIOS\ESTAMPAS FLORES\Estampas Flores Nada te turbe -5.jpg"/>
-    <hyperlink ref="H14" r:id="rId11" display="..\..\Pictures\A TRABAJOS WEB\Madera\CUADROS PUNTILLISMO\Madera Cuadro Puntillismo Sgda. Familia -1.jpg"/>
-    <hyperlink ref="H15" r:id="rId12" display="..\..\Pictures\A TRABAJOS WEB\Madera\CUADROS PUNTILLISMO\Madera Cuadro Puntillismo Sgda. Familia -2.jpg"/>
-    <hyperlink ref="H16" r:id="rId13" display="..\..\Pictures\A TRABAJOS WEB\Madera\CUADROS PUNTILLISMO\Madera Cuadro Puntillismo Virgencita de Luján -1.jpg"/>
-    <hyperlink ref="H17" r:id="rId14" display="..\..\Pictures\A TRABAJOS WEB\Madera\CUADROS PUNTILLISMO\Madera Cuadro Puntillismo Virgencita de Luján -2.jpg"/>
-    <hyperlink ref="H18" r:id="rId15" display="..\..\Pictures\A TRABAJOS WEB\Madera\CUNEROS\CORAZONES Y CRUCES\Madera Corazones pintados -1.jpg"/>
-    <hyperlink ref="H19" r:id="rId16" display="..\..\Pictures\A TRABAJOS WEB\Madera\CUNEROS\CORAZONES Y CRUCES\Madera Corazones pintados -2.jpg"/>
-    <hyperlink ref="H20" r:id="rId17" display="..\..\Pictures\A TRABAJOS WEB\Madera\CUNEROS\CORAZONES Y CRUCES\Madera Corazones pintados -3.jpg"/>
-    <hyperlink ref="H21" r:id="rId18" display="..\..\Pictures\A TRABAJOS WEB\Madera\CUNEROS\REDONDELES\Madera Redondeles cuneritos.jpg"/>
-    <hyperlink ref="H22" r:id="rId19" display="..\..\Pictures\A TRABAJOS WEB\Madera\CUADROS PASTA PIEDRA\Madera Cuadro Virgen María Pasta Piedra -1.jpg"/>
-    <hyperlink ref="H23" r:id="rId20" display="..\..\Pictures\A TRABAJOS WEB\Madera\CUADROS PASTA PIEDRA\Madera Cuadro Virgen María Pasta Piedra -2.jpg"/>
-    <hyperlink ref="H24" r:id="rId21" display="..\..\Pictures\A TRABAJOS WEB\VARIOS\ROSARIOS\24 Glorias\Rosarios 24 glorias Sta. Teresita.jpg"/>
-    <hyperlink ref="H25" r:id="rId22" display="..\..\Pictures\A TRABAJOS WEB\VARIOS\ROSARIOS\Rosarios Cola de rata\Rosario cola de rata.jpg"/>
-    <hyperlink ref="H26" r:id="rId23" display="..\..\Pictures\A TRABAJOS WEB\VELAS\CERA DE ABEJAS\Vela Cera de abeja chica.jpg"/>
-    <hyperlink ref="H27" r:id="rId24" display="..\..\Pictures\A TRABAJOS WEB\VELAS\COLORES Y AROMAS\Colores y aromas Rosas.jpg"/>
-    <hyperlink ref="H28" r:id="rId25" display="..\..\Pictures\A TRABAJOS WEB\Cerámica\Rosario Cerámica.jpg"/>
-    <hyperlink ref="H29" r:id="rId26" display="..\..\Pictures\A TRABAJOS WEB\Cerámica\CRUCES\Cruz souvenir.jpg"/>
-    <hyperlink ref="H30" r:id="rId27" display="..\..\Pictures\A TRABAJOS WEB\Cerámica\PESEBRES\Pesebre cerámica.jpg"/>
-    <hyperlink ref="H31" r:id="rId28" display="..\..\Pictures\A TRABAJOS WEB\Cerámica\Virgen Embarazada.jpg"/>
-    <hyperlink ref="H32" r:id="rId29" display="..\..\Pictures\A TRABAJOS WEB\Cerámica\Niños Jesús\Cerámica Niño Jesús -1.jpg"/>
-    <hyperlink ref="H33" r:id="rId30" display="..\..\Pictures\A TRABAJOS WEB\Cerámica\Niños Jesús\Cerámica Niño Jesús 3.jpg"/>
-    <hyperlink ref="H34" r:id="rId31" display="..\..\Pictures\A TRABAJOS WEB\Cerámica\Niños Jesús\Cerámica Niño Jesús 4.jpg"/>
-    <hyperlink ref="H35" r:id="rId32" display="..\..\Pictures\A TRABAJOS WEB\Cerámica\Niños Jesús\Cerámica Niño Jesús 4.jpg"/>
+    <hyperlink ref="H4" r:id="rId1"/>
+    <hyperlink ref="H5" r:id="rId2"/>
+    <hyperlink ref="H6" r:id="rId3"/>
+    <hyperlink ref="H7" r:id="rId4"/>
+    <hyperlink ref="H8" r:id="rId5"/>
+    <hyperlink ref="H9" r:id="rId6"/>
+    <hyperlink ref="H10" r:id="rId7"/>
+    <hyperlink ref="H11" r:id="rId8"/>
+    <hyperlink ref="H12" r:id="rId9"/>
+    <hyperlink ref="H13" r:id="rId10"/>
+    <hyperlink ref="H14" r:id="rId11"/>
+    <hyperlink ref="H15" r:id="rId12"/>
+    <hyperlink ref="H16" r:id="rId13"/>
+    <hyperlink ref="H17" r:id="rId14"/>
+    <hyperlink ref="H18" r:id="rId15"/>
+    <hyperlink ref="H19" r:id="rId16"/>
+    <hyperlink ref="H20" r:id="rId17"/>
+    <hyperlink ref="H21" r:id="rId18"/>
+    <hyperlink ref="H22" r:id="rId19"/>
+    <hyperlink ref="H23" r:id="rId20"/>
+    <hyperlink ref="H24" r:id="rId21"/>
+    <hyperlink ref="H25" r:id="rId22"/>
+    <hyperlink ref="H26" r:id="rId23"/>
+    <hyperlink ref="H27" r:id="rId24"/>
+    <hyperlink ref="H28" r:id="rId25"/>
+    <hyperlink ref="H29" r:id="rId26"/>
+    <hyperlink ref="H30" r:id="rId27"/>
+    <hyperlink ref="H31" r:id="rId28"/>
+    <hyperlink ref="H32" r:id="rId29"/>
+    <hyperlink ref="H33" r:id="rId30"/>
+    <hyperlink ref="H34" r:id="rId31"/>
+    <hyperlink ref="H35" r:id="rId32"/>
   </hyperlinks>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.196527777777778" right="0.196527777777778" top="0.39375" bottom="0.196527777777778" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="landscape" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.196527777777778" right="0.196527777777778" top="0.39374999999999999" bottom="0.196527777777778" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
--- a/data/web-repositorio.xlsx
+++ b/data/web-repositorio.xlsx
@@ -1,20 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Win 10\Downloads\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="Calc"/>
+  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="Hoja1" sheetId="1" state="visible" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="0" iterateDelta="1E-4"/>
+  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -26,443 +22,460 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="141">
   <si>
-    <t>CARMELITAS BARILOCHE WEB</t>
-  </si>
-  <si>
-    <t>PRODUCTOS</t>
-  </si>
-  <si>
-    <t>DISPONIBILIDAD</t>
-  </si>
-  <si>
-    <t>PRECIO UNITARIO</t>
-  </si>
-  <si>
-    <t>CATEGORÍA</t>
-  </si>
-  <si>
-    <t>FOTOS</t>
-  </si>
-  <si>
-    <t>DESCRIPCIÓN</t>
-  </si>
-  <si>
-    <t>Ubicación Archivo (vínculo)</t>
-  </si>
-  <si>
-    <t>title</t>
-  </si>
-  <si>
-    <t>stock</t>
-  </si>
-  <si>
-    <t>precio</t>
-  </si>
-  <si>
-    <t>peso</t>
-  </si>
-  <si>
-    <t>categorias</t>
-  </si>
-  <si>
-    <t>imagen</t>
-  </si>
-  <si>
-    <t>descripcion</t>
-  </si>
-  <si>
-    <t>ubicacion-fotos</t>
-  </si>
-  <si>
-    <t>Cuero señalador</t>
-  </si>
-  <si>
-    <t>CUERO</t>
-  </si>
-  <si>
-    <t>cuero señalador</t>
-  </si>
-  <si>
-    <t>Realizados en cuero vacuno. Pirograbados. 15,5x7 cm</t>
-  </si>
-  <si>
-    <t>..\..\Pictures\A TRABAJOS WEB\CUERO\SEÑALADORES\Señaladores 1\Señaladores de Cuero -1.jpg</t>
-  </si>
-  <si>
-    <t>Cuero Evangelio con estuche pirograbado</t>
-  </si>
-  <si>
-    <t>cuero evangelio con estuche pirograbado</t>
-  </si>
-  <si>
-    <t>Los cuatro Evangelios en formato bolsillo en su estuche de cuero vacuno pirograbado. 9x13,5 cm</t>
-  </si>
-  <si>
-    <t>..\..\Pictures\A TRABAJOS WEB\CUERO\ESTUCHES\Cuero Evangelio con estuche pirograbado A.jpg</t>
-  </si>
-  <si>
-    <t>Detentes - Protección del Sagrado Corazón de Jesús</t>
-  </si>
-  <si>
-    <t>VARIOS&gt;ESCAPULARIOS Y DETENTES</t>
-  </si>
-  <si>
-    <t>Detentes</t>
-  </si>
-  <si>
-    <t>Pequeña imagen del Sagrado Corazón de Jesús sobre paño rojo, con la inscripción "¡Detente! El Sagrado Corazón de Jesús está conmigo" -    5x4 cm</t>
-  </si>
-  <si>
-    <t>..\..\Pictures\A TRABAJOS WEB\VARIOS\ESCAPULARIOS Y DETENTES\Detentes.jpg</t>
-  </si>
-  <si>
-    <t>Escapulario chico</t>
-  </si>
-  <si>
-    <t>Confeccionados con tela e hilo macramé . Con la imagen de la Virgen del Carmen- 3,5x2,5 cm</t>
-  </si>
-  <si>
-    <t>..\..\Pictures\A TRABAJOS WEB\VARIOS\ESCAPULARIOS Y DETENTES\Escapulario chico.jpg</t>
-  </si>
-  <si>
-    <t>Escapulario Grande</t>
-  </si>
-  <si>
-    <t>Escapulario grande</t>
-  </si>
-  <si>
-    <t>Confeccionados con tela y cola de rata- Imagen de la Virgen del Carmen y Sagrado Corazón  5,5x4 cm</t>
-  </si>
-  <si>
-    <t>..\..\Pictures\A TRABAJOS WEB\VARIOS\ESCAPULARIOS Y DETENTES\Escapulario grande.jpg</t>
-  </si>
-  <si>
-    <t>Estampas de Flores Nada te turbe -1</t>
-  </si>
-  <si>
-    <t>VARIOS&gt;ESTAMPAS DE FLORES</t>
-  </si>
-  <si>
-    <t>Estampas Flores Nada te turbe-1-</t>
-  </si>
-  <si>
-    <t>Señaladores en papel reciclado. Diseño artísitico con flores de Bariloche. 15x7,5 cm</t>
-  </si>
-  <si>
-    <t>..\..\Pictures\A TRABAJOS WEB\VARIOS\ESTAMPAS FLORES\Estampas Flores Nada te turbe -1.jpg</t>
-  </si>
-  <si>
-    <t>Estampas de Flores Nada te turbe -2</t>
-  </si>
-  <si>
-    <t>Estampas Flores Nada te turbe-2-</t>
-  </si>
-  <si>
-    <t>..\..\Pictures\A TRABAJOS WEB\VARIOS\ESTAMPAS FLORES\Estampas Flores Nada te turbe -2.jpg</t>
-  </si>
-  <si>
-    <t>Estampas de Flores Nada te turbe -3</t>
-  </si>
-  <si>
-    <t>Estampas Flores Nada te turbe-3-</t>
-  </si>
-  <si>
-    <t>..\..\Pictures\A TRABAJOS WEB\VARIOS\ESTAMPAS FLORES\Estampas Flores Nada te turbe -3.jpg</t>
-  </si>
-  <si>
-    <t>Estampas de Flores Nada te turbe -4</t>
-  </si>
-  <si>
-    <t>Estampas Flores Nada te turbe-4-</t>
-  </si>
-  <si>
-    <t>..\..\Pictures\A TRABAJOS WEB\VARIOS\ESTAMPAS FLORES\Estampas Flores Nada te turbe -4.jpg</t>
-  </si>
-  <si>
-    <t>Estampas de Flores Nada te turbe -5</t>
-  </si>
-  <si>
-    <t>Estampas Flores Nada te turbe-5-</t>
-  </si>
-  <si>
-    <t>..\..\Pictures\A TRABAJOS WEB\VARIOS\ESTAMPAS FLORES\Estampas Flores Nada te turbe -5.jpg</t>
-  </si>
-  <si>
-    <t>Madera Cuadros puntillismo Sagrada Familia -1-</t>
-  </si>
-  <si>
-    <t>MADERA&gt;CUADROS PUNTILLISMO</t>
-  </si>
-  <si>
-    <t>madera cuadro puntillismo sgda-familia-1-</t>
-  </si>
-  <si>
-    <t>Pintado a mano con técnica puntillismo. 22,5 x 19,5 cm</t>
-  </si>
-  <si>
-    <t>..\..\Pictures\A TRABAJOS WEB\Madera\CUADROS PUNTILLISMO\Madera Cuadro Puntillismo Sgda. Familia -1.jpg</t>
-  </si>
-  <si>
-    <t>Madera Cuadros puntillismo Sagrada Familia -2-</t>
-  </si>
-  <si>
-    <t>madera cuadro puntillismo sgda-familia-2-</t>
-  </si>
-  <si>
-    <t>..\..\Pictures\A TRABAJOS WEB\Madera\CUADROS PUNTILLISMO\Madera Cuadro Puntillismo Sgda. Familia -2.jpg</t>
-  </si>
-  <si>
-    <t>Madera Cuadros puntillismo Virgencita de Luján -1-</t>
-  </si>
-  <si>
-    <t>madera cuadro puntillismo virgencita de luján-1-</t>
-  </si>
-  <si>
-    <t>Pintado a mano con técnica puntillismo, 25 x 18 cm</t>
-  </si>
-  <si>
-    <t>..\..\Pictures\A TRABAJOS WEB\Madera\CUADROS PUNTILLISMO\Madera Cuadro Puntillismo Virgencita de Luján -1.jpg</t>
-  </si>
-  <si>
-    <t>Madera Cuadros puntillismo Virgencita de Luján -2-</t>
-  </si>
-  <si>
-    <t>madera cuadro puntillismo virgencita de luján-2-</t>
-  </si>
-  <si>
-    <t>..\..\Pictures\A TRABAJOS WEB\Madera\CUADROS PUNTILLISMO\Madera Cuadro Puntillismo Virgencita de Luján -2.jpg</t>
-  </si>
-  <si>
-    <t>Madera Corazones pintados-1-</t>
-  </si>
-  <si>
-    <t>MADERA&gt;CUNEROS</t>
-  </si>
-  <si>
-    <t>Cunero colgante: Corazón pintado a mano,  con motivo infantil. 11,5 x 10,5 cm</t>
-  </si>
-  <si>
-    <t>..\..\Pictures\A TRABAJOS WEB\Madera\CUNEROS\CORAZONES Y CRUCES\Madera Corazones pintados -1.jpg</t>
-  </si>
-  <si>
-    <t>Madera Corazones pintados-2-</t>
-  </si>
-  <si>
-    <t>..\..\Pictures\A TRABAJOS WEB\Madera\CUNEROS\CORAZONES Y CRUCES\Madera Corazones pintados -2.jpg</t>
-  </si>
-  <si>
-    <t>Madera Corazones pintados-3-</t>
-  </si>
-  <si>
-    <t>..\..\Pictures\A TRABAJOS WEB\Madera\CUNEROS\CORAZONES Y CRUCES\Madera Corazones pintados -3.jpg</t>
-  </si>
-  <si>
-    <t>Madera Redondeles cuneritos</t>
-  </si>
-  <si>
-    <t>Cunero colgante redondo.  8 cm de diámetro.  Pintado a mano - Motivo infantil -</t>
-  </si>
-  <si>
-    <t>..\..\Pictures\A TRABAJOS WEB\Madera\CUNEROS\REDONDELES\Madera Redondeles cuneritos.jpg</t>
-  </si>
-  <si>
-    <t>Madera Cuadros Pasta piedra Virgen María -GRANDE-</t>
-  </si>
-  <si>
-    <t>MADERA&gt;CUADROS PASTA PIEDRA</t>
-  </si>
-  <si>
-    <t>Madera Cuadro Virgen María Pasta Piedra-1-</t>
-  </si>
-  <si>
-    <t>Virgen María en un diseño infantil. Pintada y modelada a mano en Pasta Piedra. 40x30 cm - 1 cm grosor de la madera</t>
-  </si>
-  <si>
-    <t>..\..\Pictures\A TRABAJOS WEB\Madera\CUADROS PASTA PIEDRA\Madera Cuadro Virgen María Pasta Piedra -1.jpg</t>
-  </si>
-  <si>
-    <t>Madera Cuadros Pasta piedra Virgen María -MEDIO-</t>
-  </si>
-  <si>
-    <t>Madera Cuadro Virgen María Pasta Piedra-2-</t>
-  </si>
-  <si>
-    <t>Virgen María en un diseño infantil. Pintada y modelada a mano en Pasta Piedra. &lt;p&gt;32x26 cm 1 cm grosor de la madera&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>..\..\Pictures\A TRABAJOS WEB\Madera\CUADROS PASTA PIEDRA\Madera Cuadro Virgen María Pasta Piedra -2.jpg</t>
-  </si>
-  <si>
-    <t>Rosarios 24 glorias Sta. Teresita</t>
-  </si>
-  <si>
-    <t>VARIOS&gt;ROSARIOS</t>
-  </si>
-  <si>
-    <t>rosarios-24-glorias-sta-teresita</t>
-  </si>
-  <si>
-    <t>Rosario  de 24 cuentas, en honor de los 24 años de vida de Sta. Teresita del Niño Jesús.  Con estampa explicativa (14,5x10 cm)</t>
-  </si>
-  <si>
-    <t>..\..\Pictures\A TRABAJOS WEB\VARIOS\ROSARIOS\24 Glorias\Rosarios 24 glorias Sta. Teresita.jpg</t>
-  </si>
-  <si>
-    <t>Rosarios Cola de rata</t>
-  </si>
-  <si>
-    <t>Rosario cola de rata</t>
-  </si>
-  <si>
-    <t>Rosario de bolsillo, con cuentas de madera pequeñas y cruz acorde.  Sencillo y práctico para nuestra oración cotidiana a la Virgen María.</t>
-  </si>
-  <si>
-    <t>..\..\Pictures\A TRABAJOS WEB\VARIOS\ROSARIOS\Rosarios Cola de rata\Rosario cola de rata.jpg</t>
+    <t xml:space="preserve">CARMELITAS BARILOCHE WEB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PRODUCTOS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DISPONIBILIDAD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PRECIO UNITARIO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CATEGORÍA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FOTOS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DESCRIPCIÓN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ubicación Archivo (vínculo)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">title</t>
+  </si>
+  <si>
+    <t xml:space="preserve">stock</t>
+  </si>
+  <si>
+    <t xml:space="preserve">precio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">peso</t>
+  </si>
+  <si>
+    <t xml:space="preserve">categorias</t>
+  </si>
+  <si>
+    <t xml:space="preserve">imagen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">descripcion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ubicacion-fotos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cuero señalador</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CUERO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cuero señalador</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Realizados en cuero vacuno. Pirograbados. 15,5x7 cm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">..\..\Pictures\A TRABAJOS WEB\CUERO\SEÑALADORES\Señaladores 1\Señaladores de Cuero -1.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cuero Evangelio con estuche pirograbado</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cuero evangelio con estuche pirograbado</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Los cuatro Evangelios en formato bolsillo en su estuche de cuero vacuno pirograbado. 9x13,5 cm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">..\..\Pictures\A TRABAJOS WEB\CUERO\ESTUCHES\Cuero Evangelio con estuche pirograbado A.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Detentes - Protección del Sagrado Corazón de Jesús</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VARIOS&gt;ESCAPULARIOS Y DETENTES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Detentes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pequeña imagen del Sagrado Corazón de Jesús sobre paño rojo, con la inscripción "¡Detente! El Sagrado Corazón de Jesús está conmigo" \n- 5x4 cm -</t>
+  </si>
+  <si>
+    <t xml:space="preserve">..\..\Pictures\A TRABAJOS WEB\VARIOS\ESCAPULARIOS Y DETENTES\Detentes.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Escapulario chico</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Confeccionados con tela e hilo macramé . Con la imagen de la Virgen del Carmen- 3,5x2,5 cm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">..\..\Pictures\A TRABAJOS WEB\VARIOS\ESCAPULARIOS Y DETENTES\Escapulario chico.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Escapulario Grande</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Escapulario grande</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Confeccionados con tela y cola de rata- Imagen de la Virgen del Carmen y Sagrado Corazón  5,5x4 cm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">..\..\Pictures\A TRABAJOS WEB\VARIOS\ESCAPULARIOS Y DETENTES\Escapulario grande.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Estampas de Flores Nada te turbe -1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VARIOS&gt;ESTAMPAS DE FLORES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Estampas Flores Nada te turbe-1-</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Señaladores en papel reciclado. Diseño artísitico con flores de Bariloche. 15x7,5 cm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">..\..\Pictures\A TRABAJOS WEB\VARIOS\ESTAMPAS FLORES\Estampas Flores Nada te turbe -1.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Estampas de Flores Nada te turbe -2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Estampas Flores Nada te turbe-2-</t>
+  </si>
+  <si>
+    <t xml:space="preserve">..\..\Pictures\A TRABAJOS WEB\VARIOS\ESTAMPAS FLORES\Estampas Flores Nada te turbe -2.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Estampas de Flores Nada te turbe -3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Estampas Flores Nada te turbe-3-</t>
+  </si>
+  <si>
+    <t xml:space="preserve">..\..\Pictures\A TRABAJOS WEB\VARIOS\ESTAMPAS FLORES\Estampas Flores Nada te turbe -3.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Estampas de Flores Nada te turbe -4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Estampas Flores Nada te turbe-4-</t>
+  </si>
+  <si>
+    <t xml:space="preserve">..\..\Pictures\A TRABAJOS WEB\VARIOS\ESTAMPAS FLORES\Estampas Flores Nada te turbe -4.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Estampas de Flores Nada te turbe -5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Estampas Flores Nada te turbe-5-</t>
+  </si>
+  <si>
+    <t xml:space="preserve">..\..\Pictures\A TRABAJOS WEB\VARIOS\ESTAMPAS FLORES\Estampas Flores Nada te turbe -5.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Madera Cuadros puntillismo Sagrada Familia -1-</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MADERA&gt;CUADROS PUNTILLISMO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">madera cuadro puntillismo sgda-familia-1-</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pintado a mano con técnica puntillismo. 22,5 x 19,5 cm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">..\..\Pictures\A TRABAJOS WEB\Madera\CUADROS PUNTILLISMO\Madera Cuadro Puntillismo Sgda. Familia -1.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Madera Cuadros puntillismo Sagrada Familia -2-</t>
+  </si>
+  <si>
+    <t xml:space="preserve">madera cuadro puntillismo sgda-familia-2-</t>
+  </si>
+  <si>
+    <t xml:space="preserve">..\..\Pictures\A TRABAJOS WEB\Madera\CUADROS PUNTILLISMO\Madera Cuadro Puntillismo Sgda. Familia -2.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Madera Cuadros puntillismo Virgencita de Luján -1-</t>
+  </si>
+  <si>
+    <t xml:space="preserve">madera cuadro puntillismo virgencita de luján-1-</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pintado a mano con técnica puntillismo, 25 x 18 cm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">..\..\Pictures\A TRABAJOS WEB\Madera\CUADROS PUNTILLISMO\Madera Cuadro Puntillismo Virgencita de Luján -1.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Madera Cuadros puntillismo Virgencita de Luján -2-</t>
+  </si>
+  <si>
+    <t xml:space="preserve">madera cuadro puntillismo virgencita de luján-2-</t>
+  </si>
+  <si>
+    <t xml:space="preserve">..\..\Pictures\A TRABAJOS WEB\Madera\CUADROS PUNTILLISMO\Madera Cuadro Puntillismo Virgencita de Luján -2.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Madera Corazones pintados-1-</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MADERA&gt;CUNEROS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cunero colgante: Corazón pintado a mano,  con motivo infantil. 11,5 x 10,5 cm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">..\..\Pictures\A TRABAJOS WEB\Madera\CUNEROS\CORAZONES Y CRUCES\Madera Corazones pintados -1.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Madera Corazones pintados-2-</t>
+  </si>
+  <si>
+    <t xml:space="preserve">..\..\Pictures\A TRABAJOS WEB\Madera\CUNEROS\CORAZONES Y CRUCES\Madera Corazones pintados -2.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Madera Corazones pintados-3-</t>
+  </si>
+  <si>
+    <t xml:space="preserve">..\..\Pictures\A TRABAJOS WEB\Madera\CUNEROS\CORAZONES Y CRUCES\Madera Corazones pintados -3.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Madera Redondeles cuneritos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cunero colgante redondo.  8 cm de diámetro.  Pintado a mano - Motivo infantil -</t>
+  </si>
+  <si>
+    <t xml:space="preserve">..\..\Pictures\A TRABAJOS WEB\Madera\CUNEROS\REDONDELES\Madera Redondeles cuneritos.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Madera Cuadros Pasta piedra Virgen María -GRANDE-</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MADERA&gt;CUADROS PASTA PIEDRA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Madera Cuadro Virgen María Pasta Piedra-1-</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Virgen María en un diseño infantil. Pintada y modelada a mano en Pasta Piedra. 40x30 cm - 1 cm grosor de la madera</t>
+  </si>
+  <si>
+    <t xml:space="preserve">..\..\Pictures\A TRABAJOS WEB\Madera\CUADROS PASTA PIEDRA\Madera Cuadro Virgen María Pasta Piedra -1.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Madera Cuadros Pasta piedra Virgen María -MEDIO-</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Madera Cuadro Virgen María Pasta Piedra-2-</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Virgen María en un diseño infantil. Pintada y modelada a mano en Pasta Piedra. &lt;p&gt;32x26 cm 1 cm grosor de la madera&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">..\..\Pictures\A TRABAJOS WEB\Madera\CUADROS PASTA PIEDRA\Madera Cuadro Virgen María Pasta Piedra -2.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rosarios 24 glorias Sta. Teresita</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VARIOS&gt;ROSARIOS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rosarios-24-glorias-sta-teresita</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rosario  de 24 cuentas, en honor de los 24 años de vida de Sta. Teresita del Niño Jesús.  Con estampa explicativa (14,5x10 cm)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">..\..\Pictures\A TRABAJOS WEB\VARIOS\ROSARIOS\24 Glorias\Rosarios 24 glorias Sta. Teresita.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rosarios Cola de rata</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rosario cola de rata</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rosario de bolsillo, con cuentas de madera pequeñas y cruz acorde.  Sencillo y práctico para nuestra oración cotidiana a la Virgen María.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">..\..\Pictures\A TRABAJOS WEB\VARIOS\ROSARIOS\Rosarios Cola de rata\Rosario cola de rata.jpg</t>
   </si>
   <si>
     <t xml:space="preserve">Velas Litúrgicas de Cera de abeja  (CHICAS) </t>
   </si>
   <si>
-    <t>VELAS</t>
-  </si>
-  <si>
-    <t>Vela cera de abeja chica</t>
-  </si>
-  <si>
-    <t>Elaboradas con CERA DE ABEJAS. Aptas para uso en la Santa Misa u otros actos litúrgicos y devocionales. 5,5X 10,5 cm</t>
-  </si>
-  <si>
-    <t>..\..\Pictures\A TRABAJOS WEB\VELAS\CERA DE ABEJAS\Vela Cera de abeja chica.jpg</t>
-  </si>
-  <si>
-    <t>Velas Colores y Aromas -ROSAS-</t>
-  </si>
-  <si>
-    <t>vela colores y aromas rosas</t>
-  </si>
-  <si>
-    <t>Elaboradas con parafina, colores y esencias perfumadas. 4,2x12 cm</t>
-  </si>
-  <si>
-    <t>..\..\Pictures\A TRABAJOS WEB\VELAS\COLORES Y AROMAS\Colores y aromas Rosas.jpg</t>
-  </si>
-  <si>
-    <t>Cerámica Rosario engarzados (perfume de Rosas con cajita)</t>
-  </si>
-  <si>
-    <t>CERÁMICA</t>
-  </si>
-  <si>
-    <t>Cerámica Rosario</t>
-  </si>
-  <si>
-    <t>Rosario engarzado con cuentas de cerámica realizadas de manera artesanal.  Perfume de rosas. Incluye cajita portarosario.</t>
-  </si>
-  <si>
-    <t>..\..\Pictures\A TRABAJOS WEB\Cerámica\Rosario Cerámica.jpg</t>
-  </si>
-  <si>
-    <t>Cerámica cruces souvenir</t>
-  </si>
-  <si>
-    <t>Cruz Souvenir</t>
+    <t xml:space="preserve">VELAS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vela cera de abeja chica</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Elaboradas con CERA DE ABEJAS. Aptas para uso en la Santa Misa u otros actos litúrgicos y devocionales. 5,5X 10,5 cm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">..\..\Pictures\A TRABAJOS WEB\VELAS\CERA DE ABEJAS\Vela Cera de abeja chica.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Velas Colores y Aromas -ROSAS-</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vela colores y aromas rosas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Elaboradas con parafina, colores y esencias perfumadas. 4,2x12 cm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">..\..\Pictures\A TRABAJOS WEB\VELAS\COLORES Y AROMAS\Colores y aromas Rosas.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cerámica Rosario engarzados (perfume de Rosas con cajita)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CERÁMICA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cerámica Rosario</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rosario engarzado con cuentas de cerámica realizadas de manera artesanal.  Perfume de rosas. Incluye cajita portarosario.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">..\..\Pictures\A TRABAJOS WEB\Cerámica\Rosario Cerámica.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cerámica cruces souvenir</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cruz Souvenir</t>
   </si>
   <si>
     <t xml:space="preserve">Cruz colgante de cerámica con el Niño Jesús - Diseños exclusivos - Ideal para cuneros o la habitación de los niños. 6,5x5,5 cm </t>
   </si>
   <si>
-    <t>..\..\Pictures\A TRABAJOS WEB\Cerámica\CRUCES\Cruz souvenir.jpg</t>
-  </si>
-  <si>
-    <t>Cerámica Pesebre</t>
-  </si>
-  <si>
-    <t>cerámica pesebre</t>
-  </si>
-  <si>
-    <t>Pesebre artesanal - Diseños exclusivos. 14x9,5 cm</t>
-  </si>
-  <si>
-    <t>..\..\Pictures\A TRABAJOS WEB\Cerámica\PESEBRES\Pesebre cerámica.jpg</t>
-  </si>
-  <si>
-    <t>Cerámica Virgen embarazada</t>
-  </si>
-  <si>
-    <t>Virgen Embarazada</t>
-  </si>
-  <si>
-    <t>Imagen de la Virgen María, advocación "Nuestra Señora de la Dulce Espera!"- Diseños exclusivos -19,5 x 6,5 cm</t>
-  </si>
-  <si>
-    <t>..\..\Pictures\A TRABAJOS WEB\Cerámica\Virgen Embarazada.jpg</t>
-  </si>
-  <si>
-    <t>Cerámica Niños Jesús-1-</t>
-  </si>
-  <si>
-    <t>CERÁMICA&gt;NIÑOS JESÚS</t>
-  </si>
-  <si>
-    <t>Cerámica Niño Jesús-1-</t>
-  </si>
-  <si>
-    <t>Imagen artesanal del Niño Jesús con aureola y cunita - 5x4 cm</t>
-  </si>
-  <si>
-    <t>..\..\Pictures\A TRABAJOS WEB\Cerámica\Niños Jesús\Cerámica Niño Jesús -1.jpg</t>
-  </si>
-  <si>
-    <t>Cerámica Niños Jesús-2-</t>
-  </si>
-  <si>
-    <t>Cerámica Niño Jesús-2-</t>
-  </si>
-  <si>
-    <t>..\..\Pictures\A TRABAJOS WEB\Cerámica\Niños Jesús\Cerámica Niño Jesús 3.jpg</t>
-  </si>
-  <si>
-    <t>Cerámica Niños Jesús-3-</t>
-  </si>
-  <si>
-    <t>Cerámica Niño Jesús-3-</t>
-  </si>
-  <si>
-    <t>..\..\Pictures\A TRABAJOS WEB\Cerámica\Niños Jesús\Cerámica Niño Jesús 4.jpg</t>
-  </si>
-  <si>
-    <t>Cerámica Niños Jesús-4-</t>
-  </si>
-  <si>
-    <t>Cerámica Niño Jesús-4-</t>
-  </si>
-  <si>
-    <t>Alfajores del Carmelo</t>
-  </si>
-  <si>
-    <t>VARIOS</t>
-  </si>
-  <si>
-    <t>alfajores</t>
-  </si>
-  <si>
-    <t>Alfajores caseros de dulce de leche bañados en chocolate (4 de chocolate negro y 2 de chocolate blanco)</t>
+    <t xml:space="preserve">..\..\Pictures\A TRABAJOS WEB\Cerámica\CRUCES\Cruz souvenir.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cerámica Pesebre</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cerámica pesebre</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pesebre artesanal - Diseños exclusivos. 14x9,5 cm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">..\..\Pictures\A TRABAJOS WEB\Cerámica\PESEBRES\Pesebre cerámica.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cerámica Virgen embarazada</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Virgen Embarazada</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Imagen de la Virgen María, advocación "Nuestra Señora de la Dulce Espera!"- Diseños exclusivos -19,5 x 6,5 cm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">..\..\Pictures\A TRABAJOS WEB\Cerámica\Virgen Embarazada.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cerámica Niños Jesús-1-</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CERÁMICA&gt;NIÑOS JESÚS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cerámica Niño Jesús-1-</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Imagen artesanal del Niño Jesús con aureola y cunita - 5x4 cm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">..\..\Pictures\A TRABAJOS WEB\Cerámica\Niños Jesús\Cerámica Niño Jesús -1.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cerámica Niños Jesús-2-</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cerámica Niño Jesús-2-</t>
+  </si>
+  <si>
+    <t xml:space="preserve">..\..\Pictures\A TRABAJOS WEB\Cerámica\Niños Jesús\Cerámica Niño Jesús 3.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cerámica Niños Jesús-3-</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cerámica Niño Jesús-3-</t>
+  </si>
+  <si>
+    <t xml:space="preserve">..\..\Pictures\A TRABAJOS WEB\Cerámica\Niños Jesús\Cerámica Niño Jesús 4.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cerámica Niños Jesús-4-</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cerámica Niño Jesús-4-</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alfajores del Carmelo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VARIOS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">alfajores</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alfajores caseros de dulce de leche bañados en chocolate (4 de chocolate negro y 2 de chocolate blanco)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="_-&quot;$ &quot;* #,##0.00_-;&quot;-$ &quot;* #,##0.00_-;_-&quot;$ &quot;* \-??_-;_-@_-"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="3">
+    <numFmt numFmtId="164" formatCode="General"/>
+    <numFmt numFmtId="165" formatCode="0"/>
+    <numFmt numFmtId="166" formatCode="_-&quot;$ &quot;* #,##0.00_-;&quot;-$ &quot;* #,##0.00_-;_-&quot;$ &quot;* \-??_-;_-@_-"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
     </font>
     <font>
       <sz val="12"/>
@@ -472,7 +485,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <u/>
+      <u val="single"/>
       <sz val="11"/>
       <color theme="10"/>
       <name val="Calibri"/>
@@ -480,7 +493,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <i/>
+      <i val="true"/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
@@ -488,15 +501,8 @@
       <charset val="1"/>
     </font>
     <font>
-      <i/>
+      <i val="true"/>
       <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
@@ -511,347 +517,448 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.59978026673177287"/>
+        <fgColor theme="4" tint="0.5997"/>
         <bgColor rgb="FFDBDBDB"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.39979247413556324"/>
+        <fgColor theme="4" tint="0.3997"/>
         <bgColor rgb="FFBDD7EE"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.59978026673177287"/>
+        <fgColor theme="6" tint="0.5997"/>
         <bgColor rgb="FFE2F0D9"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79979857783745845"/>
+        <fgColor theme="9" tint="0.7998"/>
         <bgColor rgb="FFFBE5D6"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.59978026673177287"/>
+        <fgColor theme="7" tint="0.5997"/>
         <bgColor rgb="FFFFD966"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.39979247413556324"/>
+        <fgColor theme="9" tint="0.3997"/>
         <bgColor rgb="FF9DC3E6"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.39979247413556324"/>
+        <fgColor theme="7" tint="0.3997"/>
         <bgColor rgb="FFFFE699"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.79979857783745845"/>
+        <fgColor theme="5" tint="0.7998"/>
         <bgColor rgb="FFE2F0D9"/>
       </patternFill>
     </fill>
   </fills>
   <borders count="12">
-    <border>
+    <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border>
+    <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
-    <border>
+    <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
+      <top style="thin"/>
       <bottom/>
       <diagonal/>
     </border>
-    <border>
+    <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
       <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
+      <top style="thin"/>
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
       <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
-    <border>
+    <border diagonalUp="false" diagonalDown="false">
       <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
+      <right style="thin"/>
       <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
       <right/>
       <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
+      <right style="thin"/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="4">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+  <cellStyleXfs count="22">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="66">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="6" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="7" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="7" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="8" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="9" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="6" borderId="2" xfId="17" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="6" borderId="2" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="7" borderId="2" xfId="17" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="7" borderId="2" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="7" borderId="2" xfId="17" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="8" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="8" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="8" borderId="2" xfId="17" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="8" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="8" borderId="2" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="8" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="8" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="8" borderId="2" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="2" xfId="17" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="2" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="9" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="9" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="9" borderId="2" xfId="17" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="9" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="9" borderId="2" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="9" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="4" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="9" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="9" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="9" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="4">
-    <cellStyle name="Excel Built-in Explanatory Text" xfId="3"/>
-    <cellStyle name="Hipervínculo" xfId="2" builtinId="8"/>
-    <cellStyle name="Moneda" xfId="1" builtinId="4"/>
+  <cellStyles count="8">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5"/>
+    <cellStyle name="*unknown*" xfId="20" builtinId="8"/>
+    <cellStyle name="Excel Built-in Explanatory Text" xfId="21"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -910,76 +1017,60 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
         <a:srgbClr val="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:srgbClr val="FFFFFF"/>
+        <a:srgbClr val="ffffff"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="44546a"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="e7e6e6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="5b9bd5"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="ed7d31"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="a5a5a5"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="ffc000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="4472c4"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="70ad47"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="0563c1"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="954f72"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204" pitchFamily="0" charset="1"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="0" charset="1"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
       </a:minorFont>
@@ -1011,7 +1102,7 @@
             </a:gs>
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
-          <a:tileRect/>
+          <a:tileRect l="0" t="0" r="0" b="0"/>
         </a:gradFill>
         <a:gradFill>
           <a:gsLst>
@@ -1035,7 +1126,7 @@
             </a:gs>
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
-          <a:tileRect/>
+          <a:tileRect l="0" t="0" r="0" b="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
@@ -1095,50 +1186,51 @@
             </a:gs>
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
-          <a:tileRect/>
+          <a:tileRect l="0" t="0" r="0" b="0"/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="A1:N36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A36" sqref="A36"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G6" activeCellId="0" sqref="G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.57421875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="43.85546875" style="2" customWidth="1"/>
-    <col min="2" max="2" width="12.5703125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="17.42578125" style="4" customWidth="1"/>
-    <col min="4" max="4" width="11.28515625" style="4" customWidth="1"/>
-    <col min="5" max="5" width="34.5703125" style="2" customWidth="1"/>
-    <col min="6" max="6" width="39.42578125" style="2" customWidth="1"/>
-    <col min="7" max="7" width="33.140625" style="2" customWidth="1"/>
-    <col min="8" max="8" width="78.5703125" style="2" customWidth="1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="43.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="12.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="3" width="17.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="3" width="11.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="34.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="39.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="33.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="78.57"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
       <c r="G1" s="5"/>
       <c r="H1" s="6"/>
       <c r="L1" s="5"/>
     </row>
-    <row r="2" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="7" t="s">
         <v>1</v>
       </c>
@@ -1166,7 +1258,7 @@
       <c r="K2" s="12"/>
       <c r="L2" s="5"/>
     </row>
-    <row r="3" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="7" t="s">
         <v>8</v>
       </c>
@@ -1196,17 +1288,17 @@
       <c r="K3" s="12"/>
       <c r="L3" s="5"/>
     </row>
-    <row r="4" spans="1:13" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" customFormat="false" ht="34.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="15">
-        <v>1</v>
-      </c>
-      <c r="C4" s="16">
+      <c r="B4" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="C4" s="16" t="n">
         <v>2500</v>
       </c>
-      <c r="D4" s="16">
+      <c r="D4" s="16" t="n">
         <v>20</v>
       </c>
       <c r="E4" s="17" t="s">
@@ -1226,17 +1318,17 @@
       <c r="K4" s="12"/>
       <c r="L4" s="20"/>
     </row>
-    <row r="5" spans="1:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" customFormat="false" ht="39.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="15">
-        <v>1</v>
-      </c>
-      <c r="C5" s="16">
+      <c r="B5" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="C5" s="16" t="n">
         <v>16000</v>
       </c>
-      <c r="D5" s="16">
+      <c r="D5" s="16" t="n">
         <v>90</v>
       </c>
       <c r="E5" s="17" t="s">
@@ -1256,17 +1348,17 @@
       <c r="K5" s="12"/>
       <c r="L5" s="24"/>
     </row>
-    <row r="6" spans="1:13" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" customFormat="false" ht="34.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="B6" s="26">
+      <c r="B6" s="26" t="n">
         <v>100</v>
       </c>
-      <c r="C6" s="27">
+      <c r="C6" s="27" t="n">
         <v>1200</v>
       </c>
-      <c r="D6" s="27">
+      <c r="D6" s="27" t="n">
         <v>1</v>
       </c>
       <c r="E6" s="28" t="s">
@@ -1286,17 +1378,17 @@
       <c r="K6" s="12"/>
       <c r="L6" s="12"/>
     </row>
-    <row r="7" spans="1:13" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" customFormat="false" ht="34.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="B7" s="26">
+      <c r="B7" s="26" t="n">
         <v>100</v>
       </c>
-      <c r="C7" s="30">
+      <c r="C7" s="30" t="n">
         <v>1200</v>
       </c>
-      <c r="D7" s="30">
+      <c r="D7" s="30" t="n">
         <v>1</v>
       </c>
       <c r="E7" s="28" t="s">
@@ -1316,17 +1408,17 @@
       <c r="K7" s="12"/>
       <c r="L7" s="12"/>
     </row>
-    <row r="8" spans="1:13" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" customFormat="false" ht="34.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="B8" s="26">
+      <c r="B8" s="26" t="n">
         <v>100</v>
       </c>
-      <c r="C8" s="27">
+      <c r="C8" s="27" t="n">
         <v>2000</v>
       </c>
-      <c r="D8" s="27">
+      <c r="D8" s="27" t="n">
         <v>2</v>
       </c>
       <c r="E8" s="28" t="s">
@@ -1346,17 +1438,17 @@
       <c r="K8" s="12"/>
       <c r="L8" s="5"/>
     </row>
-    <row r="9" spans="1:13" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" customFormat="false" ht="34.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="B9" s="26">
-        <v>1</v>
-      </c>
-      <c r="C9" s="27">
+      <c r="B9" s="26" t="n">
+        <v>1</v>
+      </c>
+      <c r="C9" s="27" t="n">
         <v>1200</v>
       </c>
-      <c r="D9" s="27">
+      <c r="D9" s="27" t="n">
         <v>1</v>
       </c>
       <c r="E9" s="28" t="s">
@@ -1377,17 +1469,17 @@
       <c r="L9" s="20"/>
       <c r="M9" s="13"/>
     </row>
-    <row r="10" spans="1:13" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" customFormat="false" ht="34.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="B10" s="26">
-        <v>1</v>
-      </c>
-      <c r="C10" s="27">
+      <c r="B10" s="26" t="n">
+        <v>1</v>
+      </c>
+      <c r="C10" s="27" t="n">
         <v>1200</v>
       </c>
-      <c r="D10" s="27">
+      <c r="D10" s="27" t="n">
         <v>1</v>
       </c>
       <c r="E10" s="28" t="s">
@@ -1408,17 +1500,17 @@
       <c r="L10" s="20"/>
       <c r="M10" s="13"/>
     </row>
-    <row r="11" spans="1:13" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" customFormat="false" ht="34.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="B11" s="26">
-        <v>1</v>
-      </c>
-      <c r="C11" s="27">
+      <c r="B11" s="26" t="n">
+        <v>1</v>
+      </c>
+      <c r="C11" s="27" t="n">
         <v>1200</v>
       </c>
-      <c r="D11" s="27">
+      <c r="D11" s="27" t="n">
         <v>1</v>
       </c>
       <c r="E11" s="28" t="s">
@@ -1439,17 +1531,17 @@
       <c r="L11" s="20"/>
       <c r="M11" s="13"/>
     </row>
-    <row r="12" spans="1:13" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" customFormat="false" ht="34.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="25" t="s">
         <v>48</v>
       </c>
-      <c r="B12" s="26">
-        <v>1</v>
-      </c>
-      <c r="C12" s="27">
+      <c r="B12" s="26" t="n">
+        <v>1</v>
+      </c>
+      <c r="C12" s="27" t="n">
         <v>1200</v>
       </c>
-      <c r="D12" s="27">
+      <c r="D12" s="27" t="n">
         <v>1</v>
       </c>
       <c r="E12" s="28" t="s">
@@ -1470,17 +1562,17 @@
       <c r="L12" s="20"/>
       <c r="M12" s="13"/>
     </row>
-    <row r="13" spans="1:13" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" customFormat="false" ht="34.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="25" t="s">
         <v>51</v>
       </c>
-      <c r="B13" s="26">
-        <v>1</v>
-      </c>
-      <c r="C13" s="27">
+      <c r="B13" s="26" t="n">
+        <v>1</v>
+      </c>
+      <c r="C13" s="27" t="n">
         <v>1200</v>
       </c>
-      <c r="D13" s="27">
+      <c r="D13" s="27" t="n">
         <v>1</v>
       </c>
       <c r="E13" s="28" t="s">
@@ -1500,17 +1592,17 @@
       <c r="K13" s="32"/>
       <c r="M13" s="13"/>
     </row>
-    <row r="14" spans="1:13" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" customFormat="false" ht="34.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="33" t="s">
         <v>54</v>
       </c>
-      <c r="B14" s="34">
-        <v>1</v>
-      </c>
-      <c r="C14" s="35">
+      <c r="B14" s="34" t="n">
+        <v>1</v>
+      </c>
+      <c r="C14" s="35" t="n">
         <v>18000</v>
       </c>
-      <c r="D14" s="35">
+      <c r="D14" s="35" t="n">
         <v>325</v>
       </c>
       <c r="E14" s="36" t="s">
@@ -1530,17 +1622,17 @@
       <c r="K14" s="12"/>
       <c r="L14" s="12"/>
     </row>
-    <row r="15" spans="1:13" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" customFormat="false" ht="34.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="33" t="s">
         <v>59</v>
       </c>
-      <c r="B15" s="34">
-        <v>1</v>
-      </c>
-      <c r="C15" s="35">
+      <c r="B15" s="34" t="n">
+        <v>1</v>
+      </c>
+      <c r="C15" s="35" t="n">
         <v>18000</v>
       </c>
-      <c r="D15" s="35">
+      <c r="D15" s="35" t="n">
         <v>325</v>
       </c>
       <c r="E15" s="36" t="s">
@@ -1558,17 +1650,17 @@
       <c r="K15" s="12"/>
       <c r="L15" s="20"/>
     </row>
-    <row r="16" spans="1:13" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" customFormat="false" ht="34.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="33" t="s">
         <v>62</v>
       </c>
-      <c r="B16" s="34">
-        <v>1</v>
-      </c>
-      <c r="C16" s="35">
+      <c r="B16" s="34" t="n">
+        <v>1</v>
+      </c>
+      <c r="C16" s="35" t="n">
         <v>15000</v>
       </c>
-      <c r="D16" s="35">
+      <c r="D16" s="35" t="n">
         <v>280</v>
       </c>
       <c r="E16" s="36" t="s">
@@ -1588,17 +1680,17 @@
       <c r="K16" s="12"/>
       <c r="L16" s="11"/>
     </row>
-    <row r="17" spans="1:14" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" customFormat="false" ht="34.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="33" t="s">
         <v>66</v>
       </c>
-      <c r="B17" s="34">
-        <v>1</v>
-      </c>
-      <c r="C17" s="35">
+      <c r="B17" s="34" t="n">
+        <v>1</v>
+      </c>
+      <c r="C17" s="35" t="n">
         <v>15000</v>
       </c>
-      <c r="D17" s="35">
+      <c r="D17" s="35" t="n">
         <v>280</v>
       </c>
       <c r="E17" s="36" t="s">
@@ -1618,17 +1710,17 @@
       <c r="K17" s="12"/>
       <c r="L17" s="11"/>
     </row>
-    <row r="18" spans="1:14" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" customFormat="false" ht="34.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="40" t="s">
         <v>69</v>
       </c>
-      <c r="B18" s="41">
+      <c r="B18" s="41" t="n">
         <v>100</v>
       </c>
-      <c r="C18" s="35">
+      <c r="C18" s="35" t="n">
         <v>7000</v>
       </c>
-      <c r="D18" s="35">
+      <c r="D18" s="35" t="n">
         <v>90</v>
       </c>
       <c r="E18" s="40" t="s">
@@ -1647,17 +1739,17 @@
       <c r="K18" s="12"/>
       <c r="L18" s="12"/>
     </row>
-    <row r="19" spans="1:14" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" customFormat="false" ht="34.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="40" t="s">
         <v>73</v>
       </c>
-      <c r="B19" s="41">
+      <c r="B19" s="41" t="n">
         <v>100</v>
       </c>
-      <c r="C19" s="35">
+      <c r="C19" s="35" t="n">
         <v>7000</v>
       </c>
-      <c r="D19" s="35">
+      <c r="D19" s="35" t="n">
         <v>90</v>
       </c>
       <c r="E19" s="40" t="s">
@@ -1676,17 +1768,17 @@
       <c r="K19" s="12"/>
       <c r="L19" s="5"/>
     </row>
-    <row r="20" spans="1:14" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" customFormat="false" ht="34.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="40" t="s">
         <v>75</v>
       </c>
-      <c r="B20" s="41">
+      <c r="B20" s="41" t="n">
         <v>100</v>
       </c>
-      <c r="C20" s="35">
+      <c r="C20" s="35" t="n">
         <v>7000</v>
       </c>
-      <c r="D20" s="35">
+      <c r="D20" s="35" t="n">
         <v>90</v>
       </c>
       <c r="E20" s="40" t="s">
@@ -1706,17 +1798,17 @@
       <c r="K20" s="12"/>
       <c r="L20" s="5"/>
     </row>
-    <row r="21" spans="1:14" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" customFormat="false" ht="34.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="33" t="s">
         <v>77</v>
       </c>
-      <c r="B21" s="34">
+      <c r="B21" s="34" t="n">
         <v>100</v>
       </c>
-      <c r="C21" s="35">
+      <c r="C21" s="35" t="n">
         <v>5000</v>
       </c>
-      <c r="D21" s="35">
+      <c r="D21" s="35" t="n">
         <v>50</v>
       </c>
       <c r="E21" s="40" t="s">
@@ -1735,17 +1827,17 @@
       <c r="J21" s="12"/>
       <c r="K21" s="12"/>
     </row>
-    <row r="22" spans="1:14" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" customFormat="false" ht="34.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="33" t="s">
         <v>80</v>
       </c>
-      <c r="B22" s="34">
-        <v>1</v>
-      </c>
-      <c r="C22" s="35">
+      <c r="B22" s="34" t="n">
+        <v>1</v>
+      </c>
+      <c r="C22" s="35" t="n">
         <v>50000</v>
       </c>
-      <c r="D22" s="35">
+      <c r="D22" s="35" t="n">
         <v>1300</v>
       </c>
       <c r="E22" s="40" t="s">
@@ -1764,17 +1856,17 @@
       <c r="K22" s="12"/>
       <c r="L22" s="5"/>
     </row>
-    <row r="23" spans="1:14" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" customFormat="false" ht="34.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="33" t="s">
         <v>85</v>
       </c>
-      <c r="B23" s="34">
-        <v>1</v>
-      </c>
-      <c r="C23" s="35">
+      <c r="B23" s="34" t="n">
+        <v>1</v>
+      </c>
+      <c r="C23" s="35" t="n">
         <v>40000</v>
       </c>
-      <c r="D23" s="35">
+      <c r="D23" s="35" t="n">
         <v>900</v>
       </c>
       <c r="E23" s="40" t="s">
@@ -1794,17 +1886,17 @@
       <c r="K23" s="12"/>
       <c r="L23" s="20"/>
     </row>
-    <row r="24" spans="1:14" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" customFormat="false" ht="34.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="25" t="s">
         <v>89</v>
       </c>
-      <c r="B24" s="26">
+      <c r="B24" s="26" t="n">
         <v>100</v>
       </c>
-      <c r="C24" s="27">
+      <c r="C24" s="27" t="n">
         <v>1800</v>
       </c>
-      <c r="D24" s="27">
+      <c r="D24" s="27" t="n">
         <v>8</v>
       </c>
       <c r="E24" s="28" t="s">
@@ -1824,17 +1916,17 @@
       <c r="K24" s="12"/>
       <c r="L24" s="12"/>
     </row>
-    <row r="25" spans="1:14" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" customFormat="false" ht="34.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="25" t="s">
         <v>94</v>
       </c>
-      <c r="B25" s="26">
+      <c r="B25" s="26" t="n">
         <v>100</v>
       </c>
-      <c r="C25" s="27">
+      <c r="C25" s="27" t="n">
         <v>3000</v>
       </c>
-      <c r="D25" s="27">
+      <c r="D25" s="27" t="n">
         <v>8</v>
       </c>
       <c r="E25" s="28" t="s">
@@ -1854,17 +1946,17 @@
       <c r="K25" s="20"/>
       <c r="L25" s="11"/>
     </row>
-    <row r="26" spans="1:14" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" customFormat="false" ht="34.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="44" t="s">
         <v>98</v>
       </c>
-      <c r="B26" s="45">
+      <c r="B26" s="45" t="n">
         <v>100</v>
       </c>
-      <c r="C26" s="46">
+      <c r="C26" s="46" t="n">
         <v>6500</v>
       </c>
-      <c r="D26" s="46">
+      <c r="D26" s="46" t="n">
         <v>235</v>
       </c>
       <c r="E26" s="47" t="s">
@@ -1883,17 +1975,17 @@
       <c r="J26" s="12"/>
       <c r="K26" s="12"/>
     </row>
-    <row r="27" spans="1:14" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" customFormat="false" ht="34.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="44" t="s">
         <v>103</v>
       </c>
-      <c r="B27" s="45">
+      <c r="B27" s="45" t="n">
         <v>0</v>
       </c>
-      <c r="C27" s="46">
+      <c r="C27" s="46" t="n">
         <v>4500</v>
       </c>
-      <c r="D27" s="46">
+      <c r="D27" s="46" t="n">
         <v>170</v>
       </c>
       <c r="E27" s="49" t="s">
@@ -1912,17 +2004,17 @@
       <c r="J27" s="12"/>
       <c r="K27" s="12"/>
     </row>
-    <row r="28" spans="1:14" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" customFormat="false" ht="39.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="51" t="s">
         <v>107</v>
       </c>
-      <c r="B28" s="52">
-        <v>1</v>
-      </c>
-      <c r="C28" s="53">
+      <c r="B28" s="52" t="n">
+        <v>1</v>
+      </c>
+      <c r="C28" s="53" t="n">
         <v>15000</v>
       </c>
-      <c r="D28" s="53">
+      <c r="D28" s="53" t="n">
         <v>40</v>
       </c>
       <c r="E28" s="54" t="s">
@@ -1941,17 +2033,17 @@
       <c r="J28" s="5"/>
       <c r="K28" s="32"/>
     </row>
-    <row r="29" spans="1:14" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" customFormat="false" ht="34.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="51" t="s">
         <v>112</v>
       </c>
-      <c r="B29" s="52">
-        <v>1</v>
-      </c>
-      <c r="C29" s="53">
+      <c r="B29" s="52" t="n">
+        <v>1</v>
+      </c>
+      <c r="C29" s="53" t="n">
         <v>4600</v>
       </c>
-      <c r="D29" s="53">
+      <c r="D29" s="53" t="n">
         <v>35</v>
       </c>
       <c r="E29" s="57" t="s">
@@ -1970,17 +2062,17 @@
       <c r="J29" s="5"/>
       <c r="K29" s="12"/>
     </row>
-    <row r="30" spans="1:14" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" customFormat="false" ht="34.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="51" t="s">
         <v>116</v>
       </c>
-      <c r="B30" s="52">
-        <v>1</v>
-      </c>
-      <c r="C30" s="53">
+      <c r="B30" s="52" t="n">
+        <v>1</v>
+      </c>
+      <c r="C30" s="53" t="n">
         <v>16000</v>
       </c>
-      <c r="D30" s="53">
+      <c r="D30" s="53" t="n">
         <v>210</v>
       </c>
       <c r="E30" s="57" t="s">
@@ -2000,17 +2092,17 @@
       <c r="K30" s="58"/>
       <c r="N30" s="60"/>
     </row>
-    <row r="31" spans="1:14" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" customFormat="false" ht="34.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="51" t="s">
         <v>120</v>
       </c>
-      <c r="B31" s="52">
-        <v>1</v>
-      </c>
-      <c r="C31" s="53">
+      <c r="B31" s="52" t="n">
+        <v>1</v>
+      </c>
+      <c r="C31" s="53" t="n">
         <v>25000</v>
       </c>
-      <c r="D31" s="53">
+      <c r="D31" s="53" t="n">
         <v>265</v>
       </c>
       <c r="E31" s="57" t="s">
@@ -2029,17 +2121,17 @@
       <c r="J31" s="12"/>
       <c r="K31" s="12"/>
     </row>
-    <row r="32" spans="1:14" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" customFormat="false" ht="34.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="51" t="s">
         <v>124</v>
       </c>
-      <c r="B32" s="52">
-        <v>1</v>
-      </c>
-      <c r="C32" s="53">
+      <c r="B32" s="52" t="n">
+        <v>1</v>
+      </c>
+      <c r="C32" s="53" t="n">
         <v>4000</v>
       </c>
-      <c r="D32" s="53">
+      <c r="D32" s="53" t="n">
         <v>18</v>
       </c>
       <c r="E32" s="57" t="s">
@@ -2058,17 +2150,17 @@
       <c r="J32" s="12"/>
       <c r="K32" s="12"/>
     </row>
-    <row r="33" spans="1:12" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" customFormat="false" ht="34.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="51" t="s">
         <v>129</v>
       </c>
-      <c r="B33" s="52">
-        <v>1</v>
-      </c>
-      <c r="C33" s="53">
+      <c r="B33" s="52" t="n">
+        <v>1</v>
+      </c>
+      <c r="C33" s="53" t="n">
         <v>4000</v>
       </c>
-      <c r="D33" s="53">
+      <c r="D33" s="53" t="n">
         <v>18</v>
       </c>
       <c r="E33" s="57" t="s">
@@ -2087,17 +2179,17 @@
       <c r="J33" s="20"/>
       <c r="K33" s="12"/>
     </row>
-    <row r="34" spans="1:12" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" customFormat="false" ht="34.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="51" t="s">
         <v>132</v>
       </c>
-      <c r="B34" s="52">
-        <v>1</v>
-      </c>
-      <c r="C34" s="53">
+      <c r="B34" s="52" t="n">
+        <v>1</v>
+      </c>
+      <c r="C34" s="53" t="n">
         <v>4000</v>
       </c>
-      <c r="D34" s="53">
+      <c r="D34" s="53" t="n">
         <v>18</v>
       </c>
       <c r="E34" s="57" t="s">
@@ -2116,17 +2208,17 @@
       <c r="J34" s="11"/>
       <c r="K34" s="12"/>
     </row>
-    <row r="35" spans="1:12" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" customFormat="false" ht="34.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="51" t="s">
         <v>135</v>
       </c>
-      <c r="B35" s="52">
-        <v>1</v>
-      </c>
-      <c r="C35" s="53">
+      <c r="B35" s="52" t="n">
+        <v>1</v>
+      </c>
+      <c r="C35" s="53" t="n">
         <v>4000</v>
       </c>
-      <c r="D35" s="53">
+      <c r="D35" s="53" t="n">
         <v>18</v>
       </c>
       <c r="E35" s="57" t="s">
@@ -2146,17 +2238,17 @@
       <c r="K35" s="12"/>
       <c r="L35" s="20"/>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="63" t="s">
         <v>137</v>
       </c>
-      <c r="B36" s="3">
+      <c r="B36" s="2" t="n">
         <v>100</v>
       </c>
-      <c r="C36" s="4">
+      <c r="C36" s="3" t="n">
         <v>9000</v>
       </c>
-      <c r="D36" s="4">
+      <c r="D36" s="3" t="n">
         <v>350</v>
       </c>
       <c r="E36" s="64" t="s">
@@ -2174,40 +2266,45 @@
     <mergeCell ref="A1:F1"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="H4" r:id="rId1"/>
-    <hyperlink ref="H5" r:id="rId2"/>
-    <hyperlink ref="H6" r:id="rId3"/>
-    <hyperlink ref="H7" r:id="rId4"/>
-    <hyperlink ref="H8" r:id="rId5"/>
-    <hyperlink ref="H9" r:id="rId6"/>
-    <hyperlink ref="H10" r:id="rId7"/>
-    <hyperlink ref="H11" r:id="rId8"/>
-    <hyperlink ref="H12" r:id="rId9"/>
-    <hyperlink ref="H13" r:id="rId10"/>
-    <hyperlink ref="H14" r:id="rId11"/>
-    <hyperlink ref="H15" r:id="rId12"/>
-    <hyperlink ref="H16" r:id="rId13"/>
-    <hyperlink ref="H17" r:id="rId14"/>
-    <hyperlink ref="H18" r:id="rId15"/>
-    <hyperlink ref="H19" r:id="rId16"/>
-    <hyperlink ref="H20" r:id="rId17"/>
-    <hyperlink ref="H21" r:id="rId18"/>
-    <hyperlink ref="H22" r:id="rId19"/>
-    <hyperlink ref="H23" r:id="rId20"/>
-    <hyperlink ref="H24" r:id="rId21"/>
-    <hyperlink ref="H25" r:id="rId22"/>
-    <hyperlink ref="H26" r:id="rId23"/>
-    <hyperlink ref="H27" r:id="rId24"/>
-    <hyperlink ref="H28" r:id="rId25"/>
-    <hyperlink ref="H29" r:id="rId26"/>
-    <hyperlink ref="H30" r:id="rId27"/>
-    <hyperlink ref="H31" r:id="rId28"/>
-    <hyperlink ref="H32" r:id="rId29"/>
-    <hyperlink ref="H33" r:id="rId30"/>
-    <hyperlink ref="H34" r:id="rId31"/>
-    <hyperlink ref="H35" r:id="rId32"/>
+    <hyperlink ref="H4" r:id="rId1" display="..\..\Pictures\A TRABAJOS WEB\CUERO\SEÑALADORES\Señaladores 1\Señaladores de Cuero -1.jpg"/>
+    <hyperlink ref="H5" r:id="rId2" display="..\..\Pictures\A TRABAJOS WEB\CUERO\ESTUCHES\Cuero Evangelio con estuche pirograbado A.jpg"/>
+    <hyperlink ref="H6" r:id="rId3" display="..\..\Pictures\A TRABAJOS WEB\VARIOS\ESCAPULARIOS Y DETENTES\Detentes.jpg"/>
+    <hyperlink ref="H7" r:id="rId4" display="..\..\Pictures\A TRABAJOS WEB\VARIOS\ESCAPULARIOS Y DETENTES\Escapulario chico.jpg"/>
+    <hyperlink ref="H8" r:id="rId5" display="..\..\Pictures\A TRABAJOS WEB\VARIOS\ESCAPULARIOS Y DETENTES\Escapulario grande.jpg"/>
+    <hyperlink ref="H9" r:id="rId6" display="..\..\Pictures\A TRABAJOS WEB\VARIOS\ESTAMPAS FLORES\Estampas Flores Nada te turbe -1.jpg"/>
+    <hyperlink ref="H10" r:id="rId7" display="..\..\Pictures\A TRABAJOS WEB\VARIOS\ESTAMPAS FLORES\Estampas Flores Nada te turbe -2.jpg"/>
+    <hyperlink ref="H11" r:id="rId8" display="..\..\Pictures\A TRABAJOS WEB\VARIOS\ESTAMPAS FLORES\Estampas Flores Nada te turbe -3.jpg"/>
+    <hyperlink ref="H12" r:id="rId9" display="..\..\Pictures\A TRABAJOS WEB\VARIOS\ESTAMPAS FLORES\Estampas Flores Nada te turbe -4.jpg"/>
+    <hyperlink ref="H13" r:id="rId10" display="..\..\Pictures\A TRABAJOS WEB\VARIOS\ESTAMPAS FLORES\Estampas Flores Nada te turbe -5.jpg"/>
+    <hyperlink ref="H14" r:id="rId11" display="..\..\Pictures\A TRABAJOS WEB\Madera\CUADROS PUNTILLISMO\Madera Cuadro Puntillismo Sgda. Familia -1.jpg"/>
+    <hyperlink ref="H15" r:id="rId12" display="..\..\Pictures\A TRABAJOS WEB\Madera\CUADROS PUNTILLISMO\Madera Cuadro Puntillismo Sgda. Familia -2.jpg"/>
+    <hyperlink ref="H16" r:id="rId13" display="..\..\Pictures\A TRABAJOS WEB\Madera\CUADROS PUNTILLISMO\Madera Cuadro Puntillismo Virgencita de Luján -1.jpg"/>
+    <hyperlink ref="H17" r:id="rId14" display="..\..\Pictures\A TRABAJOS WEB\Madera\CUADROS PUNTILLISMO\Madera Cuadro Puntillismo Virgencita de Luján -2.jpg"/>
+    <hyperlink ref="H18" r:id="rId15" display="..\..\Pictures\A TRABAJOS WEB\Madera\CUNEROS\CORAZONES Y CRUCES\Madera Corazones pintados -1.jpg"/>
+    <hyperlink ref="H19" r:id="rId16" display="..\..\Pictures\A TRABAJOS WEB\Madera\CUNEROS\CORAZONES Y CRUCES\Madera Corazones pintados -2.jpg"/>
+    <hyperlink ref="H20" r:id="rId17" display="..\..\Pictures\A TRABAJOS WEB\Madera\CUNEROS\CORAZONES Y CRUCES\Madera Corazones pintados -3.jpg"/>
+    <hyperlink ref="H21" r:id="rId18" display="..\..\Pictures\A TRABAJOS WEB\Madera\CUNEROS\REDONDELES\Madera Redondeles cuneritos.jpg"/>
+    <hyperlink ref="H22" r:id="rId19" display="..\..\Pictures\A TRABAJOS WEB\Madera\CUADROS PASTA PIEDRA\Madera Cuadro Virgen María Pasta Piedra -1.jpg"/>
+    <hyperlink ref="H23" r:id="rId20" display="..\..\Pictures\A TRABAJOS WEB\Madera\CUADROS PASTA PIEDRA\Madera Cuadro Virgen María Pasta Piedra -2.jpg"/>
+    <hyperlink ref="H24" r:id="rId21" display="..\..\Pictures\A TRABAJOS WEB\VARIOS\ROSARIOS\24 Glorias\Rosarios 24 glorias Sta. Teresita.jpg"/>
+    <hyperlink ref="H25" r:id="rId22" display="..\..\Pictures\A TRABAJOS WEB\VARIOS\ROSARIOS\Rosarios Cola de rata\Rosario cola de rata.jpg"/>
+    <hyperlink ref="H26" r:id="rId23" display="..\..\Pictures\A TRABAJOS WEB\VELAS\CERA DE ABEJAS\Vela Cera de abeja chica.jpg"/>
+    <hyperlink ref="H27" r:id="rId24" display="..\..\Pictures\A TRABAJOS WEB\VELAS\COLORES Y AROMAS\Colores y aromas Rosas.jpg"/>
+    <hyperlink ref="H28" r:id="rId25" display="..\..\Pictures\A TRABAJOS WEB\Cerámica\Rosario Cerámica.jpg"/>
+    <hyperlink ref="H29" r:id="rId26" display="..\..\Pictures\A TRABAJOS WEB\Cerámica\CRUCES\Cruz souvenir.jpg"/>
+    <hyperlink ref="H30" r:id="rId27" display="..\..\Pictures\A TRABAJOS WEB\Cerámica\PESEBRES\Pesebre cerámica.jpg"/>
+    <hyperlink ref="H31" r:id="rId28" display="..\..\Pictures\A TRABAJOS WEB\Cerámica\Virgen Embarazada.jpg"/>
+    <hyperlink ref="H32" r:id="rId29" display="..\..\Pictures\A TRABAJOS WEB\Cerámica\Niños Jesús\Cerámica Niño Jesús -1.jpg"/>
+    <hyperlink ref="H33" r:id="rId30" display="..\..\Pictures\A TRABAJOS WEB\Cerámica\Niños Jesús\Cerámica Niño Jesús 3.jpg"/>
+    <hyperlink ref="H34" r:id="rId31" display="..\..\Pictures\A TRABAJOS WEB\Cerámica\Niños Jesús\Cerámica Niño Jesús 4.jpg"/>
+    <hyperlink ref="H35" r:id="rId32" display="..\..\Pictures\A TRABAJOS WEB\Cerámica\Niños Jesús\Cerámica Niño Jesús 4.jpg"/>
   </hyperlinks>
-  <pageMargins left="0.196527777777778" right="0.196527777777778" top="0.39374999999999999" bottom="0.196527777777778" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="300" verticalDpi="300"/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.196527777777778" right="0.196527777777778" top="0.39375" bottom="0.196527777777778" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="landscape" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
 </worksheet>
 </file>
--- a/data/web-repositorio.xlsx
+++ b/data/web-repositorio.xlsx
@@ -1,16 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Win 10\Downloads\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja1" sheetId="1" state="visible" r:id="rId3"/>
+    <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="0" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -20,462 +24,448 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="141">
-  <si>
-    <t xml:space="preserve">CARMELITAS BARILOCHE WEB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PRODUCTOS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DISPONIBILIDAD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PRECIO UNITARIO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CATEGORÍA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FOTOS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DESCRIPCIÓN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ubicación Archivo (vínculo)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">title</t>
-  </si>
-  <si>
-    <t xml:space="preserve">stock</t>
-  </si>
-  <si>
-    <t xml:space="preserve">precio</t>
-  </si>
-  <si>
-    <t xml:space="preserve">peso</t>
-  </si>
-  <si>
-    <t xml:space="preserve">categorias</t>
-  </si>
-  <si>
-    <t xml:space="preserve">imagen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">descripcion</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ubicacion-fotos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cuero señalador</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CUERO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cuero señalador</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Realizados en cuero vacuno. Pirograbados. 15,5x7 cm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">..\..\Pictures\A TRABAJOS WEB\CUERO\SEÑALADORES\Señaladores 1\Señaladores de Cuero -1.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cuero Evangelio con estuche pirograbado</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cuero evangelio con estuche pirograbado</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Los cuatro Evangelios en formato bolsillo en su estuche de cuero vacuno pirograbado. 9x13,5 cm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">..\..\Pictures\A TRABAJOS WEB\CUERO\ESTUCHES\Cuero Evangelio con estuche pirograbado A.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Detentes - Protección del Sagrado Corazón de Jesús</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VARIOS&gt;ESCAPULARIOS Y DETENTES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Detentes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pequeña imagen del Sagrado Corazón de Jesús sobre paño rojo, con la inscripción "¡Detente! El Sagrado Corazón de Jesús está conmigo" \n- 5x4 cm -</t>
-  </si>
-  <si>
-    <t xml:space="preserve">..\..\Pictures\A TRABAJOS WEB\VARIOS\ESCAPULARIOS Y DETENTES\Detentes.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Escapulario chico</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Confeccionados con tela e hilo macramé . Con la imagen de la Virgen del Carmen- 3,5x2,5 cm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">..\..\Pictures\A TRABAJOS WEB\VARIOS\ESCAPULARIOS Y DETENTES\Escapulario chico.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Escapulario Grande</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Escapulario grande</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Confeccionados con tela y cola de rata- Imagen de la Virgen del Carmen y Sagrado Corazón  5,5x4 cm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">..\..\Pictures\A TRABAJOS WEB\VARIOS\ESCAPULARIOS Y DETENTES\Escapulario grande.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Estampas de Flores Nada te turbe -1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VARIOS&gt;ESTAMPAS DE FLORES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Estampas Flores Nada te turbe-1-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Señaladores en papel reciclado. Diseño artísitico con flores de Bariloche. 15x7,5 cm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">..\..\Pictures\A TRABAJOS WEB\VARIOS\ESTAMPAS FLORES\Estampas Flores Nada te turbe -1.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Estampas de Flores Nada te turbe -2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Estampas Flores Nada te turbe-2-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">..\..\Pictures\A TRABAJOS WEB\VARIOS\ESTAMPAS FLORES\Estampas Flores Nada te turbe -2.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Estampas de Flores Nada te turbe -3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Estampas Flores Nada te turbe-3-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">..\..\Pictures\A TRABAJOS WEB\VARIOS\ESTAMPAS FLORES\Estampas Flores Nada te turbe -3.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Estampas de Flores Nada te turbe -4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Estampas Flores Nada te turbe-4-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">..\..\Pictures\A TRABAJOS WEB\VARIOS\ESTAMPAS FLORES\Estampas Flores Nada te turbe -4.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Estampas de Flores Nada te turbe -5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Estampas Flores Nada te turbe-5-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">..\..\Pictures\A TRABAJOS WEB\VARIOS\ESTAMPAS FLORES\Estampas Flores Nada te turbe -5.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Madera Cuadros puntillismo Sagrada Familia -1-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MADERA&gt;CUADROS PUNTILLISMO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">madera cuadro puntillismo sgda-familia-1-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pintado a mano con técnica puntillismo. 22,5 x 19,5 cm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">..\..\Pictures\A TRABAJOS WEB\Madera\CUADROS PUNTILLISMO\Madera Cuadro Puntillismo Sgda. Familia -1.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Madera Cuadros puntillismo Sagrada Familia -2-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">madera cuadro puntillismo sgda-familia-2-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">..\..\Pictures\A TRABAJOS WEB\Madera\CUADROS PUNTILLISMO\Madera Cuadro Puntillismo Sgda. Familia -2.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Madera Cuadros puntillismo Virgencita de Luján -1-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">madera cuadro puntillismo virgencita de luján-1-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pintado a mano con técnica puntillismo, 25 x 18 cm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">..\..\Pictures\A TRABAJOS WEB\Madera\CUADROS PUNTILLISMO\Madera Cuadro Puntillismo Virgencita de Luján -1.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Madera Cuadros puntillismo Virgencita de Luján -2-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">madera cuadro puntillismo virgencita de luján-2-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">..\..\Pictures\A TRABAJOS WEB\Madera\CUADROS PUNTILLISMO\Madera Cuadro Puntillismo Virgencita de Luján -2.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Madera Corazones pintados-1-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MADERA&gt;CUNEROS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cunero colgante: Corazón pintado a mano,  con motivo infantil. 11,5 x 10,5 cm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">..\..\Pictures\A TRABAJOS WEB\Madera\CUNEROS\CORAZONES Y CRUCES\Madera Corazones pintados -1.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Madera Corazones pintados-2-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">..\..\Pictures\A TRABAJOS WEB\Madera\CUNEROS\CORAZONES Y CRUCES\Madera Corazones pintados -2.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Madera Corazones pintados-3-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">..\..\Pictures\A TRABAJOS WEB\Madera\CUNEROS\CORAZONES Y CRUCES\Madera Corazones pintados -3.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Madera Redondeles cuneritos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cunero colgante redondo.  8 cm de diámetro.  Pintado a mano - Motivo infantil -</t>
-  </si>
-  <si>
-    <t xml:space="preserve">..\..\Pictures\A TRABAJOS WEB\Madera\CUNEROS\REDONDELES\Madera Redondeles cuneritos.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Madera Cuadros Pasta piedra Virgen María -GRANDE-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MADERA&gt;CUADROS PASTA PIEDRA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Madera Cuadro Virgen María Pasta Piedra-1-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Virgen María en un diseño infantil. Pintada y modelada a mano en Pasta Piedra. 40x30 cm - 1 cm grosor de la madera</t>
-  </si>
-  <si>
-    <t xml:space="preserve">..\..\Pictures\A TRABAJOS WEB\Madera\CUADROS PASTA PIEDRA\Madera Cuadro Virgen María Pasta Piedra -1.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Madera Cuadros Pasta piedra Virgen María -MEDIO-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Madera Cuadro Virgen María Pasta Piedra-2-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Virgen María en un diseño infantil. Pintada y modelada a mano en Pasta Piedra. &lt;p&gt;32x26 cm 1 cm grosor de la madera&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">..\..\Pictures\A TRABAJOS WEB\Madera\CUADROS PASTA PIEDRA\Madera Cuadro Virgen María Pasta Piedra -2.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rosarios 24 glorias Sta. Teresita</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VARIOS&gt;ROSARIOS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rosarios-24-glorias-sta-teresita</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rosario  de 24 cuentas, en honor de los 24 años de vida de Sta. Teresita del Niño Jesús.  Con estampa explicativa (14,5x10 cm)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">..\..\Pictures\A TRABAJOS WEB\VARIOS\ROSARIOS\24 Glorias\Rosarios 24 glorias Sta. Teresita.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rosarios Cola de rata</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rosario cola de rata</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rosario de bolsillo, con cuentas de madera pequeñas y cruz acorde.  Sencillo y práctico para nuestra oración cotidiana a la Virgen María.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">..\..\Pictures\A TRABAJOS WEB\VARIOS\ROSARIOS\Rosarios Cola de rata\Rosario cola de rata.jpg</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="142">
+  <si>
+    <t>CARMELITAS BARILOCHE WEB</t>
+  </si>
+  <si>
+    <t>PRODUCTOS</t>
+  </si>
+  <si>
+    <t>DISPONIBILIDAD</t>
+  </si>
+  <si>
+    <t>PRECIO UNITARIO</t>
+  </si>
+  <si>
+    <t>CATEGORÍA</t>
+  </si>
+  <si>
+    <t>FOTOS</t>
+  </si>
+  <si>
+    <t>DESCRIPCIÓN</t>
+  </si>
+  <si>
+    <t>Ubicación Archivo (vínculo)</t>
+  </si>
+  <si>
+    <t>title</t>
+  </si>
+  <si>
+    <t>stock</t>
+  </si>
+  <si>
+    <t>precio</t>
+  </si>
+  <si>
+    <t>peso</t>
+  </si>
+  <si>
+    <t>categorias</t>
+  </si>
+  <si>
+    <t>imagen</t>
+  </si>
+  <si>
+    <t>descripcion</t>
+  </si>
+  <si>
+    <t>ubicacion-fotos</t>
+  </si>
+  <si>
+    <t>Cuero señalador</t>
+  </si>
+  <si>
+    <t>CUERO</t>
+  </si>
+  <si>
+    <t>cuero señalador</t>
+  </si>
+  <si>
+    <t>Realizados en cuero vacuno. Pirograbados. 15,5x7 cm</t>
+  </si>
+  <si>
+    <t>..\..\Pictures\A TRABAJOS WEB\CUERO\SEÑALADORES\Señaladores 1\Señaladores de Cuero -1.jpg</t>
+  </si>
+  <si>
+    <t>Cuero Evangelio con estuche pirograbado</t>
+  </si>
+  <si>
+    <t>cuero evangelio con estuche pirograbado</t>
+  </si>
+  <si>
+    <t>Los cuatro Evangelios en formato bolsillo en su estuche de cuero vacuno pirograbado. 9x13,5 cm</t>
+  </si>
+  <si>
+    <t>..\..\Pictures\A TRABAJOS WEB\CUERO\ESTUCHES\Cuero Evangelio con estuche pirograbado A.jpg</t>
+  </si>
+  <si>
+    <t>Detentes - Protección del Sagrado Corazón de Jesús</t>
+  </si>
+  <si>
+    <t>VARIOS&gt;ESCAPULARIOS Y DETENTES</t>
+  </si>
+  <si>
+    <t>Detentes</t>
+  </si>
+  <si>
+    <t>Pequeña imagen del Sagrado Corazón de Jesús sobre paño rojo, con la inscripción "¡Detente! El Sagrado Corazón de Jesús está conmigo" \n- 5x4 cm -</t>
+  </si>
+  <si>
+    <t>..\..\Pictures\A TRABAJOS WEB\VARIOS\ESCAPULARIOS Y DETENTES\Detentes.jpg</t>
+  </si>
+  <si>
+    <t>Escapulario chico</t>
+  </si>
+  <si>
+    <t>Confeccionados con tela e hilo macramé . Con la imagen de la Virgen del Carmen- 3,5x2,5 cm</t>
+  </si>
+  <si>
+    <t>..\..\Pictures\A TRABAJOS WEB\VARIOS\ESCAPULARIOS Y DETENTES\Escapulario chico.jpg</t>
+  </si>
+  <si>
+    <t>Escapulario Grande</t>
+  </si>
+  <si>
+    <t>Escapulario grande</t>
+  </si>
+  <si>
+    <t>Confeccionados con tela y cola de rata- Imagen de la Virgen del Carmen y Sagrado Corazón  5,5x4 cm</t>
+  </si>
+  <si>
+    <t>..\..\Pictures\A TRABAJOS WEB\VARIOS\ESCAPULARIOS Y DETENTES\Escapulario grande.jpg</t>
+  </si>
+  <si>
+    <t>Estampas de Flores Nada te turbe -1</t>
+  </si>
+  <si>
+    <t>VARIOS&gt;ESTAMPAS DE FLORES</t>
+  </si>
+  <si>
+    <t>Estampas Flores Nada te turbe-1-</t>
+  </si>
+  <si>
+    <t>Señaladores en papel reciclado. Diseño artísitico con flores de Bariloche. 15x7,5 cm</t>
+  </si>
+  <si>
+    <t>..\..\Pictures\A TRABAJOS WEB\VARIOS\ESTAMPAS FLORES\Estampas Flores Nada te turbe -1.jpg</t>
+  </si>
+  <si>
+    <t>Estampas de Flores Nada te turbe -2</t>
+  </si>
+  <si>
+    <t>Estampas Flores Nada te turbe-2-</t>
+  </si>
+  <si>
+    <t>..\..\Pictures\A TRABAJOS WEB\VARIOS\ESTAMPAS FLORES\Estampas Flores Nada te turbe -2.jpg</t>
+  </si>
+  <si>
+    <t>Estampas de Flores Nada te turbe -3</t>
+  </si>
+  <si>
+    <t>Estampas Flores Nada te turbe-3-</t>
+  </si>
+  <si>
+    <t>..\..\Pictures\A TRABAJOS WEB\VARIOS\ESTAMPAS FLORES\Estampas Flores Nada te turbe -3.jpg</t>
+  </si>
+  <si>
+    <t>Estampas de Flores Nada te turbe -4</t>
+  </si>
+  <si>
+    <t>Estampas Flores Nada te turbe-4-</t>
+  </si>
+  <si>
+    <t>..\..\Pictures\A TRABAJOS WEB\VARIOS\ESTAMPAS FLORES\Estampas Flores Nada te turbe -4.jpg</t>
+  </si>
+  <si>
+    <t>Estampas de Flores Nada te turbe -5</t>
+  </si>
+  <si>
+    <t>Estampas Flores Nada te turbe-5-</t>
+  </si>
+  <si>
+    <t>..\..\Pictures\A TRABAJOS WEB\VARIOS\ESTAMPAS FLORES\Estampas Flores Nada te turbe -5.jpg</t>
+  </si>
+  <si>
+    <t>Madera Cuadros puntillismo Sagrada Familia -1-</t>
+  </si>
+  <si>
+    <t>MADERA&gt;CUADROS PUNTILLISMO</t>
+  </si>
+  <si>
+    <t>madera cuadro puntillismo sgda-familia-1-</t>
+  </si>
+  <si>
+    <t>Pintado a mano con técnica puntillismo. 22,5 x 19,5 cm</t>
+  </si>
+  <si>
+    <t>..\..\Pictures\A TRABAJOS WEB\Madera\CUADROS PUNTILLISMO\Madera Cuadro Puntillismo Sgda. Familia -1.jpg</t>
+  </si>
+  <si>
+    <t>Madera Cuadros puntillismo Sagrada Familia -2-</t>
+  </si>
+  <si>
+    <t>madera cuadro puntillismo sgda-familia-2-</t>
+  </si>
+  <si>
+    <t>..\..\Pictures\A TRABAJOS WEB\Madera\CUADROS PUNTILLISMO\Madera Cuadro Puntillismo Sgda. Familia -2.jpg</t>
+  </si>
+  <si>
+    <t>Madera Cuadros puntillismo Virgencita de Luján -1-</t>
+  </si>
+  <si>
+    <t>madera cuadro puntillismo virgencita de luján-1-</t>
+  </si>
+  <si>
+    <t>Pintado a mano con técnica puntillismo, 25 x 18 cm</t>
+  </si>
+  <si>
+    <t>..\..\Pictures\A TRABAJOS WEB\Madera\CUADROS PUNTILLISMO\Madera Cuadro Puntillismo Virgencita de Luján -1.jpg</t>
+  </si>
+  <si>
+    <t>Madera Cuadros puntillismo Virgencita de Luján -2-</t>
+  </si>
+  <si>
+    <t>madera cuadro puntillismo virgencita de luján-2-</t>
+  </si>
+  <si>
+    <t>..\..\Pictures\A TRABAJOS WEB\Madera\CUADROS PUNTILLISMO\Madera Cuadro Puntillismo Virgencita de Luján -2.jpg</t>
+  </si>
+  <si>
+    <t>Madera Corazones pintados-1-</t>
+  </si>
+  <si>
+    <t>MADERA&gt;CUNEROS</t>
+  </si>
+  <si>
+    <t>Cunero colgante: Corazón pintado a mano,  con motivo infantil. 11,5 x 10,5 cm</t>
+  </si>
+  <si>
+    <t>..\..\Pictures\A TRABAJOS WEB\Madera\CUNEROS\CORAZONES Y CRUCES\Madera Corazones pintados -1.jpg</t>
+  </si>
+  <si>
+    <t>Madera Corazones pintados-2-</t>
+  </si>
+  <si>
+    <t>..\..\Pictures\A TRABAJOS WEB\Madera\CUNEROS\CORAZONES Y CRUCES\Madera Corazones pintados -2.jpg</t>
+  </si>
+  <si>
+    <t>Madera Corazones pintados-3-</t>
+  </si>
+  <si>
+    <t>..\..\Pictures\A TRABAJOS WEB\Madera\CUNEROS\CORAZONES Y CRUCES\Madera Corazones pintados -3.jpg</t>
+  </si>
+  <si>
+    <t>Madera Redondeles cuneritos</t>
+  </si>
+  <si>
+    <t>Cunero colgante redondo.  8 cm de diámetro.  Pintado a mano - Motivo infantil -</t>
+  </si>
+  <si>
+    <t>..\..\Pictures\A TRABAJOS WEB\Madera\CUNEROS\REDONDELES\Madera Redondeles cuneritos.jpg</t>
+  </si>
+  <si>
+    <t>Madera Cuadros Pasta piedra Virgen María -GRANDE-</t>
+  </si>
+  <si>
+    <t>MADERA&gt;CUADROS PASTA PIEDRA</t>
+  </si>
+  <si>
+    <t>Madera Cuadro Virgen María Pasta Piedra-1-</t>
+  </si>
+  <si>
+    <t>Virgen María en un diseño infantil. Pintada y modelada a mano en Pasta Piedra. 40x30 cm - 1 cm grosor de la madera</t>
+  </si>
+  <si>
+    <t>..\..\Pictures\A TRABAJOS WEB\Madera\CUADROS PASTA PIEDRA\Madera Cuadro Virgen María Pasta Piedra -1.jpg</t>
+  </si>
+  <si>
+    <t>Madera Cuadros Pasta piedra Virgen María -MEDIO-</t>
+  </si>
+  <si>
+    <t>Madera Cuadro Virgen María Pasta Piedra-2-</t>
+  </si>
+  <si>
+    <t>Virgen María en un diseño infantil. Pintada y modelada a mano en Pasta Piedra. &lt;p&gt;32x26 cm 1 cm grosor de la madera&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>..\..\Pictures\A TRABAJOS WEB\Madera\CUADROS PASTA PIEDRA\Madera Cuadro Virgen María Pasta Piedra -2.jpg</t>
+  </si>
+  <si>
+    <t>Rosarios 24 glorias Sta. Teresita</t>
+  </si>
+  <si>
+    <t>VARIOS&gt;ROSARIOS</t>
+  </si>
+  <si>
+    <t>rosarios-24-glorias-sta-teresita</t>
+  </si>
+  <si>
+    <t>Rosario  de 24 cuentas, en honor de los 24 años de vida de Sta. Teresita del Niño Jesús.  Con estampa explicativa (14,5x10 cm)</t>
+  </si>
+  <si>
+    <t>..\..\Pictures\A TRABAJOS WEB\VARIOS\ROSARIOS\24 Glorias\Rosarios 24 glorias Sta. Teresita.jpg</t>
+  </si>
+  <si>
+    <t>Rosarios Cola de rata</t>
+  </si>
+  <si>
+    <t>Rosario cola de rata</t>
+  </si>
+  <si>
+    <t>Rosario de bolsillo, con cuentas de madera pequeñas y cruz acorde.  Sencillo y práctico para nuestra oración cotidiana a la Virgen María.</t>
+  </si>
+  <si>
+    <t>..\..\Pictures\A TRABAJOS WEB\VARIOS\ROSARIOS\Rosarios Cola de rata\Rosario cola de rata.jpg</t>
   </si>
   <si>
     <t xml:space="preserve">Velas Litúrgicas de Cera de abeja  (CHICAS) </t>
   </si>
   <si>
-    <t xml:space="preserve">VELAS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vela cera de abeja chica</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Elaboradas con CERA DE ABEJAS. Aptas para uso en la Santa Misa u otros actos litúrgicos y devocionales. 5,5X 10,5 cm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">..\..\Pictures\A TRABAJOS WEB\VELAS\CERA DE ABEJAS\Vela Cera de abeja chica.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Velas Colores y Aromas -ROSAS-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">vela colores y aromas rosas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Elaboradas con parafina, colores y esencias perfumadas. 4,2x12 cm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">..\..\Pictures\A TRABAJOS WEB\VELAS\COLORES Y AROMAS\Colores y aromas Rosas.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cerámica Rosario engarzados (perfume de Rosas con cajita)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CERÁMICA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cerámica Rosario</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rosario engarzado con cuentas de cerámica realizadas de manera artesanal.  Perfume de rosas. Incluye cajita portarosario.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">..\..\Pictures\A TRABAJOS WEB\Cerámica\Rosario Cerámica.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cerámica cruces souvenir</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cruz Souvenir</t>
+    <t>VELAS</t>
+  </si>
+  <si>
+    <t>Vela cera de abeja chica</t>
+  </si>
+  <si>
+    <t>Elaboradas con CERA DE ABEJAS. Aptas para uso en la Santa Misa u otros actos litúrgicos y devocionales. 5,5X 10,5 cm</t>
+  </si>
+  <si>
+    <t>..\..\Pictures\A TRABAJOS WEB\VELAS\CERA DE ABEJAS\Vela Cera de abeja chica.jpg</t>
+  </si>
+  <si>
+    <t>Velas Colores y Aromas -ROSAS-</t>
+  </si>
+  <si>
+    <t>vela colores y aromas rosas</t>
+  </si>
+  <si>
+    <t>Elaboradas con parafina, colores y esencias perfumadas. 4,2x12 cm</t>
+  </si>
+  <si>
+    <t>..\..\Pictures\A TRABAJOS WEB\VELAS\COLORES Y AROMAS\Colores y aromas Rosas.jpg</t>
+  </si>
+  <si>
+    <t>Cerámica Rosario engarzados (perfume de Rosas con cajita)</t>
+  </si>
+  <si>
+    <t>CERÁMICA</t>
+  </si>
+  <si>
+    <t>Cerámica Rosario</t>
+  </si>
+  <si>
+    <t>Rosario engarzado con cuentas de cerámica realizadas de manera artesanal.  Perfume de rosas. Incluye cajita portarosario.</t>
+  </si>
+  <si>
+    <t>..\..\Pictures\A TRABAJOS WEB\Cerámica\Rosario Cerámica.jpg</t>
+  </si>
+  <si>
+    <t>Cerámica cruces souvenir</t>
+  </si>
+  <si>
+    <t>Cruz Souvenir</t>
   </si>
   <si>
     <t xml:space="preserve">Cruz colgante de cerámica con el Niño Jesús - Diseños exclusivos - Ideal para cuneros o la habitación de los niños. 6,5x5,5 cm </t>
   </si>
   <si>
-    <t xml:space="preserve">..\..\Pictures\A TRABAJOS WEB\Cerámica\CRUCES\Cruz souvenir.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cerámica Pesebre</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cerámica pesebre</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pesebre artesanal - Diseños exclusivos. 14x9,5 cm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">..\..\Pictures\A TRABAJOS WEB\Cerámica\PESEBRES\Pesebre cerámica.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cerámica Virgen embarazada</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Virgen Embarazada</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Imagen de la Virgen María, advocación "Nuestra Señora de la Dulce Espera!"- Diseños exclusivos -19,5 x 6,5 cm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">..\..\Pictures\A TRABAJOS WEB\Cerámica\Virgen Embarazada.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cerámica Niños Jesús-1-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CERÁMICA&gt;NIÑOS JESÚS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cerámica Niño Jesús-1-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Imagen artesanal del Niño Jesús con aureola y cunita - 5x4 cm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">..\..\Pictures\A TRABAJOS WEB\Cerámica\Niños Jesús\Cerámica Niño Jesús -1.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cerámica Niños Jesús-2-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cerámica Niño Jesús-2-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">..\..\Pictures\A TRABAJOS WEB\Cerámica\Niños Jesús\Cerámica Niño Jesús 3.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cerámica Niños Jesús-3-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cerámica Niño Jesús-3-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">..\..\Pictures\A TRABAJOS WEB\Cerámica\Niños Jesús\Cerámica Niño Jesús 4.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cerámica Niños Jesús-4-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cerámica Niño Jesús-4-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alfajores del Carmelo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VARIOS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">alfajores</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alfajores caseros de dulce de leche bañados en chocolate (4 de chocolate negro y 2 de chocolate blanco)</t>
+    <t>..\..\Pictures\A TRABAJOS WEB\Cerámica\CRUCES\Cruz souvenir.jpg</t>
+  </si>
+  <si>
+    <t>Cerámica Pesebre</t>
+  </si>
+  <si>
+    <t>cerámica pesebre</t>
+  </si>
+  <si>
+    <t>Pesebre artesanal - Diseños exclusivos. 14x9,5 cm</t>
+  </si>
+  <si>
+    <t>..\..\Pictures\A TRABAJOS WEB\Cerámica\PESEBRES\Pesebre cerámica.jpg</t>
+  </si>
+  <si>
+    <t>Cerámica Virgen embarazada</t>
+  </si>
+  <si>
+    <t>Virgen Embarazada</t>
+  </si>
+  <si>
+    <t>Imagen de la Virgen María, advocación "Nuestra Señora de la Dulce Espera!"- Diseños exclusivos -19,5 x 6,5 cm</t>
+  </si>
+  <si>
+    <t>..\..\Pictures\A TRABAJOS WEB\Cerámica\Virgen Embarazada.jpg</t>
+  </si>
+  <si>
+    <t>Cerámica Niños Jesús-1-</t>
+  </si>
+  <si>
+    <t>CERÁMICA&gt;NIÑOS JESÚS</t>
+  </si>
+  <si>
+    <t>Cerámica Niño Jesús-1-</t>
+  </si>
+  <si>
+    <t>Imagen artesanal del Niño Jesús con aureola y cunita - 5x4 cm</t>
+  </si>
+  <si>
+    <t>..\..\Pictures\A TRABAJOS WEB\Cerámica\Niños Jesús\Cerámica Niño Jesús -1.jpg</t>
+  </si>
+  <si>
+    <t>Cerámica Niños Jesús-2-</t>
+  </si>
+  <si>
+    <t>Cerámica Niño Jesús-2-</t>
+  </si>
+  <si>
+    <t>..\..\Pictures\A TRABAJOS WEB\Cerámica\Niños Jesús\Cerámica Niño Jesús 3.jpg</t>
+  </si>
+  <si>
+    <t>Cerámica Niños Jesús-3-</t>
+  </si>
+  <si>
+    <t>Cerámica Niño Jesús-3-</t>
+  </si>
+  <si>
+    <t>..\..\Pictures\A TRABAJOS WEB\Cerámica\Niños Jesús\Cerámica Niño Jesús 4.jpg</t>
+  </si>
+  <si>
+    <t>Cerámica Niños Jesús-4-</t>
+  </si>
+  <si>
+    <t>Cerámica Niño Jesús-4-</t>
+  </si>
+  <si>
+    <t>Alfajores del Carmelo</t>
+  </si>
+  <si>
+    <t>VARIOS</t>
+  </si>
+  <si>
+    <t>alfajores</t>
+  </si>
+  <si>
+    <t>Alfajores caseros de dulce de leche bañados en chocolate (4 de chocolate negro y 2 de chocolate blanco)</t>
+  </si>
+  <si>
+    <t>..\Pictures\A TRABAJOS WEB\VARIOS\alfajores.jpg</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="3">
-    <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="0"/>
-    <numFmt numFmtId="166" formatCode="_-&quot;$ &quot;* #,##0.00_-;&quot;-$ &quot;* #,##0.00_-;_-&quot;$ &quot;* \-??_-;_-@_-"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="_-&quot;$ &quot;* #,##0.00_-;&quot;-$ &quot;* #,##0.00_-;_-&quot;$ &quot;* \-??_-;_-@_-"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
     </font>
     <font>
       <sz val="12"/>
@@ -485,7 +475,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <u val="single"/>
+      <u/>
       <sz val="11"/>
       <color theme="10"/>
       <name val="Calibri"/>
@@ -493,7 +483,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <i val="true"/>
+      <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
@@ -501,8 +491,15 @@
       <charset val="1"/>
     </font>
     <font>
-      <i val="true"/>
+      <i/>
       <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
@@ -517,448 +514,348 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.5997"/>
+        <fgColor theme="4" tint="0.59968871120334488"/>
         <bgColor rgb="FFDBDBDB"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.3997"/>
+        <fgColor theme="4" tint="0.39967040009765925"/>
         <bgColor rgb="FFBDD7EE"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.5997"/>
+        <fgColor theme="6" tint="0.59968871120334488"/>
         <bgColor rgb="FFE2F0D9"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.7998"/>
+        <fgColor theme="9" tint="0.79979857783745845"/>
         <bgColor rgb="FFFBE5D6"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.5997"/>
+        <fgColor theme="7" tint="0.59968871120334488"/>
         <bgColor rgb="FFFFD966"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.3997"/>
+        <fgColor theme="9" tint="0.39967040009765925"/>
         <bgColor rgb="FF9DC3E6"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.3997"/>
+        <fgColor theme="7" tint="0.39967040009765925"/>
         <bgColor rgb="FFFFE699"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.7998"/>
+        <fgColor theme="5" tint="0.79979857783745845"/>
         <bgColor rgb="FFE2F0D9"/>
       </patternFill>
     </fill>
   </fills>
   <borders count="12">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="thin"/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
-      <top style="thin"/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
       <right/>
-      <top style="thin"/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
       <right/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
       <top/>
-      <bottom style="thin"/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
       <right/>
       <top/>
-      <bottom style="thin"/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="22">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
+  <cellStyleXfs count="4">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="66">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="6" borderId="2" xfId="17" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="6" borderId="2" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="7" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="7" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="7" borderId="2" xfId="17" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="7" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="7" borderId="2" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="7" borderId="2" xfId="17" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="8" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="8" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="8" borderId="2" xfId="17" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="8" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="8" borderId="2" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="8" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="8" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="8" borderId="2" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="3" borderId="2" xfId="17" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="2" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="9" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="9" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="9" borderId="2" xfId="17" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="9" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="9" borderId="2" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="9" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="4" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="9" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="9" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="9" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
+  <cellXfs count="67">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="6" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="7" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="7" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="8" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="9" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyProtection="1"/>
   </cellXfs>
-  <cellStyles count="8">
+  <cellStyles count="4">
+    <cellStyle name="Excel Built-in Explanatory Text" xfId="3"/>
+    <cellStyle name="Hipervínculo" xfId="2" builtinId="8"/>
+    <cellStyle name="Moneda" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
-    <cellStyle name="*unknown*" xfId="20" builtinId="8"/>
-    <cellStyle name="Excel Built-in Explanatory Text" xfId="21"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -1017,60 +914,76 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
         <a:srgbClr val="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:srgbClr val="ffffff"/>
+        <a:srgbClr val="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546a"/>
+        <a:srgbClr val="44546A"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="e7e6e6"/>
+        <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5b9bd5"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ed7d31"/>
+        <a:srgbClr val="ED7D31"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="a5a5a5"/>
+        <a:srgbClr val="A5A5A5"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="ffc000"/>
+        <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472c4"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70ad47"/>
+        <a:srgbClr val="70AD47"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563c1"/>
+        <a:srgbClr val="0563C1"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954f72"/>
+        <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204" pitchFamily="0" charset="1"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="0" charset="1"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
       </a:minorFont>
@@ -1102,7 +1015,7 @@
             </a:gs>
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
-          <a:tileRect l="0" t="0" r="0" b="0"/>
+          <a:tileRect/>
         </a:gradFill>
         <a:gradFill>
           <a:gsLst>
@@ -1126,7 +1039,7 @@
             </a:gs>
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
-          <a:tileRect l="0" t="0" r="0" b="0"/>
+          <a:tileRect/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
@@ -1186,51 +1099,50 @@
             </a:gs>
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
-          <a:tileRect l="0" t="0" r="0" b="0"/>
+          <a:tileRect/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N36"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G6" activeCellId="0" sqref="G6"/>
+    <sheetView tabSelected="1" topLeftCell="B28" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="H36" sqref="H36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.57421875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="43.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="12.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="3" width="17.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="3" width="11.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="34.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="39.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="33.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="78.57"/>
+    <col min="1" max="1" width="43.85546875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="12.5703125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="17.42578125" style="4" customWidth="1"/>
+    <col min="4" max="4" width="11.28515625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="34.5703125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="39.42578125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="33.140625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="78.5703125" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
       <c r="G1" s="5"/>
       <c r="H1" s="6"/>
       <c r="L1" s="5"/>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>1</v>
       </c>
@@ -1258,7 +1170,7 @@
       <c r="K2" s="12"/>
       <c r="L2" s="5"/>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>8</v>
       </c>
@@ -1288,17 +1200,17 @@
       <c r="K3" s="12"/>
       <c r="L3" s="5"/>
     </row>
-    <row r="4" customFormat="false" ht="34.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:13" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="15" t="n">
-        <v>1</v>
-      </c>
-      <c r="C4" s="16" t="n">
+      <c r="B4" s="15">
+        <v>1</v>
+      </c>
+      <c r="C4" s="16">
         <v>2500</v>
       </c>
-      <c r="D4" s="16" t="n">
+      <c r="D4" s="16">
         <v>20</v>
       </c>
       <c r="E4" s="17" t="s">
@@ -1318,17 +1230,17 @@
       <c r="K4" s="12"/>
       <c r="L4" s="20"/>
     </row>
-    <row r="5" customFormat="false" ht="39.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="15" t="n">
-        <v>1</v>
-      </c>
-      <c r="C5" s="16" t="n">
+      <c r="B5" s="15">
+        <v>1</v>
+      </c>
+      <c r="C5" s="16">
         <v>16000</v>
       </c>
-      <c r="D5" s="16" t="n">
+      <c r="D5" s="16">
         <v>90</v>
       </c>
       <c r="E5" s="17" t="s">
@@ -1348,17 +1260,17 @@
       <c r="K5" s="12"/>
       <c r="L5" s="24"/>
     </row>
-    <row r="6" customFormat="false" ht="34.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:13" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="B6" s="26" t="n">
+      <c r="B6" s="26">
         <v>100</v>
       </c>
-      <c r="C6" s="27" t="n">
+      <c r="C6" s="27">
         <v>1200</v>
       </c>
-      <c r="D6" s="27" t="n">
+      <c r="D6" s="27">
         <v>1</v>
       </c>
       <c r="E6" s="28" t="s">
@@ -1378,17 +1290,17 @@
       <c r="K6" s="12"/>
       <c r="L6" s="12"/>
     </row>
-    <row r="7" customFormat="false" ht="34.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:13" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="B7" s="26" t="n">
+      <c r="B7" s="26">
         <v>100</v>
       </c>
-      <c r="C7" s="30" t="n">
+      <c r="C7" s="30">
         <v>1200</v>
       </c>
-      <c r="D7" s="30" t="n">
+      <c r="D7" s="30">
         <v>1</v>
       </c>
       <c r="E7" s="28" t="s">
@@ -1408,17 +1320,17 @@
       <c r="K7" s="12"/>
       <c r="L7" s="12"/>
     </row>
-    <row r="8" customFormat="false" ht="34.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:13" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="B8" s="26" t="n">
+      <c r="B8" s="26">
         <v>100</v>
       </c>
-      <c r="C8" s="27" t="n">
+      <c r="C8" s="27">
         <v>2000</v>
       </c>
-      <c r="D8" s="27" t="n">
+      <c r="D8" s="27">
         <v>2</v>
       </c>
       <c r="E8" s="28" t="s">
@@ -1438,17 +1350,17 @@
       <c r="K8" s="12"/>
       <c r="L8" s="5"/>
     </row>
-    <row r="9" customFormat="false" ht="34.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:13" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="B9" s="26" t="n">
-        <v>1</v>
-      </c>
-      <c r="C9" s="27" t="n">
+      <c r="B9" s="26">
+        <v>1</v>
+      </c>
+      <c r="C9" s="27">
         <v>1200</v>
       </c>
-      <c r="D9" s="27" t="n">
+      <c r="D9" s="27">
         <v>1</v>
       </c>
       <c r="E9" s="28" t="s">
@@ -1469,17 +1381,17 @@
       <c r="L9" s="20"/>
       <c r="M9" s="13"/>
     </row>
-    <row r="10" customFormat="false" ht="34.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="10" spans="1:13" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="B10" s="26" t="n">
-        <v>1</v>
-      </c>
-      <c r="C10" s="27" t="n">
+      <c r="B10" s="26">
+        <v>1</v>
+      </c>
+      <c r="C10" s="27">
         <v>1200</v>
       </c>
-      <c r="D10" s="27" t="n">
+      <c r="D10" s="27">
         <v>1</v>
       </c>
       <c r="E10" s="28" t="s">
@@ -1500,17 +1412,17 @@
       <c r="L10" s="20"/>
       <c r="M10" s="13"/>
     </row>
-    <row r="11" customFormat="false" ht="34.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="11" spans="1:13" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="B11" s="26" t="n">
-        <v>1</v>
-      </c>
-      <c r="C11" s="27" t="n">
+      <c r="B11" s="26">
+        <v>1</v>
+      </c>
+      <c r="C11" s="27">
         <v>1200</v>
       </c>
-      <c r="D11" s="27" t="n">
+      <c r="D11" s="27">
         <v>1</v>
       </c>
       <c r="E11" s="28" t="s">
@@ -1531,17 +1443,17 @@
       <c r="L11" s="20"/>
       <c r="M11" s="13"/>
     </row>
-    <row r="12" customFormat="false" ht="34.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="12" spans="1:13" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="25" t="s">
         <v>48</v>
       </c>
-      <c r="B12" s="26" t="n">
-        <v>1</v>
-      </c>
-      <c r="C12" s="27" t="n">
+      <c r="B12" s="26">
+        <v>1</v>
+      </c>
+      <c r="C12" s="27">
         <v>1200</v>
       </c>
-      <c r="D12" s="27" t="n">
+      <c r="D12" s="27">
         <v>1</v>
       </c>
       <c r="E12" s="28" t="s">
@@ -1562,17 +1474,17 @@
       <c r="L12" s="20"/>
       <c r="M12" s="13"/>
     </row>
-    <row r="13" customFormat="false" ht="34.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="13" spans="1:13" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="25" t="s">
         <v>51</v>
       </c>
-      <c r="B13" s="26" t="n">
-        <v>1</v>
-      </c>
-      <c r="C13" s="27" t="n">
+      <c r="B13" s="26">
+        <v>1</v>
+      </c>
+      <c r="C13" s="27">
         <v>1200</v>
       </c>
-      <c r="D13" s="27" t="n">
+      <c r="D13" s="27">
         <v>1</v>
       </c>
       <c r="E13" s="28" t="s">
@@ -1592,17 +1504,17 @@
       <c r="K13" s="32"/>
       <c r="M13" s="13"/>
     </row>
-    <row r="14" customFormat="false" ht="34.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="14" spans="1:13" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="33" t="s">
         <v>54</v>
       </c>
-      <c r="B14" s="34" t="n">
-        <v>1</v>
-      </c>
-      <c r="C14" s="35" t="n">
+      <c r="B14" s="34">
+        <v>1</v>
+      </c>
+      <c r="C14" s="35">
         <v>18000</v>
       </c>
-      <c r="D14" s="35" t="n">
+      <c r="D14" s="35">
         <v>325</v>
       </c>
       <c r="E14" s="36" t="s">
@@ -1622,17 +1534,17 @@
       <c r="K14" s="12"/>
       <c r="L14" s="12"/>
     </row>
-    <row r="15" customFormat="false" ht="34.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="15" spans="1:13" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="33" t="s">
         <v>59</v>
       </c>
-      <c r="B15" s="34" t="n">
-        <v>1</v>
-      </c>
-      <c r="C15" s="35" t="n">
+      <c r="B15" s="34">
+        <v>1</v>
+      </c>
+      <c r="C15" s="35">
         <v>18000</v>
       </c>
-      <c r="D15" s="35" t="n">
+      <c r="D15" s="35">
         <v>325</v>
       </c>
       <c r="E15" s="36" t="s">
@@ -1650,17 +1562,17 @@
       <c r="K15" s="12"/>
       <c r="L15" s="20"/>
     </row>
-    <row r="16" customFormat="false" ht="34.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="16" spans="1:13" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="33" t="s">
         <v>62</v>
       </c>
-      <c r="B16" s="34" t="n">
-        <v>1</v>
-      </c>
-      <c r="C16" s="35" t="n">
+      <c r="B16" s="34">
+        <v>1</v>
+      </c>
+      <c r="C16" s="35">
         <v>15000</v>
       </c>
-      <c r="D16" s="35" t="n">
+      <c r="D16" s="35">
         <v>280</v>
       </c>
       <c r="E16" s="36" t="s">
@@ -1680,17 +1592,17 @@
       <c r="K16" s="12"/>
       <c r="L16" s="11"/>
     </row>
-    <row r="17" customFormat="false" ht="34.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="17" spans="1:14" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="33" t="s">
         <v>66</v>
       </c>
-      <c r="B17" s="34" t="n">
-        <v>1</v>
-      </c>
-      <c r="C17" s="35" t="n">
+      <c r="B17" s="34">
+        <v>1</v>
+      </c>
+      <c r="C17" s="35">
         <v>15000</v>
       </c>
-      <c r="D17" s="35" t="n">
+      <c r="D17" s="35">
         <v>280</v>
       </c>
       <c r="E17" s="36" t="s">
@@ -1710,17 +1622,17 @@
       <c r="K17" s="12"/>
       <c r="L17" s="11"/>
     </row>
-    <row r="18" customFormat="false" ht="34.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="18" spans="1:14" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="40" t="s">
         <v>69</v>
       </c>
-      <c r="B18" s="41" t="n">
+      <c r="B18" s="41">
         <v>100</v>
       </c>
-      <c r="C18" s="35" t="n">
+      <c r="C18" s="35">
         <v>7000</v>
       </c>
-      <c r="D18" s="35" t="n">
+      <c r="D18" s="35">
         <v>90</v>
       </c>
       <c r="E18" s="40" t="s">
@@ -1739,17 +1651,17 @@
       <c r="K18" s="12"/>
       <c r="L18" s="12"/>
     </row>
-    <row r="19" customFormat="false" ht="34.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="19" spans="1:14" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="40" t="s">
         <v>73</v>
       </c>
-      <c r="B19" s="41" t="n">
+      <c r="B19" s="41">
         <v>100</v>
       </c>
-      <c r="C19" s="35" t="n">
+      <c r="C19" s="35">
         <v>7000</v>
       </c>
-      <c r="D19" s="35" t="n">
+      <c r="D19" s="35">
         <v>90</v>
       </c>
       <c r="E19" s="40" t="s">
@@ -1768,17 +1680,17 @@
       <c r="K19" s="12"/>
       <c r="L19" s="5"/>
     </row>
-    <row r="20" customFormat="false" ht="34.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="20" spans="1:14" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="40" t="s">
         <v>75</v>
       </c>
-      <c r="B20" s="41" t="n">
+      <c r="B20" s="41">
         <v>100</v>
       </c>
-      <c r="C20" s="35" t="n">
+      <c r="C20" s="35">
         <v>7000</v>
       </c>
-      <c r="D20" s="35" t="n">
+      <c r="D20" s="35">
         <v>90</v>
       </c>
       <c r="E20" s="40" t="s">
@@ -1798,17 +1710,17 @@
       <c r="K20" s="12"/>
       <c r="L20" s="5"/>
     </row>
-    <row r="21" customFormat="false" ht="34.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="21" spans="1:14" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="33" t="s">
         <v>77</v>
       </c>
-      <c r="B21" s="34" t="n">
+      <c r="B21" s="34">
         <v>100</v>
       </c>
-      <c r="C21" s="35" t="n">
+      <c r="C21" s="35">
         <v>5000</v>
       </c>
-      <c r="D21" s="35" t="n">
+      <c r="D21" s="35">
         <v>50</v>
       </c>
       <c r="E21" s="40" t="s">
@@ -1827,17 +1739,17 @@
       <c r="J21" s="12"/>
       <c r="K21" s="12"/>
     </row>
-    <row r="22" customFormat="false" ht="34.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="22" spans="1:14" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="33" t="s">
         <v>80</v>
       </c>
-      <c r="B22" s="34" t="n">
-        <v>1</v>
-      </c>
-      <c r="C22" s="35" t="n">
+      <c r="B22" s="34">
+        <v>1</v>
+      </c>
+      <c r="C22" s="35">
         <v>50000</v>
       </c>
-      <c r="D22" s="35" t="n">
+      <c r="D22" s="35">
         <v>1300</v>
       </c>
       <c r="E22" s="40" t="s">
@@ -1856,17 +1768,17 @@
       <c r="K22" s="12"/>
       <c r="L22" s="5"/>
     </row>
-    <row r="23" customFormat="false" ht="34.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="23" spans="1:14" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="33" t="s">
         <v>85</v>
       </c>
-      <c r="B23" s="34" t="n">
-        <v>1</v>
-      </c>
-      <c r="C23" s="35" t="n">
+      <c r="B23" s="34">
+        <v>1</v>
+      </c>
+      <c r="C23" s="35">
         <v>40000</v>
       </c>
-      <c r="D23" s="35" t="n">
+      <c r="D23" s="35">
         <v>900</v>
       </c>
       <c r="E23" s="40" t="s">
@@ -1886,17 +1798,17 @@
       <c r="K23" s="12"/>
       <c r="L23" s="20"/>
     </row>
-    <row r="24" customFormat="false" ht="34.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="24" spans="1:14" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="25" t="s">
         <v>89</v>
       </c>
-      <c r="B24" s="26" t="n">
+      <c r="B24" s="26">
         <v>100</v>
       </c>
-      <c r="C24" s="27" t="n">
+      <c r="C24" s="27">
         <v>1800</v>
       </c>
-      <c r="D24" s="27" t="n">
+      <c r="D24" s="27">
         <v>8</v>
       </c>
       <c r="E24" s="28" t="s">
@@ -1916,17 +1828,17 @@
       <c r="K24" s="12"/>
       <c r="L24" s="12"/>
     </row>
-    <row r="25" customFormat="false" ht="34.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="25" spans="1:14" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="25" t="s">
         <v>94</v>
       </c>
-      <c r="B25" s="26" t="n">
+      <c r="B25" s="26">
         <v>100</v>
       </c>
-      <c r="C25" s="27" t="n">
+      <c r="C25" s="27">
         <v>3000</v>
       </c>
-      <c r="D25" s="27" t="n">
+      <c r="D25" s="27">
         <v>8</v>
       </c>
       <c r="E25" s="28" t="s">
@@ -1946,17 +1858,17 @@
       <c r="K25" s="20"/>
       <c r="L25" s="11"/>
     </row>
-    <row r="26" customFormat="false" ht="34.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="26" spans="1:14" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="44" t="s">
         <v>98</v>
       </c>
-      <c r="B26" s="45" t="n">
+      <c r="B26" s="45">
         <v>100</v>
       </c>
-      <c r="C26" s="46" t="n">
+      <c r="C26" s="46">
         <v>6500</v>
       </c>
-      <c r="D26" s="46" t="n">
+      <c r="D26" s="46">
         <v>235</v>
       </c>
       <c r="E26" s="47" t="s">
@@ -1975,17 +1887,17 @@
       <c r="J26" s="12"/>
       <c r="K26" s="12"/>
     </row>
-    <row r="27" customFormat="false" ht="34.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="27" spans="1:14" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="44" t="s">
         <v>103</v>
       </c>
-      <c r="B27" s="45" t="n">
+      <c r="B27" s="45">
         <v>0</v>
       </c>
-      <c r="C27" s="46" t="n">
+      <c r="C27" s="46">
         <v>4500</v>
       </c>
-      <c r="D27" s="46" t="n">
+      <c r="D27" s="46">
         <v>170</v>
       </c>
       <c r="E27" s="49" t="s">
@@ -2004,17 +1916,17 @@
       <c r="J27" s="12"/>
       <c r="K27" s="12"/>
     </row>
-    <row r="28" customFormat="false" ht="39.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="28" spans="1:14" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="51" t="s">
         <v>107</v>
       </c>
-      <c r="B28" s="52" t="n">
-        <v>1</v>
-      </c>
-      <c r="C28" s="53" t="n">
+      <c r="B28" s="52">
+        <v>1</v>
+      </c>
+      <c r="C28" s="53">
         <v>15000</v>
       </c>
-      <c r="D28" s="53" t="n">
+      <c r="D28" s="53">
         <v>40</v>
       </c>
       <c r="E28" s="54" t="s">
@@ -2033,17 +1945,17 @@
       <c r="J28" s="5"/>
       <c r="K28" s="32"/>
     </row>
-    <row r="29" customFormat="false" ht="34.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="29" spans="1:14" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="51" t="s">
         <v>112</v>
       </c>
-      <c r="B29" s="52" t="n">
-        <v>1</v>
-      </c>
-      <c r="C29" s="53" t="n">
+      <c r="B29" s="52">
+        <v>1</v>
+      </c>
+      <c r="C29" s="53">
         <v>4600</v>
       </c>
-      <c r="D29" s="53" t="n">
+      <c r="D29" s="53">
         <v>35</v>
       </c>
       <c r="E29" s="57" t="s">
@@ -2062,17 +1974,17 @@
       <c r="J29" s="5"/>
       <c r="K29" s="12"/>
     </row>
-    <row r="30" customFormat="false" ht="34.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="30" spans="1:14" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="51" t="s">
         <v>116</v>
       </c>
-      <c r="B30" s="52" t="n">
-        <v>1</v>
-      </c>
-      <c r="C30" s="53" t="n">
+      <c r="B30" s="52">
+        <v>1</v>
+      </c>
+      <c r="C30" s="53">
         <v>16000</v>
       </c>
-      <c r="D30" s="53" t="n">
+      <c r="D30" s="53">
         <v>210</v>
       </c>
       <c r="E30" s="57" t="s">
@@ -2092,17 +2004,17 @@
       <c r="K30" s="58"/>
       <c r="N30" s="60"/>
     </row>
-    <row r="31" customFormat="false" ht="34.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="31" spans="1:14" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="51" t="s">
         <v>120</v>
       </c>
-      <c r="B31" s="52" t="n">
-        <v>1</v>
-      </c>
-      <c r="C31" s="53" t="n">
+      <c r="B31" s="52">
+        <v>1</v>
+      </c>
+      <c r="C31" s="53">
         <v>25000</v>
       </c>
-      <c r="D31" s="53" t="n">
+      <c r="D31" s="53">
         <v>265</v>
       </c>
       <c r="E31" s="57" t="s">
@@ -2121,17 +2033,17 @@
       <c r="J31" s="12"/>
       <c r="K31" s="12"/>
     </row>
-    <row r="32" customFormat="false" ht="34.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="32" spans="1:14" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="51" t="s">
         <v>124</v>
       </c>
-      <c r="B32" s="52" t="n">
-        <v>1</v>
-      </c>
-      <c r="C32" s="53" t="n">
+      <c r="B32" s="52">
+        <v>1</v>
+      </c>
+      <c r="C32" s="53">
         <v>4000</v>
       </c>
-      <c r="D32" s="53" t="n">
+      <c r="D32" s="53">
         <v>18</v>
       </c>
       <c r="E32" s="57" t="s">
@@ -2150,17 +2062,17 @@
       <c r="J32" s="12"/>
       <c r="K32" s="12"/>
     </row>
-    <row r="33" customFormat="false" ht="34.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="33" spans="1:12" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="51" t="s">
         <v>129</v>
       </c>
-      <c r="B33" s="52" t="n">
-        <v>1</v>
-      </c>
-      <c r="C33" s="53" t="n">
+      <c r="B33" s="52">
+        <v>1</v>
+      </c>
+      <c r="C33" s="53">
         <v>4000</v>
       </c>
-      <c r="D33" s="53" t="n">
+      <c r="D33" s="53">
         <v>18</v>
       </c>
       <c r="E33" s="57" t="s">
@@ -2179,17 +2091,17 @@
       <c r="J33" s="20"/>
       <c r="K33" s="12"/>
     </row>
-    <row r="34" customFormat="false" ht="34.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="34" spans="1:12" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="51" t="s">
         <v>132</v>
       </c>
-      <c r="B34" s="52" t="n">
-        <v>1</v>
-      </c>
-      <c r="C34" s="53" t="n">
+      <c r="B34" s="52">
+        <v>1</v>
+      </c>
+      <c r="C34" s="53">
         <v>4000</v>
       </c>
-      <c r="D34" s="53" t="n">
+      <c r="D34" s="53">
         <v>18</v>
       </c>
       <c r="E34" s="57" t="s">
@@ -2208,17 +2120,17 @@
       <c r="J34" s="11"/>
       <c r="K34" s="12"/>
     </row>
-    <row r="35" customFormat="false" ht="34.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="35" spans="1:12" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="51" t="s">
         <v>135</v>
       </c>
-      <c r="B35" s="52" t="n">
-        <v>1</v>
-      </c>
-      <c r="C35" s="53" t="n">
+      <c r="B35" s="52">
+        <v>1</v>
+      </c>
+      <c r="C35" s="53">
         <v>4000</v>
       </c>
-      <c r="D35" s="53" t="n">
+      <c r="D35" s="53">
         <v>18</v>
       </c>
       <c r="E35" s="57" t="s">
@@ -2238,17 +2150,17 @@
       <c r="K35" s="12"/>
       <c r="L35" s="20"/>
     </row>
-    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" s="63" t="s">
         <v>137</v>
       </c>
-      <c r="B36" s="2" t="n">
+      <c r="B36" s="3">
         <v>100</v>
       </c>
-      <c r="C36" s="3" t="n">
+      <c r="C36" s="4">
         <v>9000</v>
       </c>
-      <c r="D36" s="3" t="n">
+      <c r="D36" s="4">
         <v>350</v>
       </c>
       <c r="E36" s="64" t="s">
@@ -2259,6 +2171,9 @@
       </c>
       <c r="G36" s="65" t="s">
         <v>140</v>
+      </c>
+      <c r="H36" s="66" t="s">
+        <v>141</v>
       </c>
     </row>
   </sheetData>
@@ -2266,45 +2181,41 @@
     <mergeCell ref="A1:F1"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="H4" r:id="rId1" display="..\..\Pictures\A TRABAJOS WEB\CUERO\SEÑALADORES\Señaladores 1\Señaladores de Cuero -1.jpg"/>
-    <hyperlink ref="H5" r:id="rId2" display="..\..\Pictures\A TRABAJOS WEB\CUERO\ESTUCHES\Cuero Evangelio con estuche pirograbado A.jpg"/>
-    <hyperlink ref="H6" r:id="rId3" display="..\..\Pictures\A TRABAJOS WEB\VARIOS\ESCAPULARIOS Y DETENTES\Detentes.jpg"/>
-    <hyperlink ref="H7" r:id="rId4" display="..\..\Pictures\A TRABAJOS WEB\VARIOS\ESCAPULARIOS Y DETENTES\Escapulario chico.jpg"/>
-    <hyperlink ref="H8" r:id="rId5" display="..\..\Pictures\A TRABAJOS WEB\VARIOS\ESCAPULARIOS Y DETENTES\Escapulario grande.jpg"/>
-    <hyperlink ref="H9" r:id="rId6" display="..\..\Pictures\A TRABAJOS WEB\VARIOS\ESTAMPAS FLORES\Estampas Flores Nada te turbe -1.jpg"/>
-    <hyperlink ref="H10" r:id="rId7" display="..\..\Pictures\A TRABAJOS WEB\VARIOS\ESTAMPAS FLORES\Estampas Flores Nada te turbe -2.jpg"/>
-    <hyperlink ref="H11" r:id="rId8" display="..\..\Pictures\A TRABAJOS WEB\VARIOS\ESTAMPAS FLORES\Estampas Flores Nada te turbe -3.jpg"/>
-    <hyperlink ref="H12" r:id="rId9" display="..\..\Pictures\A TRABAJOS WEB\VARIOS\ESTAMPAS FLORES\Estampas Flores Nada te turbe -4.jpg"/>
-    <hyperlink ref="H13" r:id="rId10" display="..\..\Pictures\A TRABAJOS WEB\VARIOS\ESTAMPAS FLORES\Estampas Flores Nada te turbe -5.jpg"/>
-    <hyperlink ref="H14" r:id="rId11" display="..\..\Pictures\A TRABAJOS WEB\Madera\CUADROS PUNTILLISMO\Madera Cuadro Puntillismo Sgda. Familia -1.jpg"/>
-    <hyperlink ref="H15" r:id="rId12" display="..\..\Pictures\A TRABAJOS WEB\Madera\CUADROS PUNTILLISMO\Madera Cuadro Puntillismo Sgda. Familia -2.jpg"/>
-    <hyperlink ref="H16" r:id="rId13" display="..\..\Pictures\A TRABAJOS WEB\Madera\CUADROS PUNTILLISMO\Madera Cuadro Puntillismo Virgencita de Luján -1.jpg"/>
-    <hyperlink ref="H17" r:id="rId14" display="..\..\Pictures\A TRABAJOS WEB\Madera\CUADROS PUNTILLISMO\Madera Cuadro Puntillismo Virgencita de Luján -2.jpg"/>
-    <hyperlink ref="H18" r:id="rId15" display="..\..\Pictures\A TRABAJOS WEB\Madera\CUNEROS\CORAZONES Y CRUCES\Madera Corazones pintados -1.jpg"/>
-    <hyperlink ref="H19" r:id="rId16" display="..\..\Pictures\A TRABAJOS WEB\Madera\CUNEROS\CORAZONES Y CRUCES\Madera Corazones pintados -2.jpg"/>
-    <hyperlink ref="H20" r:id="rId17" display="..\..\Pictures\A TRABAJOS WEB\Madera\CUNEROS\CORAZONES Y CRUCES\Madera Corazones pintados -3.jpg"/>
-    <hyperlink ref="H21" r:id="rId18" display="..\..\Pictures\A TRABAJOS WEB\Madera\CUNEROS\REDONDELES\Madera Redondeles cuneritos.jpg"/>
-    <hyperlink ref="H22" r:id="rId19" display="..\..\Pictures\A TRABAJOS WEB\Madera\CUADROS PASTA PIEDRA\Madera Cuadro Virgen María Pasta Piedra -1.jpg"/>
-    <hyperlink ref="H23" r:id="rId20" display="..\..\Pictures\A TRABAJOS WEB\Madera\CUADROS PASTA PIEDRA\Madera Cuadro Virgen María Pasta Piedra -2.jpg"/>
-    <hyperlink ref="H24" r:id="rId21" display="..\..\Pictures\A TRABAJOS WEB\VARIOS\ROSARIOS\24 Glorias\Rosarios 24 glorias Sta. Teresita.jpg"/>
-    <hyperlink ref="H25" r:id="rId22" display="..\..\Pictures\A TRABAJOS WEB\VARIOS\ROSARIOS\Rosarios Cola de rata\Rosario cola de rata.jpg"/>
-    <hyperlink ref="H26" r:id="rId23" display="..\..\Pictures\A TRABAJOS WEB\VELAS\CERA DE ABEJAS\Vela Cera de abeja chica.jpg"/>
-    <hyperlink ref="H27" r:id="rId24" display="..\..\Pictures\A TRABAJOS WEB\VELAS\COLORES Y AROMAS\Colores y aromas Rosas.jpg"/>
-    <hyperlink ref="H28" r:id="rId25" display="..\..\Pictures\A TRABAJOS WEB\Cerámica\Rosario Cerámica.jpg"/>
-    <hyperlink ref="H29" r:id="rId26" display="..\..\Pictures\A TRABAJOS WEB\Cerámica\CRUCES\Cruz souvenir.jpg"/>
-    <hyperlink ref="H30" r:id="rId27" display="..\..\Pictures\A TRABAJOS WEB\Cerámica\PESEBRES\Pesebre cerámica.jpg"/>
-    <hyperlink ref="H31" r:id="rId28" display="..\..\Pictures\A TRABAJOS WEB\Cerámica\Virgen Embarazada.jpg"/>
-    <hyperlink ref="H32" r:id="rId29" display="..\..\Pictures\A TRABAJOS WEB\Cerámica\Niños Jesús\Cerámica Niño Jesús -1.jpg"/>
-    <hyperlink ref="H33" r:id="rId30" display="..\..\Pictures\A TRABAJOS WEB\Cerámica\Niños Jesús\Cerámica Niño Jesús 3.jpg"/>
-    <hyperlink ref="H34" r:id="rId31" display="..\..\Pictures\A TRABAJOS WEB\Cerámica\Niños Jesús\Cerámica Niño Jesús 4.jpg"/>
-    <hyperlink ref="H35" r:id="rId32" display="..\..\Pictures\A TRABAJOS WEB\Cerámica\Niños Jesús\Cerámica Niño Jesús 4.jpg"/>
+    <hyperlink ref="H4" r:id="rId1"/>
+    <hyperlink ref="H5" r:id="rId2"/>
+    <hyperlink ref="H6" r:id="rId3"/>
+    <hyperlink ref="H7" r:id="rId4"/>
+    <hyperlink ref="H8" r:id="rId5"/>
+    <hyperlink ref="H9" r:id="rId6"/>
+    <hyperlink ref="H10" r:id="rId7"/>
+    <hyperlink ref="H11" r:id="rId8"/>
+    <hyperlink ref="H12" r:id="rId9"/>
+    <hyperlink ref="H13" r:id="rId10"/>
+    <hyperlink ref="H14" r:id="rId11"/>
+    <hyperlink ref="H15" r:id="rId12"/>
+    <hyperlink ref="H16" r:id="rId13"/>
+    <hyperlink ref="H17" r:id="rId14"/>
+    <hyperlink ref="H18" r:id="rId15"/>
+    <hyperlink ref="H19" r:id="rId16"/>
+    <hyperlink ref="H20" r:id="rId17"/>
+    <hyperlink ref="H21" r:id="rId18"/>
+    <hyperlink ref="H22" r:id="rId19"/>
+    <hyperlink ref="H23" r:id="rId20"/>
+    <hyperlink ref="H24" r:id="rId21"/>
+    <hyperlink ref="H25" r:id="rId22"/>
+    <hyperlink ref="H26" r:id="rId23"/>
+    <hyperlink ref="H27" r:id="rId24"/>
+    <hyperlink ref="H28" r:id="rId25"/>
+    <hyperlink ref="H29" r:id="rId26"/>
+    <hyperlink ref="H30" r:id="rId27"/>
+    <hyperlink ref="H31" r:id="rId28"/>
+    <hyperlink ref="H32" r:id="rId29"/>
+    <hyperlink ref="H33" r:id="rId30"/>
+    <hyperlink ref="H34" r:id="rId31"/>
+    <hyperlink ref="H35" r:id="rId32"/>
+    <hyperlink ref="H36" r:id="rId33"/>
   </hyperlinks>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.196527777777778" right="0.196527777777778" top="0.39375" bottom="0.196527777777778" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="landscape" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.196527777777778" right="0.196527777777778" top="0.39374999999999999" bottom="0.196527777777778" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
--- a/data/web-repositorio.xlsx
+++ b/data/web-repositorio.xlsx
@@ -335,18 +335,9 @@
     <t>..\..\Pictures\A TRABAJOS WEB\VELAS\CERA DE ABEJAS\Vela Cera de abeja chica.jpg</t>
   </si>
   <si>
-    <t>Velas Colores y Aromas -ROSAS-</t>
-  </si>
-  <si>
-    <t>vela colores y aromas rosas</t>
-  </si>
-  <si>
     <t>Elaboradas con parafina, colores y esencias perfumadas. 4,2x12 cm</t>
   </si>
   <si>
-    <t>..\..\Pictures\A TRABAJOS WEB\VELAS\COLORES Y AROMAS\Colores y aromas Rosas.jpg</t>
-  </si>
-  <si>
     <t>Cerámica Rosario engarzados (perfume de Rosas con cajita)</t>
   </si>
   <si>
@@ -450,6 +441,15 @@
   </si>
   <si>
     <t>..\Pictures\A TRABAJOS WEB\VARIOS\alfajores.jpg</t>
+  </si>
+  <si>
+    <t>vela colores y aromas manzana</t>
+  </si>
+  <si>
+    <t>..\..\Pictures\A TRABAJOS WEB\VELAS\COLORES Y AROMAS\coloresyaromasmanzana.jpg</t>
+  </si>
+  <si>
+    <t>Velas Colores y Aromas -Manzana-</t>
   </si>
 </sst>
 </file>
@@ -505,7 +505,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -560,6 +560,12 @@
         <bgColor rgb="FFE2F0D9"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="12">
     <border>
@@ -701,11 +707,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
@@ -847,6 +850,10 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyProtection="1"/>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="2" xfId="2" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Excel Built-in Explanatory Text" xfId="3"/>
@@ -1113,1067 +1120,1067 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B28" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="H36" sqref="H36"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="43.85546875" style="2" customWidth="1"/>
-    <col min="2" max="2" width="12.5703125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="17.42578125" style="4" customWidth="1"/>
-    <col min="4" max="4" width="11.28515625" style="4" customWidth="1"/>
-    <col min="5" max="5" width="34.5703125" style="2" customWidth="1"/>
-    <col min="6" max="6" width="39.42578125" style="2" customWidth="1"/>
-    <col min="7" max="7" width="33.140625" style="2" customWidth="1"/>
-    <col min="8" max="8" width="78.5703125" style="2" customWidth="1"/>
+    <col min="1" max="1" width="43.85546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="12.5703125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="17.42578125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="11.28515625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="34.5703125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="39.42578125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="33.140625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="78.5703125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="67" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="6"/>
-      <c r="L1" s="5"/>
+      <c r="B1" s="67"/>
+      <c r="C1" s="67"/>
+      <c r="D1" s="67"/>
+      <c r="E1" s="67"/>
+      <c r="F1" s="67"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="5"/>
+      <c r="L1" s="4"/>
     </row>
     <row r="2" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="8" t="s">
+      <c r="A2" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="9"/>
-      <c r="E2" s="10" t="s">
+      <c r="D2" s="8"/>
+      <c r="E2" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="F2" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="11" t="s">
+      <c r="G2" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="7" t="s">
+      <c r="H2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="12"/>
-      <c r="J2" s="12"/>
-      <c r="K2" s="12"/>
-      <c r="L2" s="5"/>
+      <c r="I2" s="11"/>
+      <c r="J2" s="11"/>
+      <c r="K2" s="11"/>
+      <c r="L2" s="4"/>
     </row>
     <row r="3" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="10" t="s">
+      <c r="E3" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="F3" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="13" t="s">
+      <c r="G3" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="H3" s="7" t="s">
+      <c r="H3" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="I3" s="12"/>
-      <c r="J3" s="12"/>
-      <c r="K3" s="12"/>
-      <c r="L3" s="5"/>
+      <c r="I3" s="11"/>
+      <c r="J3" s="11"/>
+      <c r="K3" s="11"/>
+      <c r="L3" s="4"/>
     </row>
     <row r="4" spans="1:13" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="14" t="s">
+      <c r="A4" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="15">
-        <v>1</v>
-      </c>
-      <c r="C4" s="16">
+      <c r="B4" s="14">
+        <v>1</v>
+      </c>
+      <c r="C4" s="15">
         <v>2500</v>
       </c>
-      <c r="D4" s="16">
+      <c r="D4" s="15">
         <v>20</v>
       </c>
-      <c r="E4" s="17" t="s">
+      <c r="E4" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="F4" s="14" t="s">
+      <c r="F4" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="G4" s="18" t="s">
+      <c r="G4" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="H4" s="19" t="s">
+      <c r="H4" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="I4" s="12"/>
-      <c r="J4" s="12"/>
-      <c r="K4" s="12"/>
-      <c r="L4" s="20"/>
+      <c r="I4" s="11"/>
+      <c r="J4" s="11"/>
+      <c r="K4" s="11"/>
+      <c r="L4" s="19"/>
     </row>
     <row r="5" spans="1:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="14" t="s">
+      <c r="A5" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="15">
-        <v>1</v>
-      </c>
-      <c r="C5" s="16">
+      <c r="B5" s="14">
+        <v>1</v>
+      </c>
+      <c r="C5" s="15">
         <v>16000</v>
       </c>
-      <c r="D5" s="16">
+      <c r="D5" s="15">
         <v>90</v>
       </c>
-      <c r="E5" s="17" t="s">
+      <c r="E5" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="F5" s="14" t="s">
+      <c r="F5" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="G5" s="21" t="s">
+      <c r="G5" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="H5" s="19" t="s">
+      <c r="H5" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="I5" s="22"/>
-      <c r="J5" s="23"/>
-      <c r="K5" s="12"/>
-      <c r="L5" s="24"/>
+      <c r="I5" s="21"/>
+      <c r="J5" s="22"/>
+      <c r="K5" s="11"/>
+      <c r="L5" s="23"/>
     </row>
     <row r="6" spans="1:13" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="25" t="s">
+      <c r="A6" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="B6" s="26">
+      <c r="B6" s="25">
         <v>100</v>
       </c>
-      <c r="C6" s="27">
+      <c r="C6" s="26">
         <v>1200</v>
       </c>
-      <c r="D6" s="27">
-        <v>1</v>
-      </c>
-      <c r="E6" s="28" t="s">
+      <c r="D6" s="26">
+        <v>1</v>
+      </c>
+      <c r="E6" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="F6" s="25" t="s">
+      <c r="F6" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="G6" s="21" t="s">
+      <c r="G6" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="H6" s="29" t="s">
+      <c r="H6" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="I6" s="12"/>
-      <c r="J6" s="12"/>
-      <c r="K6" s="12"/>
-      <c r="L6" s="12"/>
+      <c r="I6" s="11"/>
+      <c r="J6" s="11"/>
+      <c r="K6" s="11"/>
+      <c r="L6" s="11"/>
     </row>
     <row r="7" spans="1:13" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="25" t="s">
+      <c r="A7" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="B7" s="26">
+      <c r="B7" s="25">
         <v>100</v>
       </c>
-      <c r="C7" s="30">
+      <c r="C7" s="29">
         <v>1200</v>
       </c>
-      <c r="D7" s="30">
-        <v>1</v>
-      </c>
-      <c r="E7" s="28" t="s">
+      <c r="D7" s="29">
+        <v>1</v>
+      </c>
+      <c r="E7" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="F7" s="25" t="s">
+      <c r="F7" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="G7" s="31" t="s">
+      <c r="G7" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="H7" s="29" t="s">
+      <c r="H7" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="I7" s="12"/>
-      <c r="J7" s="12"/>
-      <c r="K7" s="12"/>
-      <c r="L7" s="12"/>
+      <c r="I7" s="11"/>
+      <c r="J7" s="11"/>
+      <c r="K7" s="11"/>
+      <c r="L7" s="11"/>
     </row>
     <row r="8" spans="1:13" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="25" t="s">
+      <c r="A8" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="B8" s="26">
+      <c r="B8" s="25">
         <v>100</v>
       </c>
-      <c r="C8" s="27">
+      <c r="C8" s="26">
         <v>2000</v>
       </c>
-      <c r="D8" s="27">
+      <c r="D8" s="26">
         <v>2</v>
       </c>
-      <c r="E8" s="28" t="s">
+      <c r="E8" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="F8" s="25" t="s">
+      <c r="F8" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="G8" s="21" t="s">
+      <c r="G8" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="H8" s="29" t="s">
+      <c r="H8" s="28" t="s">
         <v>36</v>
       </c>
-      <c r="I8" s="12"/>
-      <c r="J8" s="12"/>
-      <c r="K8" s="12"/>
-      <c r="L8" s="5"/>
+      <c r="I8" s="11"/>
+      <c r="J8" s="11"/>
+      <c r="K8" s="11"/>
+      <c r="L8" s="4"/>
     </row>
     <row r="9" spans="1:13" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="25" t="s">
+      <c r="A9" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="B9" s="26">
-        <v>1</v>
-      </c>
-      <c r="C9" s="27">
+      <c r="B9" s="25">
+        <v>1</v>
+      </c>
+      <c r="C9" s="26">
         <v>1200</v>
       </c>
-      <c r="D9" s="27">
-        <v>1</v>
-      </c>
-      <c r="E9" s="28" t="s">
+      <c r="D9" s="26">
+        <v>1</v>
+      </c>
+      <c r="E9" s="27" t="s">
         <v>38</v>
       </c>
-      <c r="F9" s="25" t="s">
+      <c r="F9" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="G9" s="21" t="s">
+      <c r="G9" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="H9" s="29" t="s">
+      <c r="H9" s="28" t="s">
         <v>41</v>
       </c>
-      <c r="I9" s="12"/>
-      <c r="J9" s="12"/>
-      <c r="K9" s="12"/>
-      <c r="L9" s="20"/>
-      <c r="M9" s="13"/>
+      <c r="I9" s="11"/>
+      <c r="J9" s="11"/>
+      <c r="K9" s="11"/>
+      <c r="L9" s="19"/>
+      <c r="M9" s="12"/>
     </row>
     <row r="10" spans="1:13" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="25" t="s">
+      <c r="A10" s="24" t="s">
         <v>42</v>
       </c>
-      <c r="B10" s="26">
-        <v>1</v>
-      </c>
-      <c r="C10" s="27">
+      <c r="B10" s="25">
+        <v>1</v>
+      </c>
+      <c r="C10" s="26">
         <v>1200</v>
       </c>
-      <c r="D10" s="27">
-        <v>1</v>
-      </c>
-      <c r="E10" s="28" t="s">
+      <c r="D10" s="26">
+        <v>1</v>
+      </c>
+      <c r="E10" s="27" t="s">
         <v>38</v>
       </c>
-      <c r="F10" s="25" t="s">
+      <c r="F10" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="G10" s="21" t="s">
+      <c r="G10" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="H10" s="29" t="s">
+      <c r="H10" s="28" t="s">
         <v>44</v>
       </c>
-      <c r="I10" s="12"/>
-      <c r="J10" s="12"/>
-      <c r="K10" s="12"/>
-      <c r="L10" s="20"/>
-      <c r="M10" s="13"/>
+      <c r="I10" s="11"/>
+      <c r="J10" s="11"/>
+      <c r="K10" s="11"/>
+      <c r="L10" s="19"/>
+      <c r="M10" s="12"/>
     </row>
     <row r="11" spans="1:13" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="25" t="s">
+      <c r="A11" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="B11" s="26">
-        <v>1</v>
-      </c>
-      <c r="C11" s="27">
+      <c r="B11" s="25">
+        <v>1</v>
+      </c>
+      <c r="C11" s="26">
         <v>1200</v>
       </c>
-      <c r="D11" s="27">
-        <v>1</v>
-      </c>
-      <c r="E11" s="28" t="s">
+      <c r="D11" s="26">
+        <v>1</v>
+      </c>
+      <c r="E11" s="27" t="s">
         <v>38</v>
       </c>
-      <c r="F11" s="25" t="s">
+      <c r="F11" s="24" t="s">
         <v>46</v>
       </c>
-      <c r="G11" s="21" t="s">
+      <c r="G11" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="H11" s="29" t="s">
+      <c r="H11" s="28" t="s">
         <v>47</v>
       </c>
-      <c r="I11" s="12"/>
-      <c r="J11" s="12"/>
-      <c r="K11" s="12"/>
-      <c r="L11" s="20"/>
-      <c r="M11" s="13"/>
+      <c r="I11" s="11"/>
+      <c r="J11" s="11"/>
+      <c r="K11" s="11"/>
+      <c r="L11" s="19"/>
+      <c r="M11" s="12"/>
     </row>
     <row r="12" spans="1:13" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="25" t="s">
+      <c r="A12" s="24" t="s">
         <v>48</v>
       </c>
-      <c r="B12" s="26">
-        <v>1</v>
-      </c>
-      <c r="C12" s="27">
+      <c r="B12" s="25">
+        <v>1</v>
+      </c>
+      <c r="C12" s="26">
         <v>1200</v>
       </c>
-      <c r="D12" s="27">
-        <v>1</v>
-      </c>
-      <c r="E12" s="28" t="s">
+      <c r="D12" s="26">
+        <v>1</v>
+      </c>
+      <c r="E12" s="27" t="s">
         <v>38</v>
       </c>
-      <c r="F12" s="25" t="s">
+      <c r="F12" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="G12" s="21" t="s">
+      <c r="G12" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="H12" s="29" t="s">
+      <c r="H12" s="28" t="s">
         <v>50</v>
       </c>
-      <c r="I12" s="12"/>
-      <c r="J12" s="12"/>
-      <c r="K12" s="12"/>
-      <c r="L12" s="20"/>
-      <c r="M12" s="13"/>
+      <c r="I12" s="11"/>
+      <c r="J12" s="11"/>
+      <c r="K12" s="11"/>
+      <c r="L12" s="19"/>
+      <c r="M12" s="12"/>
     </row>
     <row r="13" spans="1:13" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="25" t="s">
+      <c r="A13" s="24" t="s">
         <v>51</v>
       </c>
-      <c r="B13" s="26">
-        <v>1</v>
-      </c>
-      <c r="C13" s="27">
+      <c r="B13" s="25">
+        <v>1</v>
+      </c>
+      <c r="C13" s="26">
         <v>1200</v>
       </c>
-      <c r="D13" s="27">
-        <v>1</v>
-      </c>
-      <c r="E13" s="28" t="s">
+      <c r="D13" s="26">
+        <v>1</v>
+      </c>
+      <c r="E13" s="27" t="s">
         <v>38</v>
       </c>
-      <c r="F13" s="25" t="s">
+      <c r="F13" s="24" t="s">
         <v>52</v>
       </c>
-      <c r="G13" s="21" t="s">
+      <c r="G13" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="H13" s="29" t="s">
+      <c r="H13" s="28" t="s">
         <v>53</v>
       </c>
-      <c r="I13" s="12"/>
-      <c r="J13" s="12"/>
-      <c r="K13" s="32"/>
-      <c r="M13" s="13"/>
+      <c r="I13" s="11"/>
+      <c r="J13" s="11"/>
+      <c r="K13" s="31"/>
+      <c r="M13" s="12"/>
     </row>
     <row r="14" spans="1:13" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="33" t="s">
+      <c r="A14" s="32" t="s">
         <v>54</v>
       </c>
-      <c r="B14" s="34">
-        <v>1</v>
-      </c>
-      <c r="C14" s="35">
+      <c r="B14" s="33">
+        <v>1</v>
+      </c>
+      <c r="C14" s="34">
         <v>18000</v>
       </c>
-      <c r="D14" s="35">
+      <c r="D14" s="34">
         <v>325</v>
       </c>
-      <c r="E14" s="36" t="s">
+      <c r="E14" s="35" t="s">
         <v>55</v>
       </c>
-      <c r="F14" s="33" t="s">
+      <c r="F14" s="32" t="s">
         <v>56</v>
       </c>
-      <c r="G14" s="37" t="s">
+      <c r="G14" s="36" t="s">
         <v>57</v>
       </c>
-      <c r="H14" s="38" t="s">
+      <c r="H14" s="37" t="s">
         <v>58</v>
       </c>
-      <c r="I14" s="12"/>
-      <c r="J14" s="12"/>
-      <c r="K14" s="12"/>
-      <c r="L14" s="12"/>
+      <c r="I14" s="11"/>
+      <c r="J14" s="11"/>
+      <c r="K14" s="11"/>
+      <c r="L14" s="11"/>
     </row>
     <row r="15" spans="1:13" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="33" t="s">
+      <c r="A15" s="32" t="s">
         <v>59</v>
       </c>
-      <c r="B15" s="34">
-        <v>1</v>
-      </c>
-      <c r="C15" s="35">
+      <c r="B15" s="33">
+        <v>1</v>
+      </c>
+      <c r="C15" s="34">
         <v>18000</v>
       </c>
-      <c r="D15" s="35">
+      <c r="D15" s="34">
         <v>325</v>
       </c>
-      <c r="E15" s="36" t="s">
+      <c r="E15" s="35" t="s">
         <v>55</v>
       </c>
-      <c r="F15" s="33" t="s">
+      <c r="F15" s="32" t="s">
         <v>60</v>
       </c>
-      <c r="G15" s="37" t="s">
+      <c r="G15" s="36" t="s">
         <v>57</v>
       </c>
-      <c r="H15" s="38" t="s">
+      <c r="H15" s="37" t="s">
         <v>61</v>
       </c>
-      <c r="K15" s="12"/>
-      <c r="L15" s="20"/>
+      <c r="K15" s="11"/>
+      <c r="L15" s="19"/>
     </row>
     <row r="16" spans="1:13" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="33" t="s">
+      <c r="A16" s="32" t="s">
         <v>62</v>
       </c>
-      <c r="B16" s="34">
-        <v>1</v>
-      </c>
-      <c r="C16" s="35">
+      <c r="B16" s="33">
+        <v>1</v>
+      </c>
+      <c r="C16" s="34">
         <v>15000</v>
       </c>
-      <c r="D16" s="35">
+      <c r="D16" s="34">
         <v>280</v>
       </c>
-      <c r="E16" s="36" t="s">
+      <c r="E16" s="35" t="s">
         <v>55</v>
       </c>
-      <c r="F16" s="33" t="s">
+      <c r="F16" s="32" t="s">
         <v>63</v>
       </c>
-      <c r="G16" s="39" t="s">
+      <c r="G16" s="38" t="s">
         <v>64</v>
       </c>
-      <c r="H16" s="38" t="s">
+      <c r="H16" s="37" t="s">
         <v>65</v>
       </c>
-      <c r="I16" s="12"/>
-      <c r="J16" s="12"/>
-      <c r="K16" s="12"/>
-      <c r="L16" s="11"/>
+      <c r="I16" s="11"/>
+      <c r="J16" s="11"/>
+      <c r="K16" s="11"/>
+      <c r="L16" s="10"/>
     </row>
     <row r="17" spans="1:14" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="33" t="s">
+      <c r="A17" s="32" t="s">
         <v>66</v>
       </c>
-      <c r="B17" s="34">
-        <v>1</v>
-      </c>
-      <c r="C17" s="35">
+      <c r="B17" s="33">
+        <v>1</v>
+      </c>
+      <c r="C17" s="34">
         <v>15000</v>
       </c>
-      <c r="D17" s="35">
+      <c r="D17" s="34">
         <v>280</v>
       </c>
-      <c r="E17" s="36" t="s">
+      <c r="E17" s="35" t="s">
         <v>55</v>
       </c>
-      <c r="F17" s="33" t="s">
+      <c r="F17" s="32" t="s">
         <v>67</v>
       </c>
-      <c r="G17" s="39" t="s">
+      <c r="G17" s="38" t="s">
         <v>64</v>
       </c>
-      <c r="H17" s="38" t="s">
+      <c r="H17" s="37" t="s">
         <v>68</v>
       </c>
-      <c r="I17" s="12"/>
-      <c r="J17" s="12"/>
-      <c r="K17" s="12"/>
-      <c r="L17" s="11"/>
+      <c r="I17" s="11"/>
+      <c r="J17" s="11"/>
+      <c r="K17" s="11"/>
+      <c r="L17" s="10"/>
     </row>
     <row r="18" spans="1:14" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="40" t="s">
+      <c r="A18" s="39" t="s">
         <v>69</v>
       </c>
-      <c r="B18" s="41">
+      <c r="B18" s="40">
         <v>100</v>
       </c>
-      <c r="C18" s="35">
+      <c r="C18" s="34">
         <v>7000</v>
       </c>
-      <c r="D18" s="35">
+      <c r="D18" s="34">
         <v>90</v>
       </c>
-      <c r="E18" s="40" t="s">
+      <c r="E18" s="39" t="s">
         <v>70</v>
       </c>
-      <c r="F18" s="40" t="s">
+      <c r="F18" s="39" t="s">
         <v>69</v>
       </c>
-      <c r="G18" s="42" t="s">
+      <c r="G18" s="41" t="s">
         <v>71</v>
       </c>
-      <c r="H18" s="43" t="s">
+      <c r="H18" s="42" t="s">
         <v>72</v>
       </c>
-      <c r="I18" s="12"/>
-      <c r="K18" s="12"/>
-      <c r="L18" s="12"/>
+      <c r="I18" s="11"/>
+      <c r="K18" s="11"/>
+      <c r="L18" s="11"/>
     </row>
     <row r="19" spans="1:14" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="40" t="s">
+      <c r="A19" s="39" t="s">
         <v>73</v>
       </c>
-      <c r="B19" s="41">
+      <c r="B19" s="40">
         <v>100</v>
       </c>
-      <c r="C19" s="35">
+      <c r="C19" s="34">
         <v>7000</v>
       </c>
-      <c r="D19" s="35">
+      <c r="D19" s="34">
         <v>90</v>
       </c>
-      <c r="E19" s="40" t="s">
+      <c r="E19" s="39" t="s">
         <v>70</v>
       </c>
-      <c r="F19" s="40" t="s">
+      <c r="F19" s="39" t="s">
         <v>73</v>
       </c>
-      <c r="G19" s="42" t="s">
+      <c r="G19" s="41" t="s">
         <v>71</v>
       </c>
-      <c r="H19" s="43" t="s">
+      <c r="H19" s="42" t="s">
         <v>74</v>
       </c>
-      <c r="J19" s="11"/>
-      <c r="K19" s="12"/>
-      <c r="L19" s="5"/>
+      <c r="J19" s="10"/>
+      <c r="K19" s="11"/>
+      <c r="L19" s="4"/>
     </row>
     <row r="20" spans="1:14" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="40" t="s">
+      <c r="A20" s="39" t="s">
         <v>75</v>
       </c>
-      <c r="B20" s="41">
+      <c r="B20" s="40">
         <v>100</v>
       </c>
-      <c r="C20" s="35">
+      <c r="C20" s="34">
         <v>7000</v>
       </c>
-      <c r="D20" s="35">
+      <c r="D20" s="34">
         <v>90</v>
       </c>
-      <c r="E20" s="40" t="s">
+      <c r="E20" s="39" t="s">
         <v>70</v>
       </c>
-      <c r="F20" s="40" t="s">
+      <c r="F20" s="39" t="s">
         <v>75</v>
       </c>
-      <c r="G20" s="42" t="s">
+      <c r="G20" s="41" t="s">
         <v>71</v>
       </c>
-      <c r="H20" s="43" t="s">
+      <c r="H20" s="42" t="s">
         <v>76</v>
       </c>
-      <c r="I20" s="12"/>
-      <c r="J20" s="11"/>
-      <c r="K20" s="12"/>
-      <c r="L20" s="5"/>
+      <c r="I20" s="11"/>
+      <c r="J20" s="10"/>
+      <c r="K20" s="11"/>
+      <c r="L20" s="4"/>
     </row>
     <row r="21" spans="1:14" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="33" t="s">
+      <c r="A21" s="32" t="s">
         <v>77</v>
       </c>
-      <c r="B21" s="34">
+      <c r="B21" s="33">
         <v>100</v>
       </c>
-      <c r="C21" s="35">
+      <c r="C21" s="34">
         <v>5000</v>
       </c>
-      <c r="D21" s="35">
+      <c r="D21" s="34">
         <v>50</v>
       </c>
-      <c r="E21" s="40" t="s">
+      <c r="E21" s="39" t="s">
         <v>70</v>
       </c>
-      <c r="F21" s="33" t="s">
+      <c r="F21" s="32" t="s">
         <v>77</v>
       </c>
-      <c r="G21" s="39" t="s">
+      <c r="G21" s="38" t="s">
         <v>78</v>
       </c>
-      <c r="H21" s="38" t="s">
+      <c r="H21" s="37" t="s">
         <v>79</v>
       </c>
-      <c r="I21" s="12"/>
-      <c r="J21" s="12"/>
-      <c r="K21" s="12"/>
+      <c r="I21" s="11"/>
+      <c r="J21" s="11"/>
+      <c r="K21" s="11"/>
     </row>
     <row r="22" spans="1:14" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="33" t="s">
+      <c r="A22" s="32" t="s">
         <v>80</v>
       </c>
-      <c r="B22" s="34">
-        <v>1</v>
-      </c>
-      <c r="C22" s="35">
+      <c r="B22" s="33">
+        <v>1</v>
+      </c>
+      <c r="C22" s="34">
         <v>50000</v>
       </c>
-      <c r="D22" s="35">
+      <c r="D22" s="34">
         <v>1300</v>
       </c>
-      <c r="E22" s="40" t="s">
+      <c r="E22" s="39" t="s">
         <v>81</v>
       </c>
-      <c r="F22" s="33" t="s">
+      <c r="F22" s="32" t="s">
         <v>82</v>
       </c>
-      <c r="G22" s="39" t="s">
+      <c r="G22" s="38" t="s">
         <v>83</v>
       </c>
-      <c r="H22" s="38" t="s">
+      <c r="H22" s="37" t="s">
         <v>84</v>
       </c>
-      <c r="I22" s="12"/>
-      <c r="K22" s="12"/>
-      <c r="L22" s="5"/>
+      <c r="I22" s="11"/>
+      <c r="K22" s="11"/>
+      <c r="L22" s="4"/>
     </row>
     <row r="23" spans="1:14" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="33" t="s">
+      <c r="A23" s="32" t="s">
         <v>85</v>
       </c>
-      <c r="B23" s="34">
-        <v>1</v>
-      </c>
-      <c r="C23" s="35">
+      <c r="B23" s="33">
+        <v>1</v>
+      </c>
+      <c r="C23" s="34">
         <v>40000</v>
       </c>
-      <c r="D23" s="35">
+      <c r="D23" s="34">
         <v>900</v>
       </c>
-      <c r="E23" s="40" t="s">
+      <c r="E23" s="39" t="s">
         <v>81</v>
       </c>
-      <c r="F23" s="33" t="s">
+      <c r="F23" s="32" t="s">
         <v>86</v>
       </c>
-      <c r="G23" s="39" t="s">
+      <c r="G23" s="38" t="s">
         <v>87</v>
       </c>
-      <c r="H23" s="38" t="s">
+      <c r="H23" s="37" t="s">
         <v>88</v>
       </c>
-      <c r="I23" s="12"/>
-      <c r="J23" s="12"/>
-      <c r="K23" s="12"/>
-      <c r="L23" s="20"/>
+      <c r="I23" s="11"/>
+      <c r="J23" s="11"/>
+      <c r="K23" s="11"/>
+      <c r="L23" s="19"/>
     </row>
     <row r="24" spans="1:14" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="25" t="s">
+      <c r="A24" s="24" t="s">
         <v>89</v>
       </c>
-      <c r="B24" s="26">
+      <c r="B24" s="25">
         <v>100</v>
       </c>
-      <c r="C24" s="27">
+      <c r="C24" s="26">
         <v>1800</v>
       </c>
-      <c r="D24" s="27">
+      <c r="D24" s="26">
         <v>8</v>
       </c>
-      <c r="E24" s="28" t="s">
+      <c r="E24" s="27" t="s">
         <v>90</v>
       </c>
-      <c r="F24" s="25" t="s">
+      <c r="F24" s="24" t="s">
         <v>91</v>
       </c>
-      <c r="G24" s="39" t="s">
+      <c r="G24" s="38" t="s">
         <v>92</v>
       </c>
-      <c r="H24" s="29" t="s">
+      <c r="H24" s="28" t="s">
         <v>93</v>
       </c>
-      <c r="I24" s="5"/>
-      <c r="J24" s="5"/>
-      <c r="K24" s="12"/>
-      <c r="L24" s="12"/>
+      <c r="I24" s="4"/>
+      <c r="J24" s="4"/>
+      <c r="K24" s="11"/>
+      <c r="L24" s="11"/>
     </row>
     <row r="25" spans="1:14" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="25" t="s">
+      <c r="A25" s="24" t="s">
         <v>94</v>
       </c>
-      <c r="B25" s="26">
+      <c r="B25" s="25">
         <v>100</v>
       </c>
-      <c r="C25" s="27">
+      <c r="C25" s="26">
         <v>3000</v>
       </c>
-      <c r="D25" s="27">
+      <c r="D25" s="26">
         <v>8</v>
       </c>
-      <c r="E25" s="28" t="s">
+      <c r="E25" s="27" t="s">
         <v>90</v>
       </c>
-      <c r="F25" s="25" t="s">
+      <c r="F25" s="24" t="s">
         <v>95</v>
       </c>
-      <c r="G25" s="39" t="s">
+      <c r="G25" s="38" t="s">
         <v>96</v>
       </c>
-      <c r="H25" s="29" t="s">
+      <c r="H25" s="28" t="s">
         <v>97</v>
       </c>
-      <c r="I25" s="12"/>
-      <c r="J25" s="12"/>
-      <c r="K25" s="20"/>
-      <c r="L25" s="11"/>
+      <c r="I25" s="11"/>
+      <c r="J25" s="11"/>
+      <c r="K25" s="19"/>
+      <c r="L25" s="10"/>
     </row>
     <row r="26" spans="1:14" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="44" t="s">
+      <c r="A26" s="43" t="s">
         <v>98</v>
       </c>
-      <c r="B26" s="45">
+      <c r="B26" s="44">
         <v>100</v>
       </c>
-      <c r="C26" s="46">
+      <c r="C26" s="45">
         <v>6500</v>
       </c>
-      <c r="D26" s="46">
+      <c r="D26" s="45">
         <v>235</v>
       </c>
-      <c r="E26" s="47" t="s">
+      <c r="E26" s="46" t="s">
         <v>99</v>
       </c>
-      <c r="F26" s="44" t="s">
+      <c r="F26" s="43" t="s">
         <v>100</v>
       </c>
-      <c r="G26" s="39" t="s">
+      <c r="G26" s="38" t="s">
         <v>101</v>
       </c>
-      <c r="H26" s="48" t="s">
+      <c r="H26" s="47" t="s">
         <v>102</v>
       </c>
-      <c r="I26" s="12"/>
-      <c r="J26" s="12"/>
-      <c r="K26" s="12"/>
+      <c r="I26" s="11"/>
+      <c r="J26" s="11"/>
+      <c r="K26" s="11"/>
     </row>
     <row r="27" spans="1:14" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="44" t="s">
+      <c r="A27" s="43" t="s">
+        <v>141</v>
+      </c>
+      <c r="B27" s="44">
+        <v>100</v>
+      </c>
+      <c r="C27" s="45">
+        <v>4500</v>
+      </c>
+      <c r="D27" s="45">
+        <v>170</v>
+      </c>
+      <c r="E27" s="48" t="s">
+        <v>99</v>
+      </c>
+      <c r="F27" s="43" t="s">
+        <v>139</v>
+      </c>
+      <c r="G27" s="49" t="s">
         <v>103</v>
       </c>
-      <c r="B27" s="45">
-        <v>0</v>
-      </c>
-      <c r="C27" s="46">
-        <v>4500</v>
-      </c>
-      <c r="D27" s="46">
-        <v>170</v>
-      </c>
-      <c r="E27" s="49" t="s">
-        <v>99</v>
-      </c>
-      <c r="F27" s="44" t="s">
+      <c r="H27" s="66" t="s">
+        <v>140</v>
+      </c>
+      <c r="I27" s="11"/>
+      <c r="J27" s="11"/>
+      <c r="K27" s="11"/>
+    </row>
+    <row r="28" spans="1:14" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="50" t="s">
         <v>104</v>
       </c>
-      <c r="G27" s="50" t="s">
+      <c r="B28" s="51">
+        <v>1</v>
+      </c>
+      <c r="C28" s="52">
+        <v>15000</v>
+      </c>
+      <c r="D28" s="52">
+        <v>40</v>
+      </c>
+      <c r="E28" s="53" t="s">
         <v>105</v>
       </c>
-      <c r="H27" s="48" t="s">
+      <c r="F28" s="50" t="s">
         <v>106</v>
       </c>
-      <c r="I27" s="12"/>
-      <c r="J27" s="12"/>
-      <c r="K27" s="12"/>
-    </row>
-    <row r="28" spans="1:14" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="51" t="s">
+      <c r="G28" s="54" t="s">
         <v>107</v>
       </c>
-      <c r="B28" s="52">
-        <v>1</v>
-      </c>
-      <c r="C28" s="53">
-        <v>15000</v>
-      </c>
-      <c r="D28" s="53">
-        <v>40</v>
-      </c>
-      <c r="E28" s="54" t="s">
+      <c r="H28" s="55" t="s">
         <v>108</v>
       </c>
-      <c r="F28" s="51" t="s">
+      <c r="I28" s="4"/>
+      <c r="J28" s="4"/>
+      <c r="K28" s="31"/>
+    </row>
+    <row r="29" spans="1:14" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="50" t="s">
         <v>109</v>
       </c>
-      <c r="G28" s="55" t="s">
+      <c r="B29" s="51">
+        <v>1</v>
+      </c>
+      <c r="C29" s="52">
+        <v>4600</v>
+      </c>
+      <c r="D29" s="52">
+        <v>35</v>
+      </c>
+      <c r="E29" s="56" t="s">
+        <v>105</v>
+      </c>
+      <c r="F29" s="50" t="s">
         <v>110</v>
       </c>
-      <c r="H28" s="56" t="s">
+      <c r="G29" s="49" t="s">
         <v>111</v>
       </c>
-      <c r="I28" s="5"/>
-      <c r="J28" s="5"/>
-      <c r="K28" s="32"/>
-    </row>
-    <row r="29" spans="1:14" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="51" t="s">
+      <c r="H29" s="55" t="s">
         <v>112</v>
       </c>
-      <c r="B29" s="52">
-        <v>1</v>
-      </c>
-      <c r="C29" s="53">
-        <v>4600</v>
-      </c>
-      <c r="D29" s="53">
-        <v>35</v>
-      </c>
-      <c r="E29" s="57" t="s">
-        <v>108</v>
-      </c>
-      <c r="F29" s="51" t="s">
+      <c r="I29" s="4"/>
+      <c r="J29" s="4"/>
+      <c r="K29" s="11"/>
+    </row>
+    <row r="30" spans="1:14" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="50" t="s">
         <v>113</v>
       </c>
-      <c r="G29" s="50" t="s">
+      <c r="B30" s="51">
+        <v>1</v>
+      </c>
+      <c r="C30" s="52">
+        <v>16000</v>
+      </c>
+      <c r="D30" s="52">
+        <v>210</v>
+      </c>
+      <c r="E30" s="56" t="s">
+        <v>105</v>
+      </c>
+      <c r="F30" s="50" t="s">
         <v>114</v>
       </c>
-      <c r="H29" s="56" t="s">
+      <c r="G30" s="38" t="s">
         <v>115</v>
       </c>
-      <c r="I29" s="5"/>
-      <c r="J29" s="5"/>
-      <c r="K29" s="12"/>
-    </row>
-    <row r="30" spans="1:14" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="51" t="s">
+      <c r="H30" s="55" t="s">
         <v>116</v>
       </c>
-      <c r="B30" s="52">
-        <v>1</v>
-      </c>
-      <c r="C30" s="53">
-        <v>16000</v>
-      </c>
-      <c r="D30" s="53">
-        <v>210</v>
-      </c>
-      <c r="E30" s="57" t="s">
-        <v>108</v>
-      </c>
-      <c r="F30" s="51" t="s">
+      <c r="I30" s="57"/>
+      <c r="J30" s="58"/>
+      <c r="K30" s="57"/>
+      <c r="N30" s="59"/>
+    </row>
+    <row r="31" spans="1:14" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="50" t="s">
         <v>117</v>
       </c>
-      <c r="G30" s="39" t="s">
+      <c r="B31" s="51">
+        <v>1</v>
+      </c>
+      <c r="C31" s="52">
+        <v>25000</v>
+      </c>
+      <c r="D31" s="52">
+        <v>265</v>
+      </c>
+      <c r="E31" s="56" t="s">
+        <v>105</v>
+      </c>
+      <c r="F31" s="50" t="s">
         <v>118</v>
       </c>
-      <c r="H30" s="56" t="s">
+      <c r="G31" s="38" t="s">
         <v>119</v>
       </c>
-      <c r="I30" s="58"/>
-      <c r="J30" s="59"/>
-      <c r="K30" s="58"/>
-      <c r="N30" s="60"/>
-    </row>
-    <row r="31" spans="1:14" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="51" t="s">
+      <c r="H31" s="55" t="s">
         <v>120</v>
       </c>
-      <c r="B31" s="52">
-        <v>1</v>
-      </c>
-      <c r="C31" s="53">
-        <v>25000</v>
-      </c>
-      <c r="D31" s="53">
-        <v>265</v>
-      </c>
-      <c r="E31" s="57" t="s">
-        <v>108</v>
-      </c>
-      <c r="F31" s="51" t="s">
+      <c r="I31" s="4"/>
+      <c r="J31" s="11"/>
+      <c r="K31" s="11"/>
+    </row>
+    <row r="32" spans="1:14" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="50" t="s">
         <v>121</v>
       </c>
-      <c r="G31" s="39" t="s">
+      <c r="B32" s="51">
+        <v>1</v>
+      </c>
+      <c r="C32" s="52">
+        <v>4000</v>
+      </c>
+      <c r="D32" s="52">
+        <v>18</v>
+      </c>
+      <c r="E32" s="56" t="s">
         <v>122</v>
       </c>
-      <c r="H31" s="56" t="s">
+      <c r="F32" s="50" t="s">
         <v>123</v>
       </c>
-      <c r="I31" s="5"/>
-      <c r="J31" s="12"/>
-      <c r="K31" s="12"/>
-    </row>
-    <row r="32" spans="1:14" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="51" t="s">
+      <c r="G32" s="60" t="s">
         <v>124</v>
       </c>
-      <c r="B32" s="52">
-        <v>1</v>
-      </c>
-      <c r="C32" s="53">
+      <c r="H32" s="55" t="s">
+        <v>125</v>
+      </c>
+      <c r="I32" s="4"/>
+      <c r="J32" s="11"/>
+      <c r="K32" s="11"/>
+    </row>
+    <row r="33" spans="1:12" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="50" t="s">
+        <v>126</v>
+      </c>
+      <c r="B33" s="51">
+        <v>1</v>
+      </c>
+      <c r="C33" s="52">
         <v>4000</v>
       </c>
-      <c r="D32" s="53">
+      <c r="D33" s="52">
         <v>18</v>
       </c>
-      <c r="E32" s="57" t="s">
-        <v>125</v>
-      </c>
-      <c r="F32" s="51" t="s">
-        <v>126</v>
-      </c>
-      <c r="G32" s="61" t="s">
+      <c r="E33" s="56" t="s">
+        <v>122</v>
+      </c>
+      <c r="F33" s="50" t="s">
         <v>127</v>
       </c>
-      <c r="H32" s="56" t="s">
+      <c r="G33" s="60" t="s">
+        <v>124</v>
+      </c>
+      <c r="H33" s="55" t="s">
         <v>128</v>
       </c>
-      <c r="I32" s="5"/>
-      <c r="J32" s="12"/>
-      <c r="K32" s="12"/>
-    </row>
-    <row r="33" spans="1:12" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="51" t="s">
+      <c r="I33" s="4"/>
+      <c r="J33" s="19"/>
+      <c r="K33" s="11"/>
+    </row>
+    <row r="34" spans="1:12" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="50" t="s">
         <v>129</v>
       </c>
-      <c r="B33" s="52">
-        <v>1</v>
-      </c>
-      <c r="C33" s="53">
+      <c r="B34" s="51">
+        <v>1</v>
+      </c>
+      <c r="C34" s="52">
         <v>4000</v>
       </c>
-      <c r="D33" s="53">
+      <c r="D34" s="52">
         <v>18</v>
       </c>
-      <c r="E33" s="57" t="s">
-        <v>125</v>
-      </c>
-      <c r="F33" s="51" t="s">
+      <c r="E34" s="56" t="s">
+        <v>122</v>
+      </c>
+      <c r="F34" s="50" t="s">
         <v>130</v>
       </c>
-      <c r="G33" s="61" t="s">
-        <v>127</v>
-      </c>
-      <c r="H33" s="56" t="s">
+      <c r="G34" s="60" t="s">
+        <v>124</v>
+      </c>
+      <c r="H34" s="55" t="s">
         <v>131</v>
       </c>
-      <c r="I33" s="5"/>
-      <c r="J33" s="20"/>
-      <c r="K33" s="12"/>
-    </row>
-    <row r="34" spans="1:12" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="51" t="s">
+      <c r="I34" s="4"/>
+      <c r="J34" s="10"/>
+      <c r="K34" s="11"/>
+    </row>
+    <row r="35" spans="1:12" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="50" t="s">
         <v>132</v>
       </c>
-      <c r="B34" s="52">
-        <v>1</v>
-      </c>
-      <c r="C34" s="53">
+      <c r="B35" s="51">
+        <v>1</v>
+      </c>
+      <c r="C35" s="52">
         <v>4000</v>
       </c>
-      <c r="D34" s="53">
+      <c r="D35" s="52">
         <v>18</v>
       </c>
-      <c r="E34" s="57" t="s">
-        <v>125</v>
-      </c>
-      <c r="F34" s="51" t="s">
+      <c r="E35" s="56" t="s">
+        <v>122</v>
+      </c>
+      <c r="F35" s="50" t="s">
         <v>133</v>
       </c>
-      <c r="G34" s="61" t="s">
-        <v>127</v>
-      </c>
-      <c r="H34" s="56" t="s">
+      <c r="G35" s="60" t="s">
+        <v>124</v>
+      </c>
+      <c r="H35" s="61" t="s">
+        <v>131</v>
+      </c>
+      <c r="I35" s="4"/>
+      <c r="J35" s="11"/>
+      <c r="K35" s="11"/>
+      <c r="L35" s="19"/>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A36" s="62" t="s">
         <v>134</v>
       </c>
-      <c r="I34" s="5"/>
-      <c r="J34" s="11"/>
-      <c r="K34" s="12"/>
-    </row>
-    <row r="35" spans="1:12" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="51" t="s">
+      <c r="B36" s="2">
+        <v>100</v>
+      </c>
+      <c r="C36" s="3">
+        <v>9000</v>
+      </c>
+      <c r="D36" s="3">
+        <v>350</v>
+      </c>
+      <c r="E36" s="63" t="s">
         <v>135</v>
       </c>
-      <c r="B35" s="52">
-        <v>1</v>
-      </c>
-      <c r="C35" s="53">
-        <v>4000</v>
-      </c>
-      <c r="D35" s="53">
-        <v>18</v>
-      </c>
-      <c r="E35" s="57" t="s">
-        <v>125</v>
-      </c>
-      <c r="F35" s="51" t="s">
+      <c r="F36" s="62" t="s">
         <v>136</v>
       </c>
-      <c r="G35" s="61" t="s">
-        <v>127</v>
-      </c>
-      <c r="H35" s="62" t="s">
-        <v>134</v>
-      </c>
-      <c r="I35" s="5"/>
-      <c r="J35" s="12"/>
-      <c r="K35" s="12"/>
-      <c r="L35" s="20"/>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A36" s="63" t="s">
+      <c r="G36" s="64" t="s">
         <v>137</v>
       </c>
-      <c r="B36" s="3">
-        <v>100</v>
-      </c>
-      <c r="C36" s="4">
-        <v>9000</v>
-      </c>
-      <c r="D36" s="4">
-        <v>350</v>
-      </c>
-      <c r="E36" s="64" t="s">
+      <c r="H36" s="65" t="s">
         <v>138</v>
-      </c>
-      <c r="F36" s="63" t="s">
-        <v>139</v>
-      </c>
-      <c r="G36" s="65" t="s">
-        <v>140</v>
-      </c>
-      <c r="H36" s="66" t="s">
-        <v>141</v>
       </c>
     </row>
   </sheetData>
@@ -2204,7 +2211,7 @@
     <hyperlink ref="H24" r:id="rId21"/>
     <hyperlink ref="H25" r:id="rId22"/>
     <hyperlink ref="H26" r:id="rId23"/>
-    <hyperlink ref="H27" r:id="rId24"/>
+    <hyperlink ref="H27" r:id="rId24" display="..\..\Pictures\A TRABAJOS WEB\VELAS\COLORES Y AROMAS\Colores y aromas Rosas.jpg"/>
     <hyperlink ref="H28" r:id="rId25"/>
     <hyperlink ref="H29" r:id="rId26"/>
     <hyperlink ref="H30" r:id="rId27"/>

--- a/data/web-repositorio.xlsx
+++ b/data/web-repositorio.xlsx
@@ -443,13 +443,13 @@
     <t>..\Pictures\A TRABAJOS WEB\VARIOS\alfajores.jpg</t>
   </si>
   <si>
-    <t>vela colores y aromas manzana</t>
-  </si>
-  <si>
     <t>..\..\Pictures\A TRABAJOS WEB\VELAS\COLORES Y AROMAS\coloresyaromasmanzana.jpg</t>
   </si>
   <si>
     <t>Velas Colores y Aromas -Manzana-</t>
+  </si>
+  <si>
+    <t>coloresyaromasmanzana</t>
   </si>
 </sst>
 </file>
@@ -1120,8 +1120,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="H27" sqref="H27"/>
+    <sheetView tabSelected="1" topLeftCell="C22" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1896,7 +1896,7 @@
     </row>
     <row r="27" spans="1:14" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="43" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B27" s="44">
         <v>100</v>
@@ -1911,13 +1911,13 @@
         <v>99</v>
       </c>
       <c r="F27" s="43" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="G27" s="49" t="s">
         <v>103</v>
       </c>
       <c r="H27" s="66" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="I27" s="11"/>
       <c r="J27" s="11"/>

--- a/data/web-repositorio.xlsx
+++ b/data/web-repositorio.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="171">
   <si>
     <t>CARMELITAS BARILOCHE WEB</t>
   </si>
@@ -450,6 +450,93 @@
   </si>
   <si>
     <t>coloresyaromasmanzana</t>
+  </si>
+  <si>
+    <t>bolsitalavanda1</t>
+  </si>
+  <si>
+    <t>..\Pictures\A TRABAJOS WEB\VARIOS\bolsitalavanda1.jpg</t>
+  </si>
+  <si>
+    <t>bolsitalavanda2</t>
+  </si>
+  <si>
+    <t>Bolsitas de lavanda-1-</t>
+  </si>
+  <si>
+    <t>Bolsitas de lavanda-2-</t>
+  </si>
+  <si>
+    <t>CERÁMICA&gt;AGNUS DEI</t>
+  </si>
+  <si>
+    <t>LAVANDA del Carmelo (20 gr.) Muy perfumada, en bolsita bordada a mano en punto cruz.</t>
+  </si>
+  <si>
+    <t>Cuadritos con diseños en punto cruz, bordados a mano. 12,5 x12 cm</t>
+  </si>
+  <si>
+    <t>Cuadritos Bordados</t>
+  </si>
+  <si>
+    <t>Velas Esfera de Rosas</t>
+  </si>
+  <si>
+    <t>Vela en relieve de rosas, aroma manzanas. 7,5x 8 cm</t>
+  </si>
+  <si>
+    <t>VELAS&gt;esferas</t>
+  </si>
+  <si>
+    <t>..\Pictures\A TRABAJOS WEB\VELAS\COLORES Y AROMAS\esfera1.jpg</t>
+  </si>
+  <si>
+    <t>esfera1</t>
+  </si>
+  <si>
+    <t>..\Pictures\A TRABAJOS WEB\VARIOS\cuadritopuntocruz-1-.jpg</t>
+  </si>
+  <si>
+    <t>cuadritopuntocruz-1-</t>
+  </si>
+  <si>
+    <t>VARIOS&gt;CUADRITOS BORDADOS</t>
+  </si>
+  <si>
+    <t>..\Pictures\A TRABAJOS WEB\VARIOS\cuadritopuntocruz-2-.jpg</t>
+  </si>
+  <si>
+    <t>cuadritopuntocruz-2-</t>
+  </si>
+  <si>
+    <t>cuadritopuntocruz-3-</t>
+  </si>
+  <si>
+    <t>..\Pictures\A TRABAJOS WEB\VARIOS\cuadritopuntocruz-4-.jpg</t>
+  </si>
+  <si>
+    <t>..\Pictures\A TRABAJOS WEB\VARIOS\cuadritopuntocruz-3-.jpg</t>
+  </si>
+  <si>
+    <t>cuadritopuntocruz-4-</t>
+  </si>
+  <si>
+    <t>..\Pictures\A TRABAJOS WEB\Cerámica\CRUCES\agnusdei.jpg</t>
+  </si>
+  <si>
+    <t>agnusdei</t>
+  </si>
+  <si>
+    <t>Cruz con Cordero de Dios, diseño exclusivo -11 x 10 cm</t>
+  </si>
+  <si>
+    <t>Cerámica Agnus Dei</t>
+  </si>
+  <si>
+    <t>agnusdei-1-</t>
+  </si>
+  <si>
+    <t>..\Pictures\A TRABAJOS WEB\Cerámica\CRUCES\agnusdei1.jpg</t>
   </si>
 </sst>
 </file>
@@ -505,7 +592,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -563,6 +650,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor rgb="FFE2F0D9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -707,7 +812,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="87">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
@@ -841,16 +946,43 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="2" xfId="2" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="12" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="1" fontId="0" fillId="12" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="10" xfId="2" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyProtection="1"/>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="2" xfId="2" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="1" fontId="0" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" xfId="2" applyFill="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="8" xfId="2" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="13" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="2" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1118,10 +1250,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N36"/>
+  <dimension ref="A1:N47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C22" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="H40" sqref="H40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1137,14 +1269,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="67" t="s">
+      <c r="A1" s="86" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="67"/>
-      <c r="C1" s="67"/>
-      <c r="D1" s="67"/>
-      <c r="E1" s="67"/>
-      <c r="F1" s="67"/>
+      <c r="B1" s="86"/>
+      <c r="C1" s="86"/>
+      <c r="D1" s="86"/>
+      <c r="E1" s="86"/>
+      <c r="F1" s="86"/>
       <c r="G1" s="4"/>
       <c r="H1" s="5"/>
       <c r="L1" s="4"/>
@@ -1890,7 +2022,7 @@
       <c r="H26" s="47" t="s">
         <v>102</v>
       </c>
-      <c r="I26" s="11"/>
+      <c r="I26" s="62"/>
       <c r="J26" s="11"/>
       <c r="K26" s="11"/>
     </row>
@@ -1916,7 +2048,7 @@
       <c r="G27" s="49" t="s">
         <v>103</v>
       </c>
-      <c r="H27" s="66" t="s">
+      <c r="H27" s="61" t="s">
         <v>139</v>
       </c>
       <c r="I27" s="11"/>
@@ -2149,39 +2281,295 @@
       <c r="G35" s="60" t="s">
         <v>124</v>
       </c>
-      <c r="H35" s="61" t="s">
+      <c r="H35" s="76" t="s">
         <v>131</v>
       </c>
-      <c r="I35" s="4"/>
+      <c r="I35" s="62"/>
       <c r="J35" s="11"/>
       <c r="K35" s="11"/>
       <c r="L35" s="19"/>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A36" s="62" t="s">
+    <row r="36" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="66" t="s">
         <v>134</v>
       </c>
-      <c r="B36" s="2">
+      <c r="B36" s="67">
         <v>100</v>
       </c>
-      <c r="C36" s="3">
+      <c r="C36" s="68">
         <v>9000</v>
       </c>
-      <c r="D36" s="3">
+      <c r="D36" s="69">
         <v>350</v>
       </c>
-      <c r="E36" s="63" t="s">
+      <c r="E36" s="70" t="s">
         <v>135</v>
       </c>
-      <c r="F36" s="62" t="s">
+      <c r="F36" s="66" t="s">
         <v>136</v>
       </c>
-      <c r="G36" s="64" t="s">
+      <c r="G36" s="71" t="s">
         <v>137</v>
       </c>
-      <c r="H36" s="65" t="s">
+      <c r="H36" s="72" t="s">
         <v>138</v>
       </c>
+      <c r="I36" s="78"/>
+    </row>
+    <row r="37" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="73" t="s">
+        <v>145</v>
+      </c>
+      <c r="B37" s="67">
+        <v>100</v>
+      </c>
+      <c r="C37" s="74">
+        <v>5800</v>
+      </c>
+      <c r="D37" s="69">
+        <v>20</v>
+      </c>
+      <c r="E37" s="70" t="s">
+        <v>135</v>
+      </c>
+      <c r="F37" s="66" t="s">
+        <v>142</v>
+      </c>
+      <c r="G37" s="85" t="s">
+        <v>148</v>
+      </c>
+      <c r="H37" s="75" t="s">
+        <v>143</v>
+      </c>
+      <c r="I37" s="79"/>
+    </row>
+    <row r="38" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="66" t="s">
+        <v>146</v>
+      </c>
+      <c r="B38" s="67">
+        <v>100</v>
+      </c>
+      <c r="C38" s="69">
+        <v>5800</v>
+      </c>
+      <c r="D38" s="69">
+        <v>20</v>
+      </c>
+      <c r="E38" s="70" t="s">
+        <v>135</v>
+      </c>
+      <c r="F38" s="66" t="s">
+        <v>144</v>
+      </c>
+      <c r="G38" s="85" t="s">
+        <v>148</v>
+      </c>
+      <c r="H38" s="77" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="80" t="s">
+        <v>168</v>
+      </c>
+      <c r="B39" s="81">
+        <v>1</v>
+      </c>
+      <c r="C39" s="82">
+        <v>10000</v>
+      </c>
+      <c r="D39" s="82">
+        <v>125</v>
+      </c>
+      <c r="E39" s="83" t="s">
+        <v>147</v>
+      </c>
+      <c r="F39" s="83" t="s">
+        <v>166</v>
+      </c>
+      <c r="G39" s="83" t="s">
+        <v>167</v>
+      </c>
+      <c r="H39" s="84" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="80" t="s">
+        <v>168</v>
+      </c>
+      <c r="B40" s="81">
+        <v>1</v>
+      </c>
+      <c r="C40" s="82">
+        <v>10000</v>
+      </c>
+      <c r="D40" s="82">
+        <v>125</v>
+      </c>
+      <c r="E40" s="83" t="s">
+        <v>147</v>
+      </c>
+      <c r="F40" s="83" t="s">
+        <v>169</v>
+      </c>
+      <c r="G40" s="83" t="s">
+        <v>167</v>
+      </c>
+      <c r="H40" s="84" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="31" t="s">
+        <v>150</v>
+      </c>
+      <c r="B41" s="63">
+        <v>1</v>
+      </c>
+      <c r="C41" s="64">
+        <v>9000</v>
+      </c>
+      <c r="D41" s="64">
+        <v>40</v>
+      </c>
+      <c r="E41" s="65" t="s">
+        <v>158</v>
+      </c>
+      <c r="F41" s="65" t="s">
+        <v>157</v>
+      </c>
+      <c r="G41" s="65" t="s">
+        <v>149</v>
+      </c>
+      <c r="H41" s="84" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="31" t="s">
+        <v>150</v>
+      </c>
+      <c r="B42" s="63">
+        <v>1</v>
+      </c>
+      <c r="C42" s="64">
+        <v>9000</v>
+      </c>
+      <c r="D42" s="64">
+        <v>40</v>
+      </c>
+      <c r="E42" s="65" t="s">
+        <v>158</v>
+      </c>
+      <c r="F42" s="65" t="s">
+        <v>160</v>
+      </c>
+      <c r="G42" s="65" t="s">
+        <v>149</v>
+      </c>
+      <c r="H42" s="84" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="31" t="s">
+        <v>150</v>
+      </c>
+      <c r="B43" s="63">
+        <v>1</v>
+      </c>
+      <c r="C43" s="64">
+        <v>9000</v>
+      </c>
+      <c r="D43" s="64">
+        <v>40</v>
+      </c>
+      <c r="E43" s="65" t="s">
+        <v>158</v>
+      </c>
+      <c r="F43" s="65" t="s">
+        <v>161</v>
+      </c>
+      <c r="G43" s="65" t="s">
+        <v>149</v>
+      </c>
+      <c r="H43" s="84" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="31" t="s">
+        <v>150</v>
+      </c>
+      <c r="B44" s="63">
+        <v>1</v>
+      </c>
+      <c r="C44" s="64">
+        <v>9000</v>
+      </c>
+      <c r="D44" s="64">
+        <v>40</v>
+      </c>
+      <c r="E44" s="65" t="s">
+        <v>158</v>
+      </c>
+      <c r="F44" s="65" t="s">
+        <v>164</v>
+      </c>
+      <c r="G44" s="65" t="s">
+        <v>149</v>
+      </c>
+      <c r="H44" s="84" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="31" t="s">
+        <v>151</v>
+      </c>
+      <c r="B45" s="63">
+        <v>100</v>
+      </c>
+      <c r="C45" s="64">
+        <v>8000</v>
+      </c>
+      <c r="D45" s="64">
+        <v>250</v>
+      </c>
+      <c r="E45" s="65" t="s">
+        <v>153</v>
+      </c>
+      <c r="F45" s="65" t="s">
+        <v>155</v>
+      </c>
+      <c r="G45" s="65" t="s">
+        <v>152</v>
+      </c>
+      <c r="H45" s="84" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="65"/>
+      <c r="B46" s="63"/>
+      <c r="C46" s="64"/>
+      <c r="D46" s="64"/>
+      <c r="E46" s="65"/>
+      <c r="F46" s="65"/>
+      <c r="G46" s="65"/>
+      <c r="H46" s="65"/>
+    </row>
+    <row r="47" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="65"/>
+      <c r="B47" s="63"/>
+      <c r="C47" s="64"/>
+      <c r="D47" s="64"/>
+      <c r="E47" s="65"/>
+      <c r="F47" s="65"/>
+      <c r="G47" s="65"/>
+      <c r="H47" s="65"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2221,8 +2609,17 @@
     <hyperlink ref="H34" r:id="rId31"/>
     <hyperlink ref="H35" r:id="rId32"/>
     <hyperlink ref="H36" r:id="rId33"/>
+    <hyperlink ref="H37" r:id="rId34"/>
+    <hyperlink ref="H38" r:id="rId35"/>
+    <hyperlink ref="H45" r:id="rId36"/>
+    <hyperlink ref="H41" r:id="rId37"/>
+    <hyperlink ref="H42" r:id="rId38"/>
+    <hyperlink ref="H43" r:id="rId39"/>
+    <hyperlink ref="H44" r:id="rId40"/>
+    <hyperlink ref="H39" r:id="rId41"/>
+    <hyperlink ref="H40" r:id="rId42"/>
   </hyperlinks>
   <pageMargins left="0.196527777777778" right="0.196527777777778" top="0.39374999999999999" bottom="0.196527777777778" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId43"/>
 </worksheet>
 </file>
--- a/data/web-repositorio.xlsx
+++ b/data/web-repositorio.xlsx
@@ -1,16 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Win 10\Downloads\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7635" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja1" sheetId="1" state="visible" r:id="rId3"/>
+    <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="0" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -22,568 +26,551 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="177">
   <si>
-    <t xml:space="preserve">CARMELITAS BARILOCHE WEB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PRODUCTOS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DISPONIBILIDAD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PRECIO UNITARIO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CATEGORÍA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FOTOS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DESCRIPCIÓN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ubicación Archivo (vínculo)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">title</t>
-  </si>
-  <si>
-    <t xml:space="preserve">stock</t>
-  </si>
-  <si>
-    <t xml:space="preserve">precio</t>
-  </si>
-  <si>
-    <t xml:space="preserve">peso</t>
-  </si>
-  <si>
-    <t xml:space="preserve">categorias</t>
-  </si>
-  <si>
-    <t xml:space="preserve">imagen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">descripcion</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ubicacion-fotos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nombre</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cuero señalador</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CUERO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cuero señalador</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Realizados en cuero vacuno. Pirograbados. 15,5x7 cm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">..\..\Pictures\A TRABAJOS WEB\CUERO\SEÑALADORES\Señaladores 1\Señaladores de Cuero -1.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cuero Evangelio con estuche pirograbado</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cuero evangelio con estuche pirograbado</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Los cuatro Evangelios en formato bolsillo en su estuche de cuero vacuno pirograbado. 9x13,5 cm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">..\..\Pictures\A TRABAJOS WEB\CUERO\ESTUCHES\Cuero Evangelio con estuche pirograbado A.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Detentes - Protección del Sagrado Corazón de Jesús</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VARIOS&gt;ESCAPULARIOS Y DETENTES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Detentes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pequeña imagen del Sagrado Corazón de Jesús sobre paño rojo, con la inscripción "¡Detente! El Sagrado Corazón de Jesús está conmigo" \n- 5x4 cm -</t>
-  </si>
-  <si>
-    <t xml:space="preserve">..\..\Pictures\A TRABAJOS WEB\VARIOS\ESCAPULARIOS Y DETENTES\Detentes.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Escapulario chico</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Confeccionados con tela e hilo macramé . Con la imagen de la Virgen del Carmen- 3,5x2,5 cm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">..\..\Pictures\A TRABAJOS WEB\VARIOS\ESCAPULARIOS Y DETENTES\Escapulario chico.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Escapulario Grande</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Escapulario grande</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Confeccionados con tela y cola de rata- Imagen de la Virgen del Carmen y Sagrado Corazón  5,5x4 cm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">..\..\Pictures\A TRABAJOS WEB\VARIOS\ESCAPULARIOS Y DETENTES\Escapulario grande.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Estampas de Flores Nada te turbe -1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VARIOS&gt;ESTAMPAS DE FLORES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Estampas Flores Nada te turbe-1-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Señaladores en papel reciclado. Diseño artísitico con flores de Bariloche. 15x7,5 cm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">..\..\Pictures\A TRABAJOS WEB\VARIOS\ESTAMPAS FLORES\Estampas Flores Nada te turbe -1.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Estampas de Flores Nada te turbe -2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Estampas Flores Nada te turbe-2-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">..\..\Pictures\A TRABAJOS WEB\VARIOS\ESTAMPAS FLORES\Estampas Flores Nada te turbe -2.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Estampas de Flores Nada te turbe -3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Estampas Flores Nada te turbe-3-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">..\..\Pictures\A TRABAJOS WEB\VARIOS\ESTAMPAS FLORES\Estampas Flores Nada te turbe -3.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Estampas de Flores Nada te turbe -4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Estampas Flores Nada te turbe-4-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">..\..\Pictures\A TRABAJOS WEB\VARIOS\ESTAMPAS FLORES\Estampas Flores Nada te turbe -4.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Estampas de Flores Nada te turbe -5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Estampas Flores Nada te turbe-5-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">..\..\Pictures\A TRABAJOS WEB\VARIOS\ESTAMPAS FLORES\Estampas Flores Nada te turbe -5.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Madera Cuadros puntillismo Sagrada Familia -1-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MADERA&gt;CUADROS PUNTILLISMO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">madera cuadro puntillismo sgda-familia-1-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pintado a mano con técnica puntillismo. 22,5 x 19,5 cm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">..\..\Pictures\A TRABAJOS WEB\Madera\CUADROS PUNTILLISMO\Madera Cuadro Puntillismo Sgda. Familia -1.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Madera Cuadros puntillismo Sagrada Familia -2-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">madera cuadro puntillismo sgda-familia-2-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">..\..\Pictures\A TRABAJOS WEB\Madera\CUADROS PUNTILLISMO\Madera Cuadro Puntillismo Sgda. Familia -2.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Madera Cuadros puntillismo Virgencita de Luján -1-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">madera cuadro puntillismo virgencita de luján-1-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pintado a mano con técnica puntillismo, 25 x 18 cm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">..\..\Pictures\A TRABAJOS WEB\Madera\CUADROS PUNTILLISMO\Madera Cuadro Puntillismo Virgencita de Luján -1.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Madera Cuadros puntillismo Virgencita de Luján -2-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">madera cuadro puntillismo virgencita de luján-2-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">..\..\Pictures\A TRABAJOS WEB\Madera\CUADROS PUNTILLISMO\Madera Cuadro Puntillismo Virgencita de Luján -2.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Madera Corazones pintados-1-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MADERA&gt;CUNEROS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cunero colgante: Corazón pintado a mano,  con motivo infantil. 11,5 x 10,5 cm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">..\..\Pictures\A TRABAJOS WEB\Madera\CUNEROS\CORAZONES Y CRUCES\Madera Corazones pintados -1.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Madera Corazones pintados-2-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">..\..\Pictures\A TRABAJOS WEB\Madera\CUNEROS\CORAZONES Y CRUCES\Madera Corazones pintados -2.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Madera Corazones pintados-3-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">..\..\Pictures\A TRABAJOS WEB\Madera\CUNEROS\CORAZONES Y CRUCES\Madera Corazones pintados -3.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Madera Redondeles cuneritos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cunero colgante redondo.  8 cm de diámetro.  Pintado a mano - Motivo infantil -</t>
-  </si>
-  <si>
-    <t xml:space="preserve">..\..\Pictures\A TRABAJOS WEB\Madera\CUNEROS\REDONDELES\Madera Redondeles cuneritos.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Madera Cuadros Pasta piedra Virgen María -GRANDE-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MADERA&gt;CUADROS PASTA PIEDRA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Madera Cuadro Virgen María Pasta Piedra-1-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Virgen María en un diseño infantil. Pintada y modelada a mano en Pasta Piedra. 40x30 cm - 1 cm grosor de la madera</t>
-  </si>
-  <si>
-    <t xml:space="preserve">..\..\Pictures\A TRABAJOS WEB\Madera\CUADROS PASTA PIEDRA\Madera Cuadro Virgen María Pasta Piedra -1.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Madera Cuadros Pasta piedra Virgen María -MEDIO-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Madera Cuadro Virgen María Pasta Piedra-2-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Virgen María en un diseño infantil. Pintada y modelada a mano en Pasta Piedra. &lt;p&gt;32x26 cm 1 cm grosor de la madera&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">..\..\Pictures\A TRABAJOS WEB\Madera\CUADROS PASTA PIEDRA\Madera Cuadro Virgen María Pasta Piedra -2.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rosarios 24 glorias Sta. Teresita</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VARIOS&gt;ROSARIOS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rosarios-24-glorias-sta-teresita</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rosario  de 24 cuentas, en honor de los 24 años de vida de Sta. Teresita del Niño Jesús.  Con estampa explicativa (14,5x10 cm)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">..\..\Pictures\A TRABAJOS WEB\VARIOS\ROSARIOS\24 Glorias\Rosarios 24 glorias Sta. Teresita.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rosarios Cola de rata</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rosario cola de rata</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rosario de bolsillo, con cuentas de madera pequeñas y cruz acorde.  Sencillo y práctico para nuestra oración cotidiana a la Virgen María.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">..\..\Pictures\A TRABAJOS WEB\VARIOS\ROSARIOS\Rosarios Cola de rata\Rosario cola de rata.jpg</t>
+    <t>CARMELITAS BARILOCHE WEB</t>
+  </si>
+  <si>
+    <t>PRODUCTOS</t>
+  </si>
+  <si>
+    <t>DISPONIBILIDAD</t>
+  </si>
+  <si>
+    <t>PRECIO UNITARIO</t>
+  </si>
+  <si>
+    <t>CATEGORÍA</t>
+  </si>
+  <si>
+    <t>FOTOS</t>
+  </si>
+  <si>
+    <t>DESCRIPCIÓN</t>
+  </si>
+  <si>
+    <t>Ubicación Archivo (vínculo)</t>
+  </si>
+  <si>
+    <t>title</t>
+  </si>
+  <si>
+    <t>stock</t>
+  </si>
+  <si>
+    <t>precio</t>
+  </si>
+  <si>
+    <t>peso</t>
+  </si>
+  <si>
+    <t>categorias</t>
+  </si>
+  <si>
+    <t>imagen</t>
+  </si>
+  <si>
+    <t>descripcion</t>
+  </si>
+  <si>
+    <t>ubicacion-fotos</t>
+  </si>
+  <si>
+    <t>Nombre</t>
+  </si>
+  <si>
+    <t>Cuero señalador</t>
+  </si>
+  <si>
+    <t>CUERO</t>
+  </si>
+  <si>
+    <t>cuero señalador</t>
+  </si>
+  <si>
+    <t>Realizados en cuero vacuno. Pirograbados. 15,5x7 cm</t>
+  </si>
+  <si>
+    <t>..\..\Pictures\A TRABAJOS WEB\CUERO\SEÑALADORES\Señaladores 1\Señaladores de Cuero -1.jpg</t>
+  </si>
+  <si>
+    <t>Cuero Evangelio con estuche pirograbado</t>
+  </si>
+  <si>
+    <t>cuero evangelio con estuche pirograbado</t>
+  </si>
+  <si>
+    <t>Los cuatro Evangelios en formato bolsillo en su estuche de cuero vacuno pirograbado. 9x13,5 cm</t>
+  </si>
+  <si>
+    <t>..\..\Pictures\A TRABAJOS WEB\CUERO\ESTUCHES\Cuero Evangelio con estuche pirograbado A.jpg</t>
+  </si>
+  <si>
+    <t>Detentes - Protección del Sagrado Corazón de Jesús</t>
+  </si>
+  <si>
+    <t>VARIOS&gt;ESCAPULARIOS Y DETENTES</t>
+  </si>
+  <si>
+    <t>Detentes</t>
+  </si>
+  <si>
+    <t>Pequeña imagen del Sagrado Corazón de Jesús sobre paño rojo, con la inscripción "¡Detente! El Sagrado Corazón de Jesús está conmigo" \n- 5x4 cm -</t>
+  </si>
+  <si>
+    <t>..\..\Pictures\A TRABAJOS WEB\VARIOS\ESCAPULARIOS Y DETENTES\Detentes.jpg</t>
+  </si>
+  <si>
+    <t>Escapulario chico</t>
+  </si>
+  <si>
+    <t>Confeccionados con tela e hilo macramé . Con la imagen de la Virgen del Carmen- 3,5x2,5 cm</t>
+  </si>
+  <si>
+    <t>..\..\Pictures\A TRABAJOS WEB\VARIOS\ESCAPULARIOS Y DETENTES\Escapulario chico.jpg</t>
+  </si>
+  <si>
+    <t>Escapulario Grande</t>
+  </si>
+  <si>
+    <t>Escapulario grande</t>
+  </si>
+  <si>
+    <t>Confeccionados con tela y cola de rata- Imagen de la Virgen del Carmen y Sagrado Corazón  5,5x4 cm</t>
+  </si>
+  <si>
+    <t>..\..\Pictures\A TRABAJOS WEB\VARIOS\ESCAPULARIOS Y DETENTES\Escapulario grande.jpg</t>
+  </si>
+  <si>
+    <t>Estampas de Flores Nada te turbe -1</t>
+  </si>
+  <si>
+    <t>VARIOS&gt;ESTAMPAS DE FLORES</t>
+  </si>
+  <si>
+    <t>Estampas Flores Nada te turbe-1-</t>
+  </si>
+  <si>
+    <t>Señaladores en papel reciclado. Diseño artísitico con flores de Bariloche. 15x7,5 cm</t>
+  </si>
+  <si>
+    <t>..\..\Pictures\A TRABAJOS WEB\VARIOS\ESTAMPAS FLORES\Estampas Flores Nada te turbe -1.jpg</t>
+  </si>
+  <si>
+    <t>Estampas de Flores Nada te turbe -2</t>
+  </si>
+  <si>
+    <t>Estampas Flores Nada te turbe-2-</t>
+  </si>
+  <si>
+    <t>..\..\Pictures\A TRABAJOS WEB\VARIOS\ESTAMPAS FLORES\Estampas Flores Nada te turbe -2.jpg</t>
+  </si>
+  <si>
+    <t>Estampas de Flores Nada te turbe -3</t>
+  </si>
+  <si>
+    <t>Estampas Flores Nada te turbe-3-</t>
+  </si>
+  <si>
+    <t>..\..\Pictures\A TRABAJOS WEB\VARIOS\ESTAMPAS FLORES\Estampas Flores Nada te turbe -3.jpg</t>
+  </si>
+  <si>
+    <t>Estampas de Flores Nada te turbe -4</t>
+  </si>
+  <si>
+    <t>Estampas Flores Nada te turbe-4-</t>
+  </si>
+  <si>
+    <t>..\..\Pictures\A TRABAJOS WEB\VARIOS\ESTAMPAS FLORES\Estampas Flores Nada te turbe -4.jpg</t>
+  </si>
+  <si>
+    <t>Estampas de Flores Nada te turbe -5</t>
+  </si>
+  <si>
+    <t>Estampas Flores Nada te turbe-5-</t>
+  </si>
+  <si>
+    <t>..\..\Pictures\A TRABAJOS WEB\VARIOS\ESTAMPAS FLORES\Estampas Flores Nada te turbe -5.jpg</t>
+  </si>
+  <si>
+    <t>Madera Cuadros puntillismo Sagrada Familia -1-</t>
+  </si>
+  <si>
+    <t>MADERA&gt;CUADROS PUNTILLISMO</t>
+  </si>
+  <si>
+    <t>madera cuadro puntillismo sgda-familia-1-</t>
+  </si>
+  <si>
+    <t>Pintado a mano con técnica puntillismo. 22,5 x 19,5 cm</t>
+  </si>
+  <si>
+    <t>..\..\Pictures\A TRABAJOS WEB\Madera\CUADROS PUNTILLISMO\Madera Cuadro Puntillismo Sgda. Familia -1.jpg</t>
+  </si>
+  <si>
+    <t>Madera Cuadros puntillismo Sagrada Familia -2-</t>
+  </si>
+  <si>
+    <t>madera cuadro puntillismo sgda-familia-2-</t>
+  </si>
+  <si>
+    <t>..\..\Pictures\A TRABAJOS WEB\Madera\CUADROS PUNTILLISMO\Madera Cuadro Puntillismo Sgda. Familia -2.jpg</t>
+  </si>
+  <si>
+    <t>Madera Cuadros puntillismo Virgencita de Luján -1-</t>
+  </si>
+  <si>
+    <t>madera cuadro puntillismo virgencita de luján-1-</t>
+  </si>
+  <si>
+    <t>Pintado a mano con técnica puntillismo, 25 x 18 cm</t>
+  </si>
+  <si>
+    <t>..\..\Pictures\A TRABAJOS WEB\Madera\CUADROS PUNTILLISMO\Madera Cuadro Puntillismo Virgencita de Luján -1.jpg</t>
+  </si>
+  <si>
+    <t>Madera Cuadros puntillismo Virgencita de Luján -2-</t>
+  </si>
+  <si>
+    <t>madera cuadro puntillismo virgencita de luján-2-</t>
+  </si>
+  <si>
+    <t>..\..\Pictures\A TRABAJOS WEB\Madera\CUADROS PUNTILLISMO\Madera Cuadro Puntillismo Virgencita de Luján -2.jpg</t>
+  </si>
+  <si>
+    <t>Madera Corazones pintados-1-</t>
+  </si>
+  <si>
+    <t>MADERA&gt;CUNEROS</t>
+  </si>
+  <si>
+    <t>Cunero colgante: Corazón pintado a mano,  con motivo infantil. 11,5 x 10,5 cm</t>
+  </si>
+  <si>
+    <t>..\..\Pictures\A TRABAJOS WEB\Madera\CUNEROS\CORAZONES Y CRUCES\Madera Corazones pintados -1.jpg</t>
+  </si>
+  <si>
+    <t>Madera Corazones pintados-2-</t>
+  </si>
+  <si>
+    <t>..\..\Pictures\A TRABAJOS WEB\Madera\CUNEROS\CORAZONES Y CRUCES\Madera Corazones pintados -2.jpg</t>
+  </si>
+  <si>
+    <t>Madera Corazones pintados-3-</t>
+  </si>
+  <si>
+    <t>..\..\Pictures\A TRABAJOS WEB\Madera\CUNEROS\CORAZONES Y CRUCES\Madera Corazones pintados -3.jpg</t>
+  </si>
+  <si>
+    <t>Madera Redondeles cuneritos</t>
+  </si>
+  <si>
+    <t>Cunero colgante redondo.  8 cm de diámetro.  Pintado a mano - Motivo infantil -</t>
+  </si>
+  <si>
+    <t>..\..\Pictures\A TRABAJOS WEB\Madera\CUNEROS\REDONDELES\Madera Redondeles cuneritos.jpg</t>
+  </si>
+  <si>
+    <t>Madera Cuadros Pasta piedra Virgen María -GRANDE-</t>
+  </si>
+  <si>
+    <t>MADERA&gt;CUADROS PASTA PIEDRA</t>
+  </si>
+  <si>
+    <t>Madera Cuadro Virgen María Pasta Piedra-1-</t>
+  </si>
+  <si>
+    <t>Virgen María en un diseño infantil. Pintada y modelada a mano en Pasta Piedra. 40x30 cm - 1 cm grosor de la madera</t>
+  </si>
+  <si>
+    <t>..\..\Pictures\A TRABAJOS WEB\Madera\CUADROS PASTA PIEDRA\Madera Cuadro Virgen María Pasta Piedra -1.jpg</t>
+  </si>
+  <si>
+    <t>Madera Cuadros Pasta piedra Virgen María -MEDIO-</t>
+  </si>
+  <si>
+    <t>Madera Cuadro Virgen María Pasta Piedra-2-</t>
+  </si>
+  <si>
+    <t>Virgen María en un diseño infantil. Pintada y modelada a mano en Pasta Piedra. &lt;p&gt;32x26 cm 1 cm grosor de la madera&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>..\..\Pictures\A TRABAJOS WEB\Madera\CUADROS PASTA PIEDRA\Madera Cuadro Virgen María Pasta Piedra -2.jpg</t>
+  </si>
+  <si>
+    <t>Rosarios 24 glorias Sta. Teresita</t>
+  </si>
+  <si>
+    <t>VARIOS&gt;ROSARIOS</t>
+  </si>
+  <si>
+    <t>rosarios-24-glorias-sta-teresita</t>
+  </si>
+  <si>
+    <t>Rosario  de 24 cuentas, en honor de los 24 años de vida de Sta. Teresita del Niño Jesús.  Con estampa explicativa (14,5x10 cm)</t>
+  </si>
+  <si>
+    <t>..\..\Pictures\A TRABAJOS WEB\VARIOS\ROSARIOS\24 Glorias\Rosarios 24 glorias Sta. Teresita.jpg</t>
+  </si>
+  <si>
+    <t>Rosarios Cola de rata</t>
+  </si>
+  <si>
+    <t>Rosario cola de rata</t>
+  </si>
+  <si>
+    <t>Rosario de bolsillo, con cuentas de madera pequeñas y cruz acorde.  Sencillo y práctico para nuestra oración cotidiana a la Virgen María.</t>
+  </si>
+  <si>
+    <t>..\..\Pictures\A TRABAJOS WEB\VARIOS\ROSARIOS\Rosarios Cola de rata\Rosario cola de rata.jpg</t>
   </si>
   <si>
     <t xml:space="preserve">Velas Litúrgicas de Cera de abeja  (CHICAS) </t>
   </si>
   <si>
-    <t xml:space="preserve">VELAS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vela cera de abeja chica</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Elaboradas con CERA DE ABEJAS. Aptas para uso en la Santa Misa u otros actos litúrgicos y devocionales. 5,5X 10,5 cm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">..\..\Pictures\A TRABAJOS WEB\VELAS\CERA DE ABEJAS\Vela Cera de abeja chica.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Velas Colores y Aromas -Manzana-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">coloresyaromasmanzana</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Elaboradas con parafina, colores y esencias perfumadas. 4,2x12 cm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">..\..\Pictures\A TRABAJOS WEB\VELAS\COLORES Y AROMAS\coloresyaromasmanzana.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cerámica Rosario engarzados (perfume de Rosas con cajita)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CERÁMICA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cerámica Rosario</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rosario engarzado con cuentas de cerámica realizadas de manera artesanal.  Perfume de rosas. Incluye cajita portarosario.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">..\..\Pictures\A TRABAJOS WEB\Cerámica\Rosario Cerámica.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cerámica cruces souvenir</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cruz Souvenir</t>
+    <t>VELAS</t>
+  </si>
+  <si>
+    <t>Vela cera de abeja chica</t>
+  </si>
+  <si>
+    <t>Elaboradas con CERA DE ABEJAS. Aptas para uso en la Santa Misa u otros actos litúrgicos y devocionales. 5,5X 10,5 cm</t>
+  </si>
+  <si>
+    <t>..\..\Pictures\A TRABAJOS WEB\VELAS\CERA DE ABEJAS\Vela Cera de abeja chica.jpg</t>
+  </si>
+  <si>
+    <t>Velas Colores y Aromas -Manzana-</t>
+  </si>
+  <si>
+    <t>coloresyaromasmanzana</t>
+  </si>
+  <si>
+    <t>Elaboradas con parafina, colores y esencias perfumadas. 4,2x12 cm</t>
+  </si>
+  <si>
+    <t>..\..\Pictures\A TRABAJOS WEB\VELAS\COLORES Y AROMAS\coloresyaromasmanzana.jpg</t>
+  </si>
+  <si>
+    <t>Cerámica Rosario engarzados (perfume de Rosas con cajita)</t>
+  </si>
+  <si>
+    <t>CERÁMICA</t>
+  </si>
+  <si>
+    <t>Cerámica Rosario</t>
+  </si>
+  <si>
+    <t>Rosario engarzado con cuentas de cerámica realizadas de manera artesanal.  Perfume de rosas. Incluye cajita portarosario.</t>
+  </si>
+  <si>
+    <t>..\..\Pictures\A TRABAJOS WEB\Cerámica\Rosario Cerámica.jpg</t>
+  </si>
+  <si>
+    <t>Cerámica cruces souvenir</t>
+  </si>
+  <si>
+    <t>Cruz Souvenir</t>
   </si>
   <si>
     <t xml:space="preserve">Cruz colgante de cerámica con el Niño Jesús - Diseños exclusivos - Ideal para cuneros o la habitación de los niños. 6,5x5,5 cm </t>
   </si>
   <si>
-    <t xml:space="preserve">..\..\Pictures\A TRABAJOS WEB\Cerámica\CRUCES\Cruz souvenir.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cerámica Pesebre</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cerámica pesebre</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pesebre artesanal - Diseños exclusivos. 14x9,5 cm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">..\..\Pictures\A TRABAJOS WEB\Cerámica\PESEBRES\Pesebre cerámica.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cerámica Virgen embarazada</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Virgen Embarazada</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Imagen de la Virgen María, advocación "Nuestra Señora de la Dulce Espera!"- Diseños exclusivos -19,5 x 6,5 cm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">..\..\Pictures\A TRABAJOS WEB\Cerámica\Virgen Embarazada.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cerámica Niños Jesús-1-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CERÁMICA&gt;NIÑOS JESÚS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cerámica Niño Jesús-1-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Imagen artesanal del Niño Jesús con aureola y cunita - 5x4 cm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">..\..\Pictures\A TRABAJOS WEB\Cerámica\Niños Jesús\Cerámica Niño Jesús -1.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cerámica Niños Jesús-2-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cerámica Niño Jesús-2-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">..\..\Pictures\A TRABAJOS WEB\Cerámica\Niños Jesús\Cerámica Niño Jesús 3.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cerámica Niños Jesús-3-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cerámica Niño Jesús-3-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">..\..\Pictures\A TRABAJOS WEB\Cerámica\Niños Jesús\Cerámica Niño Jesús 4.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cerámica Niños Jesús-4-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cerámica Niño Jesús-4-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alfajores del Carmelo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VARIOS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">alfajores</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alfajores caseros de dulce de leche bañados en chocolate (4 de chocolate negro y 2 de chocolate blanco)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">..\Pictures\A TRABAJOS WEB\VARIOS\alfajores.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bolsitas de lavanda-1-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bolsitalavanda-1-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LAVANDA del Carmelo (20 gr.) Muy perfumada, en bolsita bordada a mano en punto cruz.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">..\Pictures\A TRABAJOS WEB\VARIOS\bolsitalavanda1.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bolsitas de lavanda-2-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bolsitalavanda-2-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cerámica Agnus Dei-1-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CERÁMICA&gt;AGNUS DEI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">agnusdei-1-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cruz con Cordero de Dios, diseño exclusivo -11 x 10 cm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">..\Pictures\A TRABAJOS WEB\Cerámica\CRUCES\agnusdei.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cerámica Agnus Dei-2-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Agnusdei-2-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">..\Pictures\A TRABAJOS WEB\Cerámica\CRUCES\agnusdei1.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cuadritos Bordados-1-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VARIOS&gt;CUADRITOS BORDADOS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cuadritopuntocruz-1-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cuadritos con diseños en punto cruz, bordados a mano. 12,5 x12 cm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">..\Pictures\A TRABAJOS WEB\VARIOS\cuadritopuntocruz-1-.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cuadritos Bordados-2-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cuadritopuntocruz-2-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">..\Pictures\A TRABAJOS WEB\VARIOS\cuadritopuntocruz-2-.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cuadritos Bordados-3-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cuadritopuntocruz-3-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">..\Pictures\A TRABAJOS WEB\VARIOS\cuadritopuntocruz-3-.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cuadritos Bordados-4-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cuadritopuntocruz-4-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">..\Pictures\A TRABAJOS WEB\VARIOS\cuadritopuntocruz-4-.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Velas Esfera de Rosas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VELAS&gt;esferas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">esfera1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vela en relieve de rosas, aroma manzanas. 7,5x 8 cm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">..\Pictures\A TRABAJOS WEB\VELAS\COLORES Y AROMAS\esfera1.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Esfera de Rosas</t>
+    <t>..\..\Pictures\A TRABAJOS WEB\Cerámica\CRUCES\Cruz souvenir.jpg</t>
+  </si>
+  <si>
+    <t>Cerámica Pesebre</t>
+  </si>
+  <si>
+    <t>cerámica pesebre</t>
+  </si>
+  <si>
+    <t>Pesebre artesanal - Diseños exclusivos. 14x9,5 cm</t>
+  </si>
+  <si>
+    <t>..\..\Pictures\A TRABAJOS WEB\Cerámica\PESEBRES\Pesebre cerámica.jpg</t>
+  </si>
+  <si>
+    <t>Cerámica Virgen embarazada</t>
+  </si>
+  <si>
+    <t>Virgen Embarazada</t>
+  </si>
+  <si>
+    <t>Imagen de la Virgen María, advocación "Nuestra Señora de la Dulce Espera!"- Diseños exclusivos -19,5 x 6,5 cm</t>
+  </si>
+  <si>
+    <t>..\..\Pictures\A TRABAJOS WEB\Cerámica\Virgen Embarazada.jpg</t>
+  </si>
+  <si>
+    <t>Cerámica Niños Jesús-1-</t>
+  </si>
+  <si>
+    <t>CERÁMICA&gt;NIÑOS JESÚS</t>
+  </si>
+  <si>
+    <t>Cerámica Niño Jesús-1-</t>
+  </si>
+  <si>
+    <t>Imagen artesanal del Niño Jesús con aureola y cunita - 5x4 cm</t>
+  </si>
+  <si>
+    <t>..\..\Pictures\A TRABAJOS WEB\Cerámica\Niños Jesús\Cerámica Niño Jesús -1.jpg</t>
+  </si>
+  <si>
+    <t>Cerámica Niños Jesús-2-</t>
+  </si>
+  <si>
+    <t>Cerámica Niño Jesús-2-</t>
+  </si>
+  <si>
+    <t>..\..\Pictures\A TRABAJOS WEB\Cerámica\Niños Jesús\Cerámica Niño Jesús 3.jpg</t>
+  </si>
+  <si>
+    <t>Cerámica Niños Jesús-3-</t>
+  </si>
+  <si>
+    <t>Cerámica Niño Jesús-3-</t>
+  </si>
+  <si>
+    <t>..\..\Pictures\A TRABAJOS WEB\Cerámica\Niños Jesús\Cerámica Niño Jesús 4.jpg</t>
+  </si>
+  <si>
+    <t>Cerámica Niños Jesús-4-</t>
+  </si>
+  <si>
+    <t>Cerámica Niño Jesús-4-</t>
+  </si>
+  <si>
+    <t>Alfajores del Carmelo</t>
+  </si>
+  <si>
+    <t>VARIOS</t>
+  </si>
+  <si>
+    <t>alfajores</t>
+  </si>
+  <si>
+    <t>Alfajores caseros de dulce de leche bañados en chocolate (4 de chocolate negro y 2 de chocolate blanco)</t>
+  </si>
+  <si>
+    <t>..\Pictures\A TRABAJOS WEB\VARIOS\alfajores.jpg</t>
+  </si>
+  <si>
+    <t>Bolsitas de lavanda-1-</t>
+  </si>
+  <si>
+    <t>Bolsitalavanda-1-</t>
+  </si>
+  <si>
+    <t>LAVANDA del Carmelo (20 gr.) Muy perfumada, en bolsita bordada a mano en punto cruz.</t>
+  </si>
+  <si>
+    <t>..\Pictures\A TRABAJOS WEB\VARIOS\bolsitalavanda1.jpg</t>
+  </si>
+  <si>
+    <t>Bolsitas de lavanda-2-</t>
+  </si>
+  <si>
+    <t>Bolsitalavanda-2-</t>
+  </si>
+  <si>
+    <t>Cerámica Agnus Dei-1-</t>
+  </si>
+  <si>
+    <t>CERÁMICA&gt;AGNUS DEI</t>
+  </si>
+  <si>
+    <t>agnusdei-1-</t>
+  </si>
+  <si>
+    <t>Cruz con Cordero de Dios, diseño exclusivo -11 x 10 cm</t>
+  </si>
+  <si>
+    <t>..\Pictures\A TRABAJOS WEB\Cerámica\CRUCES\agnusdei.jpg</t>
+  </si>
+  <si>
+    <t>Cerámica Agnus Dei-2-</t>
+  </si>
+  <si>
+    <t>Agnusdei-2-</t>
+  </si>
+  <si>
+    <t>..\Pictures\A TRABAJOS WEB\Cerámica\CRUCES\agnusdei1.jpg</t>
+  </si>
+  <si>
+    <t>Cuadritos Bordados-1-</t>
+  </si>
+  <si>
+    <t>VARIOS&gt;CUADRITOS BORDADOS</t>
+  </si>
+  <si>
+    <t>cuadritopuntocruz-1-</t>
+  </si>
+  <si>
+    <t>Cuadritos con diseños en punto cruz, bordados a mano. 12,5 x12 cm</t>
+  </si>
+  <si>
+    <t>..\Pictures\A TRABAJOS WEB\VARIOS\cuadritopuntocruz-1-.jpg</t>
+  </si>
+  <si>
+    <t>Cuadritos Bordados-2-</t>
+  </si>
+  <si>
+    <t>cuadritopuntocruz-2-</t>
+  </si>
+  <si>
+    <t>..\Pictures\A TRABAJOS WEB\VARIOS\cuadritopuntocruz-2-.jpg</t>
+  </si>
+  <si>
+    <t>Cuadritos Bordados-3-</t>
+  </si>
+  <si>
+    <t>cuadritopuntocruz-3-</t>
+  </si>
+  <si>
+    <t>..\Pictures\A TRABAJOS WEB\VARIOS\cuadritopuntocruz-3-.jpg</t>
+  </si>
+  <si>
+    <t>Cuadritos Bordados-4-</t>
+  </si>
+  <si>
+    <t>cuadritopuntocruz-4-</t>
+  </si>
+  <si>
+    <t>..\Pictures\A TRABAJOS WEB\VARIOS\cuadritopuntocruz-4-.jpg</t>
+  </si>
+  <si>
+    <t>Velas Esfera de Rosas</t>
+  </si>
+  <si>
+    <t>VELAS&gt;esferas</t>
+  </si>
+  <si>
+    <t>esfera1</t>
+  </si>
+  <si>
+    <t>Vela en relieve de rosas, aroma manzanas. 7,5x 8 cm</t>
+  </si>
+  <si>
+    <t>..\Pictures\A TRABAJOS WEB\VELAS\COLORES Y AROMAS\esfera1.jpg</t>
+  </si>
+  <si>
+    <t>Esfera de Rosas</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="3">
-    <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="0"/>
-    <numFmt numFmtId="166" formatCode="_-&quot;$ &quot;* #,##0.00_-;&quot;-$ &quot;* #,##0.00_-;_-&quot;$ &quot;* \-??_-;_-@_-"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="_-&quot;$ &quot;* #,##0.00_-;&quot;-$ &quot;* #,##0.00_-;_-&quot;$ &quot;* \-??_-;_-@_-"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
     </font>
     <font>
       <sz val="12"/>
@@ -593,7 +580,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <u val="single"/>
+      <u/>
       <sz val="11"/>
       <color theme="10"/>
       <name val="Calibri"/>
@@ -601,7 +588,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <i val="true"/>
+      <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
@@ -609,8 +596,15 @@
       <charset val="1"/>
     </font>
     <font>
-      <i val="true"/>
+      <i/>
       <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
@@ -625,520 +619,371 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.5996"/>
+        <fgColor theme="4" tint="0.59959715567491678"/>
         <bgColor rgb="FFDBDBDB"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.3996"/>
+        <fgColor theme="4" tint="0.39957884456923126"/>
         <bgColor rgb="FFBDD7EE"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.5996"/>
+        <fgColor theme="6" tint="0.59959715567491678"/>
         <bgColor rgb="FFE2F0D9"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.7998"/>
+        <fgColor theme="9" tint="0.79979857783745845"/>
         <bgColor rgb="FFFBE5D6"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.5996"/>
+        <fgColor theme="7" tint="0.59959715567491678"/>
         <bgColor rgb="FFFFD966"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.3996"/>
+        <fgColor theme="9" tint="0.39957884456923126"/>
         <bgColor rgb="FF9DC3E6"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.3996"/>
+        <fgColor theme="7" tint="0.39957884456923126"/>
         <bgColor rgb="FFFFE699"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.7998"/>
+        <fgColor theme="5" tint="0.79979857783745845"/>
         <bgColor rgb="FFE2F0D9"/>
       </patternFill>
     </fill>
   </fills>
   <borders count="12">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="thin"/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
-      <top style="thin"/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
       <right/>
-      <top style="thin"/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
       <right/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
       <top/>
-      <bottom style="thin"/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
       <right/>
       <top/>
-      <bottom style="thin"/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="22">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
+  <cellStyleXfs count="4">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="84">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="6" borderId="2" xfId="17" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="6" borderId="2" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="7" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="7" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="7" borderId="2" xfId="17" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="7" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="7" borderId="2" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="7" borderId="2" xfId="17" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="8" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="8" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="8" borderId="2" xfId="17" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="8" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="8" borderId="2" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="8" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="8" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="8" borderId="2" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="3" borderId="2" xfId="17" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="2" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="2" xfId="20" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="9" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="9" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="9" borderId="2" xfId="17" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="9" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="9" borderId="2" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="9" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="4" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="9" borderId="5" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="7" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="7" borderId="4" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="7" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="7" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="7" borderId="10" xfId="20" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="7" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="7" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="7" borderId="8" xfId="20" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="9" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="9" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="9" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="20" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="6" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="7" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="7" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="8" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="9" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="1" fontId="0" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
-  <cellStyles count="8">
+  <cellStyles count="4">
+    <cellStyle name="Excel Built-in Explanatory Text" xfId="3"/>
+    <cellStyle name="Hipervínculo" xfId="2" builtinId="8"/>
+    <cellStyle name="Moneda" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
-    <cellStyle name="*unknown*" xfId="20" builtinId="8"/>
-    <cellStyle name="Excel Built-in Explanatory Text" xfId="21"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -1197,60 +1042,76 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
         <a:srgbClr val="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:srgbClr val="ffffff"/>
+        <a:srgbClr val="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546a"/>
+        <a:srgbClr val="44546A"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="e7e6e6"/>
+        <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5b9bd5"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ed7d31"/>
+        <a:srgbClr val="ED7D31"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="a5a5a5"/>
+        <a:srgbClr val="A5A5A5"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="ffc000"/>
+        <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472c4"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70ad47"/>
+        <a:srgbClr val="70AD47"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563c1"/>
+        <a:srgbClr val="0563C1"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954f72"/>
+        <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204" pitchFamily="0" charset="1"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="0" charset="1"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
       </a:minorFont>
@@ -1282,7 +1143,7 @@
             </a:gs>
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
-          <a:tileRect l="0" t="0" r="0" b="0"/>
+          <a:tileRect/>
         </a:gradFill>
         <a:gradFill>
           <a:gsLst>
@@ -1306,7 +1167,7 @@
             </a:gs>
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
-          <a:tileRect l="0" t="0" r="0" b="0"/>
+          <a:tileRect/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
@@ -1366,51 +1227,50 @@
             </a:gs>
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
-          <a:tileRect l="0" t="0" r="0" b="0"/>
+          <a:tileRect/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N47"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I4" activeCellId="0" sqref="I4"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.57421875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="43.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="12.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="3" width="17.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="3" width="11.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="34.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="39.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="33.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="78.57"/>
+    <col min="1" max="1" width="43.85546875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="12.5703125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="17.42578125" style="4" customWidth="1"/>
+    <col min="4" max="4" width="11.28515625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="34.5703125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="39.42578125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="33.140625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="78.5703125" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
       <c r="G1" s="5"/>
       <c r="H1" s="6"/>
       <c r="L1" s="5"/>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>1</v>
       </c>
@@ -1438,7 +1298,7 @@
       <c r="K2" s="12"/>
       <c r="L2" s="5"/>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>8</v>
       </c>
@@ -1470,17 +1330,17 @@
       <c r="K3" s="12"/>
       <c r="L3" s="5"/>
     </row>
-    <row r="4" customFormat="false" ht="34.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:13" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="15" t="n">
-        <v>1</v>
-      </c>
-      <c r="C4" s="16" t="n">
+      <c r="B4" s="15">
+        <v>1</v>
+      </c>
+      <c r="C4" s="16">
         <v>2500</v>
       </c>
-      <c r="D4" s="16" t="n">
+      <c r="D4" s="16">
         <v>20</v>
       </c>
       <c r="E4" s="17" t="s">
@@ -1500,17 +1360,17 @@
       <c r="K4" s="12"/>
       <c r="L4" s="20"/>
     </row>
-    <row r="5" customFormat="false" ht="39.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="B5" s="15" t="n">
-        <v>1</v>
-      </c>
-      <c r="C5" s="16" t="n">
+      <c r="B5" s="15">
+        <v>1</v>
+      </c>
+      <c r="C5" s="16">
         <v>16000</v>
       </c>
-      <c r="D5" s="16" t="n">
+      <c r="D5" s="16">
         <v>90</v>
       </c>
       <c r="E5" s="17" t="s">
@@ -1530,17 +1390,17 @@
       <c r="K5" s="12"/>
       <c r="L5" s="24"/>
     </row>
-    <row r="6" customFormat="false" ht="34.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:13" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="B6" s="26" t="n">
+      <c r="B6" s="26">
         <v>100</v>
       </c>
-      <c r="C6" s="27" t="n">
+      <c r="C6" s="27">
         <v>1200</v>
       </c>
-      <c r="D6" s="27" t="n">
+      <c r="D6" s="27">
         <v>1</v>
       </c>
       <c r="E6" s="28" t="s">
@@ -1560,17 +1420,17 @@
       <c r="K6" s="12"/>
       <c r="L6" s="12"/>
     </row>
-    <row r="7" customFormat="false" ht="34.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:13" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="B7" s="26" t="n">
+      <c r="B7" s="26">
         <v>100</v>
       </c>
-      <c r="C7" s="30" t="n">
+      <c r="C7" s="30">
         <v>1200</v>
       </c>
-      <c r="D7" s="30" t="n">
+      <c r="D7" s="30">
         <v>1</v>
       </c>
       <c r="E7" s="28" t="s">
@@ -1590,17 +1450,17 @@
       <c r="K7" s="12"/>
       <c r="L7" s="12"/>
     </row>
-    <row r="8" customFormat="false" ht="34.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:13" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="B8" s="26" t="n">
+      <c r="B8" s="26">
         <v>100</v>
       </c>
-      <c r="C8" s="27" t="n">
+      <c r="C8" s="27">
         <v>2000</v>
       </c>
-      <c r="D8" s="27" t="n">
+      <c r="D8" s="27">
         <v>2</v>
       </c>
       <c r="E8" s="28" t="s">
@@ -1620,17 +1480,17 @@
       <c r="K8" s="12"/>
       <c r="L8" s="5"/>
     </row>
-    <row r="9" customFormat="false" ht="34.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:13" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="B9" s="26" t="n">
-        <v>1</v>
-      </c>
-      <c r="C9" s="27" t="n">
+      <c r="B9" s="26">
+        <v>1</v>
+      </c>
+      <c r="C9" s="27">
         <v>1200</v>
       </c>
-      <c r="D9" s="27" t="n">
+      <c r="D9" s="27">
         <v>1</v>
       </c>
       <c r="E9" s="28" t="s">
@@ -1651,17 +1511,17 @@
       <c r="L9" s="20"/>
       <c r="M9" s="13"/>
     </row>
-    <row r="10" customFormat="false" ht="34.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="10" spans="1:13" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="B10" s="26" t="n">
-        <v>1</v>
-      </c>
-      <c r="C10" s="27" t="n">
+      <c r="B10" s="26">
+        <v>1</v>
+      </c>
+      <c r="C10" s="27">
         <v>1200</v>
       </c>
-      <c r="D10" s="27" t="n">
+      <c r="D10" s="27">
         <v>1</v>
       </c>
       <c r="E10" s="28" t="s">
@@ -1682,17 +1542,17 @@
       <c r="L10" s="20"/>
       <c r="M10" s="13"/>
     </row>
-    <row r="11" customFormat="false" ht="34.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="11" spans="1:13" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="25" t="s">
         <v>46</v>
       </c>
-      <c r="B11" s="26" t="n">
-        <v>1</v>
-      </c>
-      <c r="C11" s="27" t="n">
+      <c r="B11" s="26">
+        <v>1</v>
+      </c>
+      <c r="C11" s="27">
         <v>1200</v>
       </c>
-      <c r="D11" s="27" t="n">
+      <c r="D11" s="27">
         <v>1</v>
       </c>
       <c r="E11" s="28" t="s">
@@ -1713,17 +1573,17 @@
       <c r="L11" s="20"/>
       <c r="M11" s="13"/>
     </row>
-    <row r="12" customFormat="false" ht="34.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="12" spans="1:13" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="25" t="s">
         <v>49</v>
       </c>
-      <c r="B12" s="26" t="n">
-        <v>1</v>
-      </c>
-      <c r="C12" s="27" t="n">
+      <c r="B12" s="26">
+        <v>1</v>
+      </c>
+      <c r="C12" s="27">
         <v>1200</v>
       </c>
-      <c r="D12" s="27" t="n">
+      <c r="D12" s="27">
         <v>1</v>
       </c>
       <c r="E12" s="28" t="s">
@@ -1744,17 +1604,17 @@
       <c r="L12" s="20"/>
       <c r="M12" s="13"/>
     </row>
-    <row r="13" customFormat="false" ht="34.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="13" spans="1:13" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="25" t="s">
         <v>52</v>
       </c>
-      <c r="B13" s="26" t="n">
-        <v>1</v>
-      </c>
-      <c r="C13" s="27" t="n">
+      <c r="B13" s="26">
+        <v>1</v>
+      </c>
+      <c r="C13" s="27">
         <v>1200</v>
       </c>
-      <c r="D13" s="27" t="n">
+      <c r="D13" s="27">
         <v>1</v>
       </c>
       <c r="E13" s="28" t="s">
@@ -1774,17 +1634,17 @@
       <c r="K13" s="32"/>
       <c r="M13" s="13"/>
     </row>
-    <row r="14" customFormat="false" ht="34.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="14" spans="1:13" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="33" t="s">
         <v>55</v>
       </c>
-      <c r="B14" s="34" t="n">
-        <v>1</v>
-      </c>
-      <c r="C14" s="35" t="n">
+      <c r="B14" s="34">
+        <v>1</v>
+      </c>
+      <c r="C14" s="35">
         <v>18000</v>
       </c>
-      <c r="D14" s="35" t="n">
+      <c r="D14" s="35">
         <v>325</v>
       </c>
       <c r="E14" s="36" t="s">
@@ -1804,17 +1664,17 @@
       <c r="K14" s="12"/>
       <c r="L14" s="12"/>
     </row>
-    <row r="15" customFormat="false" ht="34.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="15" spans="1:13" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="33" t="s">
         <v>60</v>
       </c>
-      <c r="B15" s="34" t="n">
-        <v>1</v>
-      </c>
-      <c r="C15" s="35" t="n">
+      <c r="B15" s="34">
+        <v>1</v>
+      </c>
+      <c r="C15" s="35">
         <v>18000</v>
       </c>
-      <c r="D15" s="35" t="n">
+      <c r="D15" s="35">
         <v>325</v>
       </c>
       <c r="E15" s="36" t="s">
@@ -1832,17 +1692,17 @@
       <c r="K15" s="12"/>
       <c r="L15" s="20"/>
     </row>
-    <row r="16" customFormat="false" ht="34.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="16" spans="1:13" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="33" t="s">
         <v>63</v>
       </c>
-      <c r="B16" s="34" t="n">
-        <v>1</v>
-      </c>
-      <c r="C16" s="35" t="n">
+      <c r="B16" s="34">
+        <v>1</v>
+      </c>
+      <c r="C16" s="35">
         <v>15000</v>
       </c>
-      <c r="D16" s="35" t="n">
+      <c r="D16" s="35">
         <v>280</v>
       </c>
       <c r="E16" s="36" t="s">
@@ -1862,17 +1722,17 @@
       <c r="K16" s="12"/>
       <c r="L16" s="11"/>
     </row>
-    <row r="17" customFormat="false" ht="34.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="17" spans="1:14" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="33" t="s">
         <v>67</v>
       </c>
-      <c r="B17" s="34" t="n">
-        <v>1</v>
-      </c>
-      <c r="C17" s="35" t="n">
+      <c r="B17" s="34">
+        <v>1</v>
+      </c>
+      <c r="C17" s="35">
         <v>15000</v>
       </c>
-      <c r="D17" s="35" t="n">
+      <c r="D17" s="35">
         <v>280</v>
       </c>
       <c r="E17" s="36" t="s">
@@ -1892,17 +1752,17 @@
       <c r="K17" s="12"/>
       <c r="L17" s="11"/>
     </row>
-    <row r="18" customFormat="false" ht="34.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="18" spans="1:14" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="40" t="s">
         <v>70</v>
       </c>
-      <c r="B18" s="41" t="n">
+      <c r="B18" s="41">
         <v>100</v>
       </c>
-      <c r="C18" s="35" t="n">
+      <c r="C18" s="35">
         <v>7000</v>
       </c>
-      <c r="D18" s="35" t="n">
+      <c r="D18" s="35">
         <v>90</v>
       </c>
       <c r="E18" s="40" t="s">
@@ -1921,17 +1781,17 @@
       <c r="K18" s="12"/>
       <c r="L18" s="12"/>
     </row>
-    <row r="19" customFormat="false" ht="34.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="19" spans="1:14" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="40" t="s">
         <v>74</v>
       </c>
-      <c r="B19" s="41" t="n">
+      <c r="B19" s="41">
         <v>100</v>
       </c>
-      <c r="C19" s="35" t="n">
+      <c r="C19" s="35">
         <v>7000</v>
       </c>
-      <c r="D19" s="35" t="n">
+      <c r="D19" s="35">
         <v>90</v>
       </c>
       <c r="E19" s="40" t="s">
@@ -1950,17 +1810,17 @@
       <c r="K19" s="12"/>
       <c r="L19" s="5"/>
     </row>
-    <row r="20" customFormat="false" ht="34.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="20" spans="1:14" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="40" t="s">
         <v>76</v>
       </c>
-      <c r="B20" s="41" t="n">
+      <c r="B20" s="41">
         <v>100</v>
       </c>
-      <c r="C20" s="35" t="n">
+      <c r="C20" s="35">
         <v>7000</v>
       </c>
-      <c r="D20" s="35" t="n">
+      <c r="D20" s="35">
         <v>90</v>
       </c>
       <c r="E20" s="40" t="s">
@@ -1980,17 +1840,17 @@
       <c r="K20" s="12"/>
       <c r="L20" s="5"/>
     </row>
-    <row r="21" customFormat="false" ht="34.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="21" spans="1:14" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="33" t="s">
         <v>78</v>
       </c>
-      <c r="B21" s="34" t="n">
+      <c r="B21" s="34">
         <v>100</v>
       </c>
-      <c r="C21" s="35" t="n">
+      <c r="C21" s="35">
         <v>5000</v>
       </c>
-      <c r="D21" s="35" t="n">
+      <c r="D21" s="35">
         <v>50</v>
       </c>
       <c r="E21" s="40" t="s">
@@ -2009,17 +1869,17 @@
       <c r="J21" s="12"/>
       <c r="K21" s="12"/>
     </row>
-    <row r="22" customFormat="false" ht="34.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="22" spans="1:14" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="33" t="s">
         <v>81</v>
       </c>
-      <c r="B22" s="34" t="n">
-        <v>1</v>
-      </c>
-      <c r="C22" s="35" t="n">
+      <c r="B22" s="34">
+        <v>1</v>
+      </c>
+      <c r="C22" s="35">
         <v>50000</v>
       </c>
-      <c r="D22" s="35" t="n">
+      <c r="D22" s="35">
         <v>1300</v>
       </c>
       <c r="E22" s="40" t="s">
@@ -2038,17 +1898,17 @@
       <c r="K22" s="12"/>
       <c r="L22" s="5"/>
     </row>
-    <row r="23" customFormat="false" ht="34.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="23" spans="1:14" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="33" t="s">
         <v>86</v>
       </c>
-      <c r="B23" s="34" t="n">
-        <v>1</v>
-      </c>
-      <c r="C23" s="35" t="n">
+      <c r="B23" s="34">
+        <v>1</v>
+      </c>
+      <c r="C23" s="35">
         <v>40000</v>
       </c>
-      <c r="D23" s="35" t="n">
+      <c r="D23" s="35">
         <v>900</v>
       </c>
       <c r="E23" s="40" t="s">
@@ -2068,17 +1928,17 @@
       <c r="K23" s="12"/>
       <c r="L23" s="20"/>
     </row>
-    <row r="24" customFormat="false" ht="34.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="24" spans="1:14" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="25" t="s">
         <v>90</v>
       </c>
-      <c r="B24" s="26" t="n">
+      <c r="B24" s="26">
         <v>100</v>
       </c>
-      <c r="C24" s="27" t="n">
+      <c r="C24" s="27">
         <v>1800</v>
       </c>
-      <c r="D24" s="27" t="n">
+      <c r="D24" s="27">
         <v>8</v>
       </c>
       <c r="E24" s="28" t="s">
@@ -2098,17 +1958,17 @@
       <c r="K24" s="12"/>
       <c r="L24" s="12"/>
     </row>
-    <row r="25" customFormat="false" ht="34.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="25" spans="1:14" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="25" t="s">
         <v>95</v>
       </c>
-      <c r="B25" s="26" t="n">
+      <c r="B25" s="26">
         <v>100</v>
       </c>
-      <c r="C25" s="27" t="n">
+      <c r="C25" s="27">
         <v>3000</v>
       </c>
-      <c r="D25" s="27" t="n">
+      <c r="D25" s="27">
         <v>8</v>
       </c>
       <c r="E25" s="28" t="s">
@@ -2128,17 +1988,17 @@
       <c r="K25" s="20"/>
       <c r="L25" s="11"/>
     </row>
-    <row r="26" customFormat="false" ht="34.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="26" spans="1:14" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="44" t="s">
         <v>99</v>
       </c>
-      <c r="B26" s="45" t="n">
+      <c r="B26" s="45">
         <v>100</v>
       </c>
-      <c r="C26" s="46" t="n">
+      <c r="C26" s="46">
         <v>6500</v>
       </c>
-      <c r="D26" s="46" t="n">
+      <c r="D26" s="46">
         <v>235</v>
       </c>
       <c r="E26" s="47" t="s">
@@ -2157,17 +2017,17 @@
       <c r="J26" s="12"/>
       <c r="K26" s="12"/>
     </row>
-    <row r="27" customFormat="false" ht="34.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="27" spans="1:14" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="44" t="s">
         <v>104</v>
       </c>
-      <c r="B27" s="45" t="n">
+      <c r="B27" s="45">
         <v>100</v>
       </c>
-      <c r="C27" s="46" t="n">
-        <v>4500</v>
-      </c>
-      <c r="D27" s="46" t="n">
+      <c r="C27" s="46">
+        <v>4600</v>
+      </c>
+      <c r="D27" s="46">
         <v>170</v>
       </c>
       <c r="E27" s="50" t="s">
@@ -2186,17 +2046,17 @@
       <c r="J27" s="12"/>
       <c r="K27" s="12"/>
     </row>
-    <row r="28" customFormat="false" ht="39.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="28" spans="1:14" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="53" t="s">
         <v>108</v>
       </c>
-      <c r="B28" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="C28" s="55" t="n">
+      <c r="B28" s="54">
+        <v>1</v>
+      </c>
+      <c r="C28" s="55">
         <v>15000</v>
       </c>
-      <c r="D28" s="55" t="n">
+      <c r="D28" s="55">
         <v>40</v>
       </c>
       <c r="E28" s="56" t="s">
@@ -2215,17 +2075,17 @@
       <c r="J28" s="5"/>
       <c r="K28" s="32"/>
     </row>
-    <row r="29" customFormat="false" ht="34.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="29" spans="1:14" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="53" t="s">
         <v>113</v>
       </c>
-      <c r="B29" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="C29" s="55" t="n">
+      <c r="B29" s="54">
+        <v>1</v>
+      </c>
+      <c r="C29" s="55">
         <v>4600</v>
       </c>
-      <c r="D29" s="55" t="n">
+      <c r="D29" s="55">
         <v>35</v>
       </c>
       <c r="E29" s="59" t="s">
@@ -2244,17 +2104,17 @@
       <c r="J29" s="5"/>
       <c r="K29" s="12"/>
     </row>
-    <row r="30" customFormat="false" ht="34.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="30" spans="1:14" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="53" t="s">
         <v>117</v>
       </c>
-      <c r="B30" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="C30" s="55" t="n">
+      <c r="B30" s="54">
+        <v>1</v>
+      </c>
+      <c r="C30" s="55">
         <v>16000</v>
       </c>
-      <c r="D30" s="55" t="n">
+      <c r="D30" s="55">
         <v>210</v>
       </c>
       <c r="E30" s="59" t="s">
@@ -2274,17 +2134,17 @@
       <c r="K30" s="60"/>
       <c r="N30" s="62"/>
     </row>
-    <row r="31" customFormat="false" ht="34.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="31" spans="1:14" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="53" t="s">
         <v>121</v>
       </c>
-      <c r="B31" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="C31" s="55" t="n">
+      <c r="B31" s="54">
+        <v>1</v>
+      </c>
+      <c r="C31" s="55">
         <v>25000</v>
       </c>
-      <c r="D31" s="55" t="n">
+      <c r="D31" s="55">
         <v>265</v>
       </c>
       <c r="E31" s="59" t="s">
@@ -2303,17 +2163,17 @@
       <c r="J31" s="12"/>
       <c r="K31" s="12"/>
     </row>
-    <row r="32" customFormat="false" ht="34.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="32" spans="1:14" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="53" t="s">
         <v>125</v>
       </c>
-      <c r="B32" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="C32" s="55" t="n">
+      <c r="B32" s="54">
+        <v>1</v>
+      </c>
+      <c r="C32" s="55">
         <v>4000</v>
       </c>
-      <c r="D32" s="55" t="n">
+      <c r="D32" s="55">
         <v>18</v>
       </c>
       <c r="E32" s="59" t="s">
@@ -2332,17 +2192,17 @@
       <c r="J32" s="12"/>
       <c r="K32" s="12"/>
     </row>
-    <row r="33" customFormat="false" ht="34.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="33" spans="1:12" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="53" t="s">
         <v>130</v>
       </c>
-      <c r="B33" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="C33" s="55" t="n">
+      <c r="B33" s="54">
+        <v>1</v>
+      </c>
+      <c r="C33" s="55">
         <v>4000</v>
       </c>
-      <c r="D33" s="55" t="n">
+      <c r="D33" s="55">
         <v>18</v>
       </c>
       <c r="E33" s="59" t="s">
@@ -2361,17 +2221,17 @@
       <c r="J33" s="20"/>
       <c r="K33" s="12"/>
     </row>
-    <row r="34" customFormat="false" ht="34.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="34" spans="1:12" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="53" t="s">
         <v>133</v>
       </c>
-      <c r="B34" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="C34" s="55" t="n">
+      <c r="B34" s="54">
+        <v>1</v>
+      </c>
+      <c r="C34" s="55">
         <v>4000</v>
       </c>
-      <c r="D34" s="55" t="n">
+      <c r="D34" s="55">
         <v>18</v>
       </c>
       <c r="E34" s="59" t="s">
@@ -2390,17 +2250,17 @@
       <c r="J34" s="11"/>
       <c r="K34" s="12"/>
     </row>
-    <row r="35" customFormat="false" ht="34.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="35" spans="1:12" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="53" t="s">
         <v>136</v>
       </c>
-      <c r="B35" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="C35" s="55" t="n">
+      <c r="B35" s="54">
+        <v>1</v>
+      </c>
+      <c r="C35" s="55">
         <v>4000</v>
       </c>
-      <c r="D35" s="55" t="n">
+      <c r="D35" s="55">
         <v>18</v>
       </c>
       <c r="E35" s="59" t="s">
@@ -2420,17 +2280,17 @@
       <c r="K35" s="12"/>
       <c r="L35" s="20"/>
     </row>
-    <row r="36" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="36" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="25" t="s">
         <v>138</v>
       </c>
-      <c r="B36" s="65" t="n">
+      <c r="B36" s="65">
         <v>100</v>
       </c>
-      <c r="C36" s="66" t="n">
+      <c r="C36" s="66">
         <v>9000</v>
       </c>
-      <c r="D36" s="67" t="n">
+      <c r="D36" s="67">
         <v>350</v>
       </c>
       <c r="E36" s="28" t="s">
@@ -2447,17 +2307,17 @@
       </c>
       <c r="I36" s="70"/>
     </row>
-    <row r="37" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="37" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="71" t="s">
         <v>143</v>
       </c>
-      <c r="B37" s="65" t="n">
+      <c r="B37" s="65">
         <v>100</v>
       </c>
-      <c r="C37" s="72" t="n">
+      <c r="C37" s="72">
         <v>5800</v>
       </c>
-      <c r="D37" s="67" t="n">
+      <c r="D37" s="67">
         <v>20</v>
       </c>
       <c r="E37" s="28" t="s">
@@ -2474,17 +2334,17 @@
       </c>
       <c r="I37" s="75"/>
     </row>
-    <row r="38" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="38" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="25" t="s">
         <v>147</v>
       </c>
-      <c r="B38" s="65" t="n">
+      <c r="B38" s="65">
         <v>100</v>
       </c>
-      <c r="C38" s="67" t="n">
+      <c r="C38" s="67">
         <v>5800</v>
       </c>
-      <c r="D38" s="67" t="n">
+      <c r="D38" s="67">
         <v>20</v>
       </c>
       <c r="E38" s="28" t="s">
@@ -2500,17 +2360,17 @@
         <v>146</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="39" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="77" t="s">
         <v>149</v>
       </c>
-      <c r="B39" s="78" t="n">
-        <v>1</v>
-      </c>
-      <c r="C39" s="79" t="n">
+      <c r="B39" s="78">
+        <v>1</v>
+      </c>
+      <c r="C39" s="79">
         <v>10000</v>
       </c>
-      <c r="D39" s="79" t="n">
+      <c r="D39" s="79">
         <v>125</v>
       </c>
       <c r="E39" s="59" t="s">
@@ -2526,17 +2386,17 @@
         <v>153</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="40" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="77" t="s">
         <v>154</v>
       </c>
-      <c r="B40" s="78" t="n">
-        <v>1</v>
-      </c>
-      <c r="C40" s="79" t="n">
+      <c r="B40" s="78">
+        <v>1</v>
+      </c>
+      <c r="C40" s="79">
         <v>10000</v>
       </c>
-      <c r="D40" s="79" t="n">
+      <c r="D40" s="79">
         <v>125</v>
       </c>
       <c r="E40" s="59" t="s">
@@ -2552,17 +2412,17 @@
         <v>156</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="41" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="32" t="s">
         <v>157</v>
       </c>
-      <c r="B41" s="81" t="n">
-        <v>1</v>
-      </c>
-      <c r="C41" s="82" t="n">
+      <c r="B41" s="81">
+        <v>1</v>
+      </c>
+      <c r="C41" s="82">
         <v>9000</v>
       </c>
-      <c r="D41" s="82" t="n">
+      <c r="D41" s="82">
         <v>40</v>
       </c>
       <c r="E41" s="83" t="s">
@@ -2578,17 +2438,17 @@
         <v>161</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="42" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="32" t="s">
         <v>162</v>
       </c>
-      <c r="B42" s="81" t="n">
-        <v>1</v>
-      </c>
-      <c r="C42" s="82" t="n">
+      <c r="B42" s="81">
+        <v>1</v>
+      </c>
+      <c r="C42" s="82">
         <v>9000</v>
       </c>
-      <c r="D42" s="82" t="n">
+      <c r="D42" s="82">
         <v>40</v>
       </c>
       <c r="E42" s="83" t="s">
@@ -2604,17 +2464,17 @@
         <v>164</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="43" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="32" t="s">
         <v>165</v>
       </c>
-      <c r="B43" s="81" t="n">
-        <v>1</v>
-      </c>
-      <c r="C43" s="82" t="n">
+      <c r="B43" s="81">
+        <v>1</v>
+      </c>
+      <c r="C43" s="82">
         <v>9000</v>
       </c>
-      <c r="D43" s="82" t="n">
+      <c r="D43" s="82">
         <v>40</v>
       </c>
       <c r="E43" s="83" t="s">
@@ -2630,17 +2490,17 @@
         <v>167</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="44" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="32" t="s">
         <v>168</v>
       </c>
-      <c r="B44" s="81" t="n">
-        <v>1</v>
-      </c>
-      <c r="C44" s="82" t="n">
+      <c r="B44" s="81">
+        <v>1</v>
+      </c>
+      <c r="C44" s="82">
         <v>9000</v>
       </c>
-      <c r="D44" s="82" t="n">
+      <c r="D44" s="82">
         <v>40</v>
       </c>
       <c r="E44" s="83" t="s">
@@ -2656,17 +2516,17 @@
         <v>170</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="45" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="32" t="s">
         <v>171</v>
       </c>
-      <c r="B45" s="81" t="n">
+      <c r="B45" s="81">
         <v>100</v>
       </c>
-      <c r="C45" s="82" t="n">
+      <c r="C45" s="82">
         <v>8000</v>
       </c>
-      <c r="D45" s="82" t="n">
+      <c r="D45" s="82">
         <v>250</v>
       </c>
       <c r="E45" s="83" t="s">
@@ -2681,11 +2541,11 @@
       <c r="H45" s="80" t="s">
         <v>175</v>
       </c>
-      <c r="I45" s="0" t="s">
+      <c r="I45" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="46" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="83"/>
       <c r="B46" s="81"/>
       <c r="C46" s="82"/>
@@ -2695,7 +2555,7 @@
       <c r="G46" s="83"/>
       <c r="H46" s="83"/>
     </row>
-    <row r="47" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="47" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="83"/>
       <c r="B47" s="81"/>
       <c r="C47" s="82"/>
@@ -2710,55 +2570,50 @@
     <mergeCell ref="A1:F1"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="H4" r:id="rId1" display="..\..\Pictures\A TRABAJOS WEB\CUERO\SEÑALADORES\Señaladores 1\Señaladores de Cuero -1.jpg"/>
-    <hyperlink ref="H5" r:id="rId2" display="..\..\Pictures\A TRABAJOS WEB\CUERO\ESTUCHES\Cuero Evangelio con estuche pirograbado A.jpg"/>
-    <hyperlink ref="H6" r:id="rId3" display="..\..\Pictures\A TRABAJOS WEB\VARIOS\ESCAPULARIOS Y DETENTES\Detentes.jpg"/>
-    <hyperlink ref="H7" r:id="rId4" display="..\..\Pictures\A TRABAJOS WEB\VARIOS\ESCAPULARIOS Y DETENTES\Escapulario chico.jpg"/>
-    <hyperlink ref="H8" r:id="rId5" display="..\..\Pictures\A TRABAJOS WEB\VARIOS\ESCAPULARIOS Y DETENTES\Escapulario grande.jpg"/>
-    <hyperlink ref="H9" r:id="rId6" display="..\..\Pictures\A TRABAJOS WEB\VARIOS\ESTAMPAS FLORES\Estampas Flores Nada te turbe -1.jpg"/>
-    <hyperlink ref="H10" r:id="rId7" display="..\..\Pictures\A TRABAJOS WEB\VARIOS\ESTAMPAS FLORES\Estampas Flores Nada te turbe -2.jpg"/>
-    <hyperlink ref="H11" r:id="rId8" display="..\..\Pictures\A TRABAJOS WEB\VARIOS\ESTAMPAS FLORES\Estampas Flores Nada te turbe -3.jpg"/>
-    <hyperlink ref="H12" r:id="rId9" display="..\..\Pictures\A TRABAJOS WEB\VARIOS\ESTAMPAS FLORES\Estampas Flores Nada te turbe -4.jpg"/>
-    <hyperlink ref="H13" r:id="rId10" display="..\..\Pictures\A TRABAJOS WEB\VARIOS\ESTAMPAS FLORES\Estampas Flores Nada te turbe -5.jpg"/>
-    <hyperlink ref="H14" r:id="rId11" display="..\..\Pictures\A TRABAJOS WEB\Madera\CUADROS PUNTILLISMO\Madera Cuadro Puntillismo Sgda. Familia -1.jpg"/>
-    <hyperlink ref="H15" r:id="rId12" display="..\..\Pictures\A TRABAJOS WEB\Madera\CUADROS PUNTILLISMO\Madera Cuadro Puntillismo Sgda. Familia -2.jpg"/>
-    <hyperlink ref="H16" r:id="rId13" display="..\..\Pictures\A TRABAJOS WEB\Madera\CUADROS PUNTILLISMO\Madera Cuadro Puntillismo Virgencita de Luján -1.jpg"/>
-    <hyperlink ref="H17" r:id="rId14" display="..\..\Pictures\A TRABAJOS WEB\Madera\CUADROS PUNTILLISMO\Madera Cuadro Puntillismo Virgencita de Luján -2.jpg"/>
-    <hyperlink ref="H18" r:id="rId15" display="..\..\Pictures\A TRABAJOS WEB\Madera\CUNEROS\CORAZONES Y CRUCES\Madera Corazones pintados -1.jpg"/>
-    <hyperlink ref="H19" r:id="rId16" display="..\..\Pictures\A TRABAJOS WEB\Madera\CUNEROS\CORAZONES Y CRUCES\Madera Corazones pintados -2.jpg"/>
-    <hyperlink ref="H20" r:id="rId17" display="..\..\Pictures\A TRABAJOS WEB\Madera\CUNEROS\CORAZONES Y CRUCES\Madera Corazones pintados -3.jpg"/>
-    <hyperlink ref="H21" r:id="rId18" display="..\..\Pictures\A TRABAJOS WEB\Madera\CUNEROS\REDONDELES\Madera Redondeles cuneritos.jpg"/>
-    <hyperlink ref="H22" r:id="rId19" display="..\..\Pictures\A TRABAJOS WEB\Madera\CUADROS PASTA PIEDRA\Madera Cuadro Virgen María Pasta Piedra -1.jpg"/>
-    <hyperlink ref="H23" r:id="rId20" display="..\..\Pictures\A TRABAJOS WEB\Madera\CUADROS PASTA PIEDRA\Madera Cuadro Virgen María Pasta Piedra -2.jpg"/>
-    <hyperlink ref="H24" r:id="rId21" display="..\..\Pictures\A TRABAJOS WEB\VARIOS\ROSARIOS\24 Glorias\Rosarios 24 glorias Sta. Teresita.jpg"/>
-    <hyperlink ref="H25" r:id="rId22" display="..\..\Pictures\A TRABAJOS WEB\VARIOS\ROSARIOS\Rosarios Cola de rata\Rosario cola de rata.jpg"/>
-    <hyperlink ref="H26" r:id="rId23" display="..\..\Pictures\A TRABAJOS WEB\VELAS\CERA DE ABEJAS\Vela Cera de abeja chica.jpg"/>
-    <hyperlink ref="H27" r:id="rId24" display="..\..\Pictures\A TRABAJOS WEB\VELAS\COLORES Y AROMAS\coloresyaromasmanzana.jpg"/>
-    <hyperlink ref="H28" r:id="rId25" display="..\..\Pictures\A TRABAJOS WEB\Cerámica\Rosario Cerámica.jpg"/>
-    <hyperlink ref="H29" r:id="rId26" display="..\..\Pictures\A TRABAJOS WEB\Cerámica\CRUCES\Cruz souvenir.jpg"/>
-    <hyperlink ref="H30" r:id="rId27" display="..\..\Pictures\A TRABAJOS WEB\Cerámica\PESEBRES\Pesebre cerámica.jpg"/>
-    <hyperlink ref="H31" r:id="rId28" display="..\..\Pictures\A TRABAJOS WEB\Cerámica\Virgen Embarazada.jpg"/>
-    <hyperlink ref="H32" r:id="rId29" display="..\..\Pictures\A TRABAJOS WEB\Cerámica\Niños Jesús\Cerámica Niño Jesús -1.jpg"/>
-    <hyperlink ref="H33" r:id="rId30" display="..\..\Pictures\A TRABAJOS WEB\Cerámica\Niños Jesús\Cerámica Niño Jesús 3.jpg"/>
-    <hyperlink ref="H34" r:id="rId31" display="..\..\Pictures\A TRABAJOS WEB\Cerámica\Niños Jesús\Cerámica Niño Jesús 4.jpg"/>
-    <hyperlink ref="H35" r:id="rId32" display="..\..\Pictures\A TRABAJOS WEB\Cerámica\Niños Jesús\Cerámica Niño Jesús 4.jpg"/>
-    <hyperlink ref="H36" r:id="rId33" display="..\Pictures\A TRABAJOS WEB\VARIOS\alfajores.jpg"/>
-    <hyperlink ref="H37" r:id="rId34" display="..\Pictures\A TRABAJOS WEB\VARIOS\bolsitalavanda1.jpg"/>
-    <hyperlink ref="H38" r:id="rId35" display="..\Pictures\A TRABAJOS WEB\VARIOS\bolsitalavanda1.jpg"/>
-    <hyperlink ref="H39" r:id="rId36" display="..\Pictures\A TRABAJOS WEB\Cerámica\CRUCES\agnusdei.jpg"/>
-    <hyperlink ref="H40" r:id="rId37" display="..\Pictures\A TRABAJOS WEB\Cerámica\CRUCES\agnusdei1.jpg"/>
-    <hyperlink ref="H41" r:id="rId38" display="..\Pictures\A TRABAJOS WEB\VARIOS\cuadritopuntocruz-1-.jpg"/>
-    <hyperlink ref="H42" r:id="rId39" display="..\Pictures\A TRABAJOS WEB\VARIOS\cuadritopuntocruz-2-.jpg"/>
-    <hyperlink ref="H43" r:id="rId40" display="..\Pictures\A TRABAJOS WEB\VARIOS\cuadritopuntocruz-3-.jpg"/>
-    <hyperlink ref="H44" r:id="rId41" display="..\Pictures\A TRABAJOS WEB\VARIOS\cuadritopuntocruz-4-.jpg"/>
-    <hyperlink ref="H45" r:id="rId42" display="..\Pictures\A TRABAJOS WEB\VELAS\COLORES Y AROMAS\esfera1.jpg"/>
+    <hyperlink ref="H4" r:id="rId1"/>
+    <hyperlink ref="H5" r:id="rId2"/>
+    <hyperlink ref="H6" r:id="rId3"/>
+    <hyperlink ref="H7" r:id="rId4"/>
+    <hyperlink ref="H8" r:id="rId5"/>
+    <hyperlink ref="H9" r:id="rId6"/>
+    <hyperlink ref="H10" r:id="rId7"/>
+    <hyperlink ref="H11" r:id="rId8"/>
+    <hyperlink ref="H12" r:id="rId9"/>
+    <hyperlink ref="H13" r:id="rId10"/>
+    <hyperlink ref="H14" r:id="rId11"/>
+    <hyperlink ref="H15" r:id="rId12"/>
+    <hyperlink ref="H16" r:id="rId13"/>
+    <hyperlink ref="H17" r:id="rId14"/>
+    <hyperlink ref="H18" r:id="rId15"/>
+    <hyperlink ref="H19" r:id="rId16"/>
+    <hyperlink ref="H20" r:id="rId17"/>
+    <hyperlink ref="H21" r:id="rId18"/>
+    <hyperlink ref="H22" r:id="rId19"/>
+    <hyperlink ref="H23" r:id="rId20"/>
+    <hyperlink ref="H24" r:id="rId21"/>
+    <hyperlink ref="H25" r:id="rId22"/>
+    <hyperlink ref="H26" r:id="rId23"/>
+    <hyperlink ref="H27" r:id="rId24"/>
+    <hyperlink ref="H28" r:id="rId25"/>
+    <hyperlink ref="H29" r:id="rId26"/>
+    <hyperlink ref="H30" r:id="rId27"/>
+    <hyperlink ref="H31" r:id="rId28"/>
+    <hyperlink ref="H32" r:id="rId29"/>
+    <hyperlink ref="H33" r:id="rId30"/>
+    <hyperlink ref="H34" r:id="rId31"/>
+    <hyperlink ref="H35" r:id="rId32"/>
+    <hyperlink ref="H36" r:id="rId33"/>
+    <hyperlink ref="H37" r:id="rId34"/>
+    <hyperlink ref="H38" r:id="rId35"/>
+    <hyperlink ref="H39" r:id="rId36"/>
+    <hyperlink ref="H40" r:id="rId37"/>
+    <hyperlink ref="H41" r:id="rId38"/>
+    <hyperlink ref="H42" r:id="rId39"/>
+    <hyperlink ref="H43" r:id="rId40"/>
+    <hyperlink ref="H44" r:id="rId41"/>
+    <hyperlink ref="H45" r:id="rId42"/>
   </hyperlinks>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.196527777777778" right="0.196527777777778" top="0.39375" bottom="0.196527777777778" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="landscape" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.196527777777778" right="0.196527777777778" top="0.39374999999999999" bottom="0.196527777777778" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
--- a/data/web-repositorio.xlsx
+++ b/data/web-repositorio.xlsx
@@ -808,9 +808,6 @@
   </cellStyleXfs>
   <cellXfs count="84">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
@@ -975,6 +972,9 @@
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Excel Built-in Explanatory Text" xfId="3"/>
@@ -1242,1303 +1242,1303 @@
   <dimension ref="A1:N47"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A22" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="43.85546875" style="2" customWidth="1"/>
-    <col min="2" max="2" width="12.5703125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="17.42578125" style="4" customWidth="1"/>
-    <col min="4" max="4" width="11.28515625" style="4" customWidth="1"/>
-    <col min="5" max="5" width="34.5703125" style="2" customWidth="1"/>
-    <col min="6" max="6" width="39.42578125" style="2" customWidth="1"/>
-    <col min="7" max="7" width="33.140625" style="2" customWidth="1"/>
-    <col min="8" max="8" width="78.5703125" style="2" customWidth="1"/>
+    <col min="1" max="1" width="43.85546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="12.5703125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="17.42578125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="11.28515625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="34.5703125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="39.42578125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="33.140625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="78.5703125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="83" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="6"/>
-      <c r="L1" s="5"/>
+      <c r="B1" s="83"/>
+      <c r="C1" s="83"/>
+      <c r="D1" s="83"/>
+      <c r="E1" s="83"/>
+      <c r="F1" s="83"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="5"/>
+      <c r="L1" s="4"/>
     </row>
     <row r="2" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="8" t="s">
+      <c r="A2" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="9"/>
-      <c r="E2" s="10" t="s">
+      <c r="D2" s="8"/>
+      <c r="E2" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="F2" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="11" t="s">
+      <c r="G2" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="7" t="s">
+      <c r="H2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="12"/>
-      <c r="J2" s="12"/>
-      <c r="K2" s="12"/>
-      <c r="L2" s="5"/>
+      <c r="I2" s="11"/>
+      <c r="J2" s="11"/>
+      <c r="K2" s="11"/>
+      <c r="L2" s="4"/>
     </row>
     <row r="3" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="10" t="s">
+      <c r="E3" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="F3" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="13" t="s">
+      <c r="G3" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="H3" s="7" t="s">
+      <c r="H3" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="I3" s="12" t="s">
+      <c r="I3" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="J3" s="12"/>
-      <c r="K3" s="12"/>
-      <c r="L3" s="5"/>
+      <c r="J3" s="11"/>
+      <c r="K3" s="11"/>
+      <c r="L3" s="4"/>
     </row>
     <row r="4" spans="1:13" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="14" t="s">
+      <c r="A4" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="15">
-        <v>1</v>
-      </c>
-      <c r="C4" s="16">
+      <c r="B4" s="14">
+        <v>1</v>
+      </c>
+      <c r="C4" s="15">
         <v>2500</v>
       </c>
-      <c r="D4" s="16">
+      <c r="D4" s="15">
         <v>20</v>
       </c>
-      <c r="E4" s="17" t="s">
+      <c r="E4" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="F4" s="14" t="s">
+      <c r="F4" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="G4" s="18" t="s">
+      <c r="G4" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="H4" s="19" t="s">
+      <c r="H4" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="I4" s="12"/>
-      <c r="J4" s="12"/>
-      <c r="K4" s="12"/>
-      <c r="L4" s="20"/>
+      <c r="I4" s="11"/>
+      <c r="J4" s="11"/>
+      <c r="K4" s="11"/>
+      <c r="L4" s="19"/>
     </row>
     <row r="5" spans="1:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="14" t="s">
+      <c r="A5" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="B5" s="15">
-        <v>1</v>
-      </c>
-      <c r="C5" s="16">
+      <c r="B5" s="14">
+        <v>1</v>
+      </c>
+      <c r="C5" s="15">
         <v>16000</v>
       </c>
-      <c r="D5" s="16">
+      <c r="D5" s="15">
         <v>90</v>
       </c>
-      <c r="E5" s="17" t="s">
+      <c r="E5" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="F5" s="14" t="s">
+      <c r="F5" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="G5" s="21" t="s">
+      <c r="G5" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="H5" s="19" t="s">
+      <c r="H5" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="I5" s="22"/>
-      <c r="J5" s="23"/>
-      <c r="K5" s="12"/>
-      <c r="L5" s="24"/>
+      <c r="I5" s="21"/>
+      <c r="J5" s="22"/>
+      <c r="K5" s="11"/>
+      <c r="L5" s="23"/>
     </row>
     <row r="6" spans="1:13" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="25" t="s">
+      <c r="A6" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="B6" s="26">
+      <c r="B6" s="25">
         <v>100</v>
       </c>
-      <c r="C6" s="27">
+      <c r="C6" s="26">
         <v>1200</v>
       </c>
-      <c r="D6" s="27">
-        <v>1</v>
-      </c>
-      <c r="E6" s="28" t="s">
+      <c r="D6" s="26">
+        <v>1</v>
+      </c>
+      <c r="E6" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="F6" s="25" t="s">
+      <c r="F6" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="G6" s="21" t="s">
+      <c r="G6" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="H6" s="29" t="s">
+      <c r="H6" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="I6" s="12"/>
-      <c r="J6" s="12"/>
-      <c r="K6" s="12"/>
-      <c r="L6" s="12"/>
+      <c r="I6" s="11"/>
+      <c r="J6" s="11"/>
+      <c r="K6" s="11"/>
+      <c r="L6" s="11"/>
     </row>
     <row r="7" spans="1:13" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="25" t="s">
+      <c r="A7" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="B7" s="26">
+      <c r="B7" s="25">
         <v>100</v>
       </c>
-      <c r="C7" s="30">
+      <c r="C7" s="29">
         <v>1200</v>
       </c>
-      <c r="D7" s="30">
-        <v>1</v>
-      </c>
-      <c r="E7" s="28" t="s">
+      <c r="D7" s="29">
+        <v>1</v>
+      </c>
+      <c r="E7" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="F7" s="25" t="s">
+      <c r="F7" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="G7" s="31" t="s">
+      <c r="G7" s="30" t="s">
         <v>32</v>
       </c>
-      <c r="H7" s="29" t="s">
+      <c r="H7" s="28" t="s">
         <v>33</v>
       </c>
-      <c r="I7" s="12"/>
-      <c r="J7" s="12"/>
-      <c r="K7" s="12"/>
-      <c r="L7" s="12"/>
+      <c r="I7" s="11"/>
+      <c r="J7" s="11"/>
+      <c r="K7" s="11"/>
+      <c r="L7" s="11"/>
     </row>
     <row r="8" spans="1:13" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="25" t="s">
+      <c r="A8" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="B8" s="26">
+      <c r="B8" s="25">
         <v>100</v>
       </c>
-      <c r="C8" s="27">
+      <c r="C8" s="26">
         <v>2000</v>
       </c>
-      <c r="D8" s="27">
+      <c r="D8" s="26">
         <v>2</v>
       </c>
-      <c r="E8" s="28" t="s">
+      <c r="E8" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="F8" s="25" t="s">
+      <c r="F8" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="G8" s="21" t="s">
+      <c r="G8" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="H8" s="29" t="s">
+      <c r="H8" s="28" t="s">
         <v>37</v>
       </c>
-      <c r="I8" s="12"/>
-      <c r="J8" s="12"/>
-      <c r="K8" s="12"/>
-      <c r="L8" s="5"/>
+      <c r="I8" s="11"/>
+      <c r="J8" s="11"/>
+      <c r="K8" s="11"/>
+      <c r="L8" s="4"/>
     </row>
     <row r="9" spans="1:13" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="25" t="s">
+      <c r="A9" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="B9" s="26">
-        <v>1</v>
-      </c>
-      <c r="C9" s="27">
+      <c r="B9" s="25">
+        <v>1</v>
+      </c>
+      <c r="C9" s="26">
         <v>1200</v>
       </c>
-      <c r="D9" s="27">
-        <v>1</v>
-      </c>
-      <c r="E9" s="28" t="s">
+      <c r="D9" s="26">
+        <v>1</v>
+      </c>
+      <c r="E9" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="F9" s="25" t="s">
+      <c r="F9" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="G9" s="21" t="s">
+      <c r="G9" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="H9" s="29" t="s">
+      <c r="H9" s="28" t="s">
         <v>42</v>
       </c>
-      <c r="I9" s="12"/>
-      <c r="J9" s="12"/>
-      <c r="K9" s="12"/>
-      <c r="L9" s="20"/>
-      <c r="M9" s="13"/>
+      <c r="I9" s="11"/>
+      <c r="J9" s="11"/>
+      <c r="K9" s="11"/>
+      <c r="L9" s="19"/>
+      <c r="M9" s="12"/>
     </row>
     <row r="10" spans="1:13" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="25" t="s">
+      <c r="A10" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="B10" s="26">
-        <v>1</v>
-      </c>
-      <c r="C10" s="27">
+      <c r="B10" s="25">
+        <v>1</v>
+      </c>
+      <c r="C10" s="26">
         <v>1200</v>
       </c>
-      <c r="D10" s="27">
-        <v>1</v>
-      </c>
-      <c r="E10" s="28" t="s">
+      <c r="D10" s="26">
+        <v>1</v>
+      </c>
+      <c r="E10" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="F10" s="25" t="s">
+      <c r="F10" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="G10" s="21" t="s">
+      <c r="G10" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="H10" s="29" t="s">
+      <c r="H10" s="28" t="s">
         <v>45</v>
       </c>
-      <c r="I10" s="12"/>
-      <c r="J10" s="12"/>
-      <c r="K10" s="12"/>
-      <c r="L10" s="20"/>
-      <c r="M10" s="13"/>
+      <c r="I10" s="11"/>
+      <c r="J10" s="11"/>
+      <c r="K10" s="11"/>
+      <c r="L10" s="19"/>
+      <c r="M10" s="12"/>
     </row>
     <row r="11" spans="1:13" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="25" t="s">
+      <c r="A11" s="24" t="s">
         <v>46</v>
       </c>
-      <c r="B11" s="26">
-        <v>1</v>
-      </c>
-      <c r="C11" s="27">
+      <c r="B11" s="25">
+        <v>1</v>
+      </c>
+      <c r="C11" s="26">
         <v>1200</v>
       </c>
-      <c r="D11" s="27">
-        <v>1</v>
-      </c>
-      <c r="E11" s="28" t="s">
+      <c r="D11" s="26">
+        <v>1</v>
+      </c>
+      <c r="E11" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="F11" s="25" t="s">
+      <c r="F11" s="24" t="s">
         <v>47</v>
       </c>
-      <c r="G11" s="21" t="s">
+      <c r="G11" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="H11" s="29" t="s">
+      <c r="H11" s="28" t="s">
         <v>48</v>
       </c>
-      <c r="I11" s="12"/>
-      <c r="J11" s="12"/>
-      <c r="K11" s="12"/>
-      <c r="L11" s="20"/>
-      <c r="M11" s="13"/>
+      <c r="I11" s="11"/>
+      <c r="J11" s="11"/>
+      <c r="K11" s="11"/>
+      <c r="L11" s="19"/>
+      <c r="M11" s="12"/>
     </row>
     <row r="12" spans="1:13" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="25" t="s">
+      <c r="A12" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="B12" s="26">
-        <v>1</v>
-      </c>
-      <c r="C12" s="27">
+      <c r="B12" s="25">
+        <v>1</v>
+      </c>
+      <c r="C12" s="26">
         <v>1200</v>
       </c>
-      <c r="D12" s="27">
-        <v>1</v>
-      </c>
-      <c r="E12" s="28" t="s">
+      <c r="D12" s="26">
+        <v>1</v>
+      </c>
+      <c r="E12" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="F12" s="25" t="s">
+      <c r="F12" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="G12" s="21" t="s">
+      <c r="G12" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="H12" s="29" t="s">
+      <c r="H12" s="28" t="s">
         <v>51</v>
       </c>
-      <c r="I12" s="12"/>
-      <c r="J12" s="12"/>
-      <c r="K12" s="12"/>
-      <c r="L12" s="20"/>
-      <c r="M12" s="13"/>
+      <c r="I12" s="11"/>
+      <c r="J12" s="11"/>
+      <c r="K12" s="11"/>
+      <c r="L12" s="19"/>
+      <c r="M12" s="12"/>
     </row>
     <row r="13" spans="1:13" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="25" t="s">
+      <c r="A13" s="24" t="s">
         <v>52</v>
       </c>
-      <c r="B13" s="26">
-        <v>1</v>
-      </c>
-      <c r="C13" s="27">
+      <c r="B13" s="25">
+        <v>1</v>
+      </c>
+      <c r="C13" s="26">
         <v>1200</v>
       </c>
-      <c r="D13" s="27">
-        <v>1</v>
-      </c>
-      <c r="E13" s="28" t="s">
+      <c r="D13" s="26">
+        <v>1</v>
+      </c>
+      <c r="E13" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="F13" s="25" t="s">
+      <c r="F13" s="24" t="s">
         <v>53</v>
       </c>
-      <c r="G13" s="21" t="s">
+      <c r="G13" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="H13" s="29" t="s">
+      <c r="H13" s="28" t="s">
         <v>54</v>
       </c>
-      <c r="I13" s="12"/>
-      <c r="J13" s="12"/>
-      <c r="K13" s="32"/>
-      <c r="M13" s="13"/>
+      <c r="I13" s="11"/>
+      <c r="J13" s="11"/>
+      <c r="K13" s="31"/>
+      <c r="M13" s="12"/>
     </row>
     <row r="14" spans="1:13" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="33" t="s">
+      <c r="A14" s="32" t="s">
         <v>55</v>
       </c>
-      <c r="B14" s="34">
-        <v>1</v>
-      </c>
-      <c r="C14" s="35">
+      <c r="B14" s="33">
+        <v>1</v>
+      </c>
+      <c r="C14" s="34">
         <v>18000</v>
       </c>
-      <c r="D14" s="35">
+      <c r="D14" s="34">
         <v>325</v>
       </c>
-      <c r="E14" s="36" t="s">
+      <c r="E14" s="35" t="s">
         <v>56</v>
       </c>
-      <c r="F14" s="33" t="s">
+      <c r="F14" s="32" t="s">
         <v>57</v>
       </c>
-      <c r="G14" s="37" t="s">
+      <c r="G14" s="36" t="s">
         <v>58</v>
       </c>
-      <c r="H14" s="38" t="s">
+      <c r="H14" s="37" t="s">
         <v>59</v>
       </c>
-      <c r="I14" s="12"/>
-      <c r="J14" s="12"/>
-      <c r="K14" s="12"/>
-      <c r="L14" s="12"/>
+      <c r="I14" s="11"/>
+      <c r="J14" s="11"/>
+      <c r="K14" s="11"/>
+      <c r="L14" s="11"/>
     </row>
     <row r="15" spans="1:13" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="33" t="s">
+      <c r="A15" s="32" t="s">
         <v>60</v>
       </c>
-      <c r="B15" s="34">
-        <v>1</v>
-      </c>
-      <c r="C15" s="35">
+      <c r="B15" s="33">
+        <v>1</v>
+      </c>
+      <c r="C15" s="34">
         <v>18000</v>
       </c>
-      <c r="D15" s="35">
+      <c r="D15" s="34">
         <v>325</v>
       </c>
-      <c r="E15" s="36" t="s">
+      <c r="E15" s="35" t="s">
         <v>56</v>
       </c>
-      <c r="F15" s="33" t="s">
+      <c r="F15" s="32" t="s">
         <v>61</v>
       </c>
-      <c r="G15" s="37" t="s">
+      <c r="G15" s="36" t="s">
         <v>58</v>
       </c>
-      <c r="H15" s="38" t="s">
+      <c r="H15" s="37" t="s">
         <v>62</v>
       </c>
-      <c r="K15" s="12"/>
-      <c r="L15" s="20"/>
+      <c r="K15" s="11"/>
+      <c r="L15" s="19"/>
     </row>
     <row r="16" spans="1:13" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="33" t="s">
+      <c r="A16" s="32" t="s">
         <v>63</v>
       </c>
-      <c r="B16" s="34">
-        <v>1</v>
-      </c>
-      <c r="C16" s="35">
+      <c r="B16" s="33">
+        <v>1</v>
+      </c>
+      <c r="C16" s="34">
         <v>15000</v>
       </c>
-      <c r="D16" s="35">
+      <c r="D16" s="34">
         <v>280</v>
       </c>
-      <c r="E16" s="36" t="s">
+      <c r="E16" s="35" t="s">
         <v>56</v>
       </c>
-      <c r="F16" s="33" t="s">
+      <c r="F16" s="32" t="s">
         <v>64</v>
       </c>
-      <c r="G16" s="39" t="s">
+      <c r="G16" s="38" t="s">
         <v>65</v>
       </c>
-      <c r="H16" s="38" t="s">
+      <c r="H16" s="37" t="s">
         <v>66</v>
       </c>
-      <c r="I16" s="12"/>
-      <c r="J16" s="12"/>
-      <c r="K16" s="12"/>
-      <c r="L16" s="11"/>
+      <c r="I16" s="11"/>
+      <c r="J16" s="11"/>
+      <c r="K16" s="11"/>
+      <c r="L16" s="10"/>
     </row>
     <row r="17" spans="1:14" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="33" t="s">
+      <c r="A17" s="32" t="s">
         <v>67</v>
       </c>
-      <c r="B17" s="34">
-        <v>1</v>
-      </c>
-      <c r="C17" s="35">
+      <c r="B17" s="33">
+        <v>1</v>
+      </c>
+      <c r="C17" s="34">
         <v>15000</v>
       </c>
-      <c r="D17" s="35">
+      <c r="D17" s="34">
         <v>280</v>
       </c>
-      <c r="E17" s="36" t="s">
+      <c r="E17" s="35" t="s">
         <v>56</v>
       </c>
-      <c r="F17" s="33" t="s">
+      <c r="F17" s="32" t="s">
         <v>68</v>
       </c>
-      <c r="G17" s="39" t="s">
+      <c r="G17" s="38" t="s">
         <v>65</v>
       </c>
-      <c r="H17" s="38" t="s">
+      <c r="H17" s="37" t="s">
         <v>69</v>
       </c>
-      <c r="I17" s="12"/>
-      <c r="J17" s="12"/>
-      <c r="K17" s="12"/>
-      <c r="L17" s="11"/>
+      <c r="I17" s="11"/>
+      <c r="J17" s="11"/>
+      <c r="K17" s="11"/>
+      <c r="L17" s="10"/>
     </row>
     <row r="18" spans="1:14" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="40" t="s">
+      <c r="A18" s="39" t="s">
         <v>70</v>
       </c>
-      <c r="B18" s="41">
+      <c r="B18" s="40">
         <v>100</v>
       </c>
-      <c r="C18" s="35">
+      <c r="C18" s="34">
         <v>7000</v>
       </c>
-      <c r="D18" s="35">
+      <c r="D18" s="34">
         <v>90</v>
       </c>
-      <c r="E18" s="40" t="s">
+      <c r="E18" s="39" t="s">
         <v>71</v>
       </c>
-      <c r="F18" s="40" t="s">
+      <c r="F18" s="39" t="s">
         <v>70</v>
       </c>
-      <c r="G18" s="42" t="s">
+      <c r="G18" s="41" t="s">
         <v>72</v>
       </c>
-      <c r="H18" s="43" t="s">
+      <c r="H18" s="42" t="s">
         <v>73</v>
       </c>
-      <c r="I18" s="12"/>
-      <c r="K18" s="12"/>
-      <c r="L18" s="12"/>
+      <c r="I18" s="11"/>
+      <c r="K18" s="11"/>
+      <c r="L18" s="11"/>
     </row>
     <row r="19" spans="1:14" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="40" t="s">
+      <c r="A19" s="39" t="s">
         <v>74</v>
       </c>
-      <c r="B19" s="41">
+      <c r="B19" s="40">
         <v>100</v>
       </c>
-      <c r="C19" s="35">
+      <c r="C19" s="34">
         <v>7000</v>
       </c>
-      <c r="D19" s="35">
+      <c r="D19" s="34">
         <v>90</v>
       </c>
-      <c r="E19" s="40" t="s">
+      <c r="E19" s="39" t="s">
         <v>71</v>
       </c>
-      <c r="F19" s="40" t="s">
+      <c r="F19" s="39" t="s">
         <v>74</v>
       </c>
-      <c r="G19" s="42" t="s">
+      <c r="G19" s="41" t="s">
         <v>72</v>
       </c>
-      <c r="H19" s="43" t="s">
+      <c r="H19" s="42" t="s">
         <v>75</v>
       </c>
-      <c r="J19" s="11"/>
-      <c r="K19" s="12"/>
-      <c r="L19" s="5"/>
+      <c r="J19" s="10"/>
+      <c r="K19" s="11"/>
+      <c r="L19" s="4"/>
     </row>
     <row r="20" spans="1:14" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="40" t="s">
+      <c r="A20" s="39" t="s">
         <v>76</v>
       </c>
-      <c r="B20" s="41">
+      <c r="B20" s="40">
         <v>100</v>
       </c>
-      <c r="C20" s="35">
+      <c r="C20" s="34">
         <v>7000</v>
       </c>
-      <c r="D20" s="35">
+      <c r="D20" s="34">
         <v>90</v>
       </c>
-      <c r="E20" s="40" t="s">
+      <c r="E20" s="39" t="s">
         <v>71</v>
       </c>
-      <c r="F20" s="40" t="s">
+      <c r="F20" s="39" t="s">
         <v>76</v>
       </c>
-      <c r="G20" s="42" t="s">
+      <c r="G20" s="41" t="s">
         <v>72</v>
       </c>
-      <c r="H20" s="43" t="s">
+      <c r="H20" s="42" t="s">
         <v>77</v>
       </c>
-      <c r="I20" s="12"/>
-      <c r="J20" s="11"/>
-      <c r="K20" s="12"/>
-      <c r="L20" s="5"/>
+      <c r="I20" s="11"/>
+      <c r="J20" s="10"/>
+      <c r="K20" s="11"/>
+      <c r="L20" s="4"/>
     </row>
     <row r="21" spans="1:14" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="33" t="s">
+      <c r="A21" s="32" t="s">
         <v>78</v>
       </c>
-      <c r="B21" s="34">
+      <c r="B21" s="33">
         <v>100</v>
       </c>
-      <c r="C21" s="35">
+      <c r="C21" s="34">
         <v>5000</v>
       </c>
-      <c r="D21" s="35">
+      <c r="D21" s="34">
         <v>50</v>
       </c>
-      <c r="E21" s="40" t="s">
+      <c r="E21" s="39" t="s">
         <v>71</v>
       </c>
-      <c r="F21" s="33" t="s">
+      <c r="F21" s="32" t="s">
         <v>78</v>
       </c>
-      <c r="G21" s="39" t="s">
+      <c r="G21" s="38" t="s">
         <v>79</v>
       </c>
-      <c r="H21" s="38" t="s">
+      <c r="H21" s="37" t="s">
         <v>80</v>
       </c>
-      <c r="I21" s="12"/>
-      <c r="J21" s="12"/>
-      <c r="K21" s="12"/>
+      <c r="I21" s="11"/>
+      <c r="J21" s="11"/>
+      <c r="K21" s="11"/>
     </row>
     <row r="22" spans="1:14" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="33" t="s">
+      <c r="A22" s="32" t="s">
         <v>81</v>
       </c>
-      <c r="B22" s="34">
-        <v>1</v>
-      </c>
-      <c r="C22" s="35">
+      <c r="B22" s="33">
+        <v>1</v>
+      </c>
+      <c r="C22" s="34">
         <v>50000</v>
       </c>
-      <c r="D22" s="35">
+      <c r="D22" s="34">
         <v>1300</v>
       </c>
-      <c r="E22" s="40" t="s">
+      <c r="E22" s="39" t="s">
         <v>82</v>
       </c>
-      <c r="F22" s="33" t="s">
+      <c r="F22" s="32" t="s">
         <v>83</v>
       </c>
-      <c r="G22" s="39" t="s">
+      <c r="G22" s="38" t="s">
         <v>84</v>
       </c>
-      <c r="H22" s="38" t="s">
+      <c r="H22" s="37" t="s">
         <v>85</v>
       </c>
-      <c r="I22" s="12"/>
-      <c r="K22" s="12"/>
-      <c r="L22" s="5"/>
+      <c r="I22" s="11"/>
+      <c r="K22" s="11"/>
+      <c r="L22" s="4"/>
     </row>
     <row r="23" spans="1:14" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="33" t="s">
+      <c r="A23" s="32" t="s">
         <v>86</v>
       </c>
-      <c r="B23" s="34">
-        <v>1</v>
-      </c>
-      <c r="C23" s="35">
+      <c r="B23" s="33">
+        <v>1</v>
+      </c>
+      <c r="C23" s="34">
         <v>40000</v>
       </c>
-      <c r="D23" s="35">
+      <c r="D23" s="34">
         <v>900</v>
       </c>
-      <c r="E23" s="40" t="s">
+      <c r="E23" s="39" t="s">
         <v>82</v>
       </c>
-      <c r="F23" s="33" t="s">
+      <c r="F23" s="32" t="s">
         <v>87</v>
       </c>
-      <c r="G23" s="39" t="s">
+      <c r="G23" s="38" t="s">
         <v>88</v>
       </c>
-      <c r="H23" s="38" t="s">
+      <c r="H23" s="37" t="s">
         <v>89</v>
       </c>
-      <c r="I23" s="12"/>
-      <c r="J23" s="12"/>
-      <c r="K23" s="12"/>
-      <c r="L23" s="20"/>
+      <c r="I23" s="11"/>
+      <c r="J23" s="11"/>
+      <c r="K23" s="11"/>
+      <c r="L23" s="19"/>
     </row>
     <row r="24" spans="1:14" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="25" t="s">
+      <c r="A24" s="24" t="s">
         <v>90</v>
       </c>
-      <c r="B24" s="26">
+      <c r="B24" s="25">
         <v>100</v>
       </c>
-      <c r="C24" s="27">
+      <c r="C24" s="26">
         <v>1800</v>
       </c>
-      <c r="D24" s="27">
+      <c r="D24" s="26">
         <v>8</v>
       </c>
-      <c r="E24" s="28" t="s">
+      <c r="E24" s="27" t="s">
         <v>91</v>
       </c>
-      <c r="F24" s="25" t="s">
+      <c r="F24" s="24" t="s">
         <v>92</v>
       </c>
-      <c r="G24" s="39" t="s">
+      <c r="G24" s="38" t="s">
         <v>93</v>
       </c>
-      <c r="H24" s="29" t="s">
+      <c r="H24" s="28" t="s">
         <v>94</v>
       </c>
-      <c r="I24" s="5"/>
-      <c r="J24" s="5"/>
-      <c r="K24" s="12"/>
-      <c r="L24" s="12"/>
+      <c r="I24" s="4"/>
+      <c r="J24" s="4"/>
+      <c r="K24" s="11"/>
+      <c r="L24" s="11"/>
     </row>
     <row r="25" spans="1:14" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="25" t="s">
+      <c r="A25" s="24" t="s">
         <v>95</v>
       </c>
-      <c r="B25" s="26">
+      <c r="B25" s="25">
         <v>100</v>
       </c>
-      <c r="C25" s="27">
+      <c r="C25" s="26">
         <v>3000</v>
       </c>
-      <c r="D25" s="27">
+      <c r="D25" s="26">
         <v>8</v>
       </c>
-      <c r="E25" s="28" t="s">
+      <c r="E25" s="27" t="s">
         <v>91</v>
       </c>
-      <c r="F25" s="25" t="s">
+      <c r="F25" s="24" t="s">
         <v>96</v>
       </c>
-      <c r="G25" s="39" t="s">
+      <c r="G25" s="38" t="s">
         <v>97</v>
       </c>
-      <c r="H25" s="29" t="s">
+      <c r="H25" s="28" t="s">
         <v>98</v>
       </c>
-      <c r="I25" s="12"/>
-      <c r="J25" s="12"/>
-      <c r="K25" s="20"/>
-      <c r="L25" s="11"/>
+      <c r="I25" s="11"/>
+      <c r="J25" s="11"/>
+      <c r="K25" s="19"/>
+      <c r="L25" s="10"/>
     </row>
     <row r="26" spans="1:14" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="44" t="s">
+      <c r="A26" s="43" t="s">
         <v>99</v>
       </c>
-      <c r="B26" s="45">
+      <c r="B26" s="44">
         <v>100</v>
       </c>
-      <c r="C26" s="46">
-        <v>6500</v>
-      </c>
-      <c r="D26" s="46">
+      <c r="C26" s="45">
+        <v>7000</v>
+      </c>
+      <c r="D26" s="45">
         <v>235</v>
       </c>
-      <c r="E26" s="47" t="s">
+      <c r="E26" s="46" t="s">
         <v>100</v>
       </c>
-      <c r="F26" s="44" t="s">
+      <c r="F26" s="43" t="s">
         <v>101</v>
       </c>
-      <c r="G26" s="39" t="s">
+      <c r="G26" s="38" t="s">
         <v>102</v>
       </c>
-      <c r="H26" s="48" t="s">
+      <c r="H26" s="47" t="s">
         <v>103</v>
       </c>
-      <c r="I26" s="49"/>
-      <c r="J26" s="12"/>
-      <c r="K26" s="12"/>
+      <c r="I26" s="48"/>
+      <c r="J26" s="11"/>
+      <c r="K26" s="11"/>
     </row>
     <row r="27" spans="1:14" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="44" t="s">
+      <c r="A27" s="43" t="s">
         <v>104</v>
       </c>
-      <c r="B27" s="45">
+      <c r="B27" s="44">
         <v>100</v>
       </c>
-      <c r="C27" s="46">
+      <c r="C27" s="45">
         <v>4600</v>
       </c>
-      <c r="D27" s="46">
+      <c r="D27" s="45">
         <v>170</v>
       </c>
-      <c r="E27" s="50" t="s">
+      <c r="E27" s="49" t="s">
         <v>100</v>
       </c>
-      <c r="F27" s="44" t="s">
+      <c r="F27" s="43" t="s">
         <v>105</v>
       </c>
-      <c r="G27" s="51" t="s">
+      <c r="G27" s="50" t="s">
         <v>106</v>
       </c>
-      <c r="H27" s="52" t="s">
+      <c r="H27" s="51" t="s">
         <v>107</v>
       </c>
-      <c r="I27" s="12"/>
-      <c r="J27" s="12"/>
-      <c r="K27" s="12"/>
+      <c r="I27" s="11"/>
+      <c r="J27" s="11"/>
+      <c r="K27" s="11"/>
     </row>
     <row r="28" spans="1:14" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="53" t="s">
+      <c r="A28" s="52" t="s">
         <v>108</v>
       </c>
-      <c r="B28" s="54">
-        <v>1</v>
-      </c>
-      <c r="C28" s="55">
+      <c r="B28" s="53">
+        <v>1</v>
+      </c>
+      <c r="C28" s="54">
         <v>15000</v>
       </c>
-      <c r="D28" s="55">
+      <c r="D28" s="54">
         <v>40</v>
       </c>
-      <c r="E28" s="56" t="s">
+      <c r="E28" s="55" t="s">
         <v>109</v>
       </c>
-      <c r="F28" s="53" t="s">
+      <c r="F28" s="52" t="s">
         <v>110</v>
       </c>
-      <c r="G28" s="57" t="s">
+      <c r="G28" s="56" t="s">
         <v>111</v>
       </c>
-      <c r="H28" s="58" t="s">
+      <c r="H28" s="57" t="s">
         <v>112</v>
       </c>
-      <c r="I28" s="5"/>
-      <c r="J28" s="5"/>
-      <c r="K28" s="32"/>
+      <c r="I28" s="4"/>
+      <c r="J28" s="4"/>
+      <c r="K28" s="31"/>
     </row>
     <row r="29" spans="1:14" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="53" t="s">
+      <c r="A29" s="52" t="s">
         <v>113</v>
       </c>
-      <c r="B29" s="54">
-        <v>1</v>
-      </c>
-      <c r="C29" s="55">
+      <c r="B29" s="53">
+        <v>1</v>
+      </c>
+      <c r="C29" s="54">
         <v>4600</v>
       </c>
-      <c r="D29" s="55">
+      <c r="D29" s="54">
         <v>35</v>
       </c>
-      <c r="E29" s="59" t="s">
+      <c r="E29" s="58" t="s">
         <v>109</v>
       </c>
-      <c r="F29" s="53" t="s">
+      <c r="F29" s="52" t="s">
         <v>114</v>
       </c>
-      <c r="G29" s="51" t="s">
+      <c r="G29" s="50" t="s">
         <v>115</v>
       </c>
-      <c r="H29" s="58" t="s">
+      <c r="H29" s="57" t="s">
         <v>116</v>
       </c>
-      <c r="I29" s="5"/>
-      <c r="J29" s="5"/>
-      <c r="K29" s="12"/>
+      <c r="I29" s="4"/>
+      <c r="J29" s="4"/>
+      <c r="K29" s="11"/>
     </row>
     <row r="30" spans="1:14" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="53" t="s">
+      <c r="A30" s="52" t="s">
         <v>117</v>
       </c>
-      <c r="B30" s="54">
-        <v>1</v>
-      </c>
-      <c r="C30" s="55">
+      <c r="B30" s="53">
+        <v>1</v>
+      </c>
+      <c r="C30" s="54">
         <v>16000</v>
       </c>
-      <c r="D30" s="55">
+      <c r="D30" s="54">
         <v>210</v>
       </c>
-      <c r="E30" s="59" t="s">
+      <c r="E30" s="58" t="s">
         <v>109</v>
       </c>
-      <c r="F30" s="53" t="s">
+      <c r="F30" s="52" t="s">
         <v>118</v>
       </c>
-      <c r="G30" s="39" t="s">
+      <c r="G30" s="38" t="s">
         <v>119</v>
       </c>
-      <c r="H30" s="58" t="s">
+      <c r="H30" s="57" t="s">
         <v>120</v>
       </c>
-      <c r="I30" s="60"/>
-      <c r="J30" s="61"/>
-      <c r="K30" s="60"/>
-      <c r="N30" s="62"/>
+      <c r="I30" s="59"/>
+      <c r="J30" s="60"/>
+      <c r="K30" s="59"/>
+      <c r="N30" s="61"/>
     </row>
     <row r="31" spans="1:14" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="53" t="s">
+      <c r="A31" s="52" t="s">
         <v>121</v>
       </c>
-      <c r="B31" s="54">
-        <v>1</v>
-      </c>
-      <c r="C31" s="55">
+      <c r="B31" s="53">
+        <v>1</v>
+      </c>
+      <c r="C31" s="54">
         <v>25000</v>
       </c>
-      <c r="D31" s="55">
+      <c r="D31" s="54">
         <v>265</v>
       </c>
-      <c r="E31" s="59" t="s">
+      <c r="E31" s="58" t="s">
         <v>109</v>
       </c>
-      <c r="F31" s="53" t="s">
+      <c r="F31" s="52" t="s">
         <v>122</v>
       </c>
-      <c r="G31" s="39" t="s">
+      <c r="G31" s="38" t="s">
         <v>123</v>
       </c>
-      <c r="H31" s="58" t="s">
+      <c r="H31" s="57" t="s">
         <v>124</v>
       </c>
-      <c r="I31" s="5"/>
-      <c r="J31" s="12"/>
-      <c r="K31" s="12"/>
+      <c r="I31" s="4"/>
+      <c r="J31" s="11"/>
+      <c r="K31" s="11"/>
     </row>
     <row r="32" spans="1:14" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="53" t="s">
+      <c r="A32" s="52" t="s">
         <v>125</v>
       </c>
-      <c r="B32" s="54">
-        <v>1</v>
-      </c>
-      <c r="C32" s="55">
+      <c r="B32" s="53">
+        <v>1</v>
+      </c>
+      <c r="C32" s="54">
         <v>4000</v>
       </c>
-      <c r="D32" s="55">
+      <c r="D32" s="54">
         <v>18</v>
       </c>
-      <c r="E32" s="59" t="s">
+      <c r="E32" s="58" t="s">
         <v>126</v>
       </c>
-      <c r="F32" s="53" t="s">
+      <c r="F32" s="52" t="s">
         <v>127</v>
       </c>
-      <c r="G32" s="63" t="s">
+      <c r="G32" s="62" t="s">
         <v>128</v>
       </c>
-      <c r="H32" s="58" t="s">
+      <c r="H32" s="57" t="s">
         <v>129</v>
       </c>
-      <c r="I32" s="5"/>
-      <c r="J32" s="12"/>
-      <c r="K32" s="12"/>
+      <c r="I32" s="4"/>
+      <c r="J32" s="11"/>
+      <c r="K32" s="11"/>
     </row>
     <row r="33" spans="1:12" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="53" t="s">
+      <c r="A33" s="52" t="s">
         <v>130</v>
       </c>
-      <c r="B33" s="54">
-        <v>1</v>
-      </c>
-      <c r="C33" s="55">
+      <c r="B33" s="53">
+        <v>1</v>
+      </c>
+      <c r="C33" s="54">
         <v>4000</v>
       </c>
-      <c r="D33" s="55">
+      <c r="D33" s="54">
         <v>18</v>
       </c>
-      <c r="E33" s="59" t="s">
+      <c r="E33" s="58" t="s">
         <v>126</v>
       </c>
-      <c r="F33" s="53" t="s">
+      <c r="F33" s="52" t="s">
         <v>131</v>
       </c>
-      <c r="G33" s="63" t="s">
+      <c r="G33" s="62" t="s">
         <v>128</v>
       </c>
-      <c r="H33" s="58" t="s">
+      <c r="H33" s="57" t="s">
         <v>132</v>
       </c>
-      <c r="I33" s="5"/>
-      <c r="J33" s="20"/>
-      <c r="K33" s="12"/>
+      <c r="I33" s="4"/>
+      <c r="J33" s="19"/>
+      <c r="K33" s="11"/>
     </row>
     <row r="34" spans="1:12" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="53" t="s">
+      <c r="A34" s="52" t="s">
         <v>133</v>
       </c>
-      <c r="B34" s="54">
-        <v>1</v>
-      </c>
-      <c r="C34" s="55">
+      <c r="B34" s="53">
+        <v>1</v>
+      </c>
+      <c r="C34" s="54">
         <v>4000</v>
       </c>
-      <c r="D34" s="55">
+      <c r="D34" s="54">
         <v>18</v>
       </c>
-      <c r="E34" s="59" t="s">
+      <c r="E34" s="58" t="s">
         <v>126</v>
       </c>
-      <c r="F34" s="53" t="s">
+      <c r="F34" s="52" t="s">
         <v>134</v>
       </c>
-      <c r="G34" s="63" t="s">
+      <c r="G34" s="62" t="s">
         <v>128</v>
       </c>
-      <c r="H34" s="58" t="s">
+      <c r="H34" s="57" t="s">
         <v>135</v>
       </c>
-      <c r="I34" s="5"/>
-      <c r="J34" s="11"/>
-      <c r="K34" s="12"/>
+      <c r="I34" s="4"/>
+      <c r="J34" s="10"/>
+      <c r="K34" s="11"/>
     </row>
     <row r="35" spans="1:12" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="53" t="s">
+      <c r="A35" s="52" t="s">
         <v>136</v>
       </c>
-      <c r="B35" s="54">
-        <v>1</v>
-      </c>
-      <c r="C35" s="55">
+      <c r="B35" s="53">
+        <v>1</v>
+      </c>
+      <c r="C35" s="54">
         <v>4000</v>
       </c>
-      <c r="D35" s="55">
+      <c r="D35" s="54">
         <v>18</v>
       </c>
-      <c r="E35" s="59" t="s">
+      <c r="E35" s="58" t="s">
         <v>126</v>
       </c>
-      <c r="F35" s="53" t="s">
+      <c r="F35" s="52" t="s">
         <v>137</v>
       </c>
-      <c r="G35" s="63" t="s">
+      <c r="G35" s="62" t="s">
         <v>128</v>
       </c>
-      <c r="H35" s="64" t="s">
+      <c r="H35" s="63" t="s">
         <v>135</v>
       </c>
-      <c r="I35" s="49"/>
-      <c r="J35" s="12"/>
-      <c r="K35" s="12"/>
-      <c r="L35" s="20"/>
+      <c r="I35" s="48"/>
+      <c r="J35" s="11"/>
+      <c r="K35" s="11"/>
+      <c r="L35" s="19"/>
     </row>
     <row r="36" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="25" t="s">
+      <c r="A36" s="24" t="s">
         <v>138</v>
       </c>
-      <c r="B36" s="65">
+      <c r="B36" s="64">
         <v>100</v>
       </c>
-      <c r="C36" s="66">
+      <c r="C36" s="65">
         <v>9000</v>
       </c>
-      <c r="D36" s="67">
+      <c r="D36" s="66">
         <v>350</v>
       </c>
-      <c r="E36" s="28" t="s">
+      <c r="E36" s="27" t="s">
         <v>139</v>
       </c>
-      <c r="F36" s="25" t="s">
+      <c r="F36" s="24" t="s">
         <v>140</v>
       </c>
-      <c r="G36" s="68" t="s">
+      <c r="G36" s="67" t="s">
         <v>141</v>
       </c>
-      <c r="H36" s="69" t="s">
+      <c r="H36" s="68" t="s">
         <v>142</v>
       </c>
-      <c r="I36" s="70"/>
+      <c r="I36" s="69"/>
     </row>
     <row r="37" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="71" t="s">
+      <c r="A37" s="70" t="s">
         <v>143</v>
       </c>
-      <c r="B37" s="65">
+      <c r="B37" s="64">
         <v>100</v>
       </c>
-      <c r="C37" s="72">
+      <c r="C37" s="71">
         <v>5800</v>
       </c>
-      <c r="D37" s="67">
+      <c r="D37" s="66">
         <v>20</v>
       </c>
-      <c r="E37" s="28" t="s">
+      <c r="E37" s="27" t="s">
         <v>139</v>
       </c>
-      <c r="F37" s="25" t="s">
+      <c r="F37" s="24" t="s">
         <v>144</v>
       </c>
-      <c r="G37" s="73" t="s">
+      <c r="G37" s="72" t="s">
         <v>145</v>
       </c>
-      <c r="H37" s="74" t="s">
+      <c r="H37" s="73" t="s">
         <v>146</v>
       </c>
-      <c r="I37" s="75"/>
+      <c r="I37" s="74"/>
     </row>
     <row r="38" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="25" t="s">
+      <c r="A38" s="24" t="s">
         <v>147</v>
       </c>
-      <c r="B38" s="65">
+      <c r="B38" s="64">
         <v>100</v>
       </c>
-      <c r="C38" s="67">
+      <c r="C38" s="66">
         <v>5800</v>
       </c>
-      <c r="D38" s="67">
+      <c r="D38" s="66">
         <v>20</v>
       </c>
-      <c r="E38" s="28" t="s">
+      <c r="E38" s="27" t="s">
         <v>139</v>
       </c>
-      <c r="F38" s="25" t="s">
+      <c r="F38" s="24" t="s">
         <v>148</v>
       </c>
-      <c r="G38" s="73" t="s">
+      <c r="G38" s="72" t="s">
         <v>145</v>
       </c>
-      <c r="H38" s="76" t="s">
+      <c r="H38" s="75" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="39" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="77" t="s">
+      <c r="A39" s="76" t="s">
         <v>149</v>
       </c>
-      <c r="B39" s="78">
-        <v>1</v>
-      </c>
-      <c r="C39" s="79">
+      <c r="B39" s="77">
+        <v>1</v>
+      </c>
+      <c r="C39" s="78">
         <v>10000</v>
       </c>
-      <c r="D39" s="79">
+      <c r="D39" s="78">
         <v>125</v>
       </c>
-      <c r="E39" s="59" t="s">
+      <c r="E39" s="58" t="s">
         <v>150</v>
       </c>
-      <c r="F39" s="59" t="s">
+      <c r="F39" s="58" t="s">
         <v>151</v>
       </c>
-      <c r="G39" s="59" t="s">
+      <c r="G39" s="58" t="s">
         <v>152</v>
       </c>
-      <c r="H39" s="80" t="s">
+      <c r="H39" s="79" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="40" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="77" t="s">
+      <c r="A40" s="76" t="s">
         <v>154</v>
       </c>
-      <c r="B40" s="78">
-        <v>1</v>
-      </c>
-      <c r="C40" s="79">
+      <c r="B40" s="77">
+        <v>1</v>
+      </c>
+      <c r="C40" s="78">
         <v>10000</v>
       </c>
-      <c r="D40" s="79">
+      <c r="D40" s="78">
         <v>125</v>
       </c>
-      <c r="E40" s="59" t="s">
+      <c r="E40" s="58" t="s">
         <v>150</v>
       </c>
-      <c r="F40" s="59" t="s">
+      <c r="F40" s="58" t="s">
         <v>155</v>
       </c>
-      <c r="G40" s="59" t="s">
+      <c r="G40" s="58" t="s">
         <v>152</v>
       </c>
-      <c r="H40" s="80" t="s">
+      <c r="H40" s="79" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="41" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="32" t="s">
+      <c r="A41" s="31" t="s">
         <v>157</v>
       </c>
-      <c r="B41" s="81">
-        <v>1</v>
-      </c>
-      <c r="C41" s="82">
+      <c r="B41" s="80">
+        <v>1</v>
+      </c>
+      <c r="C41" s="81">
         <v>9000</v>
       </c>
-      <c r="D41" s="82">
+      <c r="D41" s="81">
         <v>40</v>
       </c>
-      <c r="E41" s="83" t="s">
+      <c r="E41" s="82" t="s">
         <v>158</v>
       </c>
-      <c r="F41" s="83" t="s">
+      <c r="F41" s="82" t="s">
         <v>159</v>
       </c>
-      <c r="G41" s="83" t="s">
+      <c r="G41" s="82" t="s">
         <v>160</v>
       </c>
-      <c r="H41" s="80" t="s">
+      <c r="H41" s="79" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="42" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="32" t="s">
+      <c r="A42" s="31" t="s">
         <v>162</v>
       </c>
-      <c r="B42" s="81">
-        <v>1</v>
-      </c>
-      <c r="C42" s="82">
+      <c r="B42" s="80">
+        <v>1</v>
+      </c>
+      <c r="C42" s="81">
         <v>9000</v>
       </c>
-      <c r="D42" s="82">
+      <c r="D42" s="81">
         <v>40</v>
       </c>
-      <c r="E42" s="83" t="s">
+      <c r="E42" s="82" t="s">
         <v>158</v>
       </c>
-      <c r="F42" s="83" t="s">
+      <c r="F42" s="82" t="s">
         <v>163</v>
       </c>
-      <c r="G42" s="83" t="s">
+      <c r="G42" s="82" t="s">
         <v>160</v>
       </c>
-      <c r="H42" s="80" t="s">
+      <c r="H42" s="79" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="43" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="32" t="s">
+      <c r="A43" s="31" t="s">
         <v>165</v>
       </c>
-      <c r="B43" s="81">
-        <v>1</v>
-      </c>
-      <c r="C43" s="82">
+      <c r="B43" s="80">
+        <v>1</v>
+      </c>
+      <c r="C43" s="81">
         <v>9000</v>
       </c>
-      <c r="D43" s="82">
+      <c r="D43" s="81">
         <v>40</v>
       </c>
-      <c r="E43" s="83" t="s">
+      <c r="E43" s="82" t="s">
         <v>158</v>
       </c>
-      <c r="F43" s="83" t="s">
+      <c r="F43" s="82" t="s">
         <v>166</v>
       </c>
-      <c r="G43" s="83" t="s">
+      <c r="G43" s="82" t="s">
         <v>160</v>
       </c>
-      <c r="H43" s="80" t="s">
+      <c r="H43" s="79" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="44" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="32" t="s">
+      <c r="A44" s="31" t="s">
         <v>168</v>
       </c>
-      <c r="B44" s="81">
-        <v>1</v>
-      </c>
-      <c r="C44" s="82">
+      <c r="B44" s="80">
+        <v>1</v>
+      </c>
+      <c r="C44" s="81">
         <v>9000</v>
       </c>
-      <c r="D44" s="82">
+      <c r="D44" s="81">
         <v>40</v>
       </c>
-      <c r="E44" s="83" t="s">
+      <c r="E44" s="82" t="s">
         <v>158</v>
       </c>
-      <c r="F44" s="83" t="s">
+      <c r="F44" s="82" t="s">
         <v>169</v>
       </c>
-      <c r="G44" s="83" t="s">
+      <c r="G44" s="82" t="s">
         <v>160</v>
       </c>
-      <c r="H44" s="80" t="s">
+      <c r="H44" s="79" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="45" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="32" t="s">
+      <c r="A45" s="31" t="s">
         <v>171</v>
       </c>
-      <c r="B45" s="81">
+      <c r="B45" s="80">
         <v>100</v>
       </c>
-      <c r="C45" s="82">
+      <c r="C45" s="81">
         <v>8000</v>
       </c>
-      <c r="D45" s="82">
+      <c r="D45" s="81">
         <v>250</v>
       </c>
-      <c r="E45" s="83" t="s">
+      <c r="E45" s="82" t="s">
         <v>172</v>
       </c>
-      <c r="F45" s="83" t="s">
+      <c r="F45" s="82" t="s">
         <v>173</v>
       </c>
-      <c r="G45" s="83" t="s">
+      <c r="G45" s="82" t="s">
         <v>174</v>
       </c>
-      <c r="H45" s="80" t="s">
+      <c r="H45" s="79" t="s">
         <v>175</v>
       </c>
       <c r="I45" t="s">
@@ -2546,24 +2546,24 @@
       </c>
     </row>
     <row r="46" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="83"/>
-      <c r="B46" s="81"/>
-      <c r="C46" s="82"/>
-      <c r="D46" s="82"/>
-      <c r="E46" s="83"/>
-      <c r="F46" s="83"/>
-      <c r="G46" s="83"/>
-      <c r="H46" s="83"/>
+      <c r="A46" s="82"/>
+      <c r="B46" s="80"/>
+      <c r="C46" s="81"/>
+      <c r="D46" s="81"/>
+      <c r="E46" s="82"/>
+      <c r="F46" s="82"/>
+      <c r="G46" s="82"/>
+      <c r="H46" s="82"/>
     </row>
     <row r="47" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="83"/>
-      <c r="B47" s="81"/>
-      <c r="C47" s="82"/>
-      <c r="D47" s="82"/>
-      <c r="E47" s="83"/>
-      <c r="F47" s="83"/>
-      <c r="G47" s="83"/>
-      <c r="H47" s="83"/>
+      <c r="A47" s="82"/>
+      <c r="B47" s="80"/>
+      <c r="C47" s="81"/>
+      <c r="D47" s="81"/>
+      <c r="E47" s="82"/>
+      <c r="F47" s="82"/>
+      <c r="G47" s="82"/>
+      <c r="H47" s="82"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/data/web-repositorio.xlsx
+++ b/data/web-repositorio.xlsx
@@ -1241,8 +1241,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2139,7 +2139,7 @@
         <v>121</v>
       </c>
       <c r="B31" s="53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C31" s="54">
         <v>25000</v>

--- a/data/web-repositorio.xlsx
+++ b/data/web-repositorio.xlsx
@@ -1241,8 +1241,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2288,7 +2288,7 @@
         <v>100</v>
       </c>
       <c r="C36" s="65">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="D36" s="66">
         <v>350</v>

--- a/data/web-repositorio.xlsx
+++ b/data/web-repositorio.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="181">
   <si>
     <t>CARMELITAS BARILOCHE WEB</t>
   </si>
@@ -555,6 +555,18 @@
   </si>
   <si>
     <t>Esfera de Rosas</t>
+  </si>
+  <si>
+    <t>Cerámica Virgen de las Nieves</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nuestra Señora de las Nieves, imagen realizada en Cerámica con base de madera, 26,5 alto x 9,5 x 9,5. </t>
+  </si>
+  <si>
+    <t>..\Pictures\A TRABAJOS WEB\Cerámica\Virgen de las nieves.jpg</t>
+  </si>
+  <si>
+    <t>Virgen de las nieves</t>
   </si>
 </sst>
 </file>
@@ -806,7 +818,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="84">
+  <cellXfs count="85">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
@@ -975,6 +987,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="2" applyBorder="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Excel Built-in Explanatory Text" xfId="3"/>
@@ -1239,10 +1252,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N47"/>
+  <dimension ref="A1:N48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C36" sqref="C36"/>
+    <sheetView tabSelected="1" topLeftCell="E28" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2139,7 +2152,7 @@
         <v>121</v>
       </c>
       <c r="B31" s="53">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C31" s="54">
         <v>25000</v>
@@ -2165,28 +2178,28 @@
     </row>
     <row r="32" spans="1:14" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="52" t="s">
-        <v>125</v>
+        <v>177</v>
       </c>
       <c r="B32" s="53">
         <v>1</v>
       </c>
       <c r="C32" s="54">
-        <v>4000</v>
+        <v>35000</v>
       </c>
       <c r="D32" s="54">
-        <v>18</v>
+        <v>495</v>
       </c>
       <c r="E32" s="58" t="s">
-        <v>126</v>
+        <v>109</v>
       </c>
       <c r="F32" s="52" t="s">
-        <v>127</v>
+        <v>180</v>
       </c>
       <c r="G32" s="62" t="s">
-        <v>128</v>
-      </c>
-      <c r="H32" s="57" t="s">
-        <v>129</v>
+        <v>178</v>
+      </c>
+      <c r="H32" s="84" t="s">
+        <v>179</v>
       </c>
       <c r="I32" s="4"/>
       <c r="J32" s="11"/>
@@ -2194,7 +2207,7 @@
     </row>
     <row r="33" spans="1:12" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="52" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="B33" s="53">
         <v>1</v>
@@ -2209,21 +2222,21 @@
         <v>126</v>
       </c>
       <c r="F33" s="52" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="G33" s="62" t="s">
         <v>128</v>
       </c>
       <c r="H33" s="57" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="I33" s="4"/>
-      <c r="J33" s="19"/>
+      <c r="J33" s="11"/>
       <c r="K33" s="11"/>
     </row>
     <row r="34" spans="1:12" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="52" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B34" s="53">
         <v>1</v>
@@ -2238,21 +2251,21 @@
         <v>126</v>
       </c>
       <c r="F34" s="52" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="G34" s="62" t="s">
         <v>128</v>
       </c>
       <c r="H34" s="57" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="I34" s="4"/>
-      <c r="J34" s="10"/>
+      <c r="J34" s="19"/>
       <c r="K34" s="11"/>
     </row>
     <row r="35" spans="1:12" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="52" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="B35" s="53">
         <v>1</v>
@@ -2267,81 +2280,83 @@
         <v>126</v>
       </c>
       <c r="F35" s="52" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="G35" s="62" t="s">
         <v>128</v>
       </c>
-      <c r="H35" s="63" t="s">
+      <c r="H35" s="57" t="s">
         <v>135</v>
       </c>
-      <c r="I35" s="48"/>
-      <c r="J35" s="11"/>
+      <c r="I35" s="4"/>
+      <c r="J35" s="10"/>
       <c r="K35" s="11"/>
-      <c r="L35" s="19"/>
-    </row>
-    <row r="36" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="24" t="s">
+    </row>
+    <row r="36" spans="1:12" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="52" t="s">
+        <v>136</v>
+      </c>
+      <c r="B36" s="53">
+        <v>1</v>
+      </c>
+      <c r="C36" s="54">
+        <v>4000</v>
+      </c>
+      <c r="D36" s="54">
+        <v>18</v>
+      </c>
+      <c r="E36" s="58" t="s">
+        <v>126</v>
+      </c>
+      <c r="F36" s="52" t="s">
+        <v>137</v>
+      </c>
+      <c r="G36" s="62" t="s">
+        <v>128</v>
+      </c>
+      <c r="H36" s="63" t="s">
+        <v>135</v>
+      </c>
+      <c r="I36" s="48"/>
+      <c r="J36" s="11"/>
+      <c r="K36" s="11"/>
+      <c r="L36" s="19"/>
+    </row>
+    <row r="37" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="24" t="s">
         <v>138</v>
-      </c>
-      <c r="B36" s="64">
-        <v>100</v>
-      </c>
-      <c r="C36" s="65">
-        <v>10000</v>
-      </c>
-      <c r="D36" s="66">
-        <v>350</v>
-      </c>
-      <c r="E36" s="27" t="s">
-        <v>139</v>
-      </c>
-      <c r="F36" s="24" t="s">
-        <v>140</v>
-      </c>
-      <c r="G36" s="67" t="s">
-        <v>141</v>
-      </c>
-      <c r="H36" s="68" t="s">
-        <v>142</v>
-      </c>
-      <c r="I36" s="69"/>
-    </row>
-    <row r="37" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="70" t="s">
-        <v>143</v>
       </c>
       <c r="B37" s="64">
         <v>100</v>
       </c>
-      <c r="C37" s="71">
-        <v>5800</v>
+      <c r="C37" s="65">
+        <v>10000</v>
       </c>
       <c r="D37" s="66">
-        <v>20</v>
+        <v>350</v>
       </c>
       <c r="E37" s="27" t="s">
         <v>139</v>
       </c>
       <c r="F37" s="24" t="s">
-        <v>144</v>
-      </c>
-      <c r="G37" s="72" t="s">
-        <v>145</v>
-      </c>
-      <c r="H37" s="73" t="s">
-        <v>146</v>
-      </c>
-      <c r="I37" s="74"/>
+        <v>140</v>
+      </c>
+      <c r="G37" s="67" t="s">
+        <v>141</v>
+      </c>
+      <c r="H37" s="68" t="s">
+        <v>142</v>
+      </c>
+      <c r="I37" s="69"/>
     </row>
     <row r="38" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="24" t="s">
-        <v>147</v>
+      <c r="A38" s="70" t="s">
+        <v>143</v>
       </c>
       <c r="B38" s="64">
         <v>100</v>
       </c>
-      <c r="C38" s="66">
+      <c r="C38" s="71">
         <v>5800</v>
       </c>
       <c r="D38" s="66">
@@ -2351,44 +2366,45 @@
         <v>139</v>
       </c>
       <c r="F38" s="24" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="G38" s="72" t="s">
         <v>145</v>
       </c>
-      <c r="H38" s="75" t="s">
+      <c r="H38" s="73" t="s">
         <v>146</v>
       </c>
+      <c r="I38" s="74"/>
     </row>
     <row r="39" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="76" t="s">
-        <v>149</v>
-      </c>
-      <c r="B39" s="77">
-        <v>1</v>
-      </c>
-      <c r="C39" s="78">
-        <v>10000</v>
-      </c>
-      <c r="D39" s="78">
-        <v>125</v>
-      </c>
-      <c r="E39" s="58" t="s">
-        <v>150</v>
-      </c>
-      <c r="F39" s="58" t="s">
-        <v>151</v>
-      </c>
-      <c r="G39" s="58" t="s">
-        <v>152</v>
-      </c>
-      <c r="H39" s="79" t="s">
-        <v>153</v>
+      <c r="A39" s="24" t="s">
+        <v>147</v>
+      </c>
+      <c r="B39" s="64">
+        <v>100</v>
+      </c>
+      <c r="C39" s="66">
+        <v>5800</v>
+      </c>
+      <c r="D39" s="66">
+        <v>20</v>
+      </c>
+      <c r="E39" s="27" t="s">
+        <v>139</v>
+      </c>
+      <c r="F39" s="24" t="s">
+        <v>148</v>
+      </c>
+      <c r="G39" s="72" t="s">
+        <v>145</v>
+      </c>
+      <c r="H39" s="75" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="40" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="76" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="B40" s="77">
         <v>1</v>
@@ -2403,44 +2419,44 @@
         <v>150</v>
       </c>
       <c r="F40" s="58" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="G40" s="58" t="s">
         <v>152</v>
       </c>
       <c r="H40" s="79" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="76" t="s">
+        <v>154</v>
+      </c>
+      <c r="B41" s="77">
+        <v>1</v>
+      </c>
+      <c r="C41" s="78">
+        <v>10000</v>
+      </c>
+      <c r="D41" s="78">
+        <v>125</v>
+      </c>
+      <c r="E41" s="58" t="s">
+        <v>150</v>
+      </c>
+      <c r="F41" s="58" t="s">
+        <v>155</v>
+      </c>
+      <c r="G41" s="58" t="s">
+        <v>152</v>
+      </c>
+      <c r="H41" s="79" t="s">
         <v>156</v>
-      </c>
-    </row>
-    <row r="41" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="31" t="s">
-        <v>157</v>
-      </c>
-      <c r="B41" s="80">
-        <v>1</v>
-      </c>
-      <c r="C41" s="81">
-        <v>9000</v>
-      </c>
-      <c r="D41" s="81">
-        <v>40</v>
-      </c>
-      <c r="E41" s="82" t="s">
-        <v>158</v>
-      </c>
-      <c r="F41" s="82" t="s">
-        <v>159</v>
-      </c>
-      <c r="G41" s="82" t="s">
-        <v>160</v>
-      </c>
-      <c r="H41" s="79" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="42" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="31" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="B42" s="80">
         <v>1</v>
@@ -2455,18 +2471,18 @@
         <v>158</v>
       </c>
       <c r="F42" s="82" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="G42" s="82" t="s">
         <v>160</v>
       </c>
       <c r="H42" s="79" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="43" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="31" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B43" s="80">
         <v>1</v>
@@ -2481,18 +2497,18 @@
         <v>158</v>
       </c>
       <c r="F43" s="82" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="G43" s="82" t="s">
         <v>160</v>
       </c>
       <c r="H43" s="79" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
     </row>
     <row r="44" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="31" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="B44" s="80">
         <v>1</v>
@@ -2507,53 +2523,69 @@
         <v>158</v>
       </c>
       <c r="F44" s="82" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="G44" s="82" t="s">
         <v>160</v>
       </c>
       <c r="H44" s="79" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
     </row>
     <row r="45" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="31" t="s">
+        <v>168</v>
+      </c>
+      <c r="B45" s="80">
+        <v>1</v>
+      </c>
+      <c r="C45" s="81">
+        <v>9000</v>
+      </c>
+      <c r="D45" s="81">
+        <v>40</v>
+      </c>
+      <c r="E45" s="82" t="s">
+        <v>158</v>
+      </c>
+      <c r="F45" s="82" t="s">
+        <v>169</v>
+      </c>
+      <c r="G45" s="82" t="s">
+        <v>160</v>
+      </c>
+      <c r="H45" s="79" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="31" t="s">
         <v>171</v>
       </c>
-      <c r="B45" s="80">
+      <c r="B46" s="80">
         <v>100</v>
       </c>
-      <c r="C45" s="81">
+      <c r="C46" s="81">
         <v>8000</v>
       </c>
-      <c r="D45" s="81">
+      <c r="D46" s="81">
         <v>250</v>
       </c>
-      <c r="E45" s="82" t="s">
+      <c r="E46" s="82" t="s">
         <v>172</v>
       </c>
-      <c r="F45" s="82" t="s">
+      <c r="F46" s="82" t="s">
         <v>173</v>
       </c>
-      <c r="G45" s="82" t="s">
+      <c r="G46" s="82" t="s">
         <v>174</v>
       </c>
-      <c r="H45" s="79" t="s">
+      <c r="H46" s="79" t="s">
         <v>175</v>
       </c>
-      <c r="I45" t="s">
+      <c r="I46" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="46" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="82"/>
-      <c r="B46" s="80"/>
-      <c r="C46" s="81"/>
-      <c r="D46" s="81"/>
-      <c r="E46" s="82"/>
-      <c r="F46" s="82"/>
-      <c r="G46" s="82"/>
-      <c r="H46" s="82"/>
     </row>
     <row r="47" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="82"/>
@@ -2564,6 +2596,16 @@
       <c r="F47" s="82"/>
       <c r="G47" s="82"/>
       <c r="H47" s="82"/>
+    </row>
+    <row r="48" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="82"/>
+      <c r="B48" s="80"/>
+      <c r="C48" s="81"/>
+      <c r="D48" s="81"/>
+      <c r="E48" s="82"/>
+      <c r="F48" s="82"/>
+      <c r="G48" s="82"/>
+      <c r="H48" s="82"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2598,20 +2640,21 @@
     <hyperlink ref="H29" r:id="rId26"/>
     <hyperlink ref="H30" r:id="rId27"/>
     <hyperlink ref="H31" r:id="rId28"/>
-    <hyperlink ref="H32" r:id="rId29"/>
-    <hyperlink ref="H33" r:id="rId30"/>
-    <hyperlink ref="H34" r:id="rId31"/>
-    <hyperlink ref="H35" r:id="rId32"/>
-    <hyperlink ref="H36" r:id="rId33"/>
-    <hyperlink ref="H37" r:id="rId34"/>
-    <hyperlink ref="H38" r:id="rId35"/>
-    <hyperlink ref="H39" r:id="rId36"/>
-    <hyperlink ref="H40" r:id="rId37"/>
-    <hyperlink ref="H41" r:id="rId38"/>
-    <hyperlink ref="H42" r:id="rId39"/>
-    <hyperlink ref="H43" r:id="rId40"/>
-    <hyperlink ref="H44" r:id="rId41"/>
-    <hyperlink ref="H45" r:id="rId42"/>
+    <hyperlink ref="H33" r:id="rId29"/>
+    <hyperlink ref="H34" r:id="rId30"/>
+    <hyperlink ref="H35" r:id="rId31"/>
+    <hyperlink ref="H36" r:id="rId32"/>
+    <hyperlink ref="H37" r:id="rId33"/>
+    <hyperlink ref="H38" r:id="rId34"/>
+    <hyperlink ref="H39" r:id="rId35"/>
+    <hyperlink ref="H40" r:id="rId36"/>
+    <hyperlink ref="H41" r:id="rId37"/>
+    <hyperlink ref="H42" r:id="rId38"/>
+    <hyperlink ref="H43" r:id="rId39"/>
+    <hyperlink ref="H44" r:id="rId40"/>
+    <hyperlink ref="H45" r:id="rId41"/>
+    <hyperlink ref="H46" r:id="rId42"/>
+    <hyperlink ref="H32" r:id="rId43"/>
   </hyperlinks>
   <pageMargins left="0.196527777777778" right="0.196527777777778" top="0.39374999999999999" bottom="0.196527777777778" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="300" verticalDpi="300"/>

--- a/data/web-repositorio.xlsx
+++ b/data/web-repositorio.xlsx
@@ -392,15 +392,9 @@
     <t>Cerámica Virgen embarazada</t>
   </si>
   <si>
-    <t>Virgen Embarazada</t>
-  </si>
-  <si>
     <t>Imagen de la Virgen María, advocación "Nuestra Señora de la Dulce Espera!"- Diseños exclusivos -19,5 x 6,5 cm</t>
   </si>
   <si>
-    <t>..\..\Pictures\A TRABAJOS WEB\Cerámica\Virgen Embarazada.jpg</t>
-  </si>
-  <si>
     <t>Cerámica Niños Jesús-1-</t>
   </si>
   <si>
@@ -560,13 +554,19 @@
     <t>Cerámica Virgen de las Nieves</t>
   </si>
   <si>
-    <t xml:space="preserve">Nuestra Señora de las Nieves, imagen realizada en Cerámica con base de madera, 26,5 alto x 9,5 x 9,5. </t>
-  </si>
-  <si>
     <t>..\Pictures\A TRABAJOS WEB\Cerámica\Virgen de las nieves.jpg</t>
   </si>
   <si>
     <t>Virgen de las nieves</t>
+  </si>
+  <si>
+    <t>virgen embarazada</t>
+  </si>
+  <si>
+    <t>..\Pictures\A TRABAJOS WEB\Cerámica\virgen embarazada.jpg</t>
+  </si>
+  <si>
+    <t>Nuestra Señora de las Nieves, imagen realizada en Cerámica con base de madera, 26,5 alto x 9,5 x 9,5. Advocación muy querida de todos, es también Patrona de nuestra Diócesis de Bariloche.</t>
   </si>
 </sst>
 </file>
@@ -818,7 +818,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="85">
+  <cellXfs count="86">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
@@ -984,10 +984,11 @@
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="2" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="2" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Excel Built-in Explanatory Text" xfId="3"/>
@@ -1254,8 +1255,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E28" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="F32" sqref="F32"/>
+    <sheetView tabSelected="1" topLeftCell="E29" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1271,14 +1272,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="83" t="s">
+      <c r="A1" s="84" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="83"/>
-      <c r="C1" s="83"/>
-      <c r="D1" s="83"/>
-      <c r="E1" s="83"/>
-      <c r="F1" s="83"/>
+      <c r="B1" s="84"/>
+      <c r="C1" s="84"/>
+      <c r="D1" s="84"/>
+      <c r="E1" s="84"/>
+      <c r="F1" s="84"/>
       <c r="G1" s="4"/>
       <c r="H1" s="5"/>
       <c r="L1" s="4"/>
@@ -2164,13 +2165,13 @@
         <v>109</v>
       </c>
       <c r="F31" s="52" t="s">
+        <v>178</v>
+      </c>
+      <c r="G31" s="38" t="s">
         <v>122</v>
       </c>
-      <c r="G31" s="38" t="s">
-        <v>123</v>
-      </c>
-      <c r="H31" s="57" t="s">
-        <v>124</v>
+      <c r="H31" s="85" t="s">
+        <v>179</v>
       </c>
       <c r="I31" s="4"/>
       <c r="J31" s="11"/>
@@ -2178,7 +2179,7 @@
     </row>
     <row r="32" spans="1:14" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="52" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B32" s="53">
         <v>1</v>
@@ -2193,13 +2194,13 @@
         <v>109</v>
       </c>
       <c r="F32" s="52" t="s">
+        <v>177</v>
+      </c>
+      <c r="G32" s="62" t="s">
         <v>180</v>
       </c>
-      <c r="G32" s="62" t="s">
-        <v>178</v>
-      </c>
-      <c r="H32" s="84" t="s">
-        <v>179</v>
+      <c r="H32" s="83" t="s">
+        <v>176</v>
       </c>
       <c r="I32" s="4"/>
       <c r="J32" s="11"/>
@@ -2207,7 +2208,7 @@
     </row>
     <row r="33" spans="1:12" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="52" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B33" s="53">
         <v>1</v>
@@ -2219,16 +2220,16 @@
         <v>18</v>
       </c>
       <c r="E33" s="58" t="s">
+        <v>124</v>
+      </c>
+      <c r="F33" s="52" t="s">
+        <v>125</v>
+      </c>
+      <c r="G33" s="62" t="s">
         <v>126</v>
       </c>
-      <c r="F33" s="52" t="s">
+      <c r="H33" s="57" t="s">
         <v>127</v>
-      </c>
-      <c r="G33" s="62" t="s">
-        <v>128</v>
-      </c>
-      <c r="H33" s="57" t="s">
-        <v>129</v>
       </c>
       <c r="I33" s="4"/>
       <c r="J33" s="11"/>
@@ -2236,7 +2237,7 @@
     </row>
     <row r="34" spans="1:12" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="52" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B34" s="53">
         <v>1</v>
@@ -2248,16 +2249,16 @@
         <v>18</v>
       </c>
       <c r="E34" s="58" t="s">
+        <v>124</v>
+      </c>
+      <c r="F34" s="52" t="s">
+        <v>129</v>
+      </c>
+      <c r="G34" s="62" t="s">
         <v>126</v>
       </c>
-      <c r="F34" s="52" t="s">
-        <v>131</v>
-      </c>
-      <c r="G34" s="62" t="s">
-        <v>128</v>
-      </c>
       <c r="H34" s="57" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="I34" s="4"/>
       <c r="J34" s="19"/>
@@ -2265,7 +2266,7 @@
     </row>
     <row r="35" spans="1:12" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="52" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B35" s="53">
         <v>1</v>
@@ -2277,16 +2278,16 @@
         <v>18</v>
       </c>
       <c r="E35" s="58" t="s">
+        <v>124</v>
+      </c>
+      <c r="F35" s="52" t="s">
+        <v>132</v>
+      </c>
+      <c r="G35" s="62" t="s">
         <v>126</v>
       </c>
-      <c r="F35" s="52" t="s">
-        <v>134</v>
-      </c>
-      <c r="G35" s="62" t="s">
-        <v>128</v>
-      </c>
       <c r="H35" s="57" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="I35" s="4"/>
       <c r="J35" s="10"/>
@@ -2294,7 +2295,7 @@
     </row>
     <row r="36" spans="1:12" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="52" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B36" s="53">
         <v>1</v>
@@ -2306,16 +2307,16 @@
         <v>18</v>
       </c>
       <c r="E36" s="58" t="s">
+        <v>124</v>
+      </c>
+      <c r="F36" s="52" t="s">
+        <v>135</v>
+      </c>
+      <c r="G36" s="62" t="s">
         <v>126</v>
       </c>
-      <c r="F36" s="52" t="s">
-        <v>137</v>
-      </c>
-      <c r="G36" s="62" t="s">
-        <v>128</v>
-      </c>
       <c r="H36" s="63" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="I36" s="48"/>
       <c r="J36" s="11"/>
@@ -2324,7 +2325,7 @@
     </row>
     <row r="37" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="24" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B37" s="64">
         <v>100</v>
@@ -2336,22 +2337,22 @@
         <v>350</v>
       </c>
       <c r="E37" s="27" t="s">
+        <v>137</v>
+      </c>
+      <c r="F37" s="24" t="s">
+        <v>138</v>
+      </c>
+      <c r="G37" s="67" t="s">
         <v>139</v>
       </c>
-      <c r="F37" s="24" t="s">
+      <c r="H37" s="68" t="s">
         <v>140</v>
-      </c>
-      <c r="G37" s="67" t="s">
-        <v>141</v>
-      </c>
-      <c r="H37" s="68" t="s">
-        <v>142</v>
       </c>
       <c r="I37" s="69"/>
     </row>
     <row r="38" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="70" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B38" s="64">
         <v>100</v>
@@ -2363,22 +2364,22 @@
         <v>20</v>
       </c>
       <c r="E38" s="27" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F38" s="24" t="s">
+        <v>142</v>
+      </c>
+      <c r="G38" s="72" t="s">
+        <v>143</v>
+      </c>
+      <c r="H38" s="73" t="s">
         <v>144</v>
-      </c>
-      <c r="G38" s="72" t="s">
-        <v>145</v>
-      </c>
-      <c r="H38" s="73" t="s">
-        <v>146</v>
       </c>
       <c r="I38" s="74"/>
     </row>
     <row r="39" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="24" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B39" s="64">
         <v>100</v>
@@ -2390,21 +2391,21 @@
         <v>20</v>
       </c>
       <c r="E39" s="27" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F39" s="24" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="G39" s="72" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="H39" s="75" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="40" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="76" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B40" s="77">
         <v>1</v>
@@ -2416,21 +2417,21 @@
         <v>125</v>
       </c>
       <c r="E40" s="58" t="s">
+        <v>148</v>
+      </c>
+      <c r="F40" s="58" t="s">
+        <v>149</v>
+      </c>
+      <c r="G40" s="58" t="s">
         <v>150</v>
       </c>
-      <c r="F40" s="58" t="s">
+      <c r="H40" s="79" t="s">
         <v>151</v>
-      </c>
-      <c r="G40" s="58" t="s">
-        <v>152</v>
-      </c>
-      <c r="H40" s="79" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="41" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="76" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B41" s="77">
         <v>1</v>
@@ -2442,21 +2443,21 @@
         <v>125</v>
       </c>
       <c r="E41" s="58" t="s">
+        <v>148</v>
+      </c>
+      <c r="F41" s="58" t="s">
+        <v>153</v>
+      </c>
+      <c r="G41" s="58" t="s">
         <v>150</v>
       </c>
-      <c r="F41" s="58" t="s">
-        <v>155</v>
-      </c>
-      <c r="G41" s="58" t="s">
-        <v>152</v>
-      </c>
       <c r="H41" s="79" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="42" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="31" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B42" s="80">
         <v>1</v>
@@ -2468,21 +2469,21 @@
         <v>40</v>
       </c>
       <c r="E42" s="82" t="s">
+        <v>156</v>
+      </c>
+      <c r="F42" s="82" t="s">
+        <v>157</v>
+      </c>
+      <c r="G42" s="82" t="s">
         <v>158</v>
       </c>
-      <c r="F42" s="82" t="s">
+      <c r="H42" s="79" t="s">
         <v>159</v>
-      </c>
-      <c r="G42" s="82" t="s">
-        <v>160</v>
-      </c>
-      <c r="H42" s="79" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="43" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="31" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B43" s="80">
         <v>1</v>
@@ -2494,21 +2495,21 @@
         <v>40</v>
       </c>
       <c r="E43" s="82" t="s">
+        <v>156</v>
+      </c>
+      <c r="F43" s="82" t="s">
+        <v>161</v>
+      </c>
+      <c r="G43" s="82" t="s">
         <v>158</v>
       </c>
-      <c r="F43" s="82" t="s">
-        <v>163</v>
-      </c>
-      <c r="G43" s="82" t="s">
-        <v>160</v>
-      </c>
       <c r="H43" s="79" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="44" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="31" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B44" s="80">
         <v>1</v>
@@ -2520,21 +2521,21 @@
         <v>40</v>
       </c>
       <c r="E44" s="82" t="s">
+        <v>156</v>
+      </c>
+      <c r="F44" s="82" t="s">
+        <v>164</v>
+      </c>
+      <c r="G44" s="82" t="s">
         <v>158</v>
       </c>
-      <c r="F44" s="82" t="s">
-        <v>166</v>
-      </c>
-      <c r="G44" s="82" t="s">
-        <v>160</v>
-      </c>
       <c r="H44" s="79" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="45" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="31" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B45" s="80">
         <v>1</v>
@@ -2546,21 +2547,21 @@
         <v>40</v>
       </c>
       <c r="E45" s="82" t="s">
+        <v>156</v>
+      </c>
+      <c r="F45" s="82" t="s">
+        <v>167</v>
+      </c>
+      <c r="G45" s="82" t="s">
         <v>158</v>
       </c>
-      <c r="F45" s="82" t="s">
-        <v>169</v>
-      </c>
-      <c r="G45" s="82" t="s">
-        <v>160</v>
-      </c>
       <c r="H45" s="79" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="46" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="31" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B46" s="80">
         <v>100</v>
@@ -2572,19 +2573,19 @@
         <v>250</v>
       </c>
       <c r="E46" s="82" t="s">
+        <v>170</v>
+      </c>
+      <c r="F46" s="82" t="s">
+        <v>171</v>
+      </c>
+      <c r="G46" s="82" t="s">
         <v>172</v>
       </c>
-      <c r="F46" s="82" t="s">
+      <c r="H46" s="79" t="s">
         <v>173</v>
       </c>
-      <c r="G46" s="82" t="s">
+      <c r="I46" t="s">
         <v>174</v>
-      </c>
-      <c r="H46" s="79" t="s">
-        <v>175</v>
-      </c>
-      <c r="I46" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="47" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -2639,22 +2640,22 @@
     <hyperlink ref="H28" r:id="rId25"/>
     <hyperlink ref="H29" r:id="rId26"/>
     <hyperlink ref="H30" r:id="rId27"/>
-    <hyperlink ref="H31" r:id="rId28"/>
-    <hyperlink ref="H33" r:id="rId29"/>
-    <hyperlink ref="H34" r:id="rId30"/>
-    <hyperlink ref="H35" r:id="rId31"/>
-    <hyperlink ref="H36" r:id="rId32"/>
-    <hyperlink ref="H37" r:id="rId33"/>
-    <hyperlink ref="H38" r:id="rId34"/>
-    <hyperlink ref="H39" r:id="rId35"/>
-    <hyperlink ref="H40" r:id="rId36"/>
-    <hyperlink ref="H41" r:id="rId37"/>
-    <hyperlink ref="H42" r:id="rId38"/>
-    <hyperlink ref="H43" r:id="rId39"/>
-    <hyperlink ref="H44" r:id="rId40"/>
-    <hyperlink ref="H45" r:id="rId41"/>
-    <hyperlink ref="H46" r:id="rId42"/>
-    <hyperlink ref="H32" r:id="rId43"/>
+    <hyperlink ref="H33" r:id="rId28"/>
+    <hyperlink ref="H34" r:id="rId29"/>
+    <hyperlink ref="H35" r:id="rId30"/>
+    <hyperlink ref="H36" r:id="rId31"/>
+    <hyperlink ref="H37" r:id="rId32"/>
+    <hyperlink ref="H38" r:id="rId33"/>
+    <hyperlink ref="H39" r:id="rId34"/>
+    <hyperlink ref="H40" r:id="rId35"/>
+    <hyperlink ref="H41" r:id="rId36"/>
+    <hyperlink ref="H42" r:id="rId37"/>
+    <hyperlink ref="H43" r:id="rId38"/>
+    <hyperlink ref="H44" r:id="rId39"/>
+    <hyperlink ref="H45" r:id="rId40"/>
+    <hyperlink ref="H46" r:id="rId41"/>
+    <hyperlink ref="H32" r:id="rId42"/>
+    <hyperlink ref="H31" r:id="rId43"/>
   </hyperlinks>
   <pageMargins left="0.196527777777778" right="0.196527777777778" top="0.39374999999999999" bottom="0.196527777777778" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="300" verticalDpi="300"/>

--- a/data/web-repositorio.xlsx
+++ b/data/web-repositorio.xlsx
@@ -985,10 +985,10 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="2" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Excel Built-in Explanatory Text" xfId="3"/>
@@ -1255,8 +1255,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E29" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="G32" sqref="G32"/>
+    <sheetView tabSelected="1" topLeftCell="A26" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1272,14 +1272,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="84" t="s">
+      <c r="A1" s="85" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="84"/>
-      <c r="C1" s="84"/>
-      <c r="D1" s="84"/>
-      <c r="E1" s="84"/>
-      <c r="F1" s="84"/>
+      <c r="B1" s="85"/>
+      <c r="C1" s="85"/>
+      <c r="D1" s="85"/>
+      <c r="E1" s="85"/>
+      <c r="F1" s="85"/>
       <c r="G1" s="4"/>
       <c r="H1" s="5"/>
       <c r="L1" s="4"/>
@@ -1862,7 +1862,7 @@
         <v>100</v>
       </c>
       <c r="C21" s="34">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="D21" s="34">
         <v>50</v>
@@ -2097,7 +2097,7 @@
         <v>1</v>
       </c>
       <c r="C29" s="54">
-        <v>4600</v>
+        <v>5000</v>
       </c>
       <c r="D29" s="54">
         <v>35</v>
@@ -2156,7 +2156,7 @@
         <v>1</v>
       </c>
       <c r="C31" s="54">
-        <v>25000</v>
+        <v>30000</v>
       </c>
       <c r="D31" s="54">
         <v>265</v>
@@ -2170,7 +2170,7 @@
       <c r="G31" s="38" t="s">
         <v>122</v>
       </c>
-      <c r="H31" s="85" t="s">
+      <c r="H31" s="84" t="s">
         <v>179</v>
       </c>
       <c r="I31" s="4"/>

--- a/data/web-repositorio.xlsx
+++ b/data/web-repositorio.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="188">
   <si>
     <t>CARMELITAS BARILOCHE WEB</t>
   </si>
@@ -567,6 +567,27 @@
   </si>
   <si>
     <t>Nuestra Señora de las Nieves, imagen realizada en Cerámica con base de madera, 26,5 alto x 9,5 x 9,5. Advocación muy querida de todos, es también Patrona de nuestra Diócesis de Bariloche.</t>
+  </si>
+  <si>
+    <t>LITÚRGICOS-SACERDOTALES</t>
+  </si>
+  <si>
+    <t>Estola Sacerdotal de telar</t>
+  </si>
+  <si>
+    <t>estolatelar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Confeccionada artesanalmente con lana. Diseños exclusivos. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Casulla con Estolón de telar </t>
+  </si>
+  <si>
+    <t>casullavioleta</t>
+  </si>
+  <si>
+    <t>Incluye Estola - Adornada con Estolón confeccionado en telar artesanal.</t>
   </si>
 </sst>
 </file>
@@ -576,7 +597,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="_-&quot;$ &quot;* #,##0.00_-;&quot;-$ &quot;* #,##0.00_-;_-&quot;$ &quot;* \-??_-;_-@_-"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -621,8 +642,14 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
   </fonts>
-  <fills count="10">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -675,6 +702,24 @@
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.79979857783745845"/>
         <bgColor rgb="FFE2F0D9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -818,7 +863,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="86">
+  <cellXfs count="99">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
@@ -986,6 +1031,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="2" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="10" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="11" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1255,8 +1317,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1272,14 +1334,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="85" t="s">
+      <c r="A1" s="98" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="85"/>
-      <c r="C1" s="85"/>
-      <c r="D1" s="85"/>
-      <c r="E1" s="85"/>
-      <c r="F1" s="85"/>
+      <c r="B1" s="98"/>
+      <c r="C1" s="98"/>
+      <c r="D1" s="98"/>
+      <c r="E1" s="98"/>
+      <c r="F1" s="98"/>
       <c r="G1" s="4"/>
       <c r="H1" s="5"/>
       <c r="L1" s="4"/>
@@ -2068,7 +2130,7 @@
         <v>1</v>
       </c>
       <c r="C28" s="54">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="D28" s="54">
         <v>40</v>
@@ -2126,7 +2188,7 @@
         <v>1</v>
       </c>
       <c r="C30" s="54">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="D30" s="54">
         <v>210</v>
@@ -2456,157 +2518,181 @@
       </c>
     </row>
     <row r="42" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="31" t="s">
+      <c r="A42" s="85" t="s">
         <v>155</v>
       </c>
-      <c r="B42" s="80">
-        <v>1</v>
-      </c>
-      <c r="C42" s="81">
+      <c r="B42" s="86">
+        <v>1</v>
+      </c>
+      <c r="C42" s="87">
         <v>9000</v>
       </c>
-      <c r="D42" s="81">
+      <c r="D42" s="87">
         <v>40</v>
       </c>
-      <c r="E42" s="82" t="s">
+      <c r="E42" s="88" t="s">
         <v>156</v>
       </c>
-      <c r="F42" s="82" t="s">
+      <c r="F42" s="88" t="s">
         <v>157</v>
       </c>
-      <c r="G42" s="82" t="s">
+      <c r="G42" s="88" t="s">
         <v>158</v>
       </c>
-      <c r="H42" s="79" t="s">
+      <c r="H42" s="89" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="43" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="31" t="s">
+      <c r="A43" s="90" t="s">
         <v>160</v>
       </c>
-      <c r="B43" s="80">
-        <v>1</v>
-      </c>
-      <c r="C43" s="81">
+      <c r="B43" s="86">
+        <v>1</v>
+      </c>
+      <c r="C43" s="87">
         <v>9000</v>
       </c>
-      <c r="D43" s="81">
+      <c r="D43" s="87">
         <v>40</v>
       </c>
-      <c r="E43" s="82" t="s">
+      <c r="E43" s="88" t="s">
         <v>156</v>
       </c>
-      <c r="F43" s="82" t="s">
+      <c r="F43" s="88" t="s">
         <v>161</v>
       </c>
-      <c r="G43" s="82" t="s">
+      <c r="G43" s="88" t="s">
         <v>158</v>
       </c>
-      <c r="H43" s="79" t="s">
+      <c r="H43" s="89" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="44" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="31" t="s">
+      <c r="A44" s="90" t="s">
         <v>163</v>
       </c>
-      <c r="B44" s="80">
-        <v>1</v>
-      </c>
-      <c r="C44" s="81">
+      <c r="B44" s="86">
+        <v>1</v>
+      </c>
+      <c r="C44" s="87">
         <v>9000</v>
       </c>
-      <c r="D44" s="81">
+      <c r="D44" s="87">
         <v>40</v>
       </c>
-      <c r="E44" s="82" t="s">
+      <c r="E44" s="88" t="s">
         <v>156</v>
       </c>
-      <c r="F44" s="82" t="s">
+      <c r="F44" s="88" t="s">
         <v>164</v>
       </c>
-      <c r="G44" s="82" t="s">
+      <c r="G44" s="88" t="s">
         <v>158</v>
       </c>
-      <c r="H44" s="79" t="s">
+      <c r="H44" s="89" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="45" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="31" t="s">
+      <c r="A45" s="90" t="s">
         <v>166</v>
       </c>
-      <c r="B45" s="80">
-        <v>1</v>
-      </c>
-      <c r="C45" s="81">
+      <c r="B45" s="86">
+        <v>1</v>
+      </c>
+      <c r="C45" s="87">
         <v>9000</v>
       </c>
-      <c r="D45" s="81">
+      <c r="D45" s="87">
         <v>40</v>
       </c>
-      <c r="E45" s="82" t="s">
+      <c r="E45" s="88" t="s">
         <v>156</v>
       </c>
-      <c r="F45" s="82" t="s">
+      <c r="F45" s="88" t="s">
         <v>167</v>
       </c>
-      <c r="G45" s="82" t="s">
+      <c r="G45" s="88" t="s">
         <v>158</v>
       </c>
-      <c r="H45" s="79" t="s">
+      <c r="H45" s="89" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="46" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="31" t="s">
+      <c r="A46" s="91" t="s">
         <v>169</v>
       </c>
-      <c r="B46" s="80">
+      <c r="B46" s="92">
         <v>100</v>
       </c>
-      <c r="C46" s="81">
+      <c r="C46" s="93">
         <v>8000</v>
       </c>
-      <c r="D46" s="81">
+      <c r="D46" s="93">
         <v>250</v>
       </c>
-      <c r="E46" s="82" t="s">
+      <c r="E46" s="94" t="s">
         <v>170</v>
       </c>
-      <c r="F46" s="82" t="s">
+      <c r="F46" s="94" t="s">
         <v>171</v>
       </c>
-      <c r="G46" s="82" t="s">
+      <c r="G46" s="94" t="s">
         <v>172</v>
       </c>
-      <c r="H46" s="79" t="s">
+      <c r="H46" s="95" t="s">
         <v>173</v>
       </c>
-      <c r="I46" t="s">
+      <c r="I46" s="96" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="47" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="82"/>
-      <c r="B47" s="80"/>
-      <c r="C47" s="81"/>
+      <c r="A47" s="82" t="s">
+        <v>182</v>
+      </c>
+      <c r="B47" s="80">
+        <v>1</v>
+      </c>
+      <c r="C47" s="81">
+        <v>45000</v>
+      </c>
       <c r="D47" s="81"/>
-      <c r="E47" s="82"/>
-      <c r="F47" s="82"/>
-      <c r="G47" s="82"/>
-      <c r="H47" s="82"/>
+      <c r="E47" s="97" t="s">
+        <v>181</v>
+      </c>
+      <c r="F47" s="97" t="s">
+        <v>183</v>
+      </c>
+      <c r="G47" s="97" t="s">
+        <v>184</v>
+      </c>
+      <c r="H47" s="97"/>
     </row>
     <row r="48" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="82"/>
-      <c r="B48" s="80"/>
-      <c r="C48" s="81"/>
+      <c r="A48" s="82" t="s">
+        <v>185</v>
+      </c>
+      <c r="B48" s="80">
+        <v>1</v>
+      </c>
+      <c r="C48" s="81">
+        <v>90000</v>
+      </c>
       <c r="D48" s="81"/>
-      <c r="E48" s="82"/>
-      <c r="F48" s="82"/>
-      <c r="G48" s="82"/>
-      <c r="H48" s="82"/>
+      <c r="E48" s="97" t="s">
+        <v>181</v>
+      </c>
+      <c r="F48" s="97" t="s">
+        <v>186</v>
+      </c>
+      <c r="G48" s="97" t="s">
+        <v>187</v>
+      </c>
+      <c r="H48" s="97"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2658,6 +2744,6 @@
     <hyperlink ref="H31" r:id="rId43"/>
   </hyperlinks>
   <pageMargins left="0.196527777777778" right="0.196527777777778" top="0.39374999999999999" bottom="0.196527777777778" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId44"/>
 </worksheet>
 </file>
--- a/data/web-repositorio.xlsx
+++ b/data/web-repositorio.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="181">
   <si>
     <t>CARMELITAS BARILOCHE WEB</t>
   </si>
@@ -567,27 +567,6 @@
   </si>
   <si>
     <t>Nuestra Señora de las Nieves, imagen realizada en Cerámica con base de madera, 26,5 alto x 9,5 x 9,5. Advocación muy querida de todos, es también Patrona de nuestra Diócesis de Bariloche.</t>
-  </si>
-  <si>
-    <t>LITÚRGICOS-SACERDOTALES</t>
-  </si>
-  <si>
-    <t>Estola Sacerdotal de telar</t>
-  </si>
-  <si>
-    <t>estolatelar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Confeccionada artesanalmente con lana. Diseños exclusivos. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Casulla con Estolón de telar </t>
-  </si>
-  <si>
-    <t>casullavioleta</t>
-  </si>
-  <si>
-    <t>Incluye Estola - Adornada con Estolón confeccionado en telar artesanal.</t>
   </si>
 </sst>
 </file>
@@ -649,7 +628,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="13">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -713,12 +692,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -863,7 +836,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="99">
+  <cellXfs count="95">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
@@ -1024,11 +997,6 @@
     </xf>
     <xf numFmtId="1" fontId="0" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="2" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="6" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
@@ -1047,7 +1015,6 @@
     <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1315,10 +1282,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N48"/>
+  <dimension ref="A1:N46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="A47" sqref="A47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1334,14 +1301,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="98" t="s">
+      <c r="A1" s="94" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="98"/>
-      <c r="C1" s="98"/>
-      <c r="D1" s="98"/>
-      <c r="E1" s="98"/>
-      <c r="F1" s="98"/>
+      <c r="B1" s="94"/>
+      <c r="C1" s="94"/>
+      <c r="D1" s="94"/>
+      <c r="E1" s="94"/>
+      <c r="F1" s="94"/>
       <c r="G1" s="4"/>
       <c r="H1" s="5"/>
       <c r="L1" s="4"/>
@@ -2232,7 +2199,7 @@
       <c r="G31" s="38" t="s">
         <v>122</v>
       </c>
-      <c r="H31" s="84" t="s">
+      <c r="H31" s="81" t="s">
         <v>179</v>
       </c>
       <c r="I31" s="4"/>
@@ -2261,7 +2228,7 @@
       <c r="G32" s="62" t="s">
         <v>180</v>
       </c>
-      <c r="H32" s="83" t="s">
+      <c r="H32" s="80" t="s">
         <v>176</v>
       </c>
       <c r="I32" s="4"/>
@@ -2518,181 +2485,137 @@
       </c>
     </row>
     <row r="42" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="85" t="s">
+      <c r="A42" s="82" t="s">
         <v>155</v>
       </c>
-      <c r="B42" s="86">
-        <v>1</v>
-      </c>
-      <c r="C42" s="87">
+      <c r="B42" s="83">
+        <v>1</v>
+      </c>
+      <c r="C42" s="84">
         <v>9000</v>
       </c>
-      <c r="D42" s="87">
+      <c r="D42" s="84">
         <v>40</v>
       </c>
-      <c r="E42" s="88" t="s">
+      <c r="E42" s="85" t="s">
         <v>156</v>
       </c>
-      <c r="F42" s="88" t="s">
+      <c r="F42" s="85" t="s">
         <v>157</v>
       </c>
-      <c r="G42" s="88" t="s">
+      <c r="G42" s="85" t="s">
         <v>158</v>
       </c>
-      <c r="H42" s="89" t="s">
+      <c r="H42" s="86" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="43" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="90" t="s">
+      <c r="A43" s="87" t="s">
         <v>160</v>
       </c>
-      <c r="B43" s="86">
-        <v>1</v>
-      </c>
-      <c r="C43" s="87">
+      <c r="B43" s="83">
+        <v>1</v>
+      </c>
+      <c r="C43" s="84">
         <v>9000</v>
       </c>
-      <c r="D43" s="87">
+      <c r="D43" s="84">
         <v>40</v>
       </c>
-      <c r="E43" s="88" t="s">
+      <c r="E43" s="85" t="s">
         <v>156</v>
       </c>
-      <c r="F43" s="88" t="s">
+      <c r="F43" s="85" t="s">
         <v>161</v>
       </c>
-      <c r="G43" s="88" t="s">
+      <c r="G43" s="85" t="s">
         <v>158</v>
       </c>
-      <c r="H43" s="89" t="s">
+      <c r="H43" s="86" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="44" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="90" t="s">
+      <c r="A44" s="87" t="s">
         <v>163</v>
       </c>
-      <c r="B44" s="86">
-        <v>1</v>
-      </c>
-      <c r="C44" s="87">
+      <c r="B44" s="83">
+        <v>1</v>
+      </c>
+      <c r="C44" s="84">
         <v>9000</v>
       </c>
-      <c r="D44" s="87">
+      <c r="D44" s="84">
         <v>40</v>
       </c>
-      <c r="E44" s="88" t="s">
+      <c r="E44" s="85" t="s">
         <v>156</v>
       </c>
-      <c r="F44" s="88" t="s">
+      <c r="F44" s="85" t="s">
         <v>164</v>
       </c>
-      <c r="G44" s="88" t="s">
+      <c r="G44" s="85" t="s">
         <v>158</v>
       </c>
-      <c r="H44" s="89" t="s">
+      <c r="H44" s="86" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="45" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="90" t="s">
+      <c r="A45" s="87" t="s">
         <v>166</v>
       </c>
-      <c r="B45" s="86">
-        <v>1</v>
-      </c>
-      <c r="C45" s="87">
+      <c r="B45" s="83">
+        <v>1</v>
+      </c>
+      <c r="C45" s="84">
         <v>9000</v>
       </c>
-      <c r="D45" s="87">
+      <c r="D45" s="84">
         <v>40</v>
       </c>
-      <c r="E45" s="88" t="s">
+      <c r="E45" s="85" t="s">
         <v>156</v>
       </c>
-      <c r="F45" s="88" t="s">
+      <c r="F45" s="85" t="s">
         <v>167</v>
       </c>
-      <c r="G45" s="88" t="s">
+      <c r="G45" s="85" t="s">
         <v>158</v>
       </c>
-      <c r="H45" s="89" t="s">
+      <c r="H45" s="86" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="46" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="91" t="s">
+      <c r="A46" s="88" t="s">
         <v>169</v>
       </c>
-      <c r="B46" s="92">
+      <c r="B46" s="89">
         <v>100</v>
       </c>
-      <c r="C46" s="93">
+      <c r="C46" s="90">
         <v>8000</v>
       </c>
-      <c r="D46" s="93">
+      <c r="D46" s="90">
         <v>250</v>
       </c>
-      <c r="E46" s="94" t="s">
+      <c r="E46" s="91" t="s">
         <v>170</v>
       </c>
-      <c r="F46" s="94" t="s">
+      <c r="F46" s="91" t="s">
         <v>171</v>
       </c>
-      <c r="G46" s="94" t="s">
+      <c r="G46" s="91" t="s">
         <v>172</v>
       </c>
-      <c r="H46" s="95" t="s">
+      <c r="H46" s="92" t="s">
         <v>173</v>
       </c>
-      <c r="I46" s="96" t="s">
+      <c r="I46" s="93" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="47" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="82" t="s">
-        <v>182</v>
-      </c>
-      <c r="B47" s="80">
-        <v>1</v>
-      </c>
-      <c r="C47" s="81">
-        <v>45000</v>
-      </c>
-      <c r="D47" s="81"/>
-      <c r="E47" s="97" t="s">
-        <v>181</v>
-      </c>
-      <c r="F47" s="97" t="s">
-        <v>183</v>
-      </c>
-      <c r="G47" s="97" t="s">
-        <v>184</v>
-      </c>
-      <c r="H47" s="97"/>
-    </row>
-    <row r="48" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="82" t="s">
-        <v>185</v>
-      </c>
-      <c r="B48" s="80">
-        <v>1</v>
-      </c>
-      <c r="C48" s="81">
-        <v>90000</v>
-      </c>
-      <c r="D48" s="81"/>
-      <c r="E48" s="97" t="s">
-        <v>181</v>
-      </c>
-      <c r="F48" s="97" t="s">
-        <v>186</v>
-      </c>
-      <c r="G48" s="97" t="s">
-        <v>187</v>
-      </c>
-      <c r="H48" s="97"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/data/web-repositorio.xlsx
+++ b/data/web-repositorio.xlsx
@@ -1284,8 +1284,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A47" sqref="A47"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1531,7 +1531,7 @@
         <v>1</v>
       </c>
       <c r="C9" s="26">
-        <v>1200</v>
+        <v>1500</v>
       </c>
       <c r="D9" s="26">
         <v>1</v>
@@ -1562,7 +1562,7 @@
         <v>1</v>
       </c>
       <c r="C10" s="26">
-        <v>1200</v>
+        <v>1500</v>
       </c>
       <c r="D10" s="26">
         <v>1</v>
@@ -1593,7 +1593,7 @@
         <v>1</v>
       </c>
       <c r="C11" s="26">
-        <v>1200</v>
+        <v>1500</v>
       </c>
       <c r="D11" s="26">
         <v>1</v>
@@ -1624,7 +1624,7 @@
         <v>1</v>
       </c>
       <c r="C12" s="26">
-        <v>1200</v>
+        <v>1500</v>
       </c>
       <c r="D12" s="26">
         <v>1</v>
@@ -1655,7 +1655,7 @@
         <v>1</v>
       </c>
       <c r="C13" s="26">
-        <v>1200</v>
+        <v>1500</v>
       </c>
       <c r="D13" s="26">
         <v>1</v>
@@ -2068,7 +2068,7 @@
         <v>100</v>
       </c>
       <c r="C27" s="45">
-        <v>4600</v>
+        <v>5000</v>
       </c>
       <c r="D27" s="45">
         <v>170</v>
@@ -2387,7 +2387,7 @@
         <v>100</v>
       </c>
       <c r="C38" s="71">
-        <v>5800</v>
+        <v>7000</v>
       </c>
       <c r="D38" s="66">
         <v>20</v>
@@ -2414,7 +2414,7 @@
         <v>100</v>
       </c>
       <c r="C39" s="66">
-        <v>5800</v>
+        <v>7000</v>
       </c>
       <c r="D39" s="66">
         <v>20</v>
@@ -2492,7 +2492,7 @@
         <v>1</v>
       </c>
       <c r="C42" s="84">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="D42" s="84">
         <v>40</v>
@@ -2518,7 +2518,7 @@
         <v>1</v>
       </c>
       <c r="C43" s="84">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="D43" s="84">
         <v>40</v>
@@ -2544,7 +2544,7 @@
         <v>1</v>
       </c>
       <c r="C44" s="84">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="D44" s="84">
         <v>40</v>
@@ -2570,7 +2570,7 @@
         <v>1</v>
       </c>
       <c r="C45" s="84">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="D45" s="84">
         <v>40</v>

--- a/data/web-repositorio.xlsx
+++ b/data/web-repositorio.xlsx
@@ -1285,7 +1285,7 @@
   <dimension ref="A1:N46"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1381,7 +1381,7 @@
         <v>1</v>
       </c>
       <c r="C4" s="15">
-        <v>2500</v>
+        <v>2800</v>
       </c>
       <c r="D4" s="15">
         <v>20</v>
@@ -1411,7 +1411,7 @@
         <v>1</v>
       </c>
       <c r="C5" s="15">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="D5" s="15">
         <v>90</v>
@@ -1441,7 +1441,7 @@
         <v>100</v>
       </c>
       <c r="C6" s="26">
-        <v>1200</v>
+        <v>1500</v>
       </c>
       <c r="D6" s="26">
         <v>1</v>
@@ -1471,7 +1471,7 @@
         <v>100</v>
       </c>
       <c r="C7" s="29">
-        <v>1200</v>
+        <v>1500</v>
       </c>
       <c r="D7" s="29">
         <v>1</v>
@@ -1501,7 +1501,7 @@
         <v>100</v>
       </c>
       <c r="C8" s="26">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="D8" s="26">
         <v>2</v>
@@ -1979,7 +1979,7 @@
         <v>100</v>
       </c>
       <c r="C24" s="26">
-        <v>1800</v>
+        <v>2000</v>
       </c>
       <c r="D24" s="26">
         <v>8</v>
@@ -2009,7 +2009,7 @@
         <v>100</v>
       </c>
       <c r="C25" s="26">
-        <v>3000</v>
+        <v>3500</v>
       </c>
       <c r="D25" s="26">
         <v>8</v>
@@ -2097,7 +2097,7 @@
         <v>1</v>
       </c>
       <c r="C28" s="54">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="D28" s="54">
         <v>40</v>
@@ -2243,7 +2243,7 @@
         <v>1</v>
       </c>
       <c r="C33" s="54">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="D33" s="54">
         <v>18</v>
@@ -2272,7 +2272,7 @@
         <v>1</v>
       </c>
       <c r="C34" s="54">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="D34" s="54">
         <v>18</v>
@@ -2301,7 +2301,7 @@
         <v>1</v>
       </c>
       <c r="C35" s="54">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="D35" s="54">
         <v>18</v>
@@ -2330,7 +2330,7 @@
         <v>1</v>
       </c>
       <c r="C36" s="54">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="D36" s="54">
         <v>18</v>

--- a/data/web-repositorio.xlsx
+++ b/data/web-repositorio.xlsx
@@ -1284,8 +1284,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N46"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1562,7 +1562,7 @@
         <v>1</v>
       </c>
       <c r="C10" s="26">
-        <v>1500</v>
+        <v>1800</v>
       </c>
       <c r="D10" s="26">
         <v>1</v>
@@ -1593,7 +1593,7 @@
         <v>1</v>
       </c>
       <c r="C11" s="26">
-        <v>1500</v>
+        <v>1800</v>
       </c>
       <c r="D11" s="26">
         <v>1</v>
@@ -1624,7 +1624,7 @@
         <v>1</v>
       </c>
       <c r="C12" s="26">
-        <v>1500</v>
+        <v>1800</v>
       </c>
       <c r="D12" s="26">
         <v>1</v>
@@ -1655,7 +1655,7 @@
         <v>1</v>
       </c>
       <c r="C13" s="26">
-        <v>1500</v>
+        <v>1800</v>
       </c>
       <c r="D13" s="26">
         <v>1</v>
@@ -2155,7 +2155,7 @@
         <v>1</v>
       </c>
       <c r="C30" s="54">
-        <v>18000</v>
+        <v>23000</v>
       </c>
       <c r="D30" s="54">
         <v>210</v>

--- a/data/web-repositorio.xlsx
+++ b/data/web-repositorio.xlsx
@@ -1284,8 +1284,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1531,7 +1531,7 @@
         <v>1</v>
       </c>
       <c r="C9" s="26">
-        <v>1500</v>
+        <v>1800</v>
       </c>
       <c r="D9" s="26">
         <v>1</v>

--- a/data/web-repositorio.xlsx
+++ b/data/web-repositorio.xlsx
@@ -383,9 +383,6 @@
     <t>cerámica pesebre</t>
   </si>
   <si>
-    <t>Pesebre artesanal - Diseños exclusivos. 14x9,5 cm</t>
-  </si>
-  <si>
     <t>..\..\Pictures\A TRABAJOS WEB\Cerámica\PESEBRES\Pesebre cerámica.jpg</t>
   </si>
   <si>
@@ -567,6 +564,9 @@
   </si>
   <si>
     <t>Nuestra Señora de las Nieves, imagen realizada en Cerámica con base de madera, 26,5 alto x 9,5 x 9,5. Advocación muy querida de todos, es también Patrona de nuestra Diócesis de Bariloche.</t>
+  </si>
+  <si>
+    <t>Pesebre artesanal - Diseños exclusivos. 13x7,5 cm</t>
   </si>
 </sst>
 </file>
@@ -1284,8 +1284,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="G31" sqref="G31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2167,10 +2167,10 @@
         <v>118</v>
       </c>
       <c r="G30" s="38" t="s">
+        <v>180</v>
+      </c>
+      <c r="H30" s="57" t="s">
         <v>119</v>
-      </c>
-      <c r="H30" s="57" t="s">
-        <v>120</v>
       </c>
       <c r="I30" s="59"/>
       <c r="J30" s="60"/>
@@ -2179,7 +2179,7 @@
     </row>
     <row r="31" spans="1:14" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="52" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B31" s="53">
         <v>1</v>
@@ -2194,13 +2194,13 @@
         <v>109</v>
       </c>
       <c r="F31" s="52" t="s">
+        <v>177</v>
+      </c>
+      <c r="G31" s="38" t="s">
+        <v>121</v>
+      </c>
+      <c r="H31" s="81" t="s">
         <v>178</v>
-      </c>
-      <c r="G31" s="38" t="s">
-        <v>122</v>
-      </c>
-      <c r="H31" s="81" t="s">
-        <v>179</v>
       </c>
       <c r="I31" s="4"/>
       <c r="J31" s="11"/>
@@ -2208,7 +2208,7 @@
     </row>
     <row r="32" spans="1:14" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="52" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B32" s="53">
         <v>1</v>
@@ -2223,13 +2223,13 @@
         <v>109</v>
       </c>
       <c r="F32" s="52" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="G32" s="62" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="H32" s="80" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="I32" s="4"/>
       <c r="J32" s="11"/>
@@ -2237,7 +2237,7 @@
     </row>
     <row r="33" spans="1:12" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="52" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B33" s="53">
         <v>1</v>
@@ -2249,16 +2249,16 @@
         <v>18</v>
       </c>
       <c r="E33" s="58" t="s">
+        <v>123</v>
+      </c>
+      <c r="F33" s="52" t="s">
         <v>124</v>
       </c>
-      <c r="F33" s="52" t="s">
+      <c r="G33" s="62" t="s">
         <v>125</v>
       </c>
-      <c r="G33" s="62" t="s">
+      <c r="H33" s="57" t="s">
         <v>126</v>
-      </c>
-      <c r="H33" s="57" t="s">
-        <v>127</v>
       </c>
       <c r="I33" s="4"/>
       <c r="J33" s="11"/>
@@ -2266,7 +2266,7 @@
     </row>
     <row r="34" spans="1:12" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="52" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B34" s="53">
         <v>1</v>
@@ -2278,16 +2278,16 @@
         <v>18</v>
       </c>
       <c r="E34" s="58" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F34" s="52" t="s">
+        <v>128</v>
+      </c>
+      <c r="G34" s="62" t="s">
+        <v>125</v>
+      </c>
+      <c r="H34" s="57" t="s">
         <v>129</v>
-      </c>
-      <c r="G34" s="62" t="s">
-        <v>126</v>
-      </c>
-      <c r="H34" s="57" t="s">
-        <v>130</v>
       </c>
       <c r="I34" s="4"/>
       <c r="J34" s="19"/>
@@ -2295,7 +2295,7 @@
     </row>
     <row r="35" spans="1:12" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="52" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B35" s="53">
         <v>1</v>
@@ -2307,16 +2307,16 @@
         <v>18</v>
       </c>
       <c r="E35" s="58" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F35" s="52" t="s">
+        <v>131</v>
+      </c>
+      <c r="G35" s="62" t="s">
+        <v>125</v>
+      </c>
+      <c r="H35" s="57" t="s">
         <v>132</v>
-      </c>
-      <c r="G35" s="62" t="s">
-        <v>126</v>
-      </c>
-      <c r="H35" s="57" t="s">
-        <v>133</v>
       </c>
       <c r="I35" s="4"/>
       <c r="J35" s="10"/>
@@ -2324,7 +2324,7 @@
     </row>
     <row r="36" spans="1:12" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="52" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B36" s="53">
         <v>1</v>
@@ -2336,16 +2336,16 @@
         <v>18</v>
       </c>
       <c r="E36" s="58" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F36" s="52" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G36" s="62" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H36" s="63" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="I36" s="48"/>
       <c r="J36" s="11"/>
@@ -2354,7 +2354,7 @@
     </row>
     <row r="37" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="24" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B37" s="64">
         <v>100</v>
@@ -2366,22 +2366,22 @@
         <v>350</v>
       </c>
       <c r="E37" s="27" t="s">
+        <v>136</v>
+      </c>
+      <c r="F37" s="24" t="s">
         <v>137</v>
       </c>
-      <c r="F37" s="24" t="s">
+      <c r="G37" s="67" t="s">
         <v>138</v>
       </c>
-      <c r="G37" s="67" t="s">
+      <c r="H37" s="68" t="s">
         <v>139</v>
-      </c>
-      <c r="H37" s="68" t="s">
-        <v>140</v>
       </c>
       <c r="I37" s="69"/>
     </row>
     <row r="38" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="70" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B38" s="64">
         <v>100</v>
@@ -2393,22 +2393,22 @@
         <v>20</v>
       </c>
       <c r="E38" s="27" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F38" s="24" t="s">
+        <v>141</v>
+      </c>
+      <c r="G38" s="72" t="s">
         <v>142</v>
       </c>
-      <c r="G38" s="72" t="s">
+      <c r="H38" s="73" t="s">
         <v>143</v>
-      </c>
-      <c r="H38" s="73" t="s">
-        <v>144</v>
       </c>
       <c r="I38" s="74"/>
     </row>
     <row r="39" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="24" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B39" s="64">
         <v>100</v>
@@ -2420,21 +2420,21 @@
         <v>20</v>
       </c>
       <c r="E39" s="27" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F39" s="24" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G39" s="72" t="s">
+        <v>142</v>
+      </c>
+      <c r="H39" s="75" t="s">
         <v>143</v>
-      </c>
-      <c r="H39" s="75" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="40" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="76" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B40" s="77">
         <v>1</v>
@@ -2446,21 +2446,21 @@
         <v>125</v>
       </c>
       <c r="E40" s="58" t="s">
+        <v>147</v>
+      </c>
+      <c r="F40" s="58" t="s">
         <v>148</v>
       </c>
-      <c r="F40" s="58" t="s">
+      <c r="G40" s="58" t="s">
         <v>149</v>
       </c>
-      <c r="G40" s="58" t="s">
+      <c r="H40" s="79" t="s">
         <v>150</v>
-      </c>
-      <c r="H40" s="79" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="41" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="76" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B41" s="77">
         <v>1</v>
@@ -2472,21 +2472,21 @@
         <v>125</v>
       </c>
       <c r="E41" s="58" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F41" s="58" t="s">
+        <v>152</v>
+      </c>
+      <c r="G41" s="58" t="s">
+        <v>149</v>
+      </c>
+      <c r="H41" s="79" t="s">
         <v>153</v>
-      </c>
-      <c r="G41" s="58" t="s">
-        <v>150</v>
-      </c>
-      <c r="H41" s="79" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="42" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="82" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B42" s="83">
         <v>1</v>
@@ -2498,21 +2498,21 @@
         <v>40</v>
       </c>
       <c r="E42" s="85" t="s">
+        <v>155</v>
+      </c>
+      <c r="F42" s="85" t="s">
         <v>156</v>
       </c>
-      <c r="F42" s="85" t="s">
+      <c r="G42" s="85" t="s">
         <v>157</v>
       </c>
-      <c r="G42" s="85" t="s">
+      <c r="H42" s="86" t="s">
         <v>158</v>
-      </c>
-      <c r="H42" s="86" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="43" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="87" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B43" s="83">
         <v>1</v>
@@ -2524,21 +2524,21 @@
         <v>40</v>
       </c>
       <c r="E43" s="85" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F43" s="85" t="s">
+        <v>160</v>
+      </c>
+      <c r="G43" s="85" t="s">
+        <v>157</v>
+      </c>
+      <c r="H43" s="86" t="s">
         <v>161</v>
-      </c>
-      <c r="G43" s="85" t="s">
-        <v>158</v>
-      </c>
-      <c r="H43" s="86" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="44" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="87" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B44" s="83">
         <v>1</v>
@@ -2550,21 +2550,21 @@
         <v>40</v>
       </c>
       <c r="E44" s="85" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F44" s="85" t="s">
+        <v>163</v>
+      </c>
+      <c r="G44" s="85" t="s">
+        <v>157</v>
+      </c>
+      <c r="H44" s="86" t="s">
         <v>164</v>
-      </c>
-      <c r="G44" s="85" t="s">
-        <v>158</v>
-      </c>
-      <c r="H44" s="86" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="45" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="87" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B45" s="83">
         <v>1</v>
@@ -2576,21 +2576,21 @@
         <v>40</v>
       </c>
       <c r="E45" s="85" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F45" s="85" t="s">
+        <v>166</v>
+      </c>
+      <c r="G45" s="85" t="s">
+        <v>157</v>
+      </c>
+      <c r="H45" s="86" t="s">
         <v>167</v>
-      </c>
-      <c r="G45" s="85" t="s">
-        <v>158</v>
-      </c>
-      <c r="H45" s="86" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="46" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="88" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B46" s="89">
         <v>100</v>
@@ -2602,19 +2602,19 @@
         <v>250</v>
       </c>
       <c r="E46" s="91" t="s">
+        <v>169</v>
+      </c>
+      <c r="F46" s="91" t="s">
         <v>170</v>
       </c>
-      <c r="F46" s="91" t="s">
+      <c r="G46" s="91" t="s">
         <v>171</v>
       </c>
-      <c r="G46" s="91" t="s">
+      <c r="H46" s="92" t="s">
         <v>172</v>
       </c>
-      <c r="H46" s="92" t="s">
+      <c r="I46" s="93" t="s">
         <v>173</v>
-      </c>
-      <c r="I46" s="93" t="s">
-        <v>174</v>
       </c>
     </row>
   </sheetData>

--- a/data/web-repositorio.xlsx
+++ b/data/web-repositorio.xlsx
@@ -1284,8 +1284,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="G31" sqref="G31"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2360,7 +2360,7 @@
         <v>100</v>
       </c>
       <c r="C37" s="65">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="D37" s="66">
         <v>350</v>

--- a/data/web-repositorio.xlsx
+++ b/data/web-repositorio.xlsx
@@ -1284,8 +1284,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C38" sqref="C38"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9:C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1531,7 +1531,7 @@
         <v>1</v>
       </c>
       <c r="C9" s="26">
-        <v>1800</v>
+        <v>2000</v>
       </c>
       <c r="D9" s="26">
         <v>1</v>
@@ -1562,7 +1562,7 @@
         <v>1</v>
       </c>
       <c r="C10" s="26">
-        <v>1800</v>
+        <v>2000</v>
       </c>
       <c r="D10" s="26">
         <v>1</v>
@@ -1593,7 +1593,7 @@
         <v>1</v>
       </c>
       <c r="C11" s="26">
-        <v>1800</v>
+        <v>2000</v>
       </c>
       <c r="D11" s="26">
         <v>1</v>
@@ -1624,7 +1624,7 @@
         <v>1</v>
       </c>
       <c r="C12" s="26">
-        <v>1800</v>
+        <v>2000</v>
       </c>
       <c r="D12" s="26">
         <v>1</v>
@@ -1655,7 +1655,7 @@
         <v>1</v>
       </c>
       <c r="C13" s="26">
-        <v>1800</v>
+        <v>2000</v>
       </c>
       <c r="D13" s="26">
         <v>1</v>

--- a/data/web-repositorio.xlsx
+++ b/data/web-repositorio.xlsx
@@ -1284,8 +1284,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9:C13"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="C39" sqref="C39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2387,7 +2387,7 @@
         <v>100</v>
       </c>
       <c r="C38" s="71">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="D38" s="66">
         <v>20</v>
@@ -2414,7 +2414,7 @@
         <v>100</v>
       </c>
       <c r="C39" s="66">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="D39" s="66">
         <v>20</v>

--- a/data/web-repositorio.xlsx
+++ b/data/web-repositorio.xlsx
@@ -1284,8 +1284,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C39" sqref="C39"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1803,7 +1803,7 @@
         <v>100</v>
       </c>
       <c r="C18" s="34">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="D18" s="34">
         <v>90</v>
@@ -1832,7 +1832,7 @@
         <v>100</v>
       </c>
       <c r="C19" s="34">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="D19" s="34">
         <v>90</v>
@@ -1861,7 +1861,7 @@
         <v>100</v>
       </c>
       <c r="C20" s="34">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="D20" s="34">
         <v>90</v>
@@ -1891,7 +1891,7 @@
         <v>100</v>
       </c>
       <c r="C21" s="34">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="D21" s="34">
         <v>50</v>
@@ -2039,7 +2039,7 @@
         <v>100</v>
       </c>
       <c r="C26" s="45">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="D26" s="45">
         <v>235</v>

--- a/data/web-repositorio.xlsx
+++ b/data/web-repositorio.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="202">
   <si>
     <t>CARMELITAS BARILOCHE WEB</t>
   </si>
@@ -383,6 +383,9 @@
     <t>cerámica pesebre</t>
   </si>
   <si>
+    <t>Pesebre artesanal - Diseños exclusivos. 14x9,5 cm</t>
+  </si>
+  <si>
     <t>..\..\Pictures\A TRABAJOS WEB\Cerámica\PESEBRES\Pesebre cerámica.jpg</t>
   </si>
   <si>
@@ -566,7 +569,67 @@
     <t>Nuestra Señora de las Nieves, imagen realizada en Cerámica con base de madera, 26,5 alto x 9,5 x 9,5. Advocación muy querida de todos, es también Patrona de nuestra Diócesis de Bariloche.</t>
   </si>
   <si>
-    <t>Pesebre artesanal - Diseños exclusivos. 13x7,5 cm</t>
+    <t>LITÚRGICOS-SACERDOTALES</t>
+  </si>
+  <si>
+    <t>Estola Sacerdotal de telar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Casulla con Estolón de telar </t>
+  </si>
+  <si>
+    <t>casullavioleta</t>
+  </si>
+  <si>
+    <t>Incluye Estola - Adornada con Estolón confeccionado en telar artesanal.</t>
+  </si>
+  <si>
+    <t>Estola Sacerdotal de tela-Bordadas</t>
+  </si>
+  <si>
+    <t>estolatelar-1-</t>
+  </si>
+  <si>
+    <t>estolabordada-1-</t>
+  </si>
+  <si>
+    <t>..\..\..\Pictures\A TRABAJOS WEB\Litúrgicos-Sacerdotales\estolatelar-1-.jpg</t>
+  </si>
+  <si>
+    <t>Corte y confección  propia con hermosos diseños bordados a máquina. Todos los colores litúrgicos.</t>
+  </si>
+  <si>
+    <t>Confeccionada en su totalidad con telar artesanal. De fina lana con diseños exclusivos. Todos los colores litúrgicos.v (12 cm de ancho x 165 cm de largo)</t>
+  </si>
+  <si>
+    <t>estolabordada-2-</t>
+  </si>
+  <si>
+    <t>estolabordada-3-</t>
+  </si>
+  <si>
+    <t>estolabordada-4-</t>
+  </si>
+  <si>
+    <t>Cíngulo</t>
+  </si>
+  <si>
+    <t>cíngulo</t>
+  </si>
+  <si>
+    <t>Confeccionado a mano con hilo macramé. 2,90 mt largo</t>
+  </si>
+  <si>
+    <t>..\..\..\Pictures\A TRABAJOS WEB\Litúrgicos-Sacerdotales\estolabordada-1-.jpg</t>
+  </si>
+  <si>
+    <t>..\..\..\Pictures\A TRABAJOS WEB\Litúrgicos-Sacerdotales\estolabordada-2-.jpg</t>
+  </si>
+  <si>
+    <t>..\..\..\Pictures\A TRABAJOS WEB\Litúrgicos-Sacerdotales\estolabordada-3-.jpg</t>
+  </si>
+  <si>
+    <t>..\Pictures\A TRABAJOS WEB\Litúrgicos-Sacerdotales\cíngulo-1-.jpg</t>
   </si>
 </sst>
 </file>
@@ -628,7 +691,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -692,6 +755,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -836,7 +911,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="95">
+  <cellXfs count="106">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
@@ -978,7 +1053,6 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="1" fontId="0" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
@@ -986,7 +1060,6 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
@@ -1015,6 +1088,33 @@
     <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="1" fontId="0" fillId="13" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="1" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="10" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="11" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="13" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="2" xfId="2" applyFill="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1282,10 +1382,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N46"/>
+  <dimension ref="A1:N54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+    <sheetView tabSelected="1" topLeftCell="C37" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="H46" sqref="H46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1301,14 +1401,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="94" t="s">
+      <c r="A1" s="105" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="94"/>
-      <c r="C1" s="94"/>
-      <c r="D1" s="94"/>
-      <c r="E1" s="94"/>
-      <c r="F1" s="94"/>
+      <c r="B1" s="105"/>
+      <c r="C1" s="105"/>
+      <c r="D1" s="105"/>
+      <c r="E1" s="105"/>
+      <c r="F1" s="105"/>
       <c r="G1" s="4"/>
       <c r="H1" s="5"/>
       <c r="L1" s="4"/>
@@ -2167,10 +2267,10 @@
         <v>118</v>
       </c>
       <c r="G30" s="38" t="s">
-        <v>180</v>
+        <v>119</v>
       </c>
       <c r="H30" s="57" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="I30" s="59"/>
       <c r="J30" s="60"/>
@@ -2179,7 +2279,7 @@
     </row>
     <row r="31" spans="1:14" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="52" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B31" s="53">
         <v>1</v>
@@ -2194,13 +2294,13 @@
         <v>109</v>
       </c>
       <c r="F31" s="52" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="G31" s="38" t="s">
-        <v>121</v>
-      </c>
-      <c r="H31" s="81" t="s">
-        <v>178</v>
+        <v>122</v>
+      </c>
+      <c r="H31" s="79" t="s">
+        <v>179</v>
       </c>
       <c r="I31" s="4"/>
       <c r="J31" s="11"/>
@@ -2208,7 +2308,7 @@
     </row>
     <row r="32" spans="1:14" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="52" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B32" s="53">
         <v>1</v>
@@ -2223,13 +2323,13 @@
         <v>109</v>
       </c>
       <c r="F32" s="52" t="s">
+        <v>177</v>
+      </c>
+      <c r="G32" s="62" t="s">
+        <v>180</v>
+      </c>
+      <c r="H32" s="78" t="s">
         <v>176</v>
-      </c>
-      <c r="G32" s="62" t="s">
-        <v>179</v>
-      </c>
-      <c r="H32" s="80" t="s">
-        <v>175</v>
       </c>
       <c r="I32" s="4"/>
       <c r="J32" s="11"/>
@@ -2237,7 +2337,7 @@
     </row>
     <row r="33" spans="1:12" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="52" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B33" s="53">
         <v>1</v>
@@ -2249,16 +2349,16 @@
         <v>18</v>
       </c>
       <c r="E33" s="58" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F33" s="52" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="G33" s="62" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="H33" s="57" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="I33" s="4"/>
       <c r="J33" s="11"/>
@@ -2266,7 +2366,7 @@
     </row>
     <row r="34" spans="1:12" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="52" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B34" s="53">
         <v>1</v>
@@ -2278,16 +2378,16 @@
         <v>18</v>
       </c>
       <c r="E34" s="58" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F34" s="52" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="G34" s="62" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="H34" s="57" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="I34" s="4"/>
       <c r="J34" s="19"/>
@@ -2295,7 +2395,7 @@
     </row>
     <row r="35" spans="1:12" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="52" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B35" s="53">
         <v>1</v>
@@ -2307,16 +2407,16 @@
         <v>18</v>
       </c>
       <c r="E35" s="58" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F35" s="52" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="G35" s="62" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="H35" s="57" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="I35" s="4"/>
       <c r="J35" s="10"/>
@@ -2324,7 +2424,7 @@
     </row>
     <row r="36" spans="1:12" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="52" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B36" s="53">
         <v>1</v>
@@ -2336,16 +2436,16 @@
         <v>18</v>
       </c>
       <c r="E36" s="58" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F36" s="52" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G36" s="62" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="H36" s="63" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="I36" s="48"/>
       <c r="J36" s="11"/>
@@ -2354,268 +2454,447 @@
     </row>
     <row r="37" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="24" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B37" s="64">
         <v>100</v>
       </c>
-      <c r="C37" s="65">
+      <c r="C37" s="96">
         <v>12000</v>
       </c>
-      <c r="D37" s="66">
+      <c r="D37" s="65">
         <v>350</v>
       </c>
       <c r="E37" s="27" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="F37" s="24" t="s">
-        <v>137</v>
-      </c>
-      <c r="G37" s="67" t="s">
         <v>138</v>
       </c>
-      <c r="H37" s="68" t="s">
+      <c r="G37" s="66" t="s">
         <v>139</v>
       </c>
-      <c r="I37" s="69"/>
+      <c r="H37" s="67" t="s">
+        <v>140</v>
+      </c>
+      <c r="I37" s="68"/>
     </row>
     <row r="38" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="70" t="s">
-        <v>140</v>
+      <c r="A38" s="69" t="s">
+        <v>141</v>
       </c>
       <c r="B38" s="64">
         <v>100</v>
       </c>
-      <c r="C38" s="71">
+      <c r="C38" s="97">
         <v>8000</v>
       </c>
-      <c r="D38" s="66">
+      <c r="D38" s="65">
         <v>20</v>
       </c>
       <c r="E38" s="27" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="F38" s="24" t="s">
-        <v>141</v>
-      </c>
-      <c r="G38" s="72" t="s">
         <v>142</v>
       </c>
-      <c r="H38" s="73" t="s">
+      <c r="G38" s="70" t="s">
         <v>143</v>
       </c>
-      <c r="I38" s="74"/>
+      <c r="H38" s="71" t="s">
+        <v>144</v>
+      </c>
+      <c r="I38" s="72"/>
     </row>
     <row r="39" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="24" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B39" s="64">
         <v>100</v>
       </c>
-      <c r="C39" s="66">
+      <c r="C39" s="97">
         <v>8000</v>
       </c>
-      <c r="D39" s="66">
+      <c r="D39" s="65">
         <v>20</v>
       </c>
       <c r="E39" s="27" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="F39" s="24" t="s">
-        <v>145</v>
-      </c>
-      <c r="G39" s="72" t="s">
-        <v>142</v>
-      </c>
-      <c r="H39" s="75" t="s">
+        <v>146</v>
+      </c>
+      <c r="G39" s="70" t="s">
         <v>143</v>
       </c>
+      <c r="H39" s="73" t="s">
+        <v>144</v>
+      </c>
     </row>
     <row r="40" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="76" t="s">
-        <v>146</v>
-      </c>
-      <c r="B40" s="77">
-        <v>1</v>
-      </c>
-      <c r="C40" s="78">
+      <c r="A40" s="74" t="s">
+        <v>147</v>
+      </c>
+      <c r="B40" s="75">
+        <v>1</v>
+      </c>
+      <c r="C40" s="98">
         <v>10000</v>
       </c>
-      <c r="D40" s="78">
+      <c r="D40" s="76">
         <v>125</v>
       </c>
       <c r="E40" s="58" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="F40" s="58" t="s">
+        <v>149</v>
+      </c>
+      <c r="G40" s="58" t="s">
+        <v>150</v>
+      </c>
+      <c r="H40" s="77" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="74" t="s">
+        <v>152</v>
+      </c>
+      <c r="B41" s="75">
+        <v>1</v>
+      </c>
+      <c r="C41" s="98">
+        <v>10000</v>
+      </c>
+      <c r="D41" s="76">
+        <v>125</v>
+      </c>
+      <c r="E41" s="58" t="s">
         <v>148</v>
       </c>
-      <c r="G40" s="58" t="s">
-        <v>149</v>
-      </c>
-      <c r="H40" s="79" t="s">
+      <c r="F41" s="58" t="s">
+        <v>153</v>
+      </c>
+      <c r="G41" s="58" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="41" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="76" t="s">
-        <v>151</v>
-      </c>
-      <c r="B41" s="77">
-        <v>1</v>
-      </c>
-      <c r="C41" s="78">
+      <c r="H41" s="77" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="80" t="s">
+        <v>155</v>
+      </c>
+      <c r="B42" s="81">
+        <v>1</v>
+      </c>
+      <c r="C42" s="99">
         <v>10000</v>
       </c>
-      <c r="D41" s="78">
-        <v>125</v>
-      </c>
-      <c r="E41" s="58" t="s">
-        <v>147</v>
-      </c>
-      <c r="F41" s="58" t="s">
-        <v>152</v>
-      </c>
-      <c r="G41" s="58" t="s">
-        <v>149</v>
-      </c>
-      <c r="H41" s="79" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="42" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="82" t="s">
-        <v>154</v>
-      </c>
-      <c r="B42" s="83">
-        <v>1</v>
-      </c>
-      <c r="C42" s="84">
+      <c r="D42" s="82">
+        <v>40</v>
+      </c>
+      <c r="E42" s="83" t="s">
+        <v>156</v>
+      </c>
+      <c r="F42" s="83" t="s">
+        <v>157</v>
+      </c>
+      <c r="G42" s="83" t="s">
+        <v>158</v>
+      </c>
+      <c r="H42" s="84" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="85" t="s">
+        <v>160</v>
+      </c>
+      <c r="B43" s="81">
+        <v>1</v>
+      </c>
+      <c r="C43" s="99">
         <v>10000</v>
       </c>
-      <c r="D42" s="84">
+      <c r="D43" s="82">
         <v>40</v>
       </c>
-      <c r="E42" s="85" t="s">
-        <v>155</v>
-      </c>
-      <c r="F42" s="85" t="s">
+      <c r="E43" s="83" t="s">
         <v>156</v>
       </c>
-      <c r="G42" s="85" t="s">
-        <v>157</v>
-      </c>
-      <c r="H42" s="86" t="s">
+      <c r="F43" s="83" t="s">
+        <v>161</v>
+      </c>
+      <c r="G43" s="83" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="43" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="87" t="s">
-        <v>159</v>
-      </c>
-      <c r="B43" s="83">
-        <v>1</v>
-      </c>
-      <c r="C43" s="84">
+      <c r="H43" s="84" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="85" t="s">
+        <v>163</v>
+      </c>
+      <c r="B44" s="81">
+        <v>1</v>
+      </c>
+      <c r="C44" s="99">
         <v>10000</v>
       </c>
-      <c r="D43" s="84">
+      <c r="D44" s="82">
         <v>40</v>
       </c>
-      <c r="E43" s="85" t="s">
-        <v>155</v>
-      </c>
-      <c r="F43" s="85" t="s">
-        <v>160</v>
-      </c>
-      <c r="G43" s="85" t="s">
-        <v>157</v>
-      </c>
-      <c r="H43" s="86" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="44" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="87" t="s">
-        <v>162</v>
-      </c>
-      <c r="B44" s="83">
-        <v>1</v>
-      </c>
-      <c r="C44" s="84">
+      <c r="E44" s="83" t="s">
+        <v>156</v>
+      </c>
+      <c r="F44" s="83" t="s">
+        <v>164</v>
+      </c>
+      <c r="G44" s="83" t="s">
+        <v>158</v>
+      </c>
+      <c r="H44" s="84" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="85" t="s">
+        <v>166</v>
+      </c>
+      <c r="B45" s="81">
+        <v>1</v>
+      </c>
+      <c r="C45" s="99">
         <v>10000</v>
       </c>
-      <c r="D44" s="84">
+      <c r="D45" s="82">
         <v>40</v>
       </c>
-      <c r="E44" s="85" t="s">
-        <v>155</v>
-      </c>
-      <c r="F44" s="85" t="s">
-        <v>163</v>
-      </c>
-      <c r="G44" s="85" t="s">
-        <v>157</v>
-      </c>
-      <c r="H44" s="86" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="45" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="87" t="s">
-        <v>165</v>
-      </c>
-      <c r="B45" s="83">
-        <v>1</v>
-      </c>
-      <c r="C45" s="84">
-        <v>10000</v>
-      </c>
-      <c r="D45" s="84">
-        <v>40</v>
-      </c>
-      <c r="E45" s="85" t="s">
-        <v>155</v>
-      </c>
-      <c r="F45" s="85" t="s">
-        <v>166</v>
-      </c>
-      <c r="G45" s="85" t="s">
-        <v>157</v>
-      </c>
-      <c r="H45" s="86" t="s">
+      <c r="E45" s="83" t="s">
+        <v>156</v>
+      </c>
+      <c r="F45" s="83" t="s">
         <v>167</v>
       </c>
+      <c r="G45" s="83" t="s">
+        <v>158</v>
+      </c>
+      <c r="H45" s="84" t="s">
+        <v>168</v>
+      </c>
     </row>
     <row r="46" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="88" t="s">
-        <v>168</v>
-      </c>
-      <c r="B46" s="89">
+      <c r="A46" s="86" t="s">
+        <v>169</v>
+      </c>
+      <c r="B46" s="87">
         <v>100</v>
       </c>
-      <c r="C46" s="90">
+      <c r="C46" s="100">
         <v>8000</v>
       </c>
-      <c r="D46" s="90">
+      <c r="D46" s="88">
         <v>250</v>
       </c>
-      <c r="E46" s="91" t="s">
-        <v>169</v>
-      </c>
-      <c r="F46" s="91" t="s">
+      <c r="E46" s="89" t="s">
         <v>170</v>
       </c>
-      <c r="G46" s="91" t="s">
+      <c r="F46" s="89" t="s">
         <v>171</v>
       </c>
-      <c r="H46" s="92" t="s">
+      <c r="G46" s="89" t="s">
         <v>172</v>
       </c>
-      <c r="I46" s="93" t="s">
+      <c r="H46" s="90" t="s">
         <v>173</v>
       </c>
+      <c r="I46" s="91" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="86" t="s">
+        <v>195</v>
+      </c>
+      <c r="B47" s="87">
+        <v>1</v>
+      </c>
+      <c r="C47" s="100">
+        <v>35000</v>
+      </c>
+      <c r="D47" s="88">
+        <v>60</v>
+      </c>
+      <c r="E47" s="89" t="s">
+        <v>181</v>
+      </c>
+      <c r="F47" s="89" t="s">
+        <v>196</v>
+      </c>
+      <c r="G47" s="89" t="s">
+        <v>197</v>
+      </c>
+      <c r="H47" s="78" t="s">
+        <v>201</v>
+      </c>
+      <c r="I47" s="91"/>
+    </row>
+    <row r="48" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="95" t="s">
+        <v>182</v>
+      </c>
+      <c r="B48" s="94">
+        <v>1</v>
+      </c>
+      <c r="C48" s="101">
+        <v>80000</v>
+      </c>
+      <c r="D48" s="93">
+        <v>140</v>
+      </c>
+      <c r="E48" s="92" t="s">
+        <v>181</v>
+      </c>
+      <c r="F48" s="92" t="s">
+        <v>187</v>
+      </c>
+      <c r="G48" s="92" t="s">
+        <v>191</v>
+      </c>
+      <c r="H48" s="104" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="95" t="s">
+        <v>186</v>
+      </c>
+      <c r="B49" s="94">
+        <v>10</v>
+      </c>
+      <c r="C49" s="101">
+        <v>60000</v>
+      </c>
+      <c r="D49" s="93"/>
+      <c r="E49" s="92" t="s">
+        <v>181</v>
+      </c>
+      <c r="F49" s="92" t="s">
+        <v>188</v>
+      </c>
+      <c r="G49" s="92" t="s">
+        <v>190</v>
+      </c>
+      <c r="H49" s="78" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="95" t="s">
+        <v>186</v>
+      </c>
+      <c r="B50" s="94">
+        <v>10</v>
+      </c>
+      <c r="C50" s="101">
+        <v>60000</v>
+      </c>
+      <c r="D50" s="93"/>
+      <c r="E50" s="92" t="s">
+        <v>181</v>
+      </c>
+      <c r="F50" s="92" t="s">
+        <v>192</v>
+      </c>
+      <c r="G50" s="92" t="s">
+        <v>190</v>
+      </c>
+      <c r="H50" s="78" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="95" t="s">
+        <v>186</v>
+      </c>
+      <c r="B51" s="94">
+        <v>10</v>
+      </c>
+      <c r="C51" s="101">
+        <v>60000</v>
+      </c>
+      <c r="D51" s="93"/>
+      <c r="E51" s="92" t="s">
+        <v>181</v>
+      </c>
+      <c r="F51" s="92" t="s">
+        <v>193</v>
+      </c>
+      <c r="G51" s="92" t="s">
+        <v>190</v>
+      </c>
+      <c r="H51" s="78" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="95" t="s">
+        <v>186</v>
+      </c>
+      <c r="B52" s="94">
+        <v>10</v>
+      </c>
+      <c r="C52" s="101">
+        <v>60000</v>
+      </c>
+      <c r="D52" s="93"/>
+      <c r="E52" s="92" t="s">
+        <v>181</v>
+      </c>
+      <c r="F52" s="92" t="s">
+        <v>194</v>
+      </c>
+      <c r="G52" s="92" t="s">
+        <v>190</v>
+      </c>
+      <c r="H52" s="92"/>
+    </row>
+    <row r="53" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="95" t="s">
+        <v>183</v>
+      </c>
+      <c r="B53" s="94">
+        <v>0</v>
+      </c>
+      <c r="C53" s="101">
+        <v>200000</v>
+      </c>
+      <c r="D53" s="93"/>
+      <c r="E53" s="92" t="s">
+        <v>181</v>
+      </c>
+      <c r="F53" s="92" t="s">
+        <v>184</v>
+      </c>
+      <c r="G53" s="92" t="s">
+        <v>185</v>
+      </c>
+      <c r="H53" s="92"/>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A54" s="103"/>
+      <c r="B54" s="94"/>
+      <c r="C54" s="101"/>
+      <c r="D54" s="93"/>
+      <c r="E54" s="103"/>
+      <c r="F54" s="103"/>
+      <c r="G54" s="102"/>
+      <c r="H54" s="102"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2662,11 +2941,16 @@
     <hyperlink ref="H43" r:id="rId38"/>
     <hyperlink ref="H44" r:id="rId39"/>
     <hyperlink ref="H45" r:id="rId40"/>
-    <hyperlink ref="H46" r:id="rId41"/>
-    <hyperlink ref="H32" r:id="rId42"/>
-    <hyperlink ref="H31" r:id="rId43"/>
+    <hyperlink ref="H32" r:id="rId41"/>
+    <hyperlink ref="H31" r:id="rId42"/>
+    <hyperlink ref="H48" r:id="rId43"/>
+    <hyperlink ref="H49" r:id="rId44"/>
+    <hyperlink ref="H50" r:id="rId45"/>
+    <hyperlink ref="H51" r:id="rId46"/>
+    <hyperlink ref="H47" r:id="rId47"/>
+    <hyperlink ref="H46" r:id="rId48"/>
   </hyperlinks>
   <pageMargins left="0.196527777777778" right="0.196527777777778" top="0.39374999999999999" bottom="0.196527777777778" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId44"/>
+  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId49"/>
 </worksheet>
 </file>
--- a/data/web-repositorio.xlsx
+++ b/data/web-repositorio.xlsx
@@ -569,9 +569,6 @@
     <t>Nuestra Señora de las Nieves, imagen realizada en Cerámica con base de madera, 26,5 alto x 9,5 x 9,5. Advocación muy querida de todos, es también Patrona de nuestra Diócesis de Bariloche.</t>
   </si>
   <si>
-    <t>LITÚRGICOS-SACERDOTALES</t>
-  </si>
-  <si>
     <t>Estola Sacerdotal de telar</t>
   </si>
   <si>
@@ -614,9 +611,6 @@
     <t>Cíngulo</t>
   </si>
   <si>
-    <t>cíngulo</t>
-  </si>
-  <si>
     <t>Confeccionado a mano con hilo macramé. 2,90 mt largo</t>
   </si>
   <si>
@@ -630,6 +624,12 @@
   </si>
   <si>
     <t>..\Pictures\A TRABAJOS WEB\Litúrgicos-Sacerdotales\cíngulo-1-.jpg</t>
+  </si>
+  <si>
+    <t>cíngulo-1-</t>
+  </si>
+  <si>
+    <t>VARIOS&gt;LITÚRGICOS-SACERDOTALES</t>
   </si>
 </sst>
 </file>
@@ -1384,8 +1384,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C37" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="H46" sqref="H46"/>
+    <sheetView tabSelected="1" topLeftCell="C43" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="E47" sqref="E47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2719,7 +2719,7 @@
     </row>
     <row r="47" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="86" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B47" s="87">
         <v>1</v>
@@ -2731,22 +2731,22 @@
         <v>60</v>
       </c>
       <c r="E47" s="89" t="s">
-        <v>181</v>
+        <v>201</v>
       </c>
       <c r="F47" s="89" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="G47" s="89" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="H47" s="78" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="I47" s="91"/>
     </row>
     <row r="48" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="95" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B48" s="94">
         <v>1</v>
@@ -2758,21 +2758,21 @@
         <v>140</v>
       </c>
       <c r="E48" s="92" t="s">
-        <v>181</v>
+        <v>201</v>
       </c>
       <c r="F48" s="92" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G48" s="92" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="H48" s="104" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="49" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="95" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B49" s="94">
         <v>10</v>
@@ -2782,21 +2782,21 @@
       </c>
       <c r="D49" s="93"/>
       <c r="E49" s="92" t="s">
-        <v>181</v>
+        <v>201</v>
       </c>
       <c r="F49" s="92" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="G49" s="92" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="H49" s="78" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="50" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="95" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B50" s="94">
         <v>10</v>
@@ -2806,21 +2806,21 @@
       </c>
       <c r="D50" s="93"/>
       <c r="E50" s="92" t="s">
-        <v>181</v>
+        <v>201</v>
       </c>
       <c r="F50" s="92" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="G50" s="92" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="H50" s="78" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="51" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="95" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B51" s="94">
         <v>10</v>
@@ -2830,21 +2830,21 @@
       </c>
       <c r="D51" s="93"/>
       <c r="E51" s="92" t="s">
-        <v>181</v>
+        <v>201</v>
       </c>
       <c r="F51" s="92" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="G51" s="92" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="H51" s="78" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="52" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="95" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B52" s="94">
         <v>10</v>
@@ -2854,19 +2854,19 @@
       </c>
       <c r="D52" s="93"/>
       <c r="E52" s="92" t="s">
-        <v>181</v>
+        <v>201</v>
       </c>
       <c r="F52" s="92" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="G52" s="92" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="H52" s="92"/>
     </row>
     <row r="53" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="95" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B53" s="94">
         <v>0</v>
@@ -2876,13 +2876,13 @@
       </c>
       <c r="D53" s="93"/>
       <c r="E53" s="92" t="s">
-        <v>181</v>
+        <v>201</v>
       </c>
       <c r="F53" s="92" t="s">
+        <v>183</v>
+      </c>
+      <c r="G53" s="92" t="s">
         <v>184</v>
-      </c>
-      <c r="G53" s="92" t="s">
-        <v>185</v>
       </c>
       <c r="H53" s="92"/>
     </row>

--- a/data/web-repositorio.xlsx
+++ b/data/web-repositorio.xlsx
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0" iterateDelta="1E-4"/>
+  <calcPr calcId="152511" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="181">
   <si>
     <t>CARMELITAS BARILOCHE WEB</t>
   </si>
@@ -383,9 +383,6 @@
     <t>cerámica pesebre</t>
   </si>
   <si>
-    <t>Pesebre artesanal - Diseños exclusivos. 14x9,5 cm</t>
-  </si>
-  <si>
     <t>..\..\Pictures\A TRABAJOS WEB\Cerámica\PESEBRES\Pesebre cerámica.jpg</t>
   </si>
   <si>
@@ -569,67 +566,7 @@
     <t>Nuestra Señora de las Nieves, imagen realizada en Cerámica con base de madera, 26,5 alto x 9,5 x 9,5. Advocación muy querida de todos, es también Patrona de nuestra Diócesis de Bariloche.</t>
   </si>
   <si>
-    <t>Estola Sacerdotal de telar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Casulla con Estolón de telar </t>
-  </si>
-  <si>
-    <t>casullavioleta</t>
-  </si>
-  <si>
-    <t>Incluye Estola - Adornada con Estolón confeccionado en telar artesanal.</t>
-  </si>
-  <si>
-    <t>Estola Sacerdotal de tela-Bordadas</t>
-  </si>
-  <si>
-    <t>estolatelar-1-</t>
-  </si>
-  <si>
-    <t>estolabordada-1-</t>
-  </si>
-  <si>
-    <t>..\..\..\Pictures\A TRABAJOS WEB\Litúrgicos-Sacerdotales\estolatelar-1-.jpg</t>
-  </si>
-  <si>
-    <t>Corte y confección  propia con hermosos diseños bordados a máquina. Todos los colores litúrgicos.</t>
-  </si>
-  <si>
-    <t>Confeccionada en su totalidad con telar artesanal. De fina lana con diseños exclusivos. Todos los colores litúrgicos.v (12 cm de ancho x 165 cm de largo)</t>
-  </si>
-  <si>
-    <t>estolabordada-2-</t>
-  </si>
-  <si>
-    <t>estolabordada-3-</t>
-  </si>
-  <si>
-    <t>estolabordada-4-</t>
-  </si>
-  <si>
-    <t>Cíngulo</t>
-  </si>
-  <si>
-    <t>Confeccionado a mano con hilo macramé. 2,90 mt largo</t>
-  </si>
-  <si>
-    <t>..\..\..\Pictures\A TRABAJOS WEB\Litúrgicos-Sacerdotales\estolabordada-1-.jpg</t>
-  </si>
-  <si>
-    <t>..\..\..\Pictures\A TRABAJOS WEB\Litúrgicos-Sacerdotales\estolabordada-2-.jpg</t>
-  </si>
-  <si>
-    <t>..\..\..\Pictures\A TRABAJOS WEB\Litúrgicos-Sacerdotales\estolabordada-3-.jpg</t>
-  </si>
-  <si>
-    <t>..\Pictures\A TRABAJOS WEB\Litúrgicos-Sacerdotales\cíngulo-1-.jpg</t>
-  </si>
-  <si>
-    <t>cíngulo-1-</t>
-  </si>
-  <si>
-    <t>VARIOS&gt;LITÚRGICOS-SACERDOTALES</t>
+    <t>Pesebre artesanal - Diseños exclusivos. 13x7,5 cm</t>
   </si>
 </sst>
 </file>
@@ -691,7 +628,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="14">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -755,18 +692,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -911,7 +836,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="106">
+  <cellXfs count="95">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
@@ -1053,6 +978,7 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="1" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="1" fontId="0" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
@@ -1060,6 +986,7 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="1" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
@@ -1088,33 +1015,6 @@
     <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="1" fontId="0" fillId="13" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="1" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="10" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="11" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="13" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="2" xfId="2" applyFill="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1382,10 +1282,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N54"/>
+  <dimension ref="A1:N46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C43" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="E47" sqref="E47"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="H40" sqref="H40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1401,14 +1301,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="105" t="s">
+      <c r="A1" s="94" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="105"/>
-      <c r="C1" s="105"/>
-      <c r="D1" s="105"/>
-      <c r="E1" s="105"/>
-      <c r="F1" s="105"/>
+      <c r="B1" s="94"/>
+      <c r="C1" s="94"/>
+      <c r="D1" s="94"/>
+      <c r="E1" s="94"/>
+      <c r="F1" s="94"/>
       <c r="G1" s="4"/>
       <c r="H1" s="5"/>
       <c r="L1" s="4"/>
@@ -1541,7 +1441,7 @@
         <v>100</v>
       </c>
       <c r="C6" s="26">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="D6" s="26">
         <v>1</v>
@@ -1570,8 +1470,8 @@
       <c r="B7" s="25">
         <v>100</v>
       </c>
-      <c r="C7" s="29">
-        <v>1500</v>
+      <c r="C7" s="26">
+        <v>2000</v>
       </c>
       <c r="D7" s="29">
         <v>1</v>
@@ -1601,7 +1501,7 @@
         <v>100</v>
       </c>
       <c r="C8" s="26">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="D8" s="26">
         <v>2</v>
@@ -1631,7 +1531,7 @@
         <v>1</v>
       </c>
       <c r="C9" s="26">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="D9" s="26">
         <v>1</v>
@@ -1662,7 +1562,7 @@
         <v>1</v>
       </c>
       <c r="C10" s="26">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="D10" s="26">
         <v>1</v>
@@ -1693,7 +1593,7 @@
         <v>1</v>
       </c>
       <c r="C11" s="26">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="D11" s="26">
         <v>1</v>
@@ -1724,7 +1624,7 @@
         <v>1</v>
       </c>
       <c r="C12" s="26">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="D12" s="26">
         <v>1</v>
@@ -1755,7 +1655,7 @@
         <v>1</v>
       </c>
       <c r="C13" s="26">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="D13" s="26">
         <v>1</v>
@@ -2079,7 +1979,7 @@
         <v>100</v>
       </c>
       <c r="C24" s="26">
-        <v>2000</v>
+        <v>2200</v>
       </c>
       <c r="D24" s="26">
         <v>8</v>
@@ -2197,7 +2097,7 @@
         <v>1</v>
       </c>
       <c r="C28" s="54">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="D28" s="54">
         <v>40</v>
@@ -2226,7 +2126,7 @@
         <v>1</v>
       </c>
       <c r="C29" s="54">
-        <v>5000</v>
+        <v>6500</v>
       </c>
       <c r="D29" s="54">
         <v>35</v>
@@ -2267,10 +2167,10 @@
         <v>118</v>
       </c>
       <c r="G30" s="38" t="s">
+        <v>180</v>
+      </c>
+      <c r="H30" s="57" t="s">
         <v>119</v>
-      </c>
-      <c r="H30" s="57" t="s">
-        <v>120</v>
       </c>
       <c r="I30" s="59"/>
       <c r="J30" s="60"/>
@@ -2279,7 +2179,7 @@
     </row>
     <row r="31" spans="1:14" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="52" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B31" s="53">
         <v>1</v>
@@ -2294,13 +2194,13 @@
         <v>109</v>
       </c>
       <c r="F31" s="52" t="s">
+        <v>177</v>
+      </c>
+      <c r="G31" s="38" t="s">
+        <v>121</v>
+      </c>
+      <c r="H31" s="81" t="s">
         <v>178</v>
-      </c>
-      <c r="G31" s="38" t="s">
-        <v>122</v>
-      </c>
-      <c r="H31" s="79" t="s">
-        <v>179</v>
       </c>
       <c r="I31" s="4"/>
       <c r="J31" s="11"/>
@@ -2308,7 +2208,7 @@
     </row>
     <row r="32" spans="1:14" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="52" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B32" s="53">
         <v>1</v>
@@ -2323,13 +2223,13 @@
         <v>109</v>
       </c>
       <c r="F32" s="52" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="G32" s="62" t="s">
-        <v>180</v>
-      </c>
-      <c r="H32" s="78" t="s">
-        <v>176</v>
+        <v>179</v>
+      </c>
+      <c r="H32" s="80" t="s">
+        <v>175</v>
       </c>
       <c r="I32" s="4"/>
       <c r="J32" s="11"/>
@@ -2337,7 +2237,7 @@
     </row>
     <row r="33" spans="1:12" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="52" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B33" s="53">
         <v>1</v>
@@ -2349,16 +2249,16 @@
         <v>18</v>
       </c>
       <c r="E33" s="58" t="s">
+        <v>123</v>
+      </c>
+      <c r="F33" s="52" t="s">
         <v>124</v>
       </c>
-      <c r="F33" s="52" t="s">
+      <c r="G33" s="62" t="s">
         <v>125</v>
       </c>
-      <c r="G33" s="62" t="s">
+      <c r="H33" s="57" t="s">
         <v>126</v>
-      </c>
-      <c r="H33" s="57" t="s">
-        <v>127</v>
       </c>
       <c r="I33" s="4"/>
       <c r="J33" s="11"/>
@@ -2366,7 +2266,7 @@
     </row>
     <row r="34" spans="1:12" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="52" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B34" s="53">
         <v>1</v>
@@ -2378,16 +2278,16 @@
         <v>18</v>
       </c>
       <c r="E34" s="58" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F34" s="52" t="s">
+        <v>128</v>
+      </c>
+      <c r="G34" s="62" t="s">
+        <v>125</v>
+      </c>
+      <c r="H34" s="57" t="s">
         <v>129</v>
-      </c>
-      <c r="G34" s="62" t="s">
-        <v>126</v>
-      </c>
-      <c r="H34" s="57" t="s">
-        <v>130</v>
       </c>
       <c r="I34" s="4"/>
       <c r="J34" s="19"/>
@@ -2395,7 +2295,7 @@
     </row>
     <row r="35" spans="1:12" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="52" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B35" s="53">
         <v>1</v>
@@ -2407,16 +2307,16 @@
         <v>18</v>
       </c>
       <c r="E35" s="58" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F35" s="52" t="s">
+        <v>131</v>
+      </c>
+      <c r="G35" s="62" t="s">
+        <v>125</v>
+      </c>
+      <c r="H35" s="57" t="s">
         <v>132</v>
-      </c>
-      <c r="G35" s="62" t="s">
-        <v>126</v>
-      </c>
-      <c r="H35" s="57" t="s">
-        <v>133</v>
       </c>
       <c r="I35" s="4"/>
       <c r="J35" s="10"/>
@@ -2424,7 +2324,7 @@
     </row>
     <row r="36" spans="1:12" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="52" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B36" s="53">
         <v>1</v>
@@ -2436,16 +2336,16 @@
         <v>18</v>
       </c>
       <c r="E36" s="58" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F36" s="52" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G36" s="62" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H36" s="63" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="I36" s="48"/>
       <c r="J36" s="11"/>
@@ -2454,447 +2354,268 @@
     </row>
     <row r="37" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="24" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B37" s="64">
         <v>100</v>
       </c>
-      <c r="C37" s="96">
+      <c r="C37" s="65">
         <v>12000</v>
       </c>
-      <c r="D37" s="65">
+      <c r="D37" s="66">
         <v>350</v>
       </c>
       <c r="E37" s="27" t="s">
+        <v>136</v>
+      </c>
+      <c r="F37" s="24" t="s">
         <v>137</v>
       </c>
-      <c r="F37" s="24" t="s">
+      <c r="G37" s="67" t="s">
         <v>138</v>
       </c>
-      <c r="G37" s="66" t="s">
+      <c r="H37" s="68" t="s">
         <v>139</v>
       </c>
-      <c r="H37" s="67" t="s">
+      <c r="I37" s="69"/>
+    </row>
+    <row r="38" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="70" t="s">
         <v>140</v>
-      </c>
-      <c r="I37" s="68"/>
-    </row>
-    <row r="38" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="69" t="s">
-        <v>141</v>
       </c>
       <c r="B38" s="64">
         <v>100</v>
       </c>
-      <c r="C38" s="97">
+      <c r="C38" s="71">
         <v>8000</v>
       </c>
-      <c r="D38" s="65">
+      <c r="D38" s="66">
         <v>20</v>
       </c>
       <c r="E38" s="27" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F38" s="24" t="s">
+        <v>141</v>
+      </c>
+      <c r="G38" s="72" t="s">
         <v>142</v>
       </c>
-      <c r="G38" s="70" t="s">
+      <c r="H38" s="73" t="s">
         <v>143</v>
       </c>
-      <c r="H38" s="71" t="s">
-        <v>144</v>
-      </c>
-      <c r="I38" s="72"/>
+      <c r="I38" s="74"/>
     </row>
     <row r="39" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="24" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B39" s="64">
         <v>100</v>
       </c>
-      <c r="C39" s="97">
+      <c r="C39" s="66">
         <v>8000</v>
       </c>
-      <c r="D39" s="65">
+      <c r="D39" s="66">
         <v>20</v>
       </c>
       <c r="E39" s="27" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F39" s="24" t="s">
+        <v>145</v>
+      </c>
+      <c r="G39" s="72" t="s">
+        <v>142</v>
+      </c>
+      <c r="H39" s="75" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="76" t="s">
         <v>146</v>
       </c>
-      <c r="G39" s="70" t="s">
-        <v>143</v>
-      </c>
-      <c r="H39" s="73" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="40" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="74" t="s">
+      <c r="B40" s="77">
+        <v>1</v>
+      </c>
+      <c r="C40" s="78">
+        <v>15000</v>
+      </c>
+      <c r="D40" s="78">
+        <v>125</v>
+      </c>
+      <c r="E40" s="58" t="s">
         <v>147</v>
       </c>
-      <c r="B40" s="75">
-        <v>1</v>
-      </c>
-      <c r="C40" s="98">
+      <c r="F40" s="58" t="s">
+        <v>148</v>
+      </c>
+      <c r="G40" s="58" t="s">
+        <v>149</v>
+      </c>
+      <c r="H40" s="79" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="76" t="s">
+        <v>151</v>
+      </c>
+      <c r="B41" s="77">
+        <v>1</v>
+      </c>
+      <c r="C41" s="78">
+        <v>15000</v>
+      </c>
+      <c r="D41" s="78">
+        <v>125</v>
+      </c>
+      <c r="E41" s="58" t="s">
+        <v>147</v>
+      </c>
+      <c r="F41" s="58" t="s">
+        <v>152</v>
+      </c>
+      <c r="G41" s="58" t="s">
+        <v>149</v>
+      </c>
+      <c r="H41" s="79" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="82" t="s">
+        <v>154</v>
+      </c>
+      <c r="B42" s="83">
+        <v>1</v>
+      </c>
+      <c r="C42" s="84">
         <v>10000</v>
       </c>
-      <c r="D40" s="76">
-        <v>125</v>
-      </c>
-      <c r="E40" s="58" t="s">
-        <v>148</v>
-      </c>
-      <c r="F40" s="58" t="s">
-        <v>149</v>
-      </c>
-      <c r="G40" s="58" t="s">
-        <v>150</v>
-      </c>
-      <c r="H40" s="77" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="41" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="74" t="s">
-        <v>152</v>
-      </c>
-      <c r="B41" s="75">
-        <v>1</v>
-      </c>
-      <c r="C41" s="98">
+      <c r="D42" s="84">
+        <v>40</v>
+      </c>
+      <c r="E42" s="85" t="s">
+        <v>155</v>
+      </c>
+      <c r="F42" s="85" t="s">
+        <v>156</v>
+      </c>
+      <c r="G42" s="85" t="s">
+        <v>157</v>
+      </c>
+      <c r="H42" s="86" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="87" t="s">
+        <v>159</v>
+      </c>
+      <c r="B43" s="83">
+        <v>1</v>
+      </c>
+      <c r="C43" s="84">
         <v>10000</v>
       </c>
-      <c r="D41" s="76">
-        <v>125</v>
-      </c>
-      <c r="E41" s="58" t="s">
-        <v>148</v>
-      </c>
-      <c r="F41" s="58" t="s">
-        <v>153</v>
-      </c>
-      <c r="G41" s="58" t="s">
-        <v>150</v>
-      </c>
-      <c r="H41" s="77" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="42" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="80" t="s">
+      <c r="D43" s="84">
+        <v>40</v>
+      </c>
+      <c r="E43" s="85" t="s">
         <v>155</v>
       </c>
-      <c r="B42" s="81">
-        <v>1</v>
-      </c>
-      <c r="C42" s="99">
+      <c r="F43" s="85" t="s">
+        <v>160</v>
+      </c>
+      <c r="G43" s="85" t="s">
+        <v>157</v>
+      </c>
+      <c r="H43" s="86" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="87" t="s">
+        <v>162</v>
+      </c>
+      <c r="B44" s="83">
+        <v>1</v>
+      </c>
+      <c r="C44" s="84">
         <v>10000</v>
       </c>
-      <c r="D42" s="82">
+      <c r="D44" s="84">
         <v>40</v>
       </c>
-      <c r="E42" s="83" t="s">
-        <v>156</v>
-      </c>
-      <c r="F42" s="83" t="s">
+      <c r="E44" s="85" t="s">
+        <v>155</v>
+      </c>
+      <c r="F44" s="85" t="s">
+        <v>163</v>
+      </c>
+      <c r="G44" s="85" t="s">
         <v>157</v>
       </c>
-      <c r="G42" s="83" t="s">
-        <v>158</v>
-      </c>
-      <c r="H42" s="84" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="43" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="85" t="s">
-        <v>160</v>
-      </c>
-      <c r="B43" s="81">
-        <v>1</v>
-      </c>
-      <c r="C43" s="99">
+      <c r="H44" s="86" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="87" t="s">
+        <v>165</v>
+      </c>
+      <c r="B45" s="83">
+        <v>1</v>
+      </c>
+      <c r="C45" s="84">
         <v>10000</v>
       </c>
-      <c r="D43" s="82">
+      <c r="D45" s="84">
         <v>40</v>
       </c>
-      <c r="E43" s="83" t="s">
-        <v>156</v>
-      </c>
-      <c r="F43" s="83" t="s">
-        <v>161</v>
-      </c>
-      <c r="G43" s="83" t="s">
-        <v>158</v>
-      </c>
-      <c r="H43" s="84" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="44" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="85" t="s">
-        <v>163</v>
-      </c>
-      <c r="B44" s="81">
-        <v>1</v>
-      </c>
-      <c r="C44" s="99">
-        <v>10000</v>
-      </c>
-      <c r="D44" s="82">
-        <v>40</v>
-      </c>
-      <c r="E44" s="83" t="s">
-        <v>156</v>
-      </c>
-      <c r="F44" s="83" t="s">
-        <v>164</v>
-      </c>
-      <c r="G44" s="83" t="s">
-        <v>158</v>
-      </c>
-      <c r="H44" s="84" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="45" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="85" t="s">
+      <c r="E45" s="85" t="s">
+        <v>155</v>
+      </c>
+      <c r="F45" s="85" t="s">
         <v>166</v>
       </c>
-      <c r="B45" s="81">
-        <v>1</v>
-      </c>
-      <c r="C45" s="99">
-        <v>10000</v>
-      </c>
-      <c r="D45" s="82">
-        <v>40</v>
-      </c>
-      <c r="E45" s="83" t="s">
-        <v>156</v>
-      </c>
-      <c r="F45" s="83" t="s">
+      <c r="G45" s="85" t="s">
+        <v>157</v>
+      </c>
+      <c r="H45" s="86" t="s">
         <v>167</v>
       </c>
-      <c r="G45" s="83" t="s">
-        <v>158</v>
-      </c>
-      <c r="H45" s="84" t="s">
+    </row>
+    <row r="46" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="88" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="46" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="86" t="s">
+      <c r="B46" s="89">
+        <v>100</v>
+      </c>
+      <c r="C46" s="90">
+        <v>8000</v>
+      </c>
+      <c r="D46" s="90">
+        <v>250</v>
+      </c>
+      <c r="E46" s="91" t="s">
         <v>169</v>
       </c>
-      <c r="B46" s="87">
-        <v>100</v>
-      </c>
-      <c r="C46" s="100">
-        <v>8000</v>
-      </c>
-      <c r="D46" s="88">
-        <v>250</v>
-      </c>
-      <c r="E46" s="89" t="s">
+      <c r="F46" s="91" t="s">
         <v>170</v>
       </c>
-      <c r="F46" s="89" t="s">
+      <c r="G46" s="91" t="s">
         <v>171</v>
       </c>
-      <c r="G46" s="89" t="s">
+      <c r="H46" s="92" t="s">
         <v>172</v>
       </c>
-      <c r="H46" s="90" t="s">
+      <c r="I46" s="93" t="s">
         <v>173</v>
       </c>
-      <c r="I46" s="91" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="47" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="86" t="s">
-        <v>194</v>
-      </c>
-      <c r="B47" s="87">
-        <v>1</v>
-      </c>
-      <c r="C47" s="100">
-        <v>35000</v>
-      </c>
-      <c r="D47" s="88">
-        <v>60</v>
-      </c>
-      <c r="E47" s="89" t="s">
-        <v>201</v>
-      </c>
-      <c r="F47" s="89" t="s">
-        <v>200</v>
-      </c>
-      <c r="G47" s="89" t="s">
-        <v>195</v>
-      </c>
-      <c r="H47" s="78" t="s">
-        <v>199</v>
-      </c>
-      <c r="I47" s="91"/>
-    </row>
-    <row r="48" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="95" t="s">
-        <v>181</v>
-      </c>
-      <c r="B48" s="94">
-        <v>1</v>
-      </c>
-      <c r="C48" s="101">
-        <v>80000</v>
-      </c>
-      <c r="D48" s="93">
-        <v>140</v>
-      </c>
-      <c r="E48" s="92" t="s">
-        <v>201</v>
-      </c>
-      <c r="F48" s="92" t="s">
-        <v>186</v>
-      </c>
-      <c r="G48" s="92" t="s">
-        <v>190</v>
-      </c>
-      <c r="H48" s="104" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="95" t="s">
-        <v>185</v>
-      </c>
-      <c r="B49" s="94">
-        <v>10</v>
-      </c>
-      <c r="C49" s="101">
-        <v>60000</v>
-      </c>
-      <c r="D49" s="93"/>
-      <c r="E49" s="92" t="s">
-        <v>201</v>
-      </c>
-      <c r="F49" s="92" t="s">
-        <v>187</v>
-      </c>
-      <c r="G49" s="92" t="s">
-        <v>189</v>
-      </c>
-      <c r="H49" s="78" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="95" t="s">
-        <v>185</v>
-      </c>
-      <c r="B50" s="94">
-        <v>10</v>
-      </c>
-      <c r="C50" s="101">
-        <v>60000</v>
-      </c>
-      <c r="D50" s="93"/>
-      <c r="E50" s="92" t="s">
-        <v>201</v>
-      </c>
-      <c r="F50" s="92" t="s">
-        <v>191</v>
-      </c>
-      <c r="G50" s="92" t="s">
-        <v>189</v>
-      </c>
-      <c r="H50" s="78" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="95" t="s">
-        <v>185</v>
-      </c>
-      <c r="B51" s="94">
-        <v>10</v>
-      </c>
-      <c r="C51" s="101">
-        <v>60000</v>
-      </c>
-      <c r="D51" s="93"/>
-      <c r="E51" s="92" t="s">
-        <v>201</v>
-      </c>
-      <c r="F51" s="92" t="s">
-        <v>192</v>
-      </c>
-      <c r="G51" s="92" t="s">
-        <v>189</v>
-      </c>
-      <c r="H51" s="78" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="95" t="s">
-        <v>185</v>
-      </c>
-      <c r="B52" s="94">
-        <v>10</v>
-      </c>
-      <c r="C52" s="101">
-        <v>60000</v>
-      </c>
-      <c r="D52" s="93"/>
-      <c r="E52" s="92" t="s">
-        <v>201</v>
-      </c>
-      <c r="F52" s="92" t="s">
-        <v>193</v>
-      </c>
-      <c r="G52" s="92" t="s">
-        <v>189</v>
-      </c>
-      <c r="H52" s="92"/>
-    </row>
-    <row r="53" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="95" t="s">
-        <v>182</v>
-      </c>
-      <c r="B53" s="94">
-        <v>0</v>
-      </c>
-      <c r="C53" s="101">
-        <v>200000</v>
-      </c>
-      <c r="D53" s="93"/>
-      <c r="E53" s="92" t="s">
-        <v>201</v>
-      </c>
-      <c r="F53" s="92" t="s">
-        <v>183</v>
-      </c>
-      <c r="G53" s="92" t="s">
-        <v>184</v>
-      </c>
-      <c r="H53" s="92"/>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A54" s="103"/>
-      <c r="B54" s="94"/>
-      <c r="C54" s="101"/>
-      <c r="D54" s="93"/>
-      <c r="E54" s="103"/>
-      <c r="F54" s="103"/>
-      <c r="G54" s="102"/>
-      <c r="H54" s="102"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2941,16 +2662,11 @@
     <hyperlink ref="H43" r:id="rId38"/>
     <hyperlink ref="H44" r:id="rId39"/>
     <hyperlink ref="H45" r:id="rId40"/>
-    <hyperlink ref="H32" r:id="rId41"/>
-    <hyperlink ref="H31" r:id="rId42"/>
-    <hyperlink ref="H48" r:id="rId43"/>
-    <hyperlink ref="H49" r:id="rId44"/>
-    <hyperlink ref="H50" r:id="rId45"/>
-    <hyperlink ref="H51" r:id="rId46"/>
-    <hyperlink ref="H47" r:id="rId47"/>
-    <hyperlink ref="H46" r:id="rId48"/>
+    <hyperlink ref="H46" r:id="rId41"/>
+    <hyperlink ref="H32" r:id="rId42"/>
+    <hyperlink ref="H31" r:id="rId43"/>
   </hyperlinks>
   <pageMargins left="0.196527777777778" right="0.196527777777778" top="0.39374999999999999" bottom="0.196527777777778" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId49"/>
+  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId44"/>
 </worksheet>
 </file>
--- a/data/web-repositorio.xlsx
+++ b/data/web-repositorio.xlsx
@@ -1284,8 +1284,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N46"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="H40" sqref="H40"/>
+    <sheetView tabSelected="1" topLeftCell="C43" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="H30" sqref="H30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1381,7 +1381,7 @@
         <v>1</v>
       </c>
       <c r="C4" s="15">
-        <v>2800</v>
+        <v>4000</v>
       </c>
       <c r="D4" s="15">
         <v>20</v>
@@ -1411,7 +1411,7 @@
         <v>1</v>
       </c>
       <c r="C5" s="15">
-        <v>18000</v>
+        <v>24000</v>
       </c>
       <c r="D5" s="15">
         <v>90</v>
